--- a/modules/external-import/external-import-wsj.xlsx
+++ b/modules/external-import/external-import-wsj.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\external-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF9614-6359-4DE2-B58C-C037F697FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776DB8F-6ADE-4370-B2AD-2853CE395C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
   </bookViews>
   <sheets>
     <sheet name="wsj_2021-04-11" sheetId="6" r:id="rId1"/>
     <sheet name="wsj_2021-07-11" sheetId="4" r:id="rId2"/>
     <sheet name="wsj_2021-10-17" sheetId="1" r:id="rId3"/>
     <sheet name="wsj_2022-01-16" sheetId="2" r:id="rId4"/>
+    <sheet name="wsj_2022-04-10" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="105">
   <si>
     <t>2022Q1</t>
   </si>
@@ -344,12 +345,21 @@
   <si>
     <t>unemp</t>
   </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>Bank of America Securities</t>
+  </si>
+  <si>
+    <t>S&amp;P Global Market Intelligence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +377,13 @@
       <sz val="10"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,11 +403,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -398,11 +417,13 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{37673215-CC74-409B-8A0E-7F697930CC37}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{E4989C48-8C80-41E6-9AC2-1E25717941F5}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{C4E7ACB3-1F00-4FD8-B012-2F57AC0EF736}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{8EBEEFE7-9C22-4B09-8037-48C169234D9A}"/>
+    <cellStyle name="Percent 3" xfId="5" xr:uid="{DC91E012-A874-42D8-AB78-792A20290A4E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -18773,8 +18794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EC6099-6558-47E9-8D3F-494B0DCD210D}">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24669,4 +24690,5643 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E37947-8B93-4E68-9592-51DB3BAA2576}">
+  <dimension ref="A1:AD78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="30" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.5211666666666663</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.7255737704918026</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.8609090909090908</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.851454545454545</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.915</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.9249999999999994</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.1659516129032257</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.0135937500000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.5450967741935484</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.6634285714285717</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.5833695652173914</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.5440217391304349</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.217222222222222</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.9750793650793645</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.7977777777777781</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.5614285714285718</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.2754426229508189</v>
+      </c>
+      <c r="S3" s="1">
+        <v>7.5170967741935497</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5.5201562499999994</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3.385555555555555</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2.85952380952381</v>
+      </c>
+      <c r="W3" s="1">
+        <v>2.4688888888888889</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2.3513333333333333</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>3.4421874999999997</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>3.4777777777777783</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>3.5560937500000014</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>3.7393333333333336</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3.7417777777777781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="S4" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="T4" s="1">
+        <v>7</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.756</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="S7" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="S10" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S11" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="S12" s="1">
+        <v>7</v>
+      </c>
+      <c r="T12" s="1">
+        <v>6</v>
+      </c>
+      <c r="U12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="X12" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="S13" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T15" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S16" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="T16" s="1">
+        <v>6</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="V17" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="X18" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="T19" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="V19" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N20" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="T20" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="U20" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="V20" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P21" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="T21" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="U21" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W21" s="1">
+        <v>3</v>
+      </c>
+      <c r="X21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S22" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="T22" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="W22" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S25" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="T25" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="V25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="S26" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="T26" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V26" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X26" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O27" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="P27" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S27" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="T27" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="V27" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R28" s="1">
+        <v>2</v>
+      </c>
+      <c r="S28" s="1">
+        <v>8</v>
+      </c>
+      <c r="T28" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="U28" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="V28" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="S29" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U29" s="1">
+        <v>3</v>
+      </c>
+      <c r="V29" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="W29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X29" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="P30" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S30" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T30" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="V30" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="W30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X30" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R31" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S31" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="T31" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="U31" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="V31" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="S32" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="T32" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="U32" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="V32" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L33" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>2</v>
+      </c>
+      <c r="S33" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="T33" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="V33" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="X33" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S34" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="T34" s="1">
+        <v>7</v>
+      </c>
+      <c r="U34" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="V34" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X34" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="S35" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T35" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="V35" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X35" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="O36" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="S36" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="T36" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U36" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="V36" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="S37" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="T37" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="U37" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V37" s="1">
+        <v>2</v>
+      </c>
+      <c r="W37" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="X37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S38" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="T38" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="U38" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V38" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R39" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O40" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="P40" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="S40" s="1">
+        <v>8.24</v>
+      </c>
+      <c r="T40" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="U40" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="V40" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="S41" s="1">
+        <v>7</v>
+      </c>
+      <c r="T41" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="U41" s="1">
+        <v>4</v>
+      </c>
+      <c r="V41" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2</v>
+      </c>
+      <c r="O42" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="R42" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="T42" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="U42" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="V42" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="W42" s="1">
+        <v>2</v>
+      </c>
+      <c r="X42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="T44" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="V44" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O45" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R45" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="S45" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="T45" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="U45" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V45" s="1">
+        <v>4</v>
+      </c>
+      <c r="W45" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="X45" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3.375</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="M46" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="P46" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="S46" s="1">
+        <v>7</v>
+      </c>
+      <c r="T46" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="U46" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="V46" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W46" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="X46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="M47" s="1">
+        <v>3.375</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>4</v>
+      </c>
+      <c r="P47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>3</v>
+      </c>
+      <c r="R47" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="S47" s="1">
+        <v>7</v>
+      </c>
+      <c r="T47" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="U47" s="1">
+        <v>3</v>
+      </c>
+      <c r="V47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W47" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X47" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O48" s="1">
+        <v>3</v>
+      </c>
+      <c r="P48" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="S48" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="T48" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="U48" s="1">
+        <v>3</v>
+      </c>
+      <c r="V48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W48" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="X48" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="P50" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="R50" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S50" s="1">
+        <v>8</v>
+      </c>
+      <c r="T50" s="1">
+        <v>4</v>
+      </c>
+      <c r="U50" s="1">
+        <v>3</v>
+      </c>
+      <c r="V50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W50" s="1">
+        <v>2</v>
+      </c>
+      <c r="X50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M53" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="R53" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="S53" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="T53" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="U53" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="V53" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W53" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M55" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="P55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>3</v>
+      </c>
+      <c r="R55" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S55" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="T55" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="U55" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="V55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W55" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X55" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P57" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="R57" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>6</v>
+      </c>
+      <c r="T57" s="1">
+        <v>7</v>
+      </c>
+      <c r="U57" s="1">
+        <v>5</v>
+      </c>
+      <c r="V57" s="1">
+        <v>5</v>
+      </c>
+      <c r="W57" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="X57" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="N58" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="O58" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="P58" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="R58" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="S58" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="T58" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="U58" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="V58" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="X58" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M59" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O59" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="R59" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="S59" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="T59" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="U59" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="V59" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W59" s="1">
+        <v>3</v>
+      </c>
+      <c r="X59" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L60" s="1">
+        <v>3.375</v>
+      </c>
+      <c r="M60" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="N60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>6</v>
+      </c>
+      <c r="P60" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>3</v>
+      </c>
+      <c r="R60" s="1">
+        <v>3</v>
+      </c>
+      <c r="S60" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="T60" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="U60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="V60" s="1">
+        <v>2</v>
+      </c>
+      <c r="W60" s="1">
+        <v>2</v>
+      </c>
+      <c r="X60" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="K61" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="L61" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="M61" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="N61" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="P61" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="R61" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S61" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="T61" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="U61" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="V61" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="W61" s="1">
+        <v>3</v>
+      </c>
+      <c r="X61" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M62" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="N62" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="O62" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="P62" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="R62" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S62" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="T62" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="U62" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="V62" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="X62" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K63" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="L63" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="M63" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="O63" s="1">
+        <v>4</v>
+      </c>
+      <c r="P63" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="R63" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S63" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="T63" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="U63" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="V63" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W63" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X63" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P64" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R64" s="1">
+        <v>2</v>
+      </c>
+      <c r="S64" s="1">
+        <v>8</v>
+      </c>
+      <c r="T64" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="U64" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="V64" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W64" s="1">
+        <v>3</v>
+      </c>
+      <c r="X64" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J65" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="L65" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="M65" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P65" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="R65" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="S65" s="1">
+        <v>7</v>
+      </c>
+      <c r="T65" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="U65" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="V65" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="W65" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="X65" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="N66" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P66" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>2</v>
+      </c>
+      <c r="R66" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S66" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="T66" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="U66" s="1">
+        <v>3</v>
+      </c>
+      <c r="V66" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W66" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="X66" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="K67" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O67" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="P67" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R67" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S67" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="T67" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="U67" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="V67" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="J68" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>2</v>
+      </c>
+      <c r="P68" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R68" s="1">
+        <v>2</v>
+      </c>
+      <c r="S68" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T68" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="U68" s="1">
+        <v>5</v>
+      </c>
+      <c r="V68" s="1">
+        <v>4</v>
+      </c>
+      <c r="W68" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="X68" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J69" s="1">
+        <v>3</v>
+      </c>
+      <c r="K69" s="1">
+        <v>3</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="M69" s="1">
+        <v>2</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O69" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S69" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="T69" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="U69" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V69" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W69" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X69" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J70" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K70" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="M70" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P70" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="R70" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S70" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="T70" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="U70" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="V70" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W70" s="1">
+        <v>2</v>
+      </c>
+      <c r="X70" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="J71" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O71" s="1">
+        <v>3</v>
+      </c>
+      <c r="P71" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="R71" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="S71" s="1">
+        <v>7.78</v>
+      </c>
+      <c r="T71" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="U71" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="V71" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="W71" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="X71" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1.675</v>
+      </c>
+      <c r="T72" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="U72" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J73" s="1">
+        <v>3.625</v>
+      </c>
+      <c r="K73" s="1">
+        <v>3.875</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>4</v>
+      </c>
+      <c r="P73" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="S73" s="1">
+        <v>8</v>
+      </c>
+      <c r="T73" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="U73" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="V73" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="J74" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O74" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="P74" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="R74" s="1">
+        <v>2</v>
+      </c>
+      <c r="S74" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="T74" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="U74" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="V74" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2</v>
+      </c>
+      <c r="P75" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R75" s="1">
+        <v>2</v>
+      </c>
+      <c r="S75" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="T75" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="U75" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="V75" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W75" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="X75" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2.125</v>
+      </c>
+      <c r="J76" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K76" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P76" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>3</v>
+      </c>
+      <c r="R76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S76" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="T76" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="U76" s="1">
+        <v>5</v>
+      </c>
+      <c r="V76" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K77" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="L77" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="M77" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="N77" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="O77" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="P77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>2</v>
+      </c>
+      <c r="R77" s="1">
+        <v>2</v>
+      </c>
+      <c r="S77" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="T77" s="1">
+        <v>9</v>
+      </c>
+      <c r="U77" s="1">
+        <v>7</v>
+      </c>
+      <c r="V77" s="1">
+        <v>6</v>
+      </c>
+      <c r="W77" s="1">
+        <v>4</v>
+      </c>
+      <c r="X77" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2.375</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2.875</v>
+      </c>
+      <c r="K78" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="N78" s="1">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="O78" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P78" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R78" s="1">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="S78" s="1">
+        <v>7</v>
+      </c>
+      <c r="T78" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U78" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="V78" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modules/external-import/external-import-wsj.xlsx
+++ b/modules/external-import/external-import-wsj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776DB8F-6ADE-4370-B2AD-2853CE395C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7ED9E-3783-4ACF-923D-F2C376512517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
   </bookViews>
   <sheets>
     <sheet name="wsj_2021-04-11" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="wsj_2021-10-17" sheetId="1" r:id="rId3"/>
     <sheet name="wsj_2022-01-16" sheetId="2" r:id="rId4"/>
     <sheet name="wsj_2022-04-10" sheetId="7" r:id="rId5"/>
+    <sheet name="wsj_2022-07-17" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="107">
   <si>
     <t>2022Q1</t>
   </si>
@@ -353,6 +354,12 @@
   </si>
   <si>
     <t>S&amp;P Global Market Intelligence</t>
+  </si>
+  <si>
+    <t>EY-Parthenon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNC Financial Services Group </t>
   </si>
 </sst>
 </file>
@@ -18795,7 +18802,7 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24696,8 +24703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E37947-8B93-4E68-9592-51DB3BAA2576}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30329,4 +30336,4837 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C548B-E808-471D-B491-E18D6AA7C3D0}">
+  <dimension ref="A1:Z78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>3.32</v>
+      </c>
+      <c r="C3">
+        <v>3.3</v>
+      </c>
+      <c r="D3">
+        <v>3.22</v>
+      </c>
+      <c r="E3">
+        <v>3.21</v>
+      </c>
+      <c r="F3">
+        <v>3.17</v>
+      </c>
+      <c r="G3">
+        <v>3.294</v>
+      </c>
+      <c r="H3">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="I3">
+        <v>3.282</v>
+      </c>
+      <c r="J3">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="K3">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.37</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.83</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>6.85</v>
+      </c>
+      <c r="R3">
+        <v>3.91</v>
+      </c>
+      <c r="S3">
+        <v>2.93</v>
+      </c>
+      <c r="T3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U3">
+        <v>2.31</v>
+      </c>
+      <c r="V3">
+        <v>3.76</v>
+      </c>
+      <c r="W3">
+        <v>4.05</v>
+      </c>
+      <c r="X3">
+        <v>4.28</v>
+      </c>
+      <c r="Y3">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Z3">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>2.87</v>
+      </c>
+      <c r="C4">
+        <v>2.59</v>
+      </c>
+      <c r="D4">
+        <v>2.54</v>
+      </c>
+      <c r="E4">
+        <v>2.54</v>
+      </c>
+      <c r="F4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G4">
+        <v>3.375</v>
+      </c>
+      <c r="H4">
+        <v>3.375</v>
+      </c>
+      <c r="I4">
+        <v>3.375</v>
+      </c>
+      <c r="J4">
+        <v>2.875</v>
+      </c>
+      <c r="K4">
+        <v>2.375</v>
+      </c>
+      <c r="L4">
+        <v>3.3</v>
+      </c>
+      <c r="M4">
+        <v>1.4</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>1.3</v>
+      </c>
+      <c r="P4">
+        <v>1.2</v>
+      </c>
+      <c r="Q4">
+        <v>6.5</v>
+      </c>
+      <c r="R4">
+        <v>2.4</v>
+      </c>
+      <c r="S4">
+        <v>1.7</v>
+      </c>
+      <c r="T4">
+        <v>0.8</v>
+      </c>
+      <c r="U4">
+        <v>0.3</v>
+      </c>
+      <c r="V4">
+        <v>3.6</v>
+      </c>
+      <c r="W4">
+        <v>3.6</v>
+      </c>
+      <c r="X4">
+        <v>3.7</v>
+      </c>
+      <c r="Y4">
+        <v>3.7</v>
+      </c>
+      <c r="Z4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3.93</v>
+      </c>
+      <c r="C5">
+        <v>3.93</v>
+      </c>
+      <c r="D5">
+        <v>3.75</v>
+      </c>
+      <c r="E5">
+        <v>3.42</v>
+      </c>
+      <c r="F5">
+        <v>3.19</v>
+      </c>
+      <c r="G5">
+        <v>3.375</v>
+      </c>
+      <c r="H5">
+        <v>3.375</v>
+      </c>
+      <c r="I5">
+        <v>3.375</v>
+      </c>
+      <c r="J5">
+        <v>2.875</v>
+      </c>
+      <c r="K5">
+        <v>2.875</v>
+      </c>
+      <c r="L5">
+        <v>0.6</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.6</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>7.4</v>
+      </c>
+      <c r="R5">
+        <v>4.5</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V5">
+        <v>3.7</v>
+      </c>
+      <c r="W5">
+        <v>3.9</v>
+      </c>
+      <c r="X5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>3.8</v>
+      </c>
+      <c r="C7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D7">
+        <v>4.18</v>
+      </c>
+      <c r="E7">
+        <v>4.26</v>
+      </c>
+      <c r="F7">
+        <v>4.34</v>
+      </c>
+      <c r="G7">
+        <v>2.625</v>
+      </c>
+      <c r="H7">
+        <v>3.125</v>
+      </c>
+      <c r="I7">
+        <v>3.375</v>
+      </c>
+      <c r="J7">
+        <v>3.375</v>
+      </c>
+      <c r="K7">
+        <v>3.375</v>
+      </c>
+      <c r="L7">
+        <v>1.7</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>2.7</v>
+      </c>
+      <c r="O7">
+        <v>2.1</v>
+      </c>
+      <c r="P7">
+        <v>1.8</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>2.4</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>1.9</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>3.6</v>
+      </c>
+      <c r="W7">
+        <v>3.6</v>
+      </c>
+      <c r="X7">
+        <v>3.5</v>
+      </c>
+      <c r="Y7">
+        <v>3.6</v>
+      </c>
+      <c r="Z7">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2.9</v>
+      </c>
+      <c r="C8">
+        <v>2.8</v>
+      </c>
+      <c r="D8">
+        <v>3.1</v>
+      </c>
+      <c r="E8">
+        <v>3.1</v>
+      </c>
+      <c r="F8">
+        <v>3.25</v>
+      </c>
+      <c r="G8">
+        <v>2.88</v>
+      </c>
+      <c r="H8">
+        <v>2.88</v>
+      </c>
+      <c r="I8">
+        <v>2.38</v>
+      </c>
+      <c r="J8">
+        <v>2.38</v>
+      </c>
+      <c r="K8">
+        <v>2.38</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O8">
+        <v>-1.2</v>
+      </c>
+      <c r="P8">
+        <v>-0.2</v>
+      </c>
+      <c r="Q8">
+        <v>6.9</v>
+      </c>
+      <c r="R8">
+        <v>6.5</v>
+      </c>
+      <c r="S8">
+        <v>4.5</v>
+      </c>
+      <c r="T8">
+        <v>2.7</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>4.5</v>
+      </c>
+      <c r="Z8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3.45</v>
+      </c>
+      <c r="C9">
+        <v>3.65</v>
+      </c>
+      <c r="D9">
+        <v>3.35</v>
+      </c>
+      <c r="E9">
+        <v>3.25</v>
+      </c>
+      <c r="F9">
+        <v>3.1</v>
+      </c>
+      <c r="G9">
+        <v>3.375</v>
+      </c>
+      <c r="H9">
+        <v>3.625</v>
+      </c>
+      <c r="I9">
+        <v>3.375</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>2.75</v>
+      </c>
+      <c r="L9">
+        <v>-1.5</v>
+      </c>
+      <c r="M9">
+        <v>3.5</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1.6</v>
+      </c>
+      <c r="Q9">
+        <v>6.5</v>
+      </c>
+      <c r="R9">
+        <v>3.5</v>
+      </c>
+      <c r="S9">
+        <v>2.8</v>
+      </c>
+      <c r="T9">
+        <v>2.6</v>
+      </c>
+      <c r="U9">
+        <v>2.5</v>
+      </c>
+      <c r="V9">
+        <v>3.7</v>
+      </c>
+      <c r="W9">
+        <v>3.8</v>
+      </c>
+      <c r="X9">
+        <v>3.9</v>
+      </c>
+      <c r="Y9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2.88</v>
+      </c>
+      <c r="C10">
+        <v>2.83</v>
+      </c>
+      <c r="D10">
+        <v>2.8</v>
+      </c>
+      <c r="G10">
+        <v>3.125</v>
+      </c>
+      <c r="H10">
+        <v>3.375</v>
+      </c>
+      <c r="I10">
+        <v>3.375</v>
+      </c>
+      <c r="L10">
+        <v>-2.1</v>
+      </c>
+      <c r="M10">
+        <v>1.5</v>
+      </c>
+      <c r="N10">
+        <v>1.8</v>
+      </c>
+      <c r="O10">
+        <v>1.8</v>
+      </c>
+      <c r="P10">
+        <v>1.9</v>
+      </c>
+      <c r="Q10">
+        <v>6.5</v>
+      </c>
+      <c r="R10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V10">
+        <v>3.5</v>
+      </c>
+      <c r="W10">
+        <v>3.4</v>
+      </c>
+      <c r="X10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>3.65</v>
+      </c>
+      <c r="C11">
+        <v>3.55</v>
+      </c>
+      <c r="D11">
+        <v>3.25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3.125</v>
+      </c>
+      <c r="H11">
+        <v>3.125</v>
+      </c>
+      <c r="I11">
+        <v>2.875</v>
+      </c>
+      <c r="J11">
+        <v>2.625</v>
+      </c>
+      <c r="K11">
+        <v>2.625</v>
+      </c>
+      <c r="L11">
+        <v>1.3</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P11">
+        <v>2.7</v>
+      </c>
+      <c r="Q11">
+        <v>6.5</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>2.5</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1.8</v>
+      </c>
+      <c r="V11">
+        <v>3.8</v>
+      </c>
+      <c r="W11">
+        <v>3.8</v>
+      </c>
+      <c r="X11">
+        <v>3.9</v>
+      </c>
+      <c r="Y11">
+        <v>3.9</v>
+      </c>
+      <c r="Z11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>3.5</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3.5</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3.875</v>
+      </c>
+      <c r="H12">
+        <v>2.875</v>
+      </c>
+      <c r="I12">
+        <v>2.875</v>
+      </c>
+      <c r="J12">
+        <v>3.375</v>
+      </c>
+      <c r="K12">
+        <v>3.875</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R12">
+        <v>3.7</v>
+      </c>
+      <c r="S12">
+        <v>2.9</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>4.5</v>
+      </c>
+      <c r="W12">
+        <v>4.8</v>
+      </c>
+      <c r="X12">
+        <v>4.2</v>
+      </c>
+      <c r="Y12">
+        <v>4.2</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+      <c r="C13">
+        <v>3.25</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2.85</v>
+      </c>
+      <c r="F13">
+        <v>2.78</v>
+      </c>
+      <c r="G13">
+        <v>3.625</v>
+      </c>
+      <c r="H13">
+        <v>3.875</v>
+      </c>
+      <c r="I13">
+        <v>2.125</v>
+      </c>
+      <c r="J13">
+        <v>1.625</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>1.5</v>
+      </c>
+      <c r="N13">
+        <v>1.4</v>
+      </c>
+      <c r="O13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.3</v>
+      </c>
+      <c r="Q13">
+        <v>6.8</v>
+      </c>
+      <c r="R13">
+        <v>2.7</v>
+      </c>
+      <c r="S13">
+        <v>1.6</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>3.5</v>
+      </c>
+      <c r="W13">
+        <v>3.6</v>
+      </c>
+      <c r="X13">
+        <v>3.7</v>
+      </c>
+      <c r="Y13">
+        <v>3.8</v>
+      </c>
+      <c r="Z13">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>3.1</v>
+      </c>
+      <c r="C14">
+        <v>3.1</v>
+      </c>
+      <c r="D14">
+        <v>3.2</v>
+      </c>
+      <c r="E14">
+        <v>3.3</v>
+      </c>
+      <c r="F14">
+        <v>3.3</v>
+      </c>
+      <c r="G14">
+        <v>3.125</v>
+      </c>
+      <c r="H14">
+        <v>3.375</v>
+      </c>
+      <c r="I14">
+        <v>3.625</v>
+      </c>
+      <c r="J14">
+        <v>3.375</v>
+      </c>
+      <c r="K14">
+        <v>3.125</v>
+      </c>
+      <c r="L14">
+        <v>1.3</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.9</v>
+      </c>
+      <c r="Q14">
+        <v>6.5</v>
+      </c>
+      <c r="R14">
+        <v>3.4</v>
+      </c>
+      <c r="S14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T14">
+        <v>1.8</v>
+      </c>
+      <c r="U14">
+        <v>1.6</v>
+      </c>
+      <c r="V14">
+        <v>3.7</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>4.3</v>
+      </c>
+      <c r="Y14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>3.25</v>
+      </c>
+      <c r="C15">
+        <v>3.1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2.75</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>3.375</v>
+      </c>
+      <c r="H15">
+        <v>3.375</v>
+      </c>
+      <c r="I15">
+        <v>2.875</v>
+      </c>
+      <c r="J15">
+        <v>2.375</v>
+      </c>
+      <c r="K15">
+        <v>1.625</v>
+      </c>
+      <c r="L15">
+        <v>0.7</v>
+      </c>
+      <c r="M15">
+        <v>1.4</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>-0.9</v>
+      </c>
+      <c r="P15">
+        <v>-0.5</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>3.8</v>
+      </c>
+      <c r="S15">
+        <v>2.9</v>
+      </c>
+      <c r="T15">
+        <v>2.6</v>
+      </c>
+      <c r="U15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V15">
+        <v>3.6</v>
+      </c>
+      <c r="W15">
+        <v>3.7</v>
+      </c>
+      <c r="X15">
+        <v>3.9</v>
+      </c>
+      <c r="Y15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z15">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>3.8</v>
+      </c>
+      <c r="C16">
+        <v>3.6</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3.875</v>
+      </c>
+      <c r="H16">
+        <v>4.375</v>
+      </c>
+      <c r="I16">
+        <v>3.875</v>
+      </c>
+      <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.7</v>
+      </c>
+      <c r="N16">
+        <v>0.8</v>
+      </c>
+      <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>-2</v>
+      </c>
+      <c r="Q16">
+        <v>8.5</v>
+      </c>
+      <c r="R16">
+        <v>4.5</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>3.5</v>
+      </c>
+      <c r="W16">
+        <v>3.9</v>
+      </c>
+      <c r="X16">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>3.2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>3.1</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2.75</v>
+      </c>
+      <c r="J17">
+        <v>2.5</v>
+      </c>
+      <c r="K17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.5</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7.5</v>
+      </c>
+      <c r="R17">
+        <v>5.5</v>
+      </c>
+      <c r="S17">
+        <v>3.4</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>2.5</v>
+      </c>
+      <c r="V17">
+        <v>3.7</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>4.3</v>
+      </c>
+      <c r="Y17">
+        <v>4.5</v>
+      </c>
+      <c r="Z17">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>3.4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2.8</v>
+      </c>
+      <c r="E18">
+        <v>2.7</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>3.375</v>
+      </c>
+      <c r="H18">
+        <v>3.875</v>
+      </c>
+      <c r="I18">
+        <v>3.875</v>
+      </c>
+      <c r="J18">
+        <v>3.375</v>
+      </c>
+      <c r="K18">
+        <v>2.875</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>1.5</v>
+      </c>
+      <c r="N18">
+        <v>0.5</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>6.9</v>
+      </c>
+      <c r="R18">
+        <v>3.6</v>
+      </c>
+      <c r="S18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U18">
+        <v>2.5</v>
+      </c>
+      <c r="V18">
+        <v>3.8</v>
+      </c>
+      <c r="W18">
+        <v>4.2</v>
+      </c>
+      <c r="X18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z18">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>3.625</v>
+      </c>
+      <c r="H19">
+        <v>3.875</v>
+      </c>
+      <c r="I19">
+        <v>3.875</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
+        <v>2.4</v>
+      </c>
+      <c r="O19">
+        <v>0.9</v>
+      </c>
+      <c r="P19">
+        <v>0.9</v>
+      </c>
+      <c r="Q19">
+        <v>7.9</v>
+      </c>
+      <c r="R19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S19">
+        <v>2.8</v>
+      </c>
+      <c r="V19">
+        <v>3.5</v>
+      </c>
+      <c r="W19">
+        <v>3.6</v>
+      </c>
+      <c r="X19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>3.1</v>
+      </c>
+      <c r="C20">
+        <v>3.1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3.375</v>
+      </c>
+      <c r="H20">
+        <v>3.875</v>
+      </c>
+      <c r="I20">
+        <v>3.875</v>
+      </c>
+      <c r="L20">
+        <v>1.3</v>
+      </c>
+      <c r="M20">
+        <v>1.5</v>
+      </c>
+      <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <v>1.5</v>
+      </c>
+      <c r="P20">
+        <v>1.5</v>
+      </c>
+      <c r="Q20">
+        <v>6.9</v>
+      </c>
+      <c r="R20">
+        <v>3.2</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>3.5</v>
+      </c>
+      <c r="W20">
+        <v>3.5</v>
+      </c>
+      <c r="X20">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>3.1</v>
+      </c>
+      <c r="C21">
+        <v>3.2</v>
+      </c>
+      <c r="D21">
+        <v>2.7</v>
+      </c>
+      <c r="E21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2.875</v>
+      </c>
+      <c r="H21">
+        <v>2.875</v>
+      </c>
+      <c r="I21">
+        <v>2.125</v>
+      </c>
+      <c r="J21">
+        <v>1.625</v>
+      </c>
+      <c r="K21">
+        <v>1.625</v>
+      </c>
+      <c r="L21">
+        <v>-1.5</v>
+      </c>
+      <c r="M21">
+        <v>-2</v>
+      </c>
+      <c r="N21">
+        <v>-2.5</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>7.2</v>
+      </c>
+      <c r="R21">
+        <v>6.3</v>
+      </c>
+      <c r="S21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T21">
+        <v>3.5</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4.8</v>
+      </c>
+      <c r="X21">
+        <v>5.3</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>3.05</v>
+      </c>
+      <c r="C22">
+        <v>2.88</v>
+      </c>
+      <c r="D22">
+        <v>2.67</v>
+      </c>
+      <c r="E22">
+        <v>2.62</v>
+      </c>
+      <c r="F22">
+        <v>2.65</v>
+      </c>
+      <c r="G22">
+        <v>3.38</v>
+      </c>
+      <c r="H22">
+        <v>3.13</v>
+      </c>
+      <c r="I22">
+        <v>2.63</v>
+      </c>
+      <c r="J22">
+        <v>2.38</v>
+      </c>
+      <c r="K22">
+        <v>2.38</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>1.9</v>
+      </c>
+      <c r="N22">
+        <v>-0.5</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.4</v>
+      </c>
+      <c r="Q22">
+        <v>6.1</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T22">
+        <v>1.4</v>
+      </c>
+      <c r="U22">
+        <v>2.1</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>4.8</v>
+      </c>
+      <c r="X22">
+        <v>4.8</v>
+      </c>
+      <c r="Y22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z22">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>3.77</v>
+      </c>
+      <c r="C23">
+        <v>4.33</v>
+      </c>
+      <c r="D23">
+        <v>3.96</v>
+      </c>
+      <c r="E23">
+        <v>3.69</v>
+      </c>
+      <c r="F23">
+        <v>3.57</v>
+      </c>
+      <c r="G23">
+        <v>3.625</v>
+      </c>
+      <c r="H23">
+        <v>3.375</v>
+      </c>
+      <c r="I23">
+        <v>3.125</v>
+      </c>
+      <c r="J23">
+        <v>2.875</v>
+      </c>
+      <c r="K23">
+        <v>2.875</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <v>0.9</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1.5</v>
+      </c>
+      <c r="Q23">
+        <v>6.8</v>
+      </c>
+      <c r="R23">
+        <v>3.6</v>
+      </c>
+      <c r="S23">
+        <v>2.7</v>
+      </c>
+      <c r="T23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
+        <v>4.3</v>
+      </c>
+      <c r="W23">
+        <v>4.7</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z23">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>3.45</v>
+      </c>
+      <c r="C24">
+        <v>3.6</v>
+      </c>
+      <c r="D24">
+        <v>3.7</v>
+      </c>
+      <c r="E24">
+        <v>3.65</v>
+      </c>
+      <c r="F24">
+        <v>3.6</v>
+      </c>
+      <c r="G24">
+        <v>3.25</v>
+      </c>
+      <c r="H24">
+        <v>3.5</v>
+      </c>
+      <c r="L24">
+        <v>-1.8</v>
+      </c>
+      <c r="M24">
+        <v>0.4</v>
+      </c>
+      <c r="N24">
+        <v>0.3</v>
+      </c>
+      <c r="O24">
+        <v>-0.6</v>
+      </c>
+      <c r="P24">
+        <v>-0.2</v>
+      </c>
+      <c r="Q24">
+        <v>7.7</v>
+      </c>
+      <c r="S24">
+        <v>3.2</v>
+      </c>
+      <c r="U24">
+        <v>1.4</v>
+      </c>
+      <c r="V24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+      <c r="X24">
+        <v>5.9</v>
+      </c>
+      <c r="Y24">
+        <v>6.5</v>
+      </c>
+      <c r="Z24">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>3.7</v>
+      </c>
+      <c r="C25">
+        <v>3.6</v>
+      </c>
+      <c r="D25">
+        <v>2.8</v>
+      </c>
+      <c r="E25">
+        <v>2.7</v>
+      </c>
+      <c r="F25">
+        <v>2.7</v>
+      </c>
+      <c r="G25">
+        <v>3.625</v>
+      </c>
+      <c r="H25">
+        <v>3.875</v>
+      </c>
+      <c r="I25">
+        <v>3.375</v>
+      </c>
+      <c r="J25">
+        <v>2.625</v>
+      </c>
+      <c r="K25">
+        <v>2.625</v>
+      </c>
+      <c r="L25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.6</v>
+      </c>
+      <c r="P25">
+        <v>0.8</v>
+      </c>
+      <c r="Q25">
+        <v>8.1</v>
+      </c>
+      <c r="R25">
+        <v>3.6</v>
+      </c>
+      <c r="S25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3.02</v>
+      </c>
+      <c r="G26">
+        <v>3.375</v>
+      </c>
+      <c r="H26">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="I26">
+        <v>3.125</v>
+      </c>
+      <c r="L26">
+        <v>-1.4</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
+        <v>1.6</v>
+      </c>
+      <c r="O26">
+        <v>-0.4</v>
+      </c>
+      <c r="P26">
+        <v>-1.3</v>
+      </c>
+      <c r="Q26">
+        <v>5.7</v>
+      </c>
+      <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>1.6</v>
+      </c>
+      <c r="V26">
+        <v>3.7</v>
+      </c>
+      <c r="W26">
+        <v>4.5</v>
+      </c>
+      <c r="X26">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27">
+        <v>3.22</v>
+      </c>
+      <c r="C27">
+        <v>3.28</v>
+      </c>
+      <c r="D27">
+        <v>3.23</v>
+      </c>
+      <c r="E27">
+        <v>3.12</v>
+      </c>
+      <c r="F27">
+        <v>3.09</v>
+      </c>
+      <c r="G27">
+        <v>3.375</v>
+      </c>
+      <c r="H27">
+        <v>3.625</v>
+      </c>
+      <c r="I27">
+        <v>3.375</v>
+      </c>
+      <c r="J27">
+        <v>2.625</v>
+      </c>
+      <c r="K27">
+        <v>2.625</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2.5</v>
+      </c>
+      <c r="N27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.8</v>
+      </c>
+      <c r="P27">
+        <v>0.8</v>
+      </c>
+      <c r="Q27">
+        <v>5.2</v>
+      </c>
+      <c r="R27">
+        <v>3.2</v>
+      </c>
+      <c r="S27">
+        <v>2.4</v>
+      </c>
+      <c r="T27">
+        <v>2.1</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>3.7</v>
+      </c>
+      <c r="W27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X27">
+        <v>4.2</v>
+      </c>
+      <c r="Y27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>3.3</v>
+      </c>
+      <c r="C28">
+        <v>3.4</v>
+      </c>
+      <c r="D28">
+        <v>3.5</v>
+      </c>
+      <c r="E28">
+        <v>3.4</v>
+      </c>
+      <c r="F28">
+        <v>3.3</v>
+      </c>
+      <c r="G28">
+        <v>3.125</v>
+      </c>
+      <c r="H28">
+        <v>3.625</v>
+      </c>
+      <c r="I28">
+        <v>3.875</v>
+      </c>
+      <c r="J28">
+        <v>3.625</v>
+      </c>
+      <c r="K28">
+        <v>3.375</v>
+      </c>
+      <c r="L28">
+        <v>0.7</v>
+      </c>
+      <c r="M28">
+        <v>-1.3</v>
+      </c>
+      <c r="N28">
+        <v>-0.9</v>
+      </c>
+      <c r="O28">
+        <v>0.8</v>
+      </c>
+      <c r="P28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q28">
+        <v>7.4</v>
+      </c>
+      <c r="R28">
+        <v>3.9</v>
+      </c>
+      <c r="S28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T28">
+        <v>2.1</v>
+      </c>
+      <c r="U28">
+        <v>2.4</v>
+      </c>
+      <c r="V28">
+        <v>3.9</v>
+      </c>
+      <c r="W28">
+        <v>4.3</v>
+      </c>
+      <c r="X28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C29">
+        <v>4.33</v>
+      </c>
+      <c r="D29">
+        <v>4.3</v>
+      </c>
+      <c r="G29">
+        <v>3.125</v>
+      </c>
+      <c r="H29">
+        <v>3.125</v>
+      </c>
+      <c r="I29">
+        <v>3.125</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>1.6</v>
+      </c>
+      <c r="N29">
+        <v>1.5</v>
+      </c>
+      <c r="O29">
+        <v>1.5</v>
+      </c>
+      <c r="P29">
+        <v>1.5</v>
+      </c>
+      <c r="Q29">
+        <v>9.1</v>
+      </c>
+      <c r="R29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S29">
+        <v>3.8</v>
+      </c>
+      <c r="V29">
+        <v>3.5</v>
+      </c>
+      <c r="W29">
+        <v>3.4</v>
+      </c>
+      <c r="X29">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>2.9</v>
+      </c>
+      <c r="C30">
+        <v>2.9</v>
+      </c>
+      <c r="D30">
+        <v>2.9</v>
+      </c>
+      <c r="E30">
+        <v>2.8</v>
+      </c>
+      <c r="F30">
+        <v>2.8</v>
+      </c>
+      <c r="G30">
+        <v>3.375</v>
+      </c>
+      <c r="H30">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="I30">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="J30">
+        <v>3.375</v>
+      </c>
+      <c r="K30">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="L30">
+        <v>1.5</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1.9</v>
+      </c>
+      <c r="O30">
+        <v>1.5</v>
+      </c>
+      <c r="P30">
+        <v>1.5</v>
+      </c>
+      <c r="Q30">
+        <v>5.4</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>2.7</v>
+      </c>
+      <c r="T30">
+        <v>2.4</v>
+      </c>
+      <c r="U30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V30">
+        <v>3.7</v>
+      </c>
+      <c r="W30">
+        <v>3.9</v>
+      </c>
+      <c r="X30">
+        <v>4.3</v>
+      </c>
+      <c r="Y30">
+        <v>4.5</v>
+      </c>
+      <c r="Z30">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>3.2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1.8</v>
+      </c>
+      <c r="E31">
+        <v>2.4</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3.375</v>
+      </c>
+      <c r="H31">
+        <v>2.375</v>
+      </c>
+      <c r="I31">
+        <v>1.375</v>
+      </c>
+      <c r="J31">
+        <v>1.875</v>
+      </c>
+      <c r="K31">
+        <v>2.375</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <v>-1.5</v>
+      </c>
+      <c r="Q31">
+        <v>7.7</v>
+      </c>
+      <c r="R31">
+        <v>4.8</v>
+      </c>
+      <c r="S31">
+        <v>3.1</v>
+      </c>
+      <c r="T31">
+        <v>2.4</v>
+      </c>
+      <c r="U31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V31">
+        <v>3.6</v>
+      </c>
+      <c r="W31">
+        <v>4.8</v>
+      </c>
+      <c r="X31">
+        <v>4.5</v>
+      </c>
+      <c r="Y31">
+        <v>3.7</v>
+      </c>
+      <c r="Z31">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>2.8</v>
+      </c>
+      <c r="C32">
+        <v>2.65</v>
+      </c>
+      <c r="D32">
+        <v>2.6</v>
+      </c>
+      <c r="E32">
+        <v>2.25</v>
+      </c>
+      <c r="F32">
+        <v>2.25</v>
+      </c>
+      <c r="G32">
+        <v>3.125</v>
+      </c>
+      <c r="H32">
+        <v>3.375</v>
+      </c>
+      <c r="I32">
+        <v>3.375</v>
+      </c>
+      <c r="J32">
+        <v>2.625</v>
+      </c>
+      <c r="K32">
+        <v>2.125</v>
+      </c>
+      <c r="L32">
+        <v>0.6</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1.3</v>
+      </c>
+      <c r="O32">
+        <v>1.5</v>
+      </c>
+      <c r="P32">
+        <v>1.9</v>
+      </c>
+      <c r="Q32">
+        <v>7.6</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>3.1</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2.8</v>
+      </c>
+      <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>3.4</v>
+      </c>
+      <c r="X32">
+        <v>3.7</v>
+      </c>
+      <c r="Y32">
+        <v>3.7</v>
+      </c>
+      <c r="Z32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>3.5</v>
+      </c>
+      <c r="C33">
+        <v>3.3</v>
+      </c>
+      <c r="D33">
+        <v>3.25</v>
+      </c>
+      <c r="G33">
+        <v>3.375</v>
+      </c>
+      <c r="H33">
+        <v>3.375</v>
+      </c>
+      <c r="I33">
+        <v>2.875</v>
+      </c>
+      <c r="J33">
+        <v>2.375</v>
+      </c>
+      <c r="L33">
+        <v>-1.5</v>
+      </c>
+      <c r="M33">
+        <v>-0.5</v>
+      </c>
+      <c r="N33">
+        <v>-2</v>
+      </c>
+      <c r="O33">
+        <v>-0.5</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>6.7</v>
+      </c>
+      <c r="R33">
+        <v>3.2</v>
+      </c>
+      <c r="S33">
+        <v>2.6</v>
+      </c>
+      <c r="V33">
+        <v>4.2</v>
+      </c>
+      <c r="W33">
+        <v>4.5</v>
+      </c>
+      <c r="X33">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>3.3</v>
+      </c>
+      <c r="C34">
+        <v>3.15</v>
+      </c>
+      <c r="D34">
+        <v>3.15</v>
+      </c>
+      <c r="E34">
+        <v>3.15</v>
+      </c>
+      <c r="F34">
+        <v>3.15</v>
+      </c>
+      <c r="G34">
+        <v>3.375</v>
+      </c>
+      <c r="H34">
+        <v>3.375</v>
+      </c>
+      <c r="I34">
+        <v>3.375</v>
+      </c>
+      <c r="J34">
+        <v>3.375</v>
+      </c>
+      <c r="K34">
+        <v>3.375</v>
+      </c>
+      <c r="L34">
+        <v>0.7</v>
+      </c>
+      <c r="M34">
+        <v>1.8</v>
+      </c>
+      <c r="N34">
+        <v>0.8</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1.5</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>3.1</v>
+      </c>
+      <c r="S34">
+        <v>2.7</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>2.5</v>
+      </c>
+      <c r="V34">
+        <v>3.6</v>
+      </c>
+      <c r="W34">
+        <v>3.7</v>
+      </c>
+      <c r="X34">
+        <v>3.8</v>
+      </c>
+      <c r="Y34">
+        <v>3.9</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>3.1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2.75</v>
+      </c>
+      <c r="G35">
+        <v>3.375</v>
+      </c>
+      <c r="H35">
+        <v>3.375</v>
+      </c>
+      <c r="I35">
+        <v>3.375</v>
+      </c>
+      <c r="L35">
+        <v>0.4</v>
+      </c>
+      <c r="M35">
+        <v>1.8</v>
+      </c>
+      <c r="N35">
+        <v>0.9</v>
+      </c>
+      <c r="O35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P35">
+        <v>1.6</v>
+      </c>
+      <c r="Q35">
+        <v>7.2</v>
+      </c>
+      <c r="R35">
+        <v>4.7</v>
+      </c>
+      <c r="S35">
+        <v>2.9</v>
+      </c>
+      <c r="V35">
+        <v>3.9</v>
+      </c>
+      <c r="W35">
+        <v>4.5</v>
+      </c>
+      <c r="X35">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3.625</v>
+      </c>
+      <c r="H38">
+        <v>3.375</v>
+      </c>
+      <c r="I38">
+        <v>2.375</v>
+      </c>
+      <c r="J38">
+        <v>1.875</v>
+      </c>
+      <c r="K38">
+        <v>1.875</v>
+      </c>
+      <c r="L38">
+        <v>0.4</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38">
+        <v>0.1</v>
+      </c>
+      <c r="O38">
+        <v>-1.5</v>
+      </c>
+      <c r="P38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q38">
+        <v>7.5</v>
+      </c>
+      <c r="R38">
+        <v>3.6</v>
+      </c>
+      <c r="S38">
+        <v>2.1</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38">
+        <v>1.8</v>
+      </c>
+      <c r="V38">
+        <v>3.8</v>
+      </c>
+      <c r="W38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>2.85</v>
+      </c>
+      <c r="C39">
+        <v>2.75</v>
+      </c>
+      <c r="D39">
+        <v>2.65</v>
+      </c>
+      <c r="E39">
+        <v>2.5</v>
+      </c>
+      <c r="F39">
+        <v>2.25</v>
+      </c>
+      <c r="G39">
+        <v>3.125</v>
+      </c>
+      <c r="H39">
+        <v>3.125</v>
+      </c>
+      <c r="I39">
+        <v>2.625</v>
+      </c>
+      <c r="J39">
+        <v>2.375</v>
+      </c>
+      <c r="K39">
+        <v>1.875</v>
+      </c>
+      <c r="L39">
+        <v>1.4</v>
+      </c>
+      <c r="M39">
+        <v>1.7</v>
+      </c>
+      <c r="N39">
+        <v>1.7</v>
+      </c>
+      <c r="O39">
+        <v>1.8</v>
+      </c>
+      <c r="P39">
+        <v>1.8</v>
+      </c>
+      <c r="Q39">
+        <v>7.6</v>
+      </c>
+      <c r="R39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S39">
+        <v>2.9</v>
+      </c>
+      <c r="T39">
+        <v>1.8</v>
+      </c>
+      <c r="U39">
+        <v>1.7</v>
+      </c>
+      <c r="V39">
+        <v>3.7</v>
+      </c>
+      <c r="W39">
+        <v>3.9</v>
+      </c>
+      <c r="X39">
+        <v>4.2</v>
+      </c>
+      <c r="Y39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z39">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40">
+        <v>3.375</v>
+      </c>
+      <c r="H40">
+        <v>3.875</v>
+      </c>
+      <c r="I40">
+        <v>3.875</v>
+      </c>
+      <c r="L40">
+        <v>0.8</v>
+      </c>
+      <c r="M40">
+        <v>0.5</v>
+      </c>
+      <c r="N40">
+        <v>-0.2</v>
+      </c>
+      <c r="O40">
+        <v>-0.4</v>
+      </c>
+      <c r="P40">
+        <v>0.4</v>
+      </c>
+      <c r="V40">
+        <v>3.6</v>
+      </c>
+      <c r="W40">
+        <v>3.7</v>
+      </c>
+      <c r="X40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>2.8</v>
+      </c>
+      <c r="C42">
+        <v>2.9</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>3.125</v>
+      </c>
+      <c r="H42">
+        <v>3.875</v>
+      </c>
+      <c r="I42">
+        <v>3.875</v>
+      </c>
+      <c r="J42">
+        <v>3.625</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>0.5</v>
+      </c>
+      <c r="N42">
+        <v>0.5</v>
+      </c>
+      <c r="Q42">
+        <v>6.8</v>
+      </c>
+      <c r="R42">
+        <v>5.2</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <v>3.5</v>
+      </c>
+      <c r="W42">
+        <v>3.7</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43">
+        <v>3.875</v>
+      </c>
+      <c r="H43">
+        <v>4.125</v>
+      </c>
+      <c r="I43">
+        <v>3.125</v>
+      </c>
+      <c r="J43">
+        <v>2.875</v>
+      </c>
+      <c r="K43">
+        <v>2.875</v>
+      </c>
+      <c r="L43">
+        <v>-2.1</v>
+      </c>
+      <c r="M43">
+        <v>0.9</v>
+      </c>
+      <c r="N43">
+        <v>1.3</v>
+      </c>
+      <c r="O43">
+        <v>1.4</v>
+      </c>
+      <c r="P43">
+        <v>1.7</v>
+      </c>
+      <c r="Q43">
+        <v>6.6</v>
+      </c>
+      <c r="R43">
+        <v>3.9</v>
+      </c>
+      <c r="S43">
+        <v>2.9</v>
+      </c>
+      <c r="T43">
+        <v>2.7</v>
+      </c>
+      <c r="U43">
+        <v>2.6</v>
+      </c>
+      <c r="V43">
+        <v>4</v>
+      </c>
+      <c r="W43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X43">
+        <v>4.5</v>
+      </c>
+      <c r="Y43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z43">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C46">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D46">
+        <v>4.59</v>
+      </c>
+      <c r="E46">
+        <v>4.41</v>
+      </c>
+      <c r="F46">
+        <v>4.05</v>
+      </c>
+      <c r="G46">
+        <v>3.125</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>3.875</v>
+      </c>
+      <c r="J46">
+        <v>3.75</v>
+      </c>
+      <c r="K46">
+        <v>3.375</v>
+      </c>
+      <c r="L46">
+        <v>-0.3</v>
+      </c>
+      <c r="M46">
+        <v>0.7</v>
+      </c>
+      <c r="N46">
+        <v>0.2</v>
+      </c>
+      <c r="O46">
+        <v>-1.5</v>
+      </c>
+      <c r="P46">
+        <v>-0.1</v>
+      </c>
+      <c r="Q46">
+        <v>4.5</v>
+      </c>
+      <c r="R46">
+        <v>3.8</v>
+      </c>
+      <c r="S46">
+        <v>2.6</v>
+      </c>
+      <c r="T46">
+        <v>2.4</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>3.8</v>
+      </c>
+      <c r="W46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X46">
+        <v>4.2</v>
+      </c>
+      <c r="Y46">
+        <v>4</v>
+      </c>
+      <c r="Z46">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>4.7</v>
+      </c>
+      <c r="C47">
+        <v>4.8</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F47">
+        <v>4.3</v>
+      </c>
+      <c r="G47">
+        <v>3.375</v>
+      </c>
+      <c r="H47">
+        <v>3.875</v>
+      </c>
+      <c r="I47">
+        <v>4.375</v>
+      </c>
+      <c r="J47">
+        <v>4.375</v>
+      </c>
+      <c r="K47">
+        <v>3.875</v>
+      </c>
+      <c r="L47">
+        <v>0.5</v>
+      </c>
+      <c r="M47">
+        <v>0.7</v>
+      </c>
+      <c r="N47">
+        <v>0.6</v>
+      </c>
+      <c r="O47">
+        <v>-0.2</v>
+      </c>
+      <c r="P47">
+        <v>-0.9</v>
+      </c>
+      <c r="Q47">
+        <v>6.9</v>
+      </c>
+      <c r="R47">
+        <v>3.7</v>
+      </c>
+      <c r="S47">
+        <v>2.7</v>
+      </c>
+      <c r="T47">
+        <v>2.4</v>
+      </c>
+      <c r="U47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V47">
+        <v>3.8</v>
+      </c>
+      <c r="W47">
+        <v>4.2</v>
+      </c>
+      <c r="X47">
+        <v>4.8</v>
+      </c>
+      <c r="Y47">
+        <v>5</v>
+      </c>
+      <c r="Z47">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>3.4</v>
+      </c>
+      <c r="C53">
+        <v>3.4</v>
+      </c>
+      <c r="D53">
+        <v>3.35</v>
+      </c>
+      <c r="E53">
+        <v>3.15</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>3.375</v>
+      </c>
+      <c r="H53">
+        <v>3.375</v>
+      </c>
+      <c r="I53">
+        <v>3.375</v>
+      </c>
+      <c r="J53">
+        <v>2.875</v>
+      </c>
+      <c r="K53">
+        <v>2.375</v>
+      </c>
+      <c r="L53">
+        <v>1.5</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0.3</v>
+      </c>
+      <c r="O53">
+        <v>0.3</v>
+      </c>
+      <c r="P53">
+        <v>1.8</v>
+      </c>
+      <c r="Q53">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R53">
+        <v>4.7</v>
+      </c>
+      <c r="S53">
+        <v>3.3</v>
+      </c>
+      <c r="T53">
+        <v>2.6</v>
+      </c>
+      <c r="U53">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V53">
+        <v>3.9</v>
+      </c>
+      <c r="W53">
+        <v>4.3</v>
+      </c>
+      <c r="X53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z53">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54">
+        <v>2.94</v>
+      </c>
+      <c r="C54">
+        <v>2.94</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>3.05</v>
+      </c>
+      <c r="F54">
+        <v>3.08</v>
+      </c>
+      <c r="G54">
+        <v>3.375</v>
+      </c>
+      <c r="H54">
+        <v>3.375</v>
+      </c>
+      <c r="I54">
+        <v>3.375</v>
+      </c>
+      <c r="J54">
+        <v>3.125</v>
+      </c>
+      <c r="K54">
+        <v>2.625</v>
+      </c>
+      <c r="L54">
+        <v>-1.8</v>
+      </c>
+      <c r="M54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N54">
+        <v>1.7</v>
+      </c>
+      <c r="O54">
+        <v>1.4</v>
+      </c>
+      <c r="P54">
+        <v>1.5</v>
+      </c>
+      <c r="Q54">
+        <v>5.7</v>
+      </c>
+      <c r="R54">
+        <v>1.4</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>1.9</v>
+      </c>
+      <c r="U54">
+        <v>1.5</v>
+      </c>
+      <c r="V54">
+        <v>3.9</v>
+      </c>
+      <c r="W54">
+        <v>4.3</v>
+      </c>
+      <c r="X54">
+        <v>4.7</v>
+      </c>
+      <c r="Y54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z54">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>3.5</v>
+      </c>
+      <c r="C55">
+        <v>3.5</v>
+      </c>
+      <c r="D55">
+        <v>3.5</v>
+      </c>
+      <c r="E55">
+        <v>3.25</v>
+      </c>
+      <c r="F55">
+        <v>3.25</v>
+      </c>
+      <c r="G55">
+        <v>3.375</v>
+      </c>
+      <c r="H55">
+        <v>3.625</v>
+      </c>
+      <c r="I55">
+        <v>3.625</v>
+      </c>
+      <c r="J55">
+        <v>3.375</v>
+      </c>
+      <c r="K55">
+        <v>3.125</v>
+      </c>
+      <c r="L55">
+        <v>0.2</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1.5</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>3.5</v>
+      </c>
+      <c r="S55">
+        <v>3</v>
+      </c>
+      <c r="T55">
+        <v>2.4</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>3.8</v>
+      </c>
+      <c r="W55">
+        <v>3.6</v>
+      </c>
+      <c r="X55">
+        <v>3.5</v>
+      </c>
+      <c r="Y55">
+        <v>3.5</v>
+      </c>
+      <c r="Z55">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>3.68</v>
+      </c>
+      <c r="C57">
+        <v>4.2</v>
+      </c>
+      <c r="D57">
+        <v>4.3</v>
+      </c>
+      <c r="E57">
+        <v>4.7</v>
+      </c>
+      <c r="F57">
+        <v>4.8</v>
+      </c>
+      <c r="G57">
+        <v>2.875</v>
+      </c>
+      <c r="H57">
+        <v>3.375</v>
+      </c>
+      <c r="I57">
+        <v>3.875</v>
+      </c>
+      <c r="J57">
+        <v>4.125</v>
+      </c>
+      <c r="K57">
+        <v>4.125</v>
+      </c>
+      <c r="L57">
+        <v>1.4</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0.4</v>
+      </c>
+      <c r="O57">
+        <v>0.4</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>3.6</v>
+      </c>
+      <c r="R57">
+        <v>3.6</v>
+      </c>
+      <c r="S57">
+        <v>4.8</v>
+      </c>
+      <c r="T57">
+        <v>3.7</v>
+      </c>
+      <c r="U57">
+        <v>3.7</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>4.3</v>
+      </c>
+      <c r="X57">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y57">
+        <v>4</v>
+      </c>
+      <c r="Z57">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>2.95</v>
+      </c>
+      <c r="C58">
+        <v>3.1</v>
+      </c>
+      <c r="D58">
+        <v>3.05</v>
+      </c>
+      <c r="E58">
+        <v>3.31</v>
+      </c>
+      <c r="F58">
+        <v>3.55</v>
+      </c>
+      <c r="G58">
+        <v>2.875</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>3.2</v>
+      </c>
+      <c r="J58">
+        <v>3.25</v>
+      </c>
+      <c r="K58">
+        <v>3.5</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
+      </c>
+      <c r="M58">
+        <v>0.9</v>
+      </c>
+      <c r="N58">
+        <v>1.4</v>
+      </c>
+      <c r="O58">
+        <v>1.8</v>
+      </c>
+      <c r="P58">
+        <v>1.9</v>
+      </c>
+      <c r="Q58">
+        <v>6.3</v>
+      </c>
+      <c r="R58">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T58">
+        <v>3.1</v>
+      </c>
+      <c r="U58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W58">
+        <v>3.9</v>
+      </c>
+      <c r="X58">
+        <v>4</v>
+      </c>
+      <c r="Y58">
+        <v>3.9</v>
+      </c>
+      <c r="Z58">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>3.85</v>
+      </c>
+      <c r="C59">
+        <v>3.85</v>
+      </c>
+      <c r="D59">
+        <v>3.65</v>
+      </c>
+      <c r="G59">
+        <v>3.625</v>
+      </c>
+      <c r="H59">
+        <v>4.125</v>
+      </c>
+      <c r="I59">
+        <v>2.625</v>
+      </c>
+      <c r="J59">
+        <v>2.625</v>
+      </c>
+      <c r="K59">
+        <v>2.625</v>
+      </c>
+      <c r="L59">
+        <v>-0.6</v>
+      </c>
+      <c r="M59">
+        <v>2.8</v>
+      </c>
+      <c r="N59">
+        <v>1.8</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0.3</v>
+      </c>
+      <c r="Q59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R59">
+        <v>5.3</v>
+      </c>
+      <c r="S59">
+        <v>3.9</v>
+      </c>
+      <c r="T59">
+        <v>3.3</v>
+      </c>
+      <c r="U59">
+        <v>2.9</v>
+      </c>
+      <c r="V59">
+        <v>3.6</v>
+      </c>
+      <c r="W59">
+        <v>4.2</v>
+      </c>
+      <c r="X59">
+        <v>5.5</v>
+      </c>
+      <c r="Y59">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z59">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>2.95</v>
+      </c>
+      <c r="C60">
+        <v>3.2</v>
+      </c>
+      <c r="D60">
+        <v>3.5</v>
+      </c>
+      <c r="E60">
+        <v>3.6</v>
+      </c>
+      <c r="F60">
+        <v>3.75</v>
+      </c>
+      <c r="G60">
+        <v>3.125</v>
+      </c>
+      <c r="H60">
+        <v>3.375</v>
+      </c>
+      <c r="I60">
+        <v>3.875</v>
+      </c>
+      <c r="J60">
+        <v>4.125</v>
+      </c>
+      <c r="K60">
+        <v>4.375</v>
+      </c>
+      <c r="L60">
+        <v>-1</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q60">
+        <v>6.7</v>
+      </c>
+      <c r="R60">
+        <v>1.5</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
+        <v>3.5</v>
+      </c>
+      <c r="W60">
+        <v>3.6</v>
+      </c>
+      <c r="X60">
+        <v>3.7</v>
+      </c>
+      <c r="Y60">
+        <v>3.5</v>
+      </c>
+      <c r="Z60">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>3.75</v>
+      </c>
+      <c r="C61">
+        <v>4.12</v>
+      </c>
+      <c r="D61">
+        <v>4.45</v>
+      </c>
+      <c r="E61">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F61">
+        <v>3.85</v>
+      </c>
+      <c r="G61">
+        <v>3.37</v>
+      </c>
+      <c r="H61">
+        <v>3.87</v>
+      </c>
+      <c r="I61">
+        <v>4.37</v>
+      </c>
+      <c r="J61">
+        <v>4.37</v>
+      </c>
+      <c r="K61">
+        <v>3.87</v>
+      </c>
+      <c r="L61">
+        <v>2.5</v>
+      </c>
+      <c r="M61">
+        <v>3.2</v>
+      </c>
+      <c r="N61">
+        <v>3.5</v>
+      </c>
+      <c r="O61">
+        <v>2.1</v>
+      </c>
+      <c r="P61">
+        <v>1.9</v>
+      </c>
+      <c r="Q61">
+        <v>6.8</v>
+      </c>
+      <c r="R61">
+        <v>6.1</v>
+      </c>
+      <c r="S61">
+        <v>5.3</v>
+      </c>
+      <c r="T61">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U61">
+        <v>3.2</v>
+      </c>
+      <c r="V61">
+        <v>3.8</v>
+      </c>
+      <c r="W61">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X61">
+        <v>4.3</v>
+      </c>
+      <c r="Y61">
+        <v>4.8</v>
+      </c>
+      <c r="Z61">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>3.09</v>
+      </c>
+      <c r="C62">
+        <v>3.18</v>
+      </c>
+      <c r="D62">
+        <v>2.93</v>
+      </c>
+      <c r="E62">
+        <v>2.75</v>
+      </c>
+      <c r="F62">
+        <v>2.58</v>
+      </c>
+      <c r="G62">
+        <v>3.375</v>
+      </c>
+      <c r="H62">
+        <v>3.125</v>
+      </c>
+      <c r="I62">
+        <v>2.625</v>
+      </c>
+      <c r="J62">
+        <v>2.375</v>
+      </c>
+      <c r="K62">
+        <v>2.375</v>
+      </c>
+      <c r="L62">
+        <v>1.9</v>
+      </c>
+      <c r="M62">
+        <v>3.5</v>
+      </c>
+      <c r="N62">
+        <v>3.6</v>
+      </c>
+      <c r="O62">
+        <v>3.5</v>
+      </c>
+      <c r="P62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q62">
+        <v>4.2</v>
+      </c>
+      <c r="R62">
+        <v>3.5</v>
+      </c>
+      <c r="S62">
+        <v>2.8</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V62">
+        <v>3.5</v>
+      </c>
+      <c r="W62">
+        <v>3.3</v>
+      </c>
+      <c r="X62">
+        <v>3.1</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>2.8</v>
+      </c>
+      <c r="C63">
+        <v>2.7</v>
+      </c>
+      <c r="D63">
+        <v>2.6</v>
+      </c>
+      <c r="E63">
+        <v>2.5</v>
+      </c>
+      <c r="F63">
+        <v>2.4</v>
+      </c>
+      <c r="G63">
+        <v>2.625</v>
+      </c>
+      <c r="H63">
+        <v>2.625</v>
+      </c>
+      <c r="I63">
+        <v>2.375</v>
+      </c>
+      <c r="J63">
+        <v>2.125</v>
+      </c>
+      <c r="K63">
+        <v>1.625</v>
+      </c>
+      <c r="L63">
+        <v>-0.3</v>
+      </c>
+      <c r="M63">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N63">
+        <v>-0.8</v>
+      </c>
+      <c r="O63">
+        <v>-0.1</v>
+      </c>
+      <c r="P63">
+        <v>-0.1</v>
+      </c>
+      <c r="Q63">
+        <v>7.7</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="S63">
+        <v>3</v>
+      </c>
+      <c r="T63">
+        <v>1.8</v>
+      </c>
+      <c r="U63">
+        <v>1.5</v>
+      </c>
+      <c r="V63">
+        <v>4.3</v>
+      </c>
+      <c r="W63">
+        <v>5.2</v>
+      </c>
+      <c r="X63">
+        <v>6</v>
+      </c>
+      <c r="Y63">
+        <v>6.4</v>
+      </c>
+      <c r="Z63">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>3.25</v>
+      </c>
+      <c r="C64">
+        <v>3.5</v>
+      </c>
+      <c r="D64">
+        <v>3.75</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>4.25</v>
+      </c>
+      <c r="G64">
+        <v>3.375</v>
+      </c>
+      <c r="H64">
+        <v>3.875</v>
+      </c>
+      <c r="I64">
+        <v>4.125</v>
+      </c>
+      <c r="J64">
+        <v>4.375</v>
+      </c>
+      <c r="K64">
+        <v>4.625</v>
+      </c>
+      <c r="L64">
+        <v>-1</v>
+      </c>
+      <c r="M64">
+        <v>1.5</v>
+      </c>
+      <c r="N64">
+        <v>2.5</v>
+      </c>
+      <c r="O64">
+        <v>2.7</v>
+      </c>
+      <c r="P64">
+        <v>2.4</v>
+      </c>
+      <c r="Q64">
+        <v>8.5</v>
+      </c>
+      <c r="R64">
+        <v>5.5</v>
+      </c>
+      <c r="S64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T64">
+        <v>5</v>
+      </c>
+      <c r="U64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V64">
+        <v>4</v>
+      </c>
+      <c r="W64">
+        <v>4.2</v>
+      </c>
+      <c r="X64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z64">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>3.9</v>
+      </c>
+      <c r="C65">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D65">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E65">
+        <v>4.2</v>
+      </c>
+      <c r="F65">
+        <v>3.9</v>
+      </c>
+      <c r="G65">
+        <v>3.625</v>
+      </c>
+      <c r="H65">
+        <v>4.625</v>
+      </c>
+      <c r="I65">
+        <v>4.625</v>
+      </c>
+      <c r="J65">
+        <v>4.625</v>
+      </c>
+      <c r="K65">
+        <v>3.625</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>3.2</v>
+      </c>
+      <c r="O65">
+        <v>2.8</v>
+      </c>
+      <c r="P65">
+        <v>2.7</v>
+      </c>
+      <c r="Q65">
+        <v>7.6</v>
+      </c>
+      <c r="R65">
+        <v>4.2</v>
+      </c>
+      <c r="S65">
+        <v>3.6</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>2.6</v>
+      </c>
+      <c r="V65">
+        <v>3.3</v>
+      </c>
+      <c r="W65">
+        <v>3.1</v>
+      </c>
+      <c r="X65">
+        <v>3.1</v>
+      </c>
+      <c r="Y65">
+        <v>3.2</v>
+      </c>
+      <c r="Z65">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>2.9</v>
+      </c>
+      <c r="C66">
+        <v>2.7</v>
+      </c>
+      <c r="D66">
+        <v>2.5</v>
+      </c>
+      <c r="E66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G66">
+        <v>2.13</v>
+      </c>
+      <c r="H66">
+        <v>1.88</v>
+      </c>
+      <c r="I66">
+        <v>1.88</v>
+      </c>
+      <c r="J66">
+        <v>1.65</v>
+      </c>
+      <c r="K66">
+        <v>1.65</v>
+      </c>
+      <c r="L66">
+        <v>-2.7</v>
+      </c>
+      <c r="M66">
+        <v>0.9</v>
+      </c>
+      <c r="N66">
+        <v>1.9</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>2.7</v>
+      </c>
+      <c r="Q66">
+        <v>5.7</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>2.7</v>
+      </c>
+      <c r="T66">
+        <v>2.5</v>
+      </c>
+      <c r="U66">
+        <v>2.6</v>
+      </c>
+      <c r="V66">
+        <v>3.7</v>
+      </c>
+      <c r="W66">
+        <v>3.4</v>
+      </c>
+      <c r="X66">
+        <v>3.3</v>
+      </c>
+      <c r="Y66">
+        <v>3.4</v>
+      </c>
+      <c r="Z66">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68">
+        <v>3.45</v>
+      </c>
+      <c r="C68">
+        <v>3.7</v>
+      </c>
+      <c r="D68">
+        <v>3.75</v>
+      </c>
+      <c r="E68">
+        <v>3.55</v>
+      </c>
+      <c r="F68">
+        <v>3.4</v>
+      </c>
+      <c r="G68">
+        <v>3.125</v>
+      </c>
+      <c r="H68">
+        <v>3.625</v>
+      </c>
+      <c r="I68">
+        <v>3.375</v>
+      </c>
+      <c r="J68">
+        <v>2.875</v>
+      </c>
+      <c r="K68">
+        <v>2.625</v>
+      </c>
+      <c r="L68">
+        <v>1.5</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>1.7</v>
+      </c>
+      <c r="O68">
+        <v>1.4</v>
+      </c>
+      <c r="P68">
+        <v>1.4</v>
+      </c>
+      <c r="Q68">
+        <v>7.8</v>
+      </c>
+      <c r="R68">
+        <v>4.8</v>
+      </c>
+      <c r="S68">
+        <v>3.5</v>
+      </c>
+      <c r="T68">
+        <v>2.8</v>
+      </c>
+      <c r="U68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V68">
+        <v>3.8</v>
+      </c>
+      <c r="W68">
+        <v>4</v>
+      </c>
+      <c r="X68">
+        <v>4.3</v>
+      </c>
+      <c r="Y68">
+        <v>4</v>
+      </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>3.3</v>
+      </c>
+      <c r="D69">
+        <v>2.9</v>
+      </c>
+      <c r="E69">
+        <v>2.8</v>
+      </c>
+      <c r="F69">
+        <v>2.7</v>
+      </c>
+      <c r="G69">
+        <v>3.375</v>
+      </c>
+      <c r="H69">
+        <v>3.875</v>
+      </c>
+      <c r="I69">
+        <v>2.875</v>
+      </c>
+      <c r="J69">
+        <v>1.375</v>
+      </c>
+      <c r="K69">
+        <v>1.125</v>
+      </c>
+      <c r="L69">
+        <v>-1.7</v>
+      </c>
+      <c r="M69">
+        <v>0.9</v>
+      </c>
+      <c r="N69">
+        <v>0.2</v>
+      </c>
+      <c r="O69">
+        <v>0.5</v>
+      </c>
+      <c r="P69">
+        <v>1.6</v>
+      </c>
+      <c r="Q69">
+        <v>6.6</v>
+      </c>
+      <c r="R69">
+        <v>3.5</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>1.9</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X69">
+        <v>5.8</v>
+      </c>
+      <c r="Y69">
+        <v>5.8</v>
+      </c>
+      <c r="Z69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>3.65</v>
+      </c>
+      <c r="C70">
+        <v>4.25</v>
+      </c>
+      <c r="D70">
+        <v>4.25</v>
+      </c>
+      <c r="E70">
+        <v>3.75</v>
+      </c>
+      <c r="F70">
+        <v>3.25</v>
+      </c>
+      <c r="G70">
+        <v>3.625</v>
+      </c>
+      <c r="H70">
+        <v>3.875</v>
+      </c>
+      <c r="I70">
+        <v>3.875</v>
+      </c>
+      <c r="J70">
+        <v>3.375</v>
+      </c>
+      <c r="K70">
+        <v>2.875</v>
+      </c>
+      <c r="L70">
+        <v>0.8</v>
+      </c>
+      <c r="M70">
+        <v>1.6</v>
+      </c>
+      <c r="N70">
+        <v>1.7</v>
+      </c>
+      <c r="O70">
+        <v>1.4</v>
+      </c>
+      <c r="P70">
+        <v>1.4</v>
+      </c>
+      <c r="Q70">
+        <v>7.2</v>
+      </c>
+      <c r="R70">
+        <v>3.8</v>
+      </c>
+      <c r="S70">
+        <v>2.5</v>
+      </c>
+      <c r="T70">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>3.7</v>
+      </c>
+      <c r="W70">
+        <v>3.8</v>
+      </c>
+      <c r="X70">
+        <v>3.9</v>
+      </c>
+      <c r="Y70">
+        <v>3.8</v>
+      </c>
+      <c r="Z70">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>3.66</v>
+      </c>
+      <c r="C71">
+        <v>3.92</v>
+      </c>
+      <c r="D71">
+        <v>4.22</v>
+      </c>
+      <c r="E71">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F71">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G71">
+        <v>2.375</v>
+      </c>
+      <c r="H71">
+        <v>3.125</v>
+      </c>
+      <c r="I71">
+        <v>3.375</v>
+      </c>
+      <c r="J71">
+        <v>3.625</v>
+      </c>
+      <c r="K71">
+        <v>4.125</v>
+      </c>
+      <c r="L71">
+        <v>2.4</v>
+      </c>
+      <c r="M71">
+        <v>2.5</v>
+      </c>
+      <c r="N71">
+        <v>1.6</v>
+      </c>
+      <c r="O71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P71">
+        <v>1.5</v>
+      </c>
+      <c r="Q71">
+        <v>7.6</v>
+      </c>
+      <c r="R71">
+        <v>5.4</v>
+      </c>
+      <c r="S71">
+        <v>4.5</v>
+      </c>
+      <c r="T71">
+        <v>4.3</v>
+      </c>
+      <c r="U71">
+        <v>4</v>
+      </c>
+      <c r="V71">
+        <v>3.5</v>
+      </c>
+      <c r="W71">
+        <v>3.6</v>
+      </c>
+      <c r="X71">
+        <v>3.8</v>
+      </c>
+      <c r="Y71">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z71">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>3.25</v>
+      </c>
+      <c r="Q72">
+        <v>5.5</v>
+      </c>
+      <c r="V72">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>2.65</v>
+      </c>
+      <c r="C73">
+        <v>1.85</v>
+      </c>
+      <c r="D73">
+        <v>1.7</v>
+      </c>
+      <c r="G73">
+        <v>3.375</v>
+      </c>
+      <c r="H73">
+        <v>3.625</v>
+      </c>
+      <c r="I73">
+        <v>2.875</v>
+      </c>
+      <c r="J73">
+        <v>1.875</v>
+      </c>
+      <c r="K73">
+        <v>0.875</v>
+      </c>
+      <c r="L73">
+        <v>-0.2</v>
+      </c>
+      <c r="M73">
+        <v>0.4</v>
+      </c>
+      <c r="N73">
+        <v>-1.4</v>
+      </c>
+      <c r="O73">
+        <v>-1.6</v>
+      </c>
+      <c r="P73">
+        <v>-1.6</v>
+      </c>
+      <c r="Q73">
+        <v>7.4</v>
+      </c>
+      <c r="R73">
+        <v>3.5</v>
+      </c>
+      <c r="S73">
+        <v>2.7</v>
+      </c>
+      <c r="T73">
+        <v>2.1</v>
+      </c>
+      <c r="U73">
+        <v>1.6</v>
+      </c>
+      <c r="V73">
+        <v>3.5</v>
+      </c>
+      <c r="W73">
+        <v>4.3</v>
+      </c>
+      <c r="X73">
+        <v>5.2</v>
+      </c>
+      <c r="Y73">
+        <v>5.6</v>
+      </c>
+      <c r="Z73">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>2.95</v>
+      </c>
+      <c r="C74">
+        <v>2.95</v>
+      </c>
+      <c r="D74">
+        <v>2.8</v>
+      </c>
+      <c r="G74">
+        <v>3.625</v>
+      </c>
+      <c r="H74">
+        <v>3.625</v>
+      </c>
+      <c r="I74">
+        <v>3.625</v>
+      </c>
+      <c r="L74">
+        <v>1.6</v>
+      </c>
+      <c r="M74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N74">
+        <v>1.9</v>
+      </c>
+      <c r="O74">
+        <v>1.5</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>7.6</v>
+      </c>
+      <c r="R74">
+        <v>4</v>
+      </c>
+      <c r="S74">
+        <v>3.6</v>
+      </c>
+      <c r="V74">
+        <v>3.4</v>
+      </c>
+      <c r="W74">
+        <v>3.5</v>
+      </c>
+      <c r="X74">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>2.9</v>
+      </c>
+      <c r="C75">
+        <v>2.5</v>
+      </c>
+      <c r="D75">
+        <v>2.25</v>
+      </c>
+      <c r="E75">
+        <v>2.5</v>
+      </c>
+      <c r="F75">
+        <v>2.5</v>
+      </c>
+      <c r="G75">
+        <v>3.375</v>
+      </c>
+      <c r="H75">
+        <v>3.375</v>
+      </c>
+      <c r="I75">
+        <v>2.875</v>
+      </c>
+      <c r="J75">
+        <v>2.375</v>
+      </c>
+      <c r="K75">
+        <v>2.375</v>
+      </c>
+      <c r="L75">
+        <v>-0.5</v>
+      </c>
+      <c r="M75">
+        <v>1.4</v>
+      </c>
+      <c r="N75">
+        <v>1.4</v>
+      </c>
+      <c r="O75">
+        <v>-1.6</v>
+      </c>
+      <c r="P75">
+        <v>-2</v>
+      </c>
+      <c r="Q75">
+        <v>7</v>
+      </c>
+      <c r="R75">
+        <v>4.5</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>2.7</v>
+      </c>
+      <c r="V75">
+        <v>3.9</v>
+      </c>
+      <c r="W75">
+        <v>4.7</v>
+      </c>
+      <c r="X75">
+        <v>5.3</v>
+      </c>
+      <c r="Y75">
+        <v>5.5</v>
+      </c>
+      <c r="Z75">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>3.15</v>
+      </c>
+      <c r="C76">
+        <v>3.25</v>
+      </c>
+      <c r="D76">
+        <v>3.35</v>
+      </c>
+      <c r="G76">
+        <v>3.625</v>
+      </c>
+      <c r="H76">
+        <v>3.875</v>
+      </c>
+      <c r="I76">
+        <v>3.875</v>
+      </c>
+      <c r="L76">
+        <v>1.5</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1.5</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>7</v>
+      </c>
+      <c r="R76">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S76">
+        <v>5</v>
+      </c>
+      <c r="V76">
+        <v>3.6</v>
+      </c>
+      <c r="W76">
+        <v>3.8</v>
+      </c>
+      <c r="X76">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>3.3</v>
+      </c>
+      <c r="C77">
+        <v>3.5</v>
+      </c>
+      <c r="D77">
+        <v>3.5</v>
+      </c>
+      <c r="E77">
+        <v>3.6</v>
+      </c>
+      <c r="F77">
+        <v>3.6</v>
+      </c>
+      <c r="G77">
+        <v>3.375</v>
+      </c>
+      <c r="H77">
+        <v>3.625</v>
+      </c>
+      <c r="I77">
+        <v>3.625</v>
+      </c>
+      <c r="J77">
+        <v>3.125</v>
+      </c>
+      <c r="K77">
+        <v>2.875</v>
+      </c>
+      <c r="L77">
+        <v>0.8</v>
+      </c>
+      <c r="M77">
+        <v>1.5</v>
+      </c>
+      <c r="N77">
+        <v>1.8</v>
+      </c>
+      <c r="O77">
+        <v>1.8</v>
+      </c>
+      <c r="P77">
+        <v>1.8</v>
+      </c>
+      <c r="Q77">
+        <v>7.2</v>
+      </c>
+      <c r="R77">
+        <v>5.6</v>
+      </c>
+      <c r="S77">
+        <v>5.2</v>
+      </c>
+      <c r="T77">
+        <v>4.7</v>
+      </c>
+      <c r="U77">
+        <v>3.5</v>
+      </c>
+      <c r="V77">
+        <v>3.7</v>
+      </c>
+      <c r="W77">
+        <v>3.8</v>
+      </c>
+      <c r="X77">
+        <v>3.9</v>
+      </c>
+      <c r="Y77">
+        <v>4</v>
+      </c>
+      <c r="Z77">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>3.5</v>
+      </c>
+      <c r="C78">
+        <v>3.05</v>
+      </c>
+      <c r="G78">
+        <v>3.625</v>
+      </c>
+      <c r="H78">
+        <v>3.625</v>
+      </c>
+      <c r="I78">
+        <v>3.625</v>
+      </c>
+      <c r="L78">
+        <v>0.1</v>
+      </c>
+      <c r="M78">
+        <v>2.6</v>
+      </c>
+      <c r="N78">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O78">
+        <v>1.4</v>
+      </c>
+      <c r="P78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q78">
+        <v>6.9</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>1.6</v>
+      </c>
+      <c r="V78">
+        <v>3.6</v>
+      </c>
+      <c r="W78">
+        <v>3.6</v>
+      </c>
+      <c r="X78">
+        <v>3.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modules/external-import/external-import-wsj.xlsx
+++ b/modules/external-import/external-import-wsj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\external-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7ED9E-3783-4ACF-923D-F2C376512517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA700C-9763-42FC-82E0-C3A217C4FC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
   </bookViews>
   <sheets>
     <sheet name="wsj_2021-04-11" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="wsj_2022-01-16" sheetId="2" r:id="rId4"/>
     <sheet name="wsj_2022-04-10" sheetId="7" r:id="rId5"/>
     <sheet name="wsj_2022-07-17" sheetId="8" r:id="rId6"/>
+    <sheet name="wsj_2022-10-16" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="119">
   <si>
     <t>2022Q1</t>
   </si>
@@ -360,6 +361,42 @@
   </si>
   <si>
     <t xml:space="preserve">PNC Financial Services Group </t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>Raymond James Financial</t>
+  </si>
+  <si>
+    <t>Bank of America Global Research</t>
+  </si>
+  <si>
+    <t>Corelogic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetLife Investment Management </t>
+  </si>
+  <si>
+    <t>ACT Research Co., LLC</t>
+  </si>
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>Decision Economics, Inc.</t>
+  </si>
+  <si>
+    <t>EconForecaster, LLC</t>
+  </si>
+  <si>
+    <t>Independent Commodity Intelligence Services (ICIS)</t>
   </si>
 </sst>
 </file>
@@ -30342,7 +30379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C548B-E808-471D-B491-E18D6AA7C3D0}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -35169,4 +35206,6140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97210A09-1603-4424-9AED-0455E305D877}">
+  <dimension ref="A1:AH77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>3.8367213114754084</v>
+      </c>
+      <c r="C3">
+        <v>3.6779661016949157</v>
+      </c>
+      <c r="D3">
+        <v>3.4501694915254237</v>
+      </c>
+      <c r="E3">
+        <v>3.311020408163265</v>
+      </c>
+      <c r="F3">
+        <v>3.1941666666666659</v>
+      </c>
+      <c r="G3">
+        <v>3.2141025641025638</v>
+      </c>
+      <c r="H3">
+        <v>3.1961538461538463</v>
+      </c>
+      <c r="I3">
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="J3">
+        <v>4.5509999999999993</v>
+      </c>
+      <c r="K3">
+        <v>4.2283333333333335</v>
+      </c>
+      <c r="L3">
+        <v>3.6448148148148154</v>
+      </c>
+      <c r="M3">
+        <v>3.1020192307692307</v>
+      </c>
+      <c r="N3">
+        <v>2.9403409090909092</v>
+      </c>
+      <c r="O3">
+        <v>2.8277272727272726</v>
+      </c>
+      <c r="P3">
+        <v>1.5827784615384615</v>
+      </c>
+      <c r="Q3">
+        <v>0.38984615384615384</v>
+      </c>
+      <c r="R3">
+        <v>-0.21984126984126989</v>
+      </c>
+      <c r="S3">
+        <v>-6.269841269841267E-2</v>
+      </c>
+      <c r="T3">
+        <v>0.61793650793650767</v>
+      </c>
+      <c r="U3">
+        <v>7.1829687500000015</v>
+      </c>
+      <c r="V3">
+        <v>4.1243548387096789</v>
+      </c>
+      <c r="W3">
+        <v>3.2519047619047621</v>
+      </c>
+      <c r="X3">
+        <v>2.7123529411764706</v>
+      </c>
+      <c r="Y3">
+        <v>2.4205882352941175</v>
+      </c>
+      <c r="Z3">
+        <v>2.3343902439024395</v>
+      </c>
+      <c r="AA3">
+        <v>2.2517073170731714</v>
+      </c>
+      <c r="AB3">
+        <v>3.6979687499999994</v>
+      </c>
+      <c r="AC3">
+        <v>4.2604761904761927</v>
+      </c>
+      <c r="AD3">
+        <v>4.7146874999999993</v>
+      </c>
+      <c r="AE3">
+        <v>4.7516981132075475</v>
+      </c>
+      <c r="AF3">
+        <v>4.6431372549019603</v>
+      </c>
+      <c r="AG3">
+        <v>4.4365853658536585</v>
+      </c>
+      <c r="AH3">
+        <v>4.3121951219512207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>3.7</v>
+      </c>
+      <c r="C4">
+        <v>3.31</v>
+      </c>
+      <c r="D4">
+        <v>3.17</v>
+      </c>
+      <c r="E4">
+        <v>2.73</v>
+      </c>
+      <c r="F4">
+        <v>2.59</v>
+      </c>
+      <c r="I4">
+        <v>4.125</v>
+      </c>
+      <c r="J4">
+        <v>4.625</v>
+      </c>
+      <c r="K4">
+        <v>3.875</v>
+      </c>
+      <c r="L4">
+        <v>3.125</v>
+      </c>
+      <c r="M4">
+        <v>2.375</v>
+      </c>
+      <c r="N4">
+        <v>2.375</v>
+      </c>
+      <c r="O4">
+        <v>2.375</v>
+      </c>
+      <c r="P4">
+        <v>1.5</v>
+      </c>
+      <c r="Q4">
+        <v>-1.6</v>
+      </c>
+      <c r="R4">
+        <v>-3.9</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>7.5</v>
+      </c>
+      <c r="V4">
+        <v>4.5</v>
+      </c>
+      <c r="W4">
+        <v>2.7</v>
+      </c>
+      <c r="X4">
+        <v>1.8</v>
+      </c>
+      <c r="Y4">
+        <v>1.8</v>
+      </c>
+      <c r="AB4">
+        <v>3.9</v>
+      </c>
+      <c r="AC4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD4">
+        <v>4.5</v>
+      </c>
+      <c r="AE4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AF4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>3.75</v>
+      </c>
+      <c r="F5">
+        <v>3.25</v>
+      </c>
+      <c r="I5">
+        <v>4.375</v>
+      </c>
+      <c r="J5">
+        <v>4.375</v>
+      </c>
+      <c r="K5">
+        <v>4.375</v>
+      </c>
+      <c r="L5">
+        <v>4.375</v>
+      </c>
+      <c r="P5">
+        <v>0.9</v>
+      </c>
+      <c r="Q5">
+        <v>0.4</v>
+      </c>
+      <c r="R5">
+        <v>-0.9</v>
+      </c>
+      <c r="S5">
+        <v>-1.8</v>
+      </c>
+      <c r="T5">
+        <v>-0.9</v>
+      </c>
+      <c r="U5">
+        <v>7.2</v>
+      </c>
+      <c r="V5">
+        <v>3.6</v>
+      </c>
+      <c r="W5">
+        <v>2.8</v>
+      </c>
+      <c r="AB5">
+        <v>3.9</v>
+      </c>
+      <c r="AC5">
+        <v>4.5</v>
+      </c>
+      <c r="AD5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3.87</v>
+      </c>
+      <c r="C6">
+        <v>4.28</v>
+      </c>
+      <c r="D6">
+        <v>4.3</v>
+      </c>
+      <c r="E6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F6">
+        <v>3.98</v>
+      </c>
+      <c r="G6">
+        <v>3.93</v>
+      </c>
+      <c r="H6">
+        <v>3.73</v>
+      </c>
+      <c r="I6">
+        <v>4.375</v>
+      </c>
+      <c r="J6">
+        <v>4.625</v>
+      </c>
+      <c r="K6">
+        <v>4.625</v>
+      </c>
+      <c r="L6">
+        <v>4.125</v>
+      </c>
+      <c r="M6">
+        <v>3.875</v>
+      </c>
+      <c r="N6">
+        <v>3.625</v>
+      </c>
+      <c r="O6">
+        <v>3.125</v>
+      </c>
+      <c r="P6">
+        <v>1.9</v>
+      </c>
+      <c r="Q6">
+        <v>0.2</v>
+      </c>
+      <c r="R6">
+        <v>-0.3</v>
+      </c>
+      <c r="S6">
+        <v>-1.5</v>
+      </c>
+      <c r="T6">
+        <v>-0.2</v>
+      </c>
+      <c r="U6">
+        <v>7.3</v>
+      </c>
+      <c r="V6">
+        <v>4.2</v>
+      </c>
+      <c r="W6">
+        <v>3.2</v>
+      </c>
+      <c r="X6">
+        <v>2.5</v>
+      </c>
+      <c r="Y6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>3.7</v>
+      </c>
+      <c r="AC6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD6">
+        <v>4.8</v>
+      </c>
+      <c r="AE6">
+        <v>4.8</v>
+      </c>
+      <c r="AF6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>3.76</v>
+      </c>
+      <c r="C8">
+        <v>4.17</v>
+      </c>
+      <c r="D8">
+        <v>4.46</v>
+      </c>
+      <c r="E8">
+        <v>4.78</v>
+      </c>
+      <c r="F8">
+        <v>4.8</v>
+      </c>
+      <c r="G8">
+        <v>4.91</v>
+      </c>
+      <c r="H8">
+        <v>4.95</v>
+      </c>
+      <c r="I8">
+        <v>3.625</v>
+      </c>
+      <c r="J8">
+        <v>4.125</v>
+      </c>
+      <c r="K8">
+        <v>4.375</v>
+      </c>
+      <c r="L8">
+        <v>4.375</v>
+      </c>
+      <c r="M8">
+        <v>4.375</v>
+      </c>
+      <c r="N8">
+        <v>4.375</v>
+      </c>
+      <c r="O8">
+        <v>4.375</v>
+      </c>
+      <c r="P8">
+        <v>2.1</v>
+      </c>
+      <c r="Q8">
+        <v>2.4</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1.5</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>7.78</v>
+      </c>
+      <c r="V8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="W8">
+        <v>2.92</v>
+      </c>
+      <c r="X8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>2.1</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>1.9</v>
+      </c>
+      <c r="AB8">
+        <v>3.5</v>
+      </c>
+      <c r="AC8">
+        <v>3.6</v>
+      </c>
+      <c r="AD8">
+        <v>3.7</v>
+      </c>
+      <c r="AE8">
+        <v>3.7</v>
+      </c>
+      <c r="AF8">
+        <v>3.7</v>
+      </c>
+      <c r="AG8">
+        <v>3.7</v>
+      </c>
+      <c r="AH8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>4.25</v>
+      </c>
+      <c r="C12">
+        <v>3.5</v>
+      </c>
+      <c r="D12">
+        <v>3.25</v>
+      </c>
+      <c r="E12">
+        <v>4.25</v>
+      </c>
+      <c r="F12">
+        <v>4.5</v>
+      </c>
+      <c r="G12">
+        <v>4.5</v>
+      </c>
+      <c r="H12">
+        <v>4.5</v>
+      </c>
+      <c r="I12">
+        <v>4.375</v>
+      </c>
+      <c r="J12">
+        <v>5.375</v>
+      </c>
+      <c r="K12">
+        <v>3.125</v>
+      </c>
+      <c r="L12">
+        <v>3.125</v>
+      </c>
+      <c r="M12">
+        <v>3.875</v>
+      </c>
+      <c r="N12">
+        <v>3.875</v>
+      </c>
+      <c r="O12">
+        <v>3.875</v>
+      </c>
+      <c r="P12">
+        <v>2.5</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-1.5</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>5.2</v>
+      </c>
+      <c r="V12">
+        <v>3.6</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>3.8</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>5.5</v>
+      </c>
+      <c r="AE12">
+        <v>5.5</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+      <c r="AG12">
+        <v>4.5</v>
+      </c>
+      <c r="AH12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>3.55</v>
+      </c>
+      <c r="C13">
+        <v>3.3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2.75</v>
+      </c>
+      <c r="F13">
+        <v>2.75</v>
+      </c>
+      <c r="G13">
+        <v>2.75</v>
+      </c>
+      <c r="H13">
+        <v>2.75</v>
+      </c>
+      <c r="I13">
+        <v>4.375</v>
+      </c>
+      <c r="J13">
+        <v>4.375</v>
+      </c>
+      <c r="K13">
+        <v>4.375</v>
+      </c>
+      <c r="L13">
+        <v>3.875</v>
+      </c>
+      <c r="M13">
+        <v>2.375</v>
+      </c>
+      <c r="N13">
+        <v>2.125</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>1.8</v>
+      </c>
+      <c r="Q13">
+        <v>-0.3</v>
+      </c>
+      <c r="R13">
+        <v>-1.8</v>
+      </c>
+      <c r="S13">
+        <v>-1.6</v>
+      </c>
+      <c r="T13">
+        <v>0.3</v>
+      </c>
+      <c r="U13">
+        <v>7.2</v>
+      </c>
+      <c r="V13">
+        <v>4.3</v>
+      </c>
+      <c r="W13">
+        <v>3.5</v>
+      </c>
+      <c r="X13">
+        <v>2.6</v>
+      </c>
+      <c r="Y13">
+        <v>2.1</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AB13">
+        <v>3.8</v>
+      </c>
+      <c r="AC13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD13">
+        <v>4.8</v>
+      </c>
+      <c r="AE13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AF13">
+        <v>4.2</v>
+      </c>
+      <c r="AG13">
+        <v>4</v>
+      </c>
+      <c r="AH13">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>3.23</v>
+      </c>
+      <c r="C14">
+        <v>3.3</v>
+      </c>
+      <c r="D14">
+        <v>3.26</v>
+      </c>
+      <c r="E14">
+        <v>3.21</v>
+      </c>
+      <c r="F14">
+        <v>3.22</v>
+      </c>
+      <c r="G14">
+        <v>3.25</v>
+      </c>
+      <c r="H14">
+        <v>3.25</v>
+      </c>
+      <c r="I14">
+        <v>3.74</v>
+      </c>
+      <c r="J14">
+        <v>4.13</v>
+      </c>
+      <c r="K14">
+        <v>3.68</v>
+      </c>
+      <c r="L14">
+        <v>3.28</v>
+      </c>
+      <c r="M14">
+        <v>2.94</v>
+      </c>
+      <c r="N14">
+        <v>2.76</v>
+      </c>
+      <c r="O14">
+        <v>2.76</v>
+      </c>
+      <c r="P14">
+        <v>0.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.3</v>
+      </c>
+      <c r="R14">
+        <v>-0.1</v>
+      </c>
+      <c r="S14">
+        <v>-0.6</v>
+      </c>
+      <c r="T14">
+        <v>1.2</v>
+      </c>
+      <c r="U14">
+        <v>7.9</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>1.8</v>
+      </c>
+      <c r="X14">
+        <v>1.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.9</v>
+      </c>
+      <c r="Z14">
+        <v>1.6</v>
+      </c>
+      <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
+        <v>3.7</v>
+      </c>
+      <c r="AC14">
+        <v>4.2</v>
+      </c>
+      <c r="AD14">
+        <v>4.8</v>
+      </c>
+      <c r="AE14">
+        <v>5.2</v>
+      </c>
+      <c r="AF14">
+        <v>5.6</v>
+      </c>
+      <c r="AG14">
+        <v>5.7</v>
+      </c>
+      <c r="AH14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>3.9</v>
+      </c>
+      <c r="C15">
+        <v>3.2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2.9</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3.2</v>
+      </c>
+      <c r="H15">
+        <v>3.5</v>
+      </c>
+      <c r="I15">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J15">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K15">
+        <v>4.62</v>
+      </c>
+      <c r="L15">
+        <v>4.375</v>
+      </c>
+      <c r="M15">
+        <v>4.125</v>
+      </c>
+      <c r="N15">
+        <v>4.125</v>
+      </c>
+      <c r="O15">
+        <v>4.125</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.7</v>
+      </c>
+      <c r="S15">
+        <v>-0.5</v>
+      </c>
+      <c r="T15">
+        <v>-0.7</v>
+      </c>
+      <c r="U15">
+        <v>5.5</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>3.2</v>
+      </c>
+      <c r="X15">
+        <v>2.9</v>
+      </c>
+      <c r="Y15">
+        <v>2.5</v>
+      </c>
+      <c r="Z15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB15">
+        <v>3.7</v>
+      </c>
+      <c r="AC15">
+        <v>4.3</v>
+      </c>
+      <c r="AD15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE15">
+        <v>4.7</v>
+      </c>
+      <c r="AF15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG15">
+        <v>4.5</v>
+      </c>
+      <c r="AH15">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>4.05</v>
+      </c>
+      <c r="C16">
+        <v>3.9</v>
+      </c>
+      <c r="D16">
+        <v>3.25</v>
+      </c>
+      <c r="E16">
+        <v>2.95</v>
+      </c>
+      <c r="F16">
+        <v>2.9</v>
+      </c>
+      <c r="I16">
+        <v>4.5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>4.5</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2.75</v>
+      </c>
+      <c r="P16">
+        <v>2.7</v>
+      </c>
+      <c r="Q16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R16">
+        <v>0.4</v>
+      </c>
+      <c r="S16">
+        <v>-2.1</v>
+      </c>
+      <c r="T16">
+        <v>-1.8</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W16">
+        <v>3.3</v>
+      </c>
+      <c r="X16">
+        <v>2.8</v>
+      </c>
+      <c r="Y16">
+        <v>2.6</v>
+      </c>
+      <c r="AB16">
+        <v>3.6</v>
+      </c>
+      <c r="AC16">
+        <v>4</v>
+      </c>
+      <c r="AD16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AE16">
+        <v>5.3</v>
+      </c>
+      <c r="AF16">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>3.9</v>
+      </c>
+      <c r="C17">
+        <v>3.7</v>
+      </c>
+      <c r="D17">
+        <v>3.4</v>
+      </c>
+      <c r="E17">
+        <v>3.2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4.38</v>
+      </c>
+      <c r="J17">
+        <v>4.13</v>
+      </c>
+      <c r="K17">
+        <v>3.88</v>
+      </c>
+      <c r="L17">
+        <v>3.63</v>
+      </c>
+      <c r="M17">
+        <v>3.38</v>
+      </c>
+      <c r="N17">
+        <v>3.13</v>
+      </c>
+      <c r="O17">
+        <v>3.13</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>-1.5</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>7.8</v>
+      </c>
+      <c r="V17">
+        <v>4.5</v>
+      </c>
+      <c r="W17">
+        <v>2.8</v>
+      </c>
+      <c r="X17">
+        <v>2.5</v>
+      </c>
+      <c r="Y17">
+        <v>2.5</v>
+      </c>
+      <c r="Z17">
+        <v>2.5</v>
+      </c>
+      <c r="AA17">
+        <v>2.5</v>
+      </c>
+      <c r="AB17">
+        <v>3.7</v>
+      </c>
+      <c r="AC17">
+        <v>4.5</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>4.8</v>
+      </c>
+      <c r="AF17">
+        <v>4.3</v>
+      </c>
+      <c r="AG17">
+        <v>4</v>
+      </c>
+      <c r="AH17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3.25</v>
+      </c>
+      <c r="E18">
+        <v>2.8</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>2.4</v>
+      </c>
+      <c r="H18">
+        <v>2.25</v>
+      </c>
+      <c r="I18">
+        <v>4.375</v>
+      </c>
+      <c r="J18">
+        <v>4.625</v>
+      </c>
+      <c r="K18">
+        <v>4.125</v>
+      </c>
+      <c r="L18">
+        <v>3.125</v>
+      </c>
+      <c r="M18">
+        <v>2.375</v>
+      </c>
+      <c r="N18">
+        <v>2.375</v>
+      </c>
+      <c r="O18">
+        <v>2.375</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="S18">
+        <v>-0.5</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>6.8</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>2.6</v>
+      </c>
+      <c r="X18">
+        <v>2.5</v>
+      </c>
+      <c r="Y18">
+        <v>2.5</v>
+      </c>
+      <c r="Z18">
+        <v>2.5</v>
+      </c>
+      <c r="AA18">
+        <v>2.5</v>
+      </c>
+      <c r="AB18">
+        <v>3.7</v>
+      </c>
+      <c r="AC18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18">
+        <v>4.8</v>
+      </c>
+      <c r="AF18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG18">
+        <v>4.5</v>
+      </c>
+      <c r="AH18">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>4.375</v>
+      </c>
+      <c r="J19">
+        <v>4.625</v>
+      </c>
+      <c r="K19">
+        <v>4.625</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1.4</v>
+      </c>
+      <c r="R19">
+        <v>0.9</v>
+      </c>
+      <c r="S19">
+        <v>0.9</v>
+      </c>
+      <c r="T19">
+        <v>0.7</v>
+      </c>
+      <c r="U19">
+        <v>6.9</v>
+      </c>
+      <c r="V19">
+        <v>2.9</v>
+      </c>
+      <c r="W19">
+        <v>2.8</v>
+      </c>
+      <c r="AB19">
+        <v>3.5</v>
+      </c>
+      <c r="AC19">
+        <v>3.6</v>
+      </c>
+      <c r="AD19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>3.6</v>
+      </c>
+      <c r="C20">
+        <v>3.6</v>
+      </c>
+      <c r="D20">
+        <v>3.3</v>
+      </c>
+      <c r="E20">
+        <v>3.1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>4.375</v>
+      </c>
+      <c r="J20">
+        <v>4.875</v>
+      </c>
+      <c r="K20">
+        <v>4.875</v>
+      </c>
+      <c r="L20">
+        <v>2.875</v>
+      </c>
+      <c r="M20">
+        <v>2.125</v>
+      </c>
+      <c r="P20">
+        <v>1.2</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>-2.5</v>
+      </c>
+      <c r="S20">
+        <v>-1.5</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>7.3</v>
+      </c>
+      <c r="V20">
+        <v>3.3</v>
+      </c>
+      <c r="W20">
+        <v>2.6</v>
+      </c>
+      <c r="X20">
+        <v>1.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.2</v>
+      </c>
+      <c r="AB20">
+        <v>3.7</v>
+      </c>
+      <c r="AC20">
+        <v>4.5</v>
+      </c>
+      <c r="AD20">
+        <v>5.3</v>
+      </c>
+      <c r="AE20">
+        <v>5.5</v>
+      </c>
+      <c r="AF20">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>3.9</v>
+      </c>
+      <c r="C21">
+        <v>3.2</v>
+      </c>
+      <c r="D21">
+        <v>2.7</v>
+      </c>
+      <c r="E21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1.9</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>4.125</v>
+      </c>
+      <c r="J21">
+        <v>3.625</v>
+      </c>
+      <c r="K21">
+        <v>1.875</v>
+      </c>
+      <c r="L21">
+        <v>1.375</v>
+      </c>
+      <c r="M21">
+        <v>0.875</v>
+      </c>
+      <c r="N21">
+        <v>0.875</v>
+      </c>
+      <c r="O21">
+        <v>0.875</v>
+      </c>
+      <c r="P21">
+        <v>-2.5</v>
+      </c>
+      <c r="Q21">
+        <v>-3.5</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="V21">
+        <v>5.6</v>
+      </c>
+      <c r="W21">
+        <v>3.2</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z21">
+        <v>1.9</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>3.8</v>
+      </c>
+      <c r="AC21">
+        <v>4.8</v>
+      </c>
+      <c r="AD21">
+        <v>5.3</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+      <c r="AF21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG21">
+        <v>4.3</v>
+      </c>
+      <c r="AH21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>3.25</v>
+      </c>
+      <c r="C22">
+        <v>2.62</v>
+      </c>
+      <c r="D22">
+        <v>2.78</v>
+      </c>
+      <c r="E22">
+        <v>2.98</v>
+      </c>
+      <c r="F22">
+        <v>3.08</v>
+      </c>
+      <c r="G22">
+        <v>3.11</v>
+      </c>
+      <c r="H22">
+        <v>3.11</v>
+      </c>
+      <c r="I22">
+        <v>4.38</v>
+      </c>
+      <c r="J22">
+        <v>4.38</v>
+      </c>
+      <c r="K22">
+        <v>4.13</v>
+      </c>
+      <c r="L22">
+        <v>3.63</v>
+      </c>
+      <c r="M22">
+        <v>2.88</v>
+      </c>
+      <c r="N22">
+        <v>2.88</v>
+      </c>
+      <c r="O22">
+        <v>2.88</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>-1.4</v>
+      </c>
+      <c r="R22">
+        <v>-1.2</v>
+      </c>
+      <c r="S22">
+        <v>-0.3</v>
+      </c>
+      <c r="T22">
+        <v>1.6</v>
+      </c>
+      <c r="U22">
+        <v>7.6</v>
+      </c>
+      <c r="V22">
+        <v>3.9</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1.7</v>
+      </c>
+      <c r="Y22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z22">
+        <v>2.7</v>
+      </c>
+      <c r="AA22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB22">
+        <v>3.8</v>
+      </c>
+      <c r="AC22">
+        <v>5.3</v>
+      </c>
+      <c r="AD22">
+        <v>5.3</v>
+      </c>
+      <c r="AE22">
+        <v>4.8</v>
+      </c>
+      <c r="AF22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG22">
+        <v>4</v>
+      </c>
+      <c r="AH22">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>3.75</v>
+      </c>
+      <c r="C23">
+        <v>3.43</v>
+      </c>
+      <c r="D23">
+        <v>3.22</v>
+      </c>
+      <c r="E23">
+        <v>3.06</v>
+      </c>
+      <c r="F23">
+        <v>3.1</v>
+      </c>
+      <c r="G23">
+        <v>3.23</v>
+      </c>
+      <c r="H23">
+        <v>3.35</v>
+      </c>
+      <c r="I23">
+        <v>3.875</v>
+      </c>
+      <c r="J23">
+        <v>4.125</v>
+      </c>
+      <c r="K23">
+        <v>3.625</v>
+      </c>
+      <c r="L23">
+        <v>3.125</v>
+      </c>
+      <c r="M23">
+        <v>2.625</v>
+      </c>
+      <c r="N23">
+        <v>2.625</v>
+      </c>
+      <c r="O23">
+        <v>2.125</v>
+      </c>
+      <c r="P23">
+        <v>1.8</v>
+      </c>
+      <c r="Q23">
+        <v>-0.9</v>
+      </c>
+      <c r="R23">
+        <v>-1.4</v>
+      </c>
+      <c r="S23">
+        <v>-0.2</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>7.2</v>
+      </c>
+      <c r="V23">
+        <v>4.2</v>
+      </c>
+      <c r="W23">
+        <v>2.8</v>
+      </c>
+      <c r="X23">
+        <v>2.1</v>
+      </c>
+      <c r="Y23">
+        <v>1.7</v>
+      </c>
+      <c r="Z23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA23">
+        <v>2.4</v>
+      </c>
+      <c r="AB23">
+        <v>3.8</v>
+      </c>
+      <c r="AC23">
+        <v>4.2</v>
+      </c>
+      <c r="AD23">
+        <v>4.8</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AH23">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>3.95</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3.75</v>
+      </c>
+      <c r="E24">
+        <v>3.4</v>
+      </c>
+      <c r="F24">
+        <v>3.3</v>
+      </c>
+      <c r="I24">
+        <v>4.375</v>
+      </c>
+      <c r="J24">
+        <v>4.625</v>
+      </c>
+      <c r="K24">
+        <v>4.625</v>
+      </c>
+      <c r="P24">
+        <v>1.6</v>
+      </c>
+      <c r="Q24">
+        <v>-1.3</v>
+      </c>
+      <c r="R24">
+        <v>-2.6</v>
+      </c>
+      <c r="S24">
+        <v>-0.7</v>
+      </c>
+      <c r="T24">
+        <v>1.2</v>
+      </c>
+      <c r="U24">
+        <v>8.1</v>
+      </c>
+      <c r="W24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y24">
+        <v>2.4</v>
+      </c>
+      <c r="AB24">
+        <v>3.7</v>
+      </c>
+      <c r="AC24">
+        <v>5</v>
+      </c>
+      <c r="AD24">
+        <v>6.1</v>
+      </c>
+      <c r="AE24">
+        <v>6.1</v>
+      </c>
+      <c r="AF24">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>3.4</v>
+      </c>
+      <c r="C25">
+        <v>2.9</v>
+      </c>
+      <c r="D25">
+        <v>2.6</v>
+      </c>
+      <c r="E25">
+        <v>2.6</v>
+      </c>
+      <c r="F25">
+        <v>2.6</v>
+      </c>
+      <c r="I25">
+        <v>4.375</v>
+      </c>
+      <c r="J25">
+        <v>4.375</v>
+      </c>
+      <c r="K25">
+        <v>3.375</v>
+      </c>
+      <c r="L25">
+        <v>2.625</v>
+      </c>
+      <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.625</v>
+      </c>
+      <c r="O25">
+        <v>2.625</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>0.9</v>
+      </c>
+      <c r="R25">
+        <v>0.7</v>
+      </c>
+      <c r="S25">
+        <v>1.4</v>
+      </c>
+      <c r="T25">
+        <v>1.8</v>
+      </c>
+      <c r="U25">
+        <v>7.7</v>
+      </c>
+      <c r="V25">
+        <v>2.9</v>
+      </c>
+      <c r="W25">
+        <v>2.4</v>
+      </c>
+      <c r="X25">
+        <v>2.1</v>
+      </c>
+      <c r="Y25">
+        <v>2.1</v>
+      </c>
+      <c r="AB25">
+        <v>3.7</v>
+      </c>
+      <c r="AC25">
+        <v>4.3</v>
+      </c>
+      <c r="AD25">
+        <v>4.7</v>
+      </c>
+      <c r="AE25">
+        <v>4.8</v>
+      </c>
+      <c r="AF25">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>3.84</v>
+      </c>
+      <c r="C26">
+        <v>3.81</v>
+      </c>
+      <c r="D26">
+        <v>3.79</v>
+      </c>
+      <c r="I26">
+        <v>4.375</v>
+      </c>
+      <c r="J26">
+        <v>4.125</v>
+      </c>
+      <c r="K26">
+        <v>4.125</v>
+      </c>
+      <c r="P26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q26">
+        <v>-0.7</v>
+      </c>
+      <c r="R26">
+        <v>-1.9</v>
+      </c>
+      <c r="S26">
+        <v>-1.4</v>
+      </c>
+      <c r="T26">
+        <v>-0.1</v>
+      </c>
+      <c r="U26">
+        <v>7.6</v>
+      </c>
+      <c r="V26">
+        <v>3.7</v>
+      </c>
+      <c r="W26">
+        <v>2.5</v>
+      </c>
+      <c r="AB26">
+        <v>3.7</v>
+      </c>
+      <c r="AC26">
+        <v>4.8</v>
+      </c>
+      <c r="AD26">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27">
+        <v>3.69</v>
+      </c>
+      <c r="C27">
+        <v>3.67</v>
+      </c>
+      <c r="D27">
+        <v>3.58</v>
+      </c>
+      <c r="E27">
+        <v>3.3</v>
+      </c>
+      <c r="F27">
+        <v>3.09</v>
+      </c>
+      <c r="G27">
+        <v>3.09</v>
+      </c>
+      <c r="H27">
+        <v>3.09</v>
+      </c>
+      <c r="I27">
+        <v>4.125</v>
+      </c>
+      <c r="J27">
+        <v>4.375</v>
+      </c>
+      <c r="K27">
+        <v>4.125</v>
+      </c>
+      <c r="L27">
+        <v>2.875</v>
+      </c>
+      <c r="M27">
+        <v>2.625</v>
+      </c>
+      <c r="N27">
+        <v>2.625</v>
+      </c>
+      <c r="O27">
+        <v>2.625</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>1.3</v>
+      </c>
+      <c r="R27">
+        <v>1.3</v>
+      </c>
+      <c r="S27">
+        <v>0.6</v>
+      </c>
+      <c r="T27">
+        <v>0.6</v>
+      </c>
+      <c r="U27">
+        <v>6.4</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>2.7</v>
+      </c>
+      <c r="X27">
+        <v>2.4</v>
+      </c>
+      <c r="Y27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z27">
+        <v>2.1</v>
+      </c>
+      <c r="AA27">
+        <v>2.1</v>
+      </c>
+      <c r="AB27">
+        <v>3.8</v>
+      </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>4.3</v>
+      </c>
+      <c r="AE27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF27">
+        <v>4.2</v>
+      </c>
+      <c r="AG27">
+        <v>4</v>
+      </c>
+      <c r="AH27">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>3.65</v>
+      </c>
+      <c r="C28">
+        <v>3.75</v>
+      </c>
+      <c r="D28">
+        <v>3.7</v>
+      </c>
+      <c r="E28">
+        <v>3.7</v>
+      </c>
+      <c r="F28">
+        <v>3.6</v>
+      </c>
+      <c r="G28">
+        <v>3.6</v>
+      </c>
+      <c r="H28">
+        <v>3.6</v>
+      </c>
+      <c r="I28">
+        <v>4.375</v>
+      </c>
+      <c r="J28">
+        <v>4.625</v>
+      </c>
+      <c r="K28">
+        <v>4.625</v>
+      </c>
+      <c r="L28">
+        <v>4.125</v>
+      </c>
+      <c r="M28">
+        <v>3.625</v>
+      </c>
+      <c r="N28">
+        <v>3.125</v>
+      </c>
+      <c r="O28">
+        <v>2.875</v>
+      </c>
+      <c r="P28">
+        <v>1.4</v>
+      </c>
+      <c r="Q28">
+        <v>0.2</v>
+      </c>
+      <c r="R28">
+        <v>0.1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U28">
+        <v>5.3</v>
+      </c>
+      <c r="V28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W28">
+        <v>3.7</v>
+      </c>
+      <c r="X28">
+        <v>3.2</v>
+      </c>
+      <c r="Y28">
+        <v>2.8</v>
+      </c>
+      <c r="Z28">
+        <v>2.4</v>
+      </c>
+      <c r="AA28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB28">
+        <v>3.7</v>
+      </c>
+      <c r="AC28">
+        <v>4.2</v>
+      </c>
+      <c r="AD28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE28">
+        <v>4.3</v>
+      </c>
+      <c r="AF28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AG28">
+        <v>3.9</v>
+      </c>
+      <c r="AH28">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>4.79</v>
+      </c>
+      <c r="C29">
+        <v>4.83</v>
+      </c>
+      <c r="D29">
+        <v>4.62</v>
+      </c>
+      <c r="E29">
+        <v>4.49</v>
+      </c>
+      <c r="I29">
+        <v>4.375</v>
+      </c>
+      <c r="J29">
+        <v>4.625</v>
+      </c>
+      <c r="K29">
+        <v>4.625</v>
+      </c>
+      <c r="L29">
+        <v>4.625</v>
+      </c>
+      <c r="M29">
+        <v>4.625</v>
+      </c>
+      <c r="N29">
+        <v>4.625</v>
+      </c>
+      <c r="O29">
+        <v>4.625</v>
+      </c>
+      <c r="P29">
+        <v>0.9</v>
+      </c>
+      <c r="Q29">
+        <v>1.3</v>
+      </c>
+      <c r="R29">
+        <v>1.5</v>
+      </c>
+      <c r="S29">
+        <v>1.5</v>
+      </c>
+      <c r="T29">
+        <v>1.5</v>
+      </c>
+      <c r="U29">
+        <v>8.9</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>4.2</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>3.5</v>
+      </c>
+      <c r="AC29">
+        <v>3.66</v>
+      </c>
+      <c r="AD29">
+        <v>3.8</v>
+      </c>
+      <c r="AE29">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>3.5</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2.5</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+      <c r="G30">
+        <v>2.5</v>
+      </c>
+      <c r="H30">
+        <v>2.5</v>
+      </c>
+      <c r="I30">
+        <v>4.125</v>
+      </c>
+      <c r="J30">
+        <v>4.125</v>
+      </c>
+      <c r="K30">
+        <v>4.125</v>
+      </c>
+      <c r="L30">
+        <v>3.375</v>
+      </c>
+      <c r="M30">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="N30">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="O30">
+        <v>2.625</v>
+      </c>
+      <c r="P30">
+        <v>1.9</v>
+      </c>
+      <c r="Q30">
+        <v>1.5</v>
+      </c>
+      <c r="R30">
+        <v>-1</v>
+      </c>
+      <c r="S30">
+        <v>-0.5</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>7</v>
+      </c>
+      <c r="V30">
+        <v>3.4</v>
+      </c>
+      <c r="W30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>3.7</v>
+      </c>
+      <c r="AC30">
+        <v>4.7</v>
+      </c>
+      <c r="AD30">
+        <v>5.5</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AF30">
+        <v>4.5</v>
+      </c>
+      <c r="AG30">
+        <v>4</v>
+      </c>
+      <c r="AH30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>3.2</v>
+      </c>
+      <c r="D31">
+        <v>2.4</v>
+      </c>
+      <c r="E31">
+        <v>2.8</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>4.375</v>
+      </c>
+      <c r="J31">
+        <v>4.375</v>
+      </c>
+      <c r="K31">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="L31">
+        <v>1.875</v>
+      </c>
+      <c r="M31">
+        <v>2.375</v>
+      </c>
+      <c r="N31">
+        <v>2.375</v>
+      </c>
+      <c r="O31">
+        <v>2.375</v>
+      </c>
+      <c r="P31">
+        <v>2.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>-1.5</v>
+      </c>
+      <c r="S31">
+        <v>-2.5</v>
+      </c>
+      <c r="T31">
+        <v>-1.5</v>
+      </c>
+      <c r="U31">
+        <v>7.5</v>
+      </c>
+      <c r="V31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W31">
+        <v>3.3</v>
+      </c>
+      <c r="X31">
+        <v>2.5</v>
+      </c>
+      <c r="Y31">
+        <v>2.4</v>
+      </c>
+      <c r="Z31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB31">
+        <v>3.6</v>
+      </c>
+      <c r="AC31">
+        <v>4.7</v>
+      </c>
+      <c r="AD31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE31">
+        <v>3.8</v>
+      </c>
+      <c r="AF31">
+        <v>3.6</v>
+      </c>
+      <c r="AG31">
+        <v>3.6</v>
+      </c>
+      <c r="AH31">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>3.2</v>
+      </c>
+      <c r="D32">
+        <v>2.25</v>
+      </c>
+      <c r="E32">
+        <v>2.25</v>
+      </c>
+      <c r="F32">
+        <v>2.5</v>
+      </c>
+      <c r="G32">
+        <v>2.5</v>
+      </c>
+      <c r="H32">
+        <v>2.5</v>
+      </c>
+      <c r="I32">
+        <v>4.375</v>
+      </c>
+      <c r="J32">
+        <v>4.625</v>
+      </c>
+      <c r="K32">
+        <v>4.625</v>
+      </c>
+      <c r="L32">
+        <v>3.625</v>
+      </c>
+      <c r="M32">
+        <v>2.625</v>
+      </c>
+      <c r="N32">
+        <v>2.125</v>
+      </c>
+      <c r="O32">
+        <v>2.125</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1.5</v>
+      </c>
+      <c r="S32">
+        <v>1.5</v>
+      </c>
+      <c r="T32">
+        <v>1.5</v>
+      </c>
+      <c r="U32">
+        <v>6.9</v>
+      </c>
+      <c r="V32">
+        <v>3.2</v>
+      </c>
+      <c r="W32">
+        <v>3.4</v>
+      </c>
+      <c r="X32">
+        <v>2.9</v>
+      </c>
+      <c r="Y32">
+        <v>2.5</v>
+      </c>
+      <c r="Z32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB32">
+        <v>3.4</v>
+      </c>
+      <c r="AC32">
+        <v>3.4</v>
+      </c>
+      <c r="AD32">
+        <v>3.6</v>
+      </c>
+      <c r="AE32">
+        <v>4</v>
+      </c>
+      <c r="AF32">
+        <v>4.2</v>
+      </c>
+      <c r="AG32">
+        <v>4</v>
+      </c>
+      <c r="AH32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33">
+        <v>3.65</v>
+      </c>
+      <c r="C33">
+        <v>3.25</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>4.375</v>
+      </c>
+      <c r="J33">
+        <v>4.875</v>
+      </c>
+      <c r="K33">
+        <v>4.625</v>
+      </c>
+      <c r="L33">
+        <v>3.625</v>
+      </c>
+      <c r="M33">
+        <v>3.125</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>-1.5</v>
+      </c>
+      <c r="S33">
+        <v>-1.5</v>
+      </c>
+      <c r="T33">
+        <v>-1.5</v>
+      </c>
+      <c r="U33">
+        <v>7</v>
+      </c>
+      <c r="V33">
+        <v>3.9</v>
+      </c>
+      <c r="W33">
+        <v>2.9</v>
+      </c>
+      <c r="AB33">
+        <v>3.6</v>
+      </c>
+      <c r="AC33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD33">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>3.75</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3.85</v>
+      </c>
+      <c r="F34">
+        <v>3.75</v>
+      </c>
+      <c r="G34">
+        <v>3.7</v>
+      </c>
+      <c r="H34">
+        <v>3.65</v>
+      </c>
+      <c r="I34">
+        <v>4.375</v>
+      </c>
+      <c r="J34">
+        <v>4.625</v>
+      </c>
+      <c r="K34">
+        <v>4.625</v>
+      </c>
+      <c r="L34">
+        <v>4.375</v>
+      </c>
+      <c r="M34">
+        <v>3.875</v>
+      </c>
+      <c r="N34">
+        <v>3.625</v>
+      </c>
+      <c r="O34">
+        <v>3.375</v>
+      </c>
+      <c r="P34">
+        <v>1.9</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>0.8</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1.3</v>
+      </c>
+      <c r="U34">
+        <v>6.4</v>
+      </c>
+      <c r="V34">
+        <v>2.5</v>
+      </c>
+      <c r="W34">
+        <v>2.8</v>
+      </c>
+      <c r="X34">
+        <v>2.5</v>
+      </c>
+      <c r="Y34">
+        <v>2.5</v>
+      </c>
+      <c r="Z34">
+        <v>2.5</v>
+      </c>
+      <c r="AA34">
+        <v>2.5</v>
+      </c>
+      <c r="AB34">
+        <v>3.6</v>
+      </c>
+      <c r="AC34">
+        <v>3.8</v>
+      </c>
+      <c r="AD34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AF34">
+        <v>4.2</v>
+      </c>
+      <c r="AG34">
+        <v>4.2</v>
+      </c>
+      <c r="AH34">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>3.9</v>
+      </c>
+      <c r="C35">
+        <v>3.7</v>
+      </c>
+      <c r="D35">
+        <v>3.5</v>
+      </c>
+      <c r="E35">
+        <v>3.3</v>
+      </c>
+      <c r="F35">
+        <v>3.2</v>
+      </c>
+      <c r="I35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J35">
+        <v>4.8</v>
+      </c>
+      <c r="K35">
+        <v>4.7</v>
+      </c>
+      <c r="L35">
+        <v>4.5</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q35">
+        <v>-1.2</v>
+      </c>
+      <c r="R35">
+        <v>-2.4</v>
+      </c>
+      <c r="S35">
+        <v>-0.5</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>8.1</v>
+      </c>
+      <c r="V35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W35">
+        <v>4.2</v>
+      </c>
+      <c r="X35">
+        <v>2.8</v>
+      </c>
+      <c r="Y35">
+        <v>2.4</v>
+      </c>
+      <c r="AB35">
+        <v>3.7</v>
+      </c>
+      <c r="AC35">
+        <v>4.5</v>
+      </c>
+      <c r="AD35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AE35">
+        <v>5.3</v>
+      </c>
+      <c r="AF35">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>3.8</v>
+      </c>
+      <c r="C36">
+        <v>3.5</v>
+      </c>
+      <c r="D36">
+        <v>3.25</v>
+      </c>
+      <c r="E36">
+        <v>3.2</v>
+      </c>
+      <c r="F36">
+        <v>3.15</v>
+      </c>
+      <c r="G36">
+        <v>3.15</v>
+      </c>
+      <c r="H36">
+        <v>3.15</v>
+      </c>
+      <c r="I36">
+        <v>4.375</v>
+      </c>
+      <c r="J36">
+        <v>4.375</v>
+      </c>
+      <c r="K36">
+        <v>4.375</v>
+      </c>
+      <c r="L36">
+        <v>3.625</v>
+      </c>
+      <c r="M36">
+        <v>2.875</v>
+      </c>
+      <c r="N36">
+        <v>2.625</v>
+      </c>
+      <c r="O36">
+        <v>2.625</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>-0.1</v>
+      </c>
+      <c r="R36">
+        <v>-0.1</v>
+      </c>
+      <c r="S36">
+        <v>0.5</v>
+      </c>
+      <c r="T36">
+        <v>0.8</v>
+      </c>
+      <c r="U36">
+        <v>7.7</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="W36">
+        <v>3.9</v>
+      </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>2.5</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>3.85</v>
+      </c>
+      <c r="AC36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AE36">
+        <v>5.2</v>
+      </c>
+      <c r="AF36">
+        <v>5.2</v>
+      </c>
+      <c r="AG36">
+        <v>5</v>
+      </c>
+      <c r="AH36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C37">
+        <v>3.8</v>
+      </c>
+      <c r="D37">
+        <v>3.5</v>
+      </c>
+      <c r="I37">
+        <v>3.875</v>
+      </c>
+      <c r="J37">
+        <v>4.125</v>
+      </c>
+      <c r="K37">
+        <v>3.875</v>
+      </c>
+      <c r="P37">
+        <v>2.1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>-0.6</v>
+      </c>
+      <c r="S37">
+        <v>-1.5</v>
+      </c>
+      <c r="T37">
+        <v>0.8</v>
+      </c>
+      <c r="U37">
+        <v>7.2</v>
+      </c>
+      <c r="V37">
+        <v>3.8</v>
+      </c>
+      <c r="W37">
+        <v>2.9</v>
+      </c>
+      <c r="AB37">
+        <v>3.7</v>
+      </c>
+      <c r="AC37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD37">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2.5</v>
+      </c>
+      <c r="E38">
+        <v>2.5</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>4.375</v>
+      </c>
+      <c r="J38">
+        <v>4.375</v>
+      </c>
+      <c r="K38">
+        <v>3.375</v>
+      </c>
+      <c r="L38">
+        <v>2.375</v>
+      </c>
+      <c r="M38">
+        <v>2.375</v>
+      </c>
+      <c r="N38">
+        <v>2.375</v>
+      </c>
+      <c r="O38">
+        <v>2.375</v>
+      </c>
+      <c r="P38">
+        <v>1.4</v>
+      </c>
+      <c r="Q38">
+        <v>0.6</v>
+      </c>
+      <c r="R38">
+        <v>-2</v>
+      </c>
+      <c r="S38">
+        <v>-1.6</v>
+      </c>
+      <c r="T38">
+        <v>1.3</v>
+      </c>
+      <c r="U38">
+        <v>6.9</v>
+      </c>
+      <c r="V38">
+        <v>2.4</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>1.8</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>3.6</v>
+      </c>
+      <c r="AC38">
+        <v>4.3</v>
+      </c>
+      <c r="AD38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE38">
+        <v>4.3</v>
+      </c>
+      <c r="AF38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AG38">
+        <v>3.9</v>
+      </c>
+      <c r="AH38">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>3.75</v>
+      </c>
+      <c r="C39">
+        <v>3.25</v>
+      </c>
+      <c r="D39">
+        <v>2.85</v>
+      </c>
+      <c r="E39">
+        <v>2.5</v>
+      </c>
+      <c r="F39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G39">
+        <v>2.25</v>
+      </c>
+      <c r="H39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I39">
+        <v>4.375</v>
+      </c>
+      <c r="J39">
+        <v>4.125</v>
+      </c>
+      <c r="K39">
+        <v>3.375</v>
+      </c>
+      <c r="L39">
+        <v>2.625</v>
+      </c>
+      <c r="M39">
+        <v>1.625</v>
+      </c>
+      <c r="N39">
+        <v>1.625</v>
+      </c>
+      <c r="O39">
+        <v>1.875</v>
+      </c>
+      <c r="P39">
+        <v>0.7</v>
+      </c>
+      <c r="Q39">
+        <v>0.7</v>
+      </c>
+      <c r="R39">
+        <v>0.1</v>
+      </c>
+      <c r="S39">
+        <v>0.4</v>
+      </c>
+      <c r="T39">
+        <v>0.9</v>
+      </c>
+      <c r="U39">
+        <v>7</v>
+      </c>
+      <c r="V39">
+        <v>3.3</v>
+      </c>
+      <c r="W39">
+        <v>3.1</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>1.9</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>1.8</v>
+      </c>
+      <c r="AB39">
+        <v>3.7</v>
+      </c>
+      <c r="AC39">
+        <v>3.9</v>
+      </c>
+      <c r="AD39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF39">
+        <v>4.8</v>
+      </c>
+      <c r="AG39">
+        <v>4.7</v>
+      </c>
+      <c r="AH39">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>4.125</v>
+      </c>
+      <c r="J40">
+        <v>4.375</v>
+      </c>
+      <c r="K40">
+        <v>4.375</v>
+      </c>
+      <c r="P40">
+        <v>0.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.8</v>
+      </c>
+      <c r="R40">
+        <v>-1</v>
+      </c>
+      <c r="S40">
+        <v>0.1</v>
+      </c>
+      <c r="T40">
+        <v>1.5</v>
+      </c>
+      <c r="AB40">
+        <v>3.6</v>
+      </c>
+      <c r="AC40">
+        <v>4.3</v>
+      </c>
+      <c r="AD40">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41">
+        <v>3.99</v>
+      </c>
+      <c r="C41">
+        <v>4.05</v>
+      </c>
+      <c r="D41">
+        <v>4.05</v>
+      </c>
+      <c r="I41">
+        <v>4.37</v>
+      </c>
+      <c r="J41">
+        <v>4.62</v>
+      </c>
+      <c r="K41">
+        <v>4.62</v>
+      </c>
+      <c r="P41">
+        <v>1.98</v>
+      </c>
+      <c r="Q41">
+        <v>-0.69</v>
+      </c>
+      <c r="R41">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="S41">
+        <v>-0.67</v>
+      </c>
+      <c r="T41">
+        <v>0.47</v>
+      </c>
+      <c r="U41">
+        <v>7.15</v>
+      </c>
+      <c r="V41">
+        <v>4.68</v>
+      </c>
+      <c r="W41">
+        <v>3.27</v>
+      </c>
+      <c r="AB41">
+        <v>3.7</v>
+      </c>
+      <c r="AC41">
+        <v>4.2</v>
+      </c>
+      <c r="AD41">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>3.6</v>
+      </c>
+      <c r="C42">
+        <v>3.4</v>
+      </c>
+      <c r="D42">
+        <v>3.2</v>
+      </c>
+      <c r="I42">
+        <v>4.125</v>
+      </c>
+      <c r="J42">
+        <v>4.625</v>
+      </c>
+      <c r="K42">
+        <v>4.625</v>
+      </c>
+      <c r="L42">
+        <v>4.125</v>
+      </c>
+      <c r="M42">
+        <v>3.875</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>0.8</v>
+      </c>
+      <c r="U42">
+        <v>7.3</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>4.2</v>
+      </c>
+      <c r="AB42">
+        <v>3.7</v>
+      </c>
+      <c r="AC42">
+        <v>3.9</v>
+      </c>
+      <c r="AD42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE42">
+        <v>3.9</v>
+      </c>
+      <c r="AF42">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43">
+        <v>4.375</v>
+      </c>
+      <c r="J43">
+        <v>4.875</v>
+      </c>
+      <c r="K43">
+        <v>4.875</v>
+      </c>
+      <c r="L43">
+        <v>4.625</v>
+      </c>
+      <c r="M43">
+        <v>4.125</v>
+      </c>
+      <c r="N43">
+        <v>3.625</v>
+      </c>
+      <c r="O43">
+        <v>3.125</v>
+      </c>
+      <c r="P43">
+        <v>2.1</v>
+      </c>
+      <c r="Q43">
+        <v>1.2</v>
+      </c>
+      <c r="R43">
+        <v>0.6</v>
+      </c>
+      <c r="S43">
+        <v>0.5</v>
+      </c>
+      <c r="T43">
+        <v>-1.3</v>
+      </c>
+      <c r="U43">
+        <v>7.5</v>
+      </c>
+      <c r="V43">
+        <v>4.8</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>2.6</v>
+      </c>
+      <c r="Y43">
+        <v>2.5</v>
+      </c>
+      <c r="Z43">
+        <v>2.5</v>
+      </c>
+      <c r="AA43">
+        <v>2.5</v>
+      </c>
+      <c r="AB43">
+        <v>3.8</v>
+      </c>
+      <c r="AC43">
+        <v>4.2</v>
+      </c>
+      <c r="AD43">
+        <v>5</v>
+      </c>
+      <c r="AE43">
+        <v>4.8</v>
+      </c>
+      <c r="AF43">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH43">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>3.71</v>
+      </c>
+      <c r="C44">
+        <v>3.48</v>
+      </c>
+      <c r="D44">
+        <v>3.11</v>
+      </c>
+      <c r="E44">
+        <v>2.73</v>
+      </c>
+      <c r="F44">
+        <v>2.64</v>
+      </c>
+      <c r="G44">
+        <v>2.9</v>
+      </c>
+      <c r="H44">
+        <v>3.1</v>
+      </c>
+      <c r="I44">
+        <v>4.63</v>
+      </c>
+      <c r="J44">
+        <v>5.13</v>
+      </c>
+      <c r="K44">
+        <v>5.13</v>
+      </c>
+      <c r="L44">
+        <v>3.88</v>
+      </c>
+      <c r="M44">
+        <v>1.88</v>
+      </c>
+      <c r="N44">
+        <v>1.38</v>
+      </c>
+      <c r="O44">
+        <v>1.38</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>2.7</v>
+      </c>
+      <c r="R44">
+        <v>1.4</v>
+      </c>
+      <c r="S44">
+        <v>0.3</v>
+      </c>
+      <c r="T44">
+        <v>-1.4</v>
+      </c>
+      <c r="U44">
+        <v>6.88</v>
+      </c>
+      <c r="V44">
+        <v>3.08</v>
+      </c>
+      <c r="W44">
+        <v>3.38</v>
+      </c>
+      <c r="X44">
+        <v>3.65</v>
+      </c>
+      <c r="Y44">
+        <v>3.09</v>
+      </c>
+      <c r="Z44">
+        <v>2.6</v>
+      </c>
+      <c r="AA44">
+        <v>2.5</v>
+      </c>
+      <c r="AB44">
+        <v>3.3</v>
+      </c>
+      <c r="AC44">
+        <v>3.4</v>
+      </c>
+      <c r="AD44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE44">
+        <v>6.4</v>
+      </c>
+      <c r="AF44">
+        <v>7.3</v>
+      </c>
+      <c r="AG44">
+        <v>6.9</v>
+      </c>
+      <c r="AH44">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45">
+        <v>3.25</v>
+      </c>
+      <c r="D45">
+        <v>2.75</v>
+      </c>
+      <c r="I45">
+        <v>4.125</v>
+      </c>
+      <c r="K45">
+        <v>3.625</v>
+      </c>
+      <c r="U45">
+        <v>7.3</v>
+      </c>
+      <c r="W45">
+        <v>2.6</v>
+      </c>
+      <c r="AB45">
+        <v>3.5</v>
+      </c>
+      <c r="AD45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C46">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E46">
+        <v>4.2</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>3.75</v>
+      </c>
+      <c r="H46">
+        <v>3.85</v>
+      </c>
+      <c r="I46">
+        <v>4.375</v>
+      </c>
+      <c r="J46">
+        <v>4.625</v>
+      </c>
+      <c r="K46">
+        <v>4.625</v>
+      </c>
+      <c r="L46">
+        <v>4.125</v>
+      </c>
+      <c r="M46">
+        <v>3.875</v>
+      </c>
+      <c r="N46">
+        <v>3.625</v>
+      </c>
+      <c r="O46">
+        <v>3.625</v>
+      </c>
+      <c r="P46">
+        <v>1.2</v>
+      </c>
+      <c r="Q46">
+        <v>-0.7</v>
+      </c>
+      <c r="R46">
+        <v>-1.6</v>
+      </c>
+      <c r="S46">
+        <v>-0.8</v>
+      </c>
+      <c r="T46">
+        <v>0.3</v>
+      </c>
+      <c r="U46">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V46">
+        <v>6.3</v>
+      </c>
+      <c r="W46">
+        <v>4.3</v>
+      </c>
+      <c r="X46">
+        <v>3.5</v>
+      </c>
+      <c r="Y46">
+        <v>2.7</v>
+      </c>
+      <c r="Z46">
+        <v>2.6</v>
+      </c>
+      <c r="AA46">
+        <v>2.5</v>
+      </c>
+      <c r="AB46">
+        <v>3.7</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AD46">
+        <v>4.2</v>
+      </c>
+      <c r="AE46">
+        <v>3.9</v>
+      </c>
+      <c r="AF46">
+        <v>3.7</v>
+      </c>
+      <c r="AG46">
+        <v>3.6</v>
+      </c>
+      <c r="AH46">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>4.2</v>
+      </c>
+      <c r="C47">
+        <v>4.25</v>
+      </c>
+      <c r="D47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E47">
+        <v>3.95</v>
+      </c>
+      <c r="F47">
+        <v>3.75</v>
+      </c>
+      <c r="G47">
+        <v>3.75</v>
+      </c>
+      <c r="H47">
+        <v>3.75</v>
+      </c>
+      <c r="I47">
+        <v>4.375</v>
+      </c>
+      <c r="J47">
+        <v>4.875</v>
+      </c>
+      <c r="K47">
+        <v>4.875</v>
+      </c>
+      <c r="L47">
+        <v>4.375</v>
+      </c>
+      <c r="M47">
+        <v>3.875</v>
+      </c>
+      <c r="N47">
+        <v>3.375</v>
+      </c>
+      <c r="O47">
+        <v>2.875</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>-0.7</v>
+      </c>
+      <c r="S47">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="T47">
+        <v>-1.3</v>
+      </c>
+      <c r="U47">
+        <v>7.5</v>
+      </c>
+      <c r="V47">
+        <v>4.5</v>
+      </c>
+      <c r="W47">
+        <v>3.4</v>
+      </c>
+      <c r="X47">
+        <v>2.8</v>
+      </c>
+      <c r="Y47">
+        <v>2.5</v>
+      </c>
+      <c r="Z47">
+        <v>2.25</v>
+      </c>
+      <c r="AA47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB47">
+        <v>3.8</v>
+      </c>
+      <c r="AC47">
+        <v>4.3</v>
+      </c>
+      <c r="AD47">
+        <v>5</v>
+      </c>
+      <c r="AE47">
+        <v>5.2</v>
+      </c>
+      <c r="AF47">
+        <v>5</v>
+      </c>
+      <c r="AG47">
+        <v>4.8</v>
+      </c>
+      <c r="AH47">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48">
+        <v>4.125</v>
+      </c>
+      <c r="J48">
+        <v>4.375</v>
+      </c>
+      <c r="K48">
+        <v>4.375</v>
+      </c>
+      <c r="L48">
+        <v>3.875</v>
+      </c>
+      <c r="M48">
+        <v>3.625</v>
+      </c>
+      <c r="P48">
+        <v>1.5</v>
+      </c>
+      <c r="Q48">
+        <v>0.5</v>
+      </c>
+      <c r="R48">
+        <v>0.5</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>7.3</v>
+      </c>
+      <c r="V48">
+        <v>5.8</v>
+      </c>
+      <c r="W48">
+        <v>2.8</v>
+      </c>
+      <c r="X48">
+        <v>2.4</v>
+      </c>
+      <c r="Y48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB48">
+        <v>3.7</v>
+      </c>
+      <c r="AC48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE48">
+        <v>4.2</v>
+      </c>
+      <c r="AF48">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>4.25</v>
+      </c>
+      <c r="D52">
+        <v>3.8</v>
+      </c>
+      <c r="E52">
+        <v>3.5</v>
+      </c>
+      <c r="I52">
+        <v>4.375</v>
+      </c>
+      <c r="J52">
+        <v>5.875</v>
+      </c>
+      <c r="K52">
+        <v>5.375</v>
+      </c>
+      <c r="L52">
+        <v>4.875</v>
+      </c>
+      <c r="P52">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-2.1</v>
+      </c>
+      <c r="R52">
+        <v>-0.8</v>
+      </c>
+      <c r="S52">
+        <v>-1.7</v>
+      </c>
+      <c r="T52">
+        <v>0.3</v>
+      </c>
+      <c r="AB52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC52">
+        <v>5.2</v>
+      </c>
+      <c r="AD52">
+        <v>5.6</v>
+      </c>
+      <c r="AE52">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53">
+        <v>3.25</v>
+      </c>
+      <c r="C53">
+        <v>3.1</v>
+      </c>
+      <c r="D53">
+        <v>2.75</v>
+      </c>
+      <c r="I53">
+        <v>4.375</v>
+      </c>
+      <c r="J53">
+        <v>4.375</v>
+      </c>
+      <c r="K53">
+        <v>3.625</v>
+      </c>
+      <c r="P53">
+        <v>0.9</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0.7</v>
+      </c>
+      <c r="S53">
+        <v>0.4</v>
+      </c>
+      <c r="T53">
+        <v>0.3</v>
+      </c>
+      <c r="U53">
+        <v>6.91</v>
+      </c>
+      <c r="V53">
+        <v>2.15</v>
+      </c>
+      <c r="W53">
+        <v>2.1</v>
+      </c>
+      <c r="X53">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AB53">
+        <v>3.52</v>
+      </c>
+      <c r="AC53">
+        <v>3.55</v>
+      </c>
+      <c r="AD53">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>3.9</v>
+      </c>
+      <c r="D54">
+        <v>3.75</v>
+      </c>
+      <c r="E54">
+        <v>3.5</v>
+      </c>
+      <c r="F54">
+        <v>3.3</v>
+      </c>
+      <c r="G54">
+        <v>3.05</v>
+      </c>
+      <c r="H54">
+        <v>2.8</v>
+      </c>
+      <c r="I54">
+        <v>4.375</v>
+      </c>
+      <c r="J54">
+        <v>4.625</v>
+      </c>
+      <c r="K54">
+        <v>4.625</v>
+      </c>
+      <c r="L54">
+        <v>3.875</v>
+      </c>
+      <c r="M54">
+        <v>3.375</v>
+      </c>
+      <c r="N54">
+        <v>2.875</v>
+      </c>
+      <c r="O54">
+        <v>2.375</v>
+      </c>
+      <c r="P54">
+        <v>0.6</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <v>-1</v>
+      </c>
+      <c r="S54">
+        <v>-0.5</v>
+      </c>
+      <c r="T54">
+        <v>0.7</v>
+      </c>
+      <c r="U54">
+        <v>7.5</v>
+      </c>
+      <c r="V54">
+        <v>4</v>
+      </c>
+      <c r="W54">
+        <v>3.6</v>
+      </c>
+      <c r="X54">
+        <v>2.7</v>
+      </c>
+      <c r="Y54">
+        <v>2.5</v>
+      </c>
+      <c r="Z54">
+        <v>2.4</v>
+      </c>
+      <c r="AA54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB54">
+        <v>3.8</v>
+      </c>
+      <c r="AC54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AD54">
+        <v>5</v>
+      </c>
+      <c r="AE54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG54">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH54">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55">
+        <v>3.88</v>
+      </c>
+      <c r="C55">
+        <v>3.66</v>
+      </c>
+      <c r="D55">
+        <v>3.39</v>
+      </c>
+      <c r="E55">
+        <v>3.28</v>
+      </c>
+      <c r="F55">
+        <v>3.23</v>
+      </c>
+      <c r="G55">
+        <v>3.2</v>
+      </c>
+      <c r="H55">
+        <v>3.18</v>
+      </c>
+      <c r="I55">
+        <v>4.125</v>
+      </c>
+      <c r="J55">
+        <v>4.625</v>
+      </c>
+      <c r="K55">
+        <v>4.625</v>
+      </c>
+      <c r="L55">
+        <v>4.125</v>
+      </c>
+      <c r="M55">
+        <v>3.125</v>
+      </c>
+      <c r="N55">
+        <v>2.625</v>
+      </c>
+      <c r="O55">
+        <v>2.625</v>
+      </c>
+      <c r="P55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q55">
+        <v>-1.2</v>
+      </c>
+      <c r="R55">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="S55">
+        <v>-0.7</v>
+      </c>
+      <c r="T55">
+        <v>1.2</v>
+      </c>
+      <c r="U55">
+        <v>7.3</v>
+      </c>
+      <c r="V55">
+        <v>3.9</v>
+      </c>
+      <c r="W55">
+        <v>3.7</v>
+      </c>
+      <c r="X55">
+        <v>2.7</v>
+      </c>
+      <c r="Y55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA55">
+        <v>2.1</v>
+      </c>
+      <c r="AB55">
+        <v>3.7</v>
+      </c>
+      <c r="AC55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AD55">
+        <v>6.1</v>
+      </c>
+      <c r="AE55">
+        <v>5.8</v>
+      </c>
+      <c r="AF55">
+        <v>5.4</v>
+      </c>
+      <c r="AG55">
+        <v>5.2</v>
+      </c>
+      <c r="AH55">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>3.9</v>
+      </c>
+      <c r="C56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>3.8</v>
+      </c>
+      <c r="F56">
+        <v>3.5</v>
+      </c>
+      <c r="G56">
+        <v>3.5</v>
+      </c>
+      <c r="H56">
+        <v>3.5</v>
+      </c>
+      <c r="I56">
+        <v>4.125</v>
+      </c>
+      <c r="J56">
+        <v>4.625</v>
+      </c>
+      <c r="K56">
+        <v>4.125</v>
+      </c>
+      <c r="L56">
+        <v>3.375</v>
+      </c>
+      <c r="M56">
+        <v>2.875</v>
+      </c>
+      <c r="N56">
+        <v>2.875</v>
+      </c>
+      <c r="O56">
+        <v>2.875</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>0.5</v>
+      </c>
+      <c r="R56">
+        <v>0.5</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>7.4</v>
+      </c>
+      <c r="V56">
+        <v>3.2</v>
+      </c>
+      <c r="W56">
+        <v>2.9</v>
+      </c>
+      <c r="X56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>1.8</v>
+      </c>
+      <c r="AA56">
+        <v>2</v>
+      </c>
+      <c r="AB56">
+        <v>3.8</v>
+      </c>
+      <c r="AC56">
+        <v>4.2</v>
+      </c>
+      <c r="AD56">
+        <v>4.5</v>
+      </c>
+      <c r="AE56">
+        <v>4.2</v>
+      </c>
+      <c r="AF56">
+        <v>3.8</v>
+      </c>
+      <c r="AG56">
+        <v>3.5</v>
+      </c>
+      <c r="AH56">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C57">
+        <v>3.95</v>
+      </c>
+      <c r="D57">
+        <v>3.75</v>
+      </c>
+      <c r="E57">
+        <v>3.31</v>
+      </c>
+      <c r="F57">
+        <v>3.05</v>
+      </c>
+      <c r="G57">
+        <v>2.95</v>
+      </c>
+      <c r="H57">
+        <v>2.9</v>
+      </c>
+      <c r="I57">
+        <v>4.25</v>
+      </c>
+      <c r="J57">
+        <v>4.25</v>
+      </c>
+      <c r="K57">
+        <v>3.5</v>
+      </c>
+      <c r="L57">
+        <v>3.5</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>2.875</v>
+      </c>
+      <c r="O57">
+        <v>2.875</v>
+      </c>
+      <c r="P57">
+        <v>-0.39939999999999998</v>
+      </c>
+      <c r="Q57">
+        <v>1.48</v>
+      </c>
+      <c r="R57">
+        <v>1.4</v>
+      </c>
+      <c r="S57">
+        <v>1.47</v>
+      </c>
+      <c r="T57">
+        <v>1.31</v>
+      </c>
+      <c r="U57">
+        <v>7.89</v>
+      </c>
+      <c r="V57">
+        <v>6.25</v>
+      </c>
+      <c r="W57">
+        <v>5.12</v>
+      </c>
+      <c r="X57">
+        <v>4.05</v>
+      </c>
+      <c r="Y57">
+        <v>3.05</v>
+      </c>
+      <c r="Z57">
+        <v>2.16</v>
+      </c>
+      <c r="AA57">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AB57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC57">
+        <v>3.9</v>
+      </c>
+      <c r="AD57">
+        <v>4</v>
+      </c>
+      <c r="AE57">
+        <v>3.9</v>
+      </c>
+      <c r="AF57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AG57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH57">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>4.2</v>
+      </c>
+      <c r="C58">
+        <v>4.05</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>4.375</v>
+      </c>
+      <c r="J58">
+        <v>4.875</v>
+      </c>
+      <c r="K58">
+        <v>3.875</v>
+      </c>
+      <c r="L58">
+        <v>2.875</v>
+      </c>
+      <c r="M58">
+        <v>2.625</v>
+      </c>
+      <c r="N58">
+        <v>2.625</v>
+      </c>
+      <c r="O58">
+        <v>2.625</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>1.9</v>
+      </c>
+      <c r="R58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S58">
+        <v>0.2</v>
+      </c>
+      <c r="T58">
+        <v>-3.2</v>
+      </c>
+      <c r="U58">
+        <v>7.2</v>
+      </c>
+      <c r="V58">
+        <v>4.2</v>
+      </c>
+      <c r="W58">
+        <v>3.9</v>
+      </c>
+      <c r="X58">
+        <v>3.3</v>
+      </c>
+      <c r="Y58">
+        <v>2.9</v>
+      </c>
+      <c r="Z58">
+        <v>2.7</v>
+      </c>
+      <c r="AA58">
+        <v>2.5</v>
+      </c>
+      <c r="AB58">
+        <v>3.7</v>
+      </c>
+      <c r="AC58">
+        <v>4.3</v>
+      </c>
+      <c r="AD58">
+        <v>5.6</v>
+      </c>
+      <c r="AE58">
+        <v>5.2</v>
+      </c>
+      <c r="AF58">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG58">
+        <v>4.5</v>
+      </c>
+      <c r="AH58">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60">
+        <v>4.2</v>
+      </c>
+      <c r="C60">
+        <v>4.5</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>5.29</v>
+      </c>
+      <c r="F60">
+        <v>5.2</v>
+      </c>
+      <c r="G60">
+        <v>5.05</v>
+      </c>
+      <c r="H60">
+        <v>4.75</v>
+      </c>
+      <c r="I60">
+        <v>4.37</v>
+      </c>
+      <c r="J60">
+        <v>5.12</v>
+      </c>
+      <c r="K60">
+        <v>5.63</v>
+      </c>
+      <c r="L60">
+        <v>5.87</v>
+      </c>
+      <c r="M60">
+        <v>5.87</v>
+      </c>
+      <c r="N60">
+        <v>5.37</v>
+      </c>
+      <c r="O60">
+        <v>5.17</v>
+      </c>
+      <c r="P60">
+        <v>2.5</v>
+      </c>
+      <c r="Q60">
+        <v>3.2</v>
+      </c>
+      <c r="R60">
+        <v>2.1</v>
+      </c>
+      <c r="S60">
+        <v>2.6</v>
+      </c>
+      <c r="T60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U60">
+        <v>6.9</v>
+      </c>
+      <c r="V60">
+        <v>5.5</v>
+      </c>
+      <c r="W60">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y60">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z60">
+        <v>3.5</v>
+      </c>
+      <c r="AA60">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <v>3.7</v>
+      </c>
+      <c r="AC60">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD60">
+        <v>4.5</v>
+      </c>
+      <c r="AE60">
+        <v>4.7</v>
+      </c>
+      <c r="AF60">
+        <v>5</v>
+      </c>
+      <c r="AG60">
+        <v>5.2</v>
+      </c>
+      <c r="AH60">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>3.4</v>
+      </c>
+      <c r="C61">
+        <v>3.5</v>
+      </c>
+      <c r="D61">
+        <v>3.6</v>
+      </c>
+      <c r="E61">
+        <v>3.6</v>
+      </c>
+      <c r="F61">
+        <v>3.6</v>
+      </c>
+      <c r="G61">
+        <v>3.6</v>
+      </c>
+      <c r="H61">
+        <v>3.6</v>
+      </c>
+      <c r="I61">
+        <v>4.375</v>
+      </c>
+      <c r="J61">
+        <v>4.625</v>
+      </c>
+      <c r="K61">
+        <v>5.125</v>
+      </c>
+      <c r="L61">
+        <v>5.125</v>
+      </c>
+      <c r="M61">
+        <v>4.875</v>
+      </c>
+      <c r="N61">
+        <v>4.625</v>
+      </c>
+      <c r="O61">
+        <v>4.375</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>-1</v>
+      </c>
+      <c r="S61">
+        <v>-1.5</v>
+      </c>
+      <c r="T61">
+        <v>-2</v>
+      </c>
+      <c r="U61">
+        <v>6.8</v>
+      </c>
+      <c r="V61">
+        <v>6</v>
+      </c>
+      <c r="W61">
+        <v>5.5</v>
+      </c>
+      <c r="X61">
+        <v>4.5</v>
+      </c>
+      <c r="Y61">
+        <v>4</v>
+      </c>
+      <c r="Z61">
+        <v>3.5</v>
+      </c>
+      <c r="AA61">
+        <v>3</v>
+      </c>
+      <c r="AB61">
+        <v>3.7</v>
+      </c>
+      <c r="AC61">
+        <v>3.9</v>
+      </c>
+      <c r="AD61">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE61">
+        <v>4.3</v>
+      </c>
+      <c r="AF61">
+        <v>4.5</v>
+      </c>
+      <c r="AG61">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH61">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62">
+        <v>3.18</v>
+      </c>
+      <c r="C62">
+        <v>3.27</v>
+      </c>
+      <c r="D62">
+        <v>2.93</v>
+      </c>
+      <c r="E62">
+        <v>2.75</v>
+      </c>
+      <c r="F62">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G62">
+        <v>2.31</v>
+      </c>
+      <c r="H62">
+        <v>2.11</v>
+      </c>
+      <c r="I62">
+        <v>3.625</v>
+      </c>
+      <c r="J62">
+        <v>3.375</v>
+      </c>
+      <c r="K62">
+        <v>2.375</v>
+      </c>
+      <c r="L62">
+        <v>2.375</v>
+      </c>
+      <c r="M62">
+        <v>2.375</v>
+      </c>
+      <c r="N62">
+        <v>2.125</v>
+      </c>
+      <c r="O62">
+        <v>2.125</v>
+      </c>
+      <c r="P62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>3.6</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>3.2</v>
+      </c>
+      <c r="U62">
+        <v>6.1</v>
+      </c>
+      <c r="V62">
+        <v>3.7</v>
+      </c>
+      <c r="W62">
+        <v>2.8</v>
+      </c>
+      <c r="X62">
+        <v>2.1</v>
+      </c>
+      <c r="Y62">
+        <v>1.9</v>
+      </c>
+      <c r="Z62">
+        <v>1.8</v>
+      </c>
+      <c r="AA62">
+        <v>1.7</v>
+      </c>
+      <c r="AB62">
+        <v>3.5</v>
+      </c>
+      <c r="AC62">
+        <v>3.3</v>
+      </c>
+      <c r="AD62">
+        <v>3</v>
+      </c>
+      <c r="AE62">
+        <v>2.8</v>
+      </c>
+      <c r="AF62">
+        <v>2.6</v>
+      </c>
+      <c r="AG62">
+        <v>2.5</v>
+      </c>
+      <c r="AH62">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>4.2</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>3.8</v>
+      </c>
+      <c r="E63">
+        <v>3.7</v>
+      </c>
+      <c r="F63">
+        <v>3.6</v>
+      </c>
+      <c r="G63">
+        <v>3.5</v>
+      </c>
+      <c r="H63">
+        <v>3.5</v>
+      </c>
+      <c r="I63">
+        <v>4.375</v>
+      </c>
+      <c r="J63">
+        <v>4.125</v>
+      </c>
+      <c r="K63">
+        <v>3.625</v>
+      </c>
+      <c r="L63">
+        <v>3.125</v>
+      </c>
+      <c r="M63">
+        <v>2.625</v>
+      </c>
+      <c r="N63">
+        <v>2.375</v>
+      </c>
+      <c r="O63">
+        <v>2.375</v>
+      </c>
+      <c r="P63">
+        <v>-0.4</v>
+      </c>
+      <c r="Q63">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="R63">
+        <v>-0.5</v>
+      </c>
+      <c r="S63">
+        <v>0.3</v>
+      </c>
+      <c r="T63">
+        <v>0.7</v>
+      </c>
+      <c r="U63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="V63">
+        <v>5.4</v>
+      </c>
+      <c r="W63">
+        <v>3.7</v>
+      </c>
+      <c r="X63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y63">
+        <v>1.2</v>
+      </c>
+      <c r="Z63">
+        <v>1.4</v>
+      </c>
+      <c r="AA63">
+        <v>1.7</v>
+      </c>
+      <c r="AB63">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC63">
+        <v>5.3</v>
+      </c>
+      <c r="AD63">
+        <v>6.1</v>
+      </c>
+      <c r="AE63">
+        <v>6.6</v>
+      </c>
+      <c r="AF63">
+        <v>6.8</v>
+      </c>
+      <c r="AG63">
+        <v>6.4</v>
+      </c>
+      <c r="AH63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C64">
+        <v>4.5</v>
+      </c>
+      <c r="D64">
+        <v>4.5</v>
+      </c>
+      <c r="E64">
+        <v>4.3</v>
+      </c>
+      <c r="F64">
+        <v>3.7</v>
+      </c>
+      <c r="G64">
+        <v>3.1</v>
+      </c>
+      <c r="H64">
+        <v>3.2</v>
+      </c>
+      <c r="I64">
+        <v>4.375</v>
+      </c>
+      <c r="J64">
+        <v>5.125</v>
+      </c>
+      <c r="K64">
+        <v>5.125</v>
+      </c>
+      <c r="L64">
+        <v>5.125</v>
+      </c>
+      <c r="M64">
+        <v>4.125</v>
+      </c>
+      <c r="N64">
+        <v>3.125</v>
+      </c>
+      <c r="O64">
+        <v>3.125</v>
+      </c>
+      <c r="P64">
+        <v>2.9</v>
+      </c>
+      <c r="Q64">
+        <v>1.9</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>1.8</v>
+      </c>
+      <c r="U64">
+        <v>7.3</v>
+      </c>
+      <c r="V64">
+        <v>3.8</v>
+      </c>
+      <c r="W64">
+        <v>3.6</v>
+      </c>
+      <c r="X64">
+        <v>3.1</v>
+      </c>
+      <c r="Y64">
+        <v>2.7</v>
+      </c>
+      <c r="Z64">
+        <v>2.4</v>
+      </c>
+      <c r="AA64">
+        <v>2.4</v>
+      </c>
+      <c r="AB64">
+        <v>3.3</v>
+      </c>
+      <c r="AC64">
+        <v>3.3</v>
+      </c>
+      <c r="AD64">
+        <v>3.3</v>
+      </c>
+      <c r="AE64">
+        <v>3.6</v>
+      </c>
+      <c r="AF64">
+        <v>4</v>
+      </c>
+      <c r="AG64">
+        <v>4.3</v>
+      </c>
+      <c r="AH64">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>3.2</v>
+      </c>
+      <c r="C65">
+        <v>3.1</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>2.8</v>
+      </c>
+      <c r="G65">
+        <v>2.7</v>
+      </c>
+      <c r="H65">
+        <v>2.5</v>
+      </c>
+      <c r="I65">
+        <v>3.83</v>
+      </c>
+      <c r="J65">
+        <v>4.13</v>
+      </c>
+      <c r="K65">
+        <v>3.88</v>
+      </c>
+      <c r="L65">
+        <v>3.38</v>
+      </c>
+      <c r="M65">
+        <v>2.88</v>
+      </c>
+      <c r="N65">
+        <v>2.88</v>
+      </c>
+      <c r="O65">
+        <v>2.25</v>
+      </c>
+      <c r="P65">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="Q65">
+        <v>-0.8</v>
+      </c>
+      <c r="R65">
+        <v>0.7</v>
+      </c>
+      <c r="S65">
+        <v>1.8</v>
+      </c>
+      <c r="T65">
+        <v>2.4</v>
+      </c>
+      <c r="U65">
+        <v>5.7</v>
+      </c>
+      <c r="V65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W65">
+        <v>2.8</v>
+      </c>
+      <c r="X65">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>1.9</v>
+      </c>
+      <c r="AA65">
+        <v>2.4</v>
+      </c>
+      <c r="AB65">
+        <v>3.5</v>
+      </c>
+      <c r="AC65">
+        <v>3.7</v>
+      </c>
+      <c r="AD65">
+        <v>4</v>
+      </c>
+      <c r="AE65">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AF65">
+        <v>4.2</v>
+      </c>
+      <c r="AG65">
+        <v>4</v>
+      </c>
+      <c r="AH65">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66">
+        <v>4.375</v>
+      </c>
+      <c r="J66">
+        <v>4.625</v>
+      </c>
+      <c r="K66">
+        <v>4.625</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>1.5</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0.75</v>
+      </c>
+      <c r="T66">
+        <v>0.75</v>
+      </c>
+      <c r="U66">
+        <v>6.6</v>
+      </c>
+      <c r="V66">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="W66">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67">
+        <v>3.95</v>
+      </c>
+      <c r="C67">
+        <v>4.05</v>
+      </c>
+      <c r="D67">
+        <v>3.8</v>
+      </c>
+      <c r="E67">
+        <v>3.5</v>
+      </c>
+      <c r="F67">
+        <v>3.25</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>2.95</v>
+      </c>
+      <c r="I67">
+        <v>4.375</v>
+      </c>
+      <c r="J67">
+        <v>4.625</v>
+      </c>
+      <c r="K67">
+        <v>4.625</v>
+      </c>
+      <c r="L67">
+        <v>3.875</v>
+      </c>
+      <c r="M67">
+        <v>3.125</v>
+      </c>
+      <c r="N67">
+        <v>2.875</v>
+      </c>
+      <c r="O67">
+        <v>2.625</v>
+      </c>
+      <c r="P67">
+        <v>1.5</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>-0.3</v>
+      </c>
+      <c r="S67">
+        <v>-0.3</v>
+      </c>
+      <c r="T67">
+        <v>0.8</v>
+      </c>
+      <c r="U67">
+        <v>7.7</v>
+      </c>
+      <c r="V67">
+        <v>5</v>
+      </c>
+      <c r="W67">
+        <v>3.8</v>
+      </c>
+      <c r="X67">
+        <v>3</v>
+      </c>
+      <c r="Y67">
+        <v>2.5</v>
+      </c>
+      <c r="Z67">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA67">
+        <v>2</v>
+      </c>
+      <c r="AB67">
+        <v>3.7</v>
+      </c>
+      <c r="AC67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD67">
+        <v>5</v>
+      </c>
+      <c r="AE67">
+        <v>5.3</v>
+      </c>
+      <c r="AF67">
+        <v>5</v>
+      </c>
+      <c r="AG67">
+        <v>4.8</v>
+      </c>
+      <c r="AH67">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68">
+        <v>3.9</v>
+      </c>
+      <c r="C68">
+        <v>3.5</v>
+      </c>
+      <c r="D68">
+        <v>3.4</v>
+      </c>
+      <c r="E68">
+        <v>2.9</v>
+      </c>
+      <c r="F68">
+        <v>2.7</v>
+      </c>
+      <c r="G68">
+        <v>2.5</v>
+      </c>
+      <c r="H68">
+        <v>2.5</v>
+      </c>
+      <c r="I68">
+        <v>4.125</v>
+      </c>
+      <c r="J68">
+        <v>4.375</v>
+      </c>
+      <c r="K68">
+        <v>3.625</v>
+      </c>
+      <c r="L68">
+        <v>2.375</v>
+      </c>
+      <c r="M68">
+        <v>2.375</v>
+      </c>
+      <c r="N68">
+        <v>2.375</v>
+      </c>
+      <c r="O68">
+        <v>2.375</v>
+      </c>
+      <c r="P68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q68">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="R68">
+        <v>-2.8</v>
+      </c>
+      <c r="S68">
+        <v>-0.3</v>
+      </c>
+      <c r="T68">
+        <v>1.9</v>
+      </c>
+      <c r="U68">
+        <v>7</v>
+      </c>
+      <c r="V68">
+        <v>3.3</v>
+      </c>
+      <c r="W68">
+        <v>2.6</v>
+      </c>
+      <c r="X68">
+        <v>2.5</v>
+      </c>
+      <c r="Y68">
+        <v>2.4</v>
+      </c>
+      <c r="Z68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA68">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB68">
+        <v>3.9</v>
+      </c>
+      <c r="AC68">
+        <v>5.3</v>
+      </c>
+      <c r="AD68">
+        <v>5.8</v>
+      </c>
+      <c r="AE68">
+        <v>5.6</v>
+      </c>
+      <c r="AF68">
+        <v>5.4</v>
+      </c>
+      <c r="AG68">
+        <v>5.2</v>
+      </c>
+      <c r="AH68">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>3.85</v>
+      </c>
+      <c r="D69">
+        <v>3.75</v>
+      </c>
+      <c r="E69">
+        <v>3.5</v>
+      </c>
+      <c r="F69">
+        <v>3.5</v>
+      </c>
+      <c r="G69">
+        <v>3.5</v>
+      </c>
+      <c r="H69">
+        <v>3.5</v>
+      </c>
+      <c r="I69">
+        <v>4.375</v>
+      </c>
+      <c r="J69">
+        <v>4.375</v>
+      </c>
+      <c r="K69">
+        <v>4.375</v>
+      </c>
+      <c r="L69">
+        <v>3.875</v>
+      </c>
+      <c r="M69">
+        <v>3.375</v>
+      </c>
+      <c r="N69">
+        <v>2.875</v>
+      </c>
+      <c r="O69">
+        <v>2.875</v>
+      </c>
+      <c r="P69">
+        <v>1.2</v>
+      </c>
+      <c r="Q69">
+        <v>0.6</v>
+      </c>
+      <c r="R69">
+        <v>0.3</v>
+      </c>
+      <c r="S69">
+        <v>0.4</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>7.2</v>
+      </c>
+      <c r="V69">
+        <v>3.8</v>
+      </c>
+      <c r="W69">
+        <v>2.9</v>
+      </c>
+      <c r="X69">
+        <v>2.4</v>
+      </c>
+      <c r="Y69">
+        <v>2.1</v>
+      </c>
+      <c r="Z69">
+        <v>2</v>
+      </c>
+      <c r="AA69">
+        <v>2</v>
+      </c>
+      <c r="AB69">
+        <v>3.8</v>
+      </c>
+      <c r="AC69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD69">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE69">
+        <v>4.5</v>
+      </c>
+      <c r="AF69">
+        <v>4.3</v>
+      </c>
+      <c r="AG69">
+        <v>4</v>
+      </c>
+      <c r="AH69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>3.9</v>
+      </c>
+      <c r="C70">
+        <v>4.32</v>
+      </c>
+      <c r="D70">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E70">
+        <v>4.45</v>
+      </c>
+      <c r="F70">
+        <v>4.16</v>
+      </c>
+      <c r="G70">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H70">
+        <v>3.88</v>
+      </c>
+      <c r="I70">
+        <v>3.625</v>
+      </c>
+      <c r="J70">
+        <v>5.125</v>
+      </c>
+      <c r="K70">
+        <v>4.875</v>
+      </c>
+      <c r="L70">
+        <v>4.125</v>
+      </c>
+      <c r="M70">
+        <v>3.125</v>
+      </c>
+      <c r="N70">
+        <v>3.125</v>
+      </c>
+      <c r="O70">
+        <v>3.125</v>
+      </c>
+      <c r="P70">
+        <v>1.3</v>
+      </c>
+      <c r="Q70">
+        <v>1.8</v>
+      </c>
+      <c r="R70">
+        <v>1.6</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1.4</v>
+      </c>
+      <c r="U70">
+        <v>8.6</v>
+      </c>
+      <c r="V70">
+        <v>7.5</v>
+      </c>
+      <c r="W70">
+        <v>5.5</v>
+      </c>
+      <c r="X70">
+        <v>4.7</v>
+      </c>
+      <c r="Y70">
+        <v>3.8</v>
+      </c>
+      <c r="Z70">
+        <v>2.9</v>
+      </c>
+      <c r="AA70">
+        <v>2.7</v>
+      </c>
+      <c r="AB70">
+        <v>3.4</v>
+      </c>
+      <c r="AC70">
+        <v>3.6</v>
+      </c>
+      <c r="AD70">
+        <v>4.3</v>
+      </c>
+      <c r="AE70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF70">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AH70">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>3.75</v>
+      </c>
+      <c r="D71">
+        <v>3.75</v>
+      </c>
+      <c r="I71">
+        <v>4.125</v>
+      </c>
+      <c r="J71">
+        <v>4.125</v>
+      </c>
+      <c r="K71">
+        <v>3.375</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>0.75</v>
+      </c>
+      <c r="R71">
+        <v>1.25</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>7.1</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>3.7</v>
+      </c>
+      <c r="C72">
+        <v>2.9</v>
+      </c>
+      <c r="D72">
+        <v>2.1</v>
+      </c>
+      <c r="E72">
+        <v>1.6</v>
+      </c>
+      <c r="F72">
+        <v>1.7</v>
+      </c>
+      <c r="I72">
+        <v>4.625</v>
+      </c>
+      <c r="J72">
+        <v>5.375</v>
+      </c>
+      <c r="K72">
+        <v>4.625</v>
+      </c>
+      <c r="L72">
+        <v>3.125</v>
+      </c>
+      <c r="M72">
+        <v>1.125</v>
+      </c>
+      <c r="P72">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q72">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="R72">
+        <v>-1.7</v>
+      </c>
+      <c r="S72">
+        <v>-2.4</v>
+      </c>
+      <c r="T72">
+        <v>-1.7</v>
+      </c>
+      <c r="U72">
+        <v>6.9</v>
+      </c>
+      <c r="V72">
+        <v>2.7</v>
+      </c>
+      <c r="W72">
+        <v>2.5</v>
+      </c>
+      <c r="X72">
+        <v>1.8</v>
+      </c>
+      <c r="Y72">
+        <v>1.5</v>
+      </c>
+      <c r="AB72">
+        <v>3.6</v>
+      </c>
+      <c r="AC72">
+        <v>4.8</v>
+      </c>
+      <c r="AD72">
+        <v>5.9</v>
+      </c>
+      <c r="AE72">
+        <v>6.4</v>
+      </c>
+      <c r="AF72">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>3.7</v>
+      </c>
+      <c r="C73">
+        <v>3.6</v>
+      </c>
+      <c r="D73">
+        <v>3.35</v>
+      </c>
+      <c r="I73">
+        <v>4.375</v>
+      </c>
+      <c r="J73">
+        <v>4.625</v>
+      </c>
+      <c r="K73">
+        <v>4.625</v>
+      </c>
+      <c r="P73">
+        <v>2.1</v>
+      </c>
+      <c r="Q73">
+        <v>0.5</v>
+      </c>
+      <c r="U73">
+        <v>7</v>
+      </c>
+      <c r="V73">
+        <v>3.1</v>
+      </c>
+      <c r="W73">
+        <v>3.2</v>
+      </c>
+      <c r="AB73">
+        <v>3.7</v>
+      </c>
+      <c r="AC73">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD73">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>3.5</v>
+      </c>
+      <c r="C74">
+        <v>3.25</v>
+      </c>
+      <c r="D74">
+        <v>2.75</v>
+      </c>
+      <c r="E74">
+        <v>2.5</v>
+      </c>
+      <c r="F74">
+        <v>2.5</v>
+      </c>
+      <c r="G74">
+        <v>2.5</v>
+      </c>
+      <c r="H74">
+        <v>2.5</v>
+      </c>
+      <c r="I74">
+        <v>4.125</v>
+      </c>
+      <c r="J74">
+        <v>4.625</v>
+      </c>
+      <c r="K74">
+        <v>4.375</v>
+      </c>
+      <c r="L74">
+        <v>3.875</v>
+      </c>
+      <c r="M74">
+        <v>3.125</v>
+      </c>
+      <c r="N74">
+        <v>2.625</v>
+      </c>
+      <c r="O74">
+        <v>2.375</v>
+      </c>
+      <c r="P74">
+        <v>1.5</v>
+      </c>
+      <c r="Q74">
+        <v>0.3</v>
+      </c>
+      <c r="R74">
+        <v>-0.7</v>
+      </c>
+      <c r="S74">
+        <v>-1.5</v>
+      </c>
+      <c r="T74">
+        <v>-0.7</v>
+      </c>
+      <c r="U74">
+        <v>7.3</v>
+      </c>
+      <c r="V74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W74">
+        <v>2.7</v>
+      </c>
+      <c r="X74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y74">
+        <v>2.5</v>
+      </c>
+      <c r="Z74">
+        <v>2.4</v>
+      </c>
+      <c r="AA74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB74">
+        <v>3.7</v>
+      </c>
+      <c r="AC74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD74">
+        <v>4.7</v>
+      </c>
+      <c r="AE74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AF74">
+        <v>5.2</v>
+      </c>
+      <c r="AG74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>3.85</v>
+      </c>
+      <c r="C75">
+        <v>3.75</v>
+      </c>
+      <c r="D75">
+        <v>3.65</v>
+      </c>
+      <c r="E75">
+        <v>3.55</v>
+      </c>
+      <c r="F75">
+        <v>3.45</v>
+      </c>
+      <c r="I75">
+        <v>4.375</v>
+      </c>
+      <c r="J75">
+        <v>4.625</v>
+      </c>
+      <c r="K75">
+        <v>4.375</v>
+      </c>
+      <c r="L75">
+        <v>3.375</v>
+      </c>
+      <c r="M75">
+        <v>2.5</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>-0.5</v>
+      </c>
+      <c r="U75">
+        <v>7.2</v>
+      </c>
+      <c r="V75">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W75">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X75">
+        <v>3.1</v>
+      </c>
+      <c r="Y75">
+        <v>2.1</v>
+      </c>
+      <c r="AB75">
+        <v>3.6</v>
+      </c>
+      <c r="AC75">
+        <v>3.8</v>
+      </c>
+      <c r="AD75">
+        <v>4.3</v>
+      </c>
+      <c r="AE75">
+        <v>4.8</v>
+      </c>
+      <c r="AF75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>3.9</v>
+      </c>
+      <c r="D76">
+        <v>3.9</v>
+      </c>
+      <c r="E76">
+        <v>3.7</v>
+      </c>
+      <c r="F76">
+        <v>3.6</v>
+      </c>
+      <c r="G76">
+        <v>3.5</v>
+      </c>
+      <c r="H76">
+        <v>3.5</v>
+      </c>
+      <c r="I76">
+        <v>3.9</v>
+      </c>
+      <c r="J76">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K76">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L76">
+        <v>3.9</v>
+      </c>
+      <c r="M76">
+        <v>3.4</v>
+      </c>
+      <c r="N76">
+        <v>3.4</v>
+      </c>
+      <c r="O76">
+        <v>3.1</v>
+      </c>
+      <c r="P76">
+        <v>1.8</v>
+      </c>
+      <c r="Q76">
+        <v>0.5</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U76">
+        <v>7</v>
+      </c>
+      <c r="V76">
+        <v>6.1</v>
+      </c>
+      <c r="W76">
+        <v>4.8</v>
+      </c>
+      <c r="X76">
+        <v>4.5</v>
+      </c>
+      <c r="Y76">
+        <v>4</v>
+      </c>
+      <c r="Z76">
+        <v>3.4</v>
+      </c>
+      <c r="AA76">
+        <v>3.3</v>
+      </c>
+      <c r="AB76">
+        <v>3.6</v>
+      </c>
+      <c r="AC76">
+        <v>4</v>
+      </c>
+      <c r="AD76">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE76">
+        <v>3.9</v>
+      </c>
+      <c r="AF76">
+        <v>3.8</v>
+      </c>
+      <c r="AG76">
+        <v>3.7</v>
+      </c>
+      <c r="AH76">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>3.75</v>
+      </c>
+      <c r="I77">
+        <v>4.375</v>
+      </c>
+      <c r="J77">
+        <v>4.625</v>
+      </c>
+      <c r="K77">
+        <v>4.375</v>
+      </c>
+      <c r="P77">
+        <v>1.3</v>
+      </c>
+      <c r="Q77">
+        <v>0.7</v>
+      </c>
+      <c r="R77">
+        <v>0.6</v>
+      </c>
+      <c r="S77">
+        <v>0.4</v>
+      </c>
+      <c r="T77">
+        <v>0.5</v>
+      </c>
+      <c r="U77">
+        <v>6.6</v>
+      </c>
+      <c r="V77">
+        <v>3.2</v>
+      </c>
+      <c r="W77">
+        <v>2.7</v>
+      </c>
+      <c r="AB77">
+        <v>3.9</v>
+      </c>
+      <c r="AC77">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD77">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modules/external-import/external-import-wsj.xlsx
+++ b/modules/external-import/external-import-wsj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\external-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bongohead\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA700C-9763-42FC-82E0-C3A217C4FC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA9123-2D4E-4CEC-86EE-DC9CDD4C3713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
   </bookViews>
   <sheets>
     <sheet name="wsj_2021-04-11" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="wsj_2022-04-10" sheetId="7" r:id="rId5"/>
     <sheet name="wsj_2022-07-17" sheetId="8" r:id="rId6"/>
     <sheet name="wsj_2022-10-16" sheetId="9" r:id="rId7"/>
+    <sheet name="wsj_2023-01-15" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="124">
   <si>
     <t>2022Q1</t>
   </si>
@@ -398,12 +399,27 @@
   <si>
     <t>Independent Commodity Intelligence Services (ICIS)</t>
   </si>
+  <si>
+    <t>Cumberland Advisors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Societe Generale </t>
+  </si>
+  <si>
+    <t>Citigroup</t>
+  </si>
+  <si>
+    <t>Evercore ISI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPMG </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +445,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,13 +468,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -461,11 +483,12 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{37673215-CC74-409B-8A0E-7F697930CC37}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{E4989C48-8C80-41E6-9AC2-1E25717941F5}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{C4E7ACB3-1F00-4FD8-B012-2F57AC0EF736}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{964962B9-C5B2-458B-BF15-B78B0537EE5A}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{8EBEEFE7-9C22-4B09-8037-48C169234D9A}"/>
     <cellStyle name="Percent 3" xfId="5" xr:uid="{DC91E012-A874-42D8-AB78-792A20290A4E}"/>
   </cellStyles>
@@ -771,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -35212,8 +35235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97210A09-1603-4424-9AED-0455E305D877}">
   <dimension ref="A1:AH77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41342,4 +41365,6029 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AC01A-1BAC-49D9-838F-F12276E309B0}">
+  <dimension ref="A1:AD80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>3.7295312499999995</v>
+      </c>
+      <c r="C3">
+        <v>3.5156060606060611</v>
+      </c>
+      <c r="D3">
+        <v>3.396271186440678</v>
+      </c>
+      <c r="E3">
+        <v>3.3268421052631569</v>
+      </c>
+      <c r="F3">
+        <v>3.3369791666666657</v>
+      </c>
+      <c r="G3">
+        <v>3.3559375000000009</v>
+      </c>
+      <c r="H3">
+        <v>4.9887857142857142</v>
+      </c>
+      <c r="I3">
+        <v>4.7133802816901413</v>
+      </c>
+      <c r="J3">
+        <v>4.0292424242424252</v>
+      </c>
+      <c r="K3">
+        <v>3.4206923076923079</v>
+      </c>
+      <c r="L3">
+        <v>3.0915686274509806</v>
+      </c>
+      <c r="M3">
+        <v>2.902549019607843</v>
+      </c>
+      <c r="N3">
+        <v>2.1654411764705888</v>
+      </c>
+      <c r="O3">
+        <v>0.10470588235294113</v>
+      </c>
+      <c r="P3">
+        <v>-0.37426470588235294</v>
+      </c>
+      <c r="Q3">
+        <v>3.6323529411764754E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.6370588235294119</v>
+      </c>
+      <c r="S3">
+        <v>3.6240298507462674</v>
+      </c>
+      <c r="T3">
+        <v>3.0957352941176475</v>
+      </c>
+      <c r="U3">
+        <v>2.6185714285714288</v>
+      </c>
+      <c r="V3">
+        <v>2.3534920634920637</v>
+      </c>
+      <c r="W3">
+        <v>2.321836734693878</v>
+      </c>
+      <c r="X3">
+        <v>2.3197959183673467</v>
+      </c>
+      <c r="Y3">
+        <v>4.0617391304347832</v>
+      </c>
+      <c r="Z3">
+        <v>4.6540845070422545</v>
+      </c>
+      <c r="AA3">
+        <v>4.7145454545454548</v>
+      </c>
+      <c r="AB3">
+        <v>4.6335384615384605</v>
+      </c>
+      <c r="AC3">
+        <v>4.3518367346938769</v>
+      </c>
+      <c r="AD3">
+        <v>4.2281632653061241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>3.85</v>
+      </c>
+      <c r="C4">
+        <v>3.42</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2.68</v>
+      </c>
+      <c r="F4">
+        <v>2.52</v>
+      </c>
+      <c r="G4">
+        <v>2.72</v>
+      </c>
+      <c r="H4">
+        <v>4.875</v>
+      </c>
+      <c r="I4">
+        <v>4.375</v>
+      </c>
+      <c r="J4">
+        <v>3.875</v>
+      </c>
+      <c r="K4">
+        <v>2.875</v>
+      </c>
+      <c r="L4">
+        <v>2.375</v>
+      </c>
+      <c r="M4">
+        <v>2.375</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-1.8</v>
+      </c>
+      <c r="P4">
+        <v>-1.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>2.8</v>
+      </c>
+      <c r="U4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4.87</v>
+      </c>
+      <c r="I5">
+        <v>4.87</v>
+      </c>
+      <c r="J5">
+        <v>4.37</v>
+      </c>
+      <c r="K5">
+        <v>3.37</v>
+      </c>
+      <c r="N5">
+        <v>1.2</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>-1.8</v>
+      </c>
+      <c r="Q5">
+        <v>-1.4</v>
+      </c>
+      <c r="R5">
+        <v>-0.3</v>
+      </c>
+      <c r="S5">
+        <v>1.79</v>
+      </c>
+      <c r="T5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1.81</v>
+      </c>
+      <c r="Y5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4.34</v>
+      </c>
+      <c r="C6">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D6">
+        <v>4.43</v>
+      </c>
+      <c r="E6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F6">
+        <v>3.89</v>
+      </c>
+      <c r="G6">
+        <v>3.63</v>
+      </c>
+      <c r="H6">
+        <v>5.125</v>
+      </c>
+      <c r="I6">
+        <v>5.125</v>
+      </c>
+      <c r="J6">
+        <v>4.625</v>
+      </c>
+      <c r="K6">
+        <v>4.125</v>
+      </c>
+      <c r="L6">
+        <v>3.625</v>
+      </c>
+      <c r="M6">
+        <v>3.125</v>
+      </c>
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>-0.8</v>
+      </c>
+      <c r="P6">
+        <v>-2.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.2</v>
+      </c>
+      <c r="R6">
+        <v>1.4</v>
+      </c>
+      <c r="S6">
+        <v>3.9</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>2.5</v>
+      </c>
+      <c r="V6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>4.3</v>
+      </c>
+      <c r="Z6">
+        <v>4.8</v>
+      </c>
+      <c r="AA6">
+        <v>4.8</v>
+      </c>
+      <c r="AB6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3.4</v>
+      </c>
+      <c r="C7">
+        <v>3.25</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4.88</v>
+      </c>
+      <c r="I7">
+        <v>4.13</v>
+      </c>
+      <c r="J7">
+        <v>3.38</v>
+      </c>
+      <c r="K7">
+        <v>2.88</v>
+      </c>
+      <c r="L7">
+        <v>2.13</v>
+      </c>
+      <c r="M7">
+        <v>2.13</v>
+      </c>
+      <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>-0.5</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>-0.3</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>2.5</v>
+      </c>
+      <c r="T7">
+        <v>1.8</v>
+      </c>
+      <c r="U7">
+        <v>1.5</v>
+      </c>
+      <c r="V7">
+        <v>1.7</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>4.2</v>
+      </c>
+      <c r="Z7">
+        <v>4.8</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC7">
+        <v>4.7</v>
+      </c>
+      <c r="AD7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>4.54</v>
+      </c>
+      <c r="C8">
+        <v>5.19</v>
+      </c>
+      <c r="D8">
+        <v>5.85</v>
+      </c>
+      <c r="E8">
+        <v>6.5</v>
+      </c>
+      <c r="F8">
+        <v>6.5</v>
+      </c>
+      <c r="G8">
+        <v>6.5</v>
+      </c>
+      <c r="H8">
+        <v>5.29</v>
+      </c>
+      <c r="I8">
+        <v>5.375</v>
+      </c>
+      <c r="J8">
+        <v>5.375</v>
+      </c>
+      <c r="K8">
+        <v>5.375</v>
+      </c>
+      <c r="L8">
+        <v>5.375</v>
+      </c>
+      <c r="M8">
+        <v>5.375</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
+        <v>0.1</v>
+      </c>
+      <c r="P8">
+        <v>-0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.4</v>
+      </c>
+      <c r="R8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T8">
+        <v>4.3</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2.1</v>
+      </c>
+      <c r="W8">
+        <v>1.6</v>
+      </c>
+      <c r="X8">
+        <v>1.8</v>
+      </c>
+      <c r="Y8">
+        <v>3.8</v>
+      </c>
+      <c r="Z8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>3.9</v>
+      </c>
+      <c r="AC8">
+        <v>3.9</v>
+      </c>
+      <c r="AD8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>3.25</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+      <c r="D10">
+        <v>2.25</v>
+      </c>
+      <c r="E10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F10">
+        <v>2.75</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>5.375</v>
+      </c>
+      <c r="I10">
+        <v>5.125</v>
+      </c>
+      <c r="J10">
+        <v>4.125</v>
+      </c>
+      <c r="K10">
+        <v>3.125</v>
+      </c>
+      <c r="L10">
+        <v>2.125</v>
+      </c>
+      <c r="M10">
+        <v>1.875</v>
+      </c>
+      <c r="N10">
+        <v>3.5</v>
+      </c>
+      <c r="O10">
+        <v>1.25</v>
+      </c>
+      <c r="P10">
+        <v>-1.5</v>
+      </c>
+      <c r="Q10">
+        <v>-2.25</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>4.8</v>
+      </c>
+      <c r="T10">
+        <v>3.2</v>
+      </c>
+      <c r="U10">
+        <v>1.9</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1.4</v>
+      </c>
+      <c r="X10">
+        <v>1.9</v>
+      </c>
+      <c r="Y10">
+        <v>3.8</v>
+      </c>
+      <c r="Z10">
+        <v>4.3</v>
+      </c>
+      <c r="AA10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB10">
+        <v>5.8</v>
+      </c>
+      <c r="AC10">
+        <v>5.5</v>
+      </c>
+      <c r="AD10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3.45</v>
+      </c>
+      <c r="C12">
+        <v>3.35</v>
+      </c>
+      <c r="D12">
+        <v>3.3</v>
+      </c>
+      <c r="E12">
+        <v>3.4</v>
+      </c>
+      <c r="F12">
+        <v>3.45</v>
+      </c>
+      <c r="G12">
+        <v>3.45</v>
+      </c>
+      <c r="H12">
+        <v>4.625</v>
+      </c>
+      <c r="I12">
+        <v>4.125</v>
+      </c>
+      <c r="J12">
+        <v>3.875</v>
+      </c>
+      <c r="K12">
+        <v>3.375</v>
+      </c>
+      <c r="L12">
+        <v>2.375</v>
+      </c>
+      <c r="M12">
+        <v>2.375</v>
+      </c>
+      <c r="N12">
+        <v>3.2</v>
+      </c>
+      <c r="O12">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2.5</v>
+      </c>
+      <c r="S12">
+        <v>3.4</v>
+      </c>
+      <c r="T12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>3.9</v>
+      </c>
+      <c r="Z12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA12">
+        <v>4.2</v>
+      </c>
+      <c r="AB12">
+        <v>4.3</v>
+      </c>
+      <c r="AC12">
+        <v>4.2</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3.75</v>
+      </c>
+      <c r="E13">
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <v>4.75</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5.125</v>
+      </c>
+      <c r="I13">
+        <v>2.875</v>
+      </c>
+      <c r="J13">
+        <v>3.875</v>
+      </c>
+      <c r="K13">
+        <v>4.125</v>
+      </c>
+      <c r="L13">
+        <v>4.625</v>
+      </c>
+      <c r="M13">
+        <v>5.125</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>-1.5</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>1.5</v>
+      </c>
+      <c r="S13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T13">
+        <v>3.7</v>
+      </c>
+      <c r="U13">
+        <v>3.5</v>
+      </c>
+      <c r="V13">
+        <v>3.5</v>
+      </c>
+      <c r="W13">
+        <v>3.8</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>4.8</v>
+      </c>
+      <c r="Z13">
+        <v>5.5</v>
+      </c>
+      <c r="AA13">
+        <v>4.8</v>
+      </c>
+      <c r="AB13">
+        <v>4.2</v>
+      </c>
+      <c r="AC13">
+        <v>3.8</v>
+      </c>
+      <c r="AD13">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5.2</v>
+      </c>
+      <c r="J14">
+        <v>5.2</v>
+      </c>
+      <c r="K14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L14">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="Z14">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>3.8</v>
+      </c>
+      <c r="C15">
+        <v>3.51</v>
+      </c>
+      <c r="D15">
+        <v>3.35</v>
+      </c>
+      <c r="E15">
+        <v>3.25</v>
+      </c>
+      <c r="F15">
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <v>3.7</v>
+      </c>
+      <c r="H15">
+        <v>5.125</v>
+      </c>
+      <c r="I15">
+        <v>5.125</v>
+      </c>
+      <c r="J15">
+        <v>4.625</v>
+      </c>
+      <c r="K15">
+        <v>4.125</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>3.1</v>
+      </c>
+      <c r="N15">
+        <v>2.5</v>
+      </c>
+      <c r="O15">
+        <v>0.6</v>
+      </c>
+      <c r="P15">
+        <v>0.3</v>
+      </c>
+      <c r="Q15">
+        <v>-0.3</v>
+      </c>
+      <c r="R15">
+        <v>-0.5</v>
+      </c>
+      <c r="S15">
+        <v>4.3</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
+        <v>2.7</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>2.4</v>
+      </c>
+      <c r="X15">
+        <v>2.5</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA15">
+        <v>4.7</v>
+      </c>
+      <c r="AB15">
+        <v>4.5</v>
+      </c>
+      <c r="AC15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD15">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>3.9</v>
+      </c>
+      <c r="C16">
+        <v>3.25</v>
+      </c>
+      <c r="D16">
+        <v>2.85</v>
+      </c>
+      <c r="E16">
+        <v>2.8</v>
+      </c>
+      <c r="H16">
+        <v>5.125</v>
+      </c>
+      <c r="I16">
+        <v>5.125</v>
+      </c>
+      <c r="J16">
+        <v>3.125</v>
+      </c>
+      <c r="K16">
+        <v>2.625</v>
+      </c>
+      <c r="N16">
+        <v>1.5</v>
+      </c>
+      <c r="O16">
+        <v>0.6</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-3.1</v>
+      </c>
+      <c r="R16">
+        <v>-2.9</v>
+      </c>
+      <c r="S16">
+        <v>3.8</v>
+      </c>
+      <c r="T16">
+        <v>2.7</v>
+      </c>
+      <c r="U16">
+        <v>2.5</v>
+      </c>
+      <c r="V16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA16">
+        <v>5.5</v>
+      </c>
+      <c r="AB16">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>3.6</v>
+      </c>
+      <c r="C17">
+        <v>3.4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>2.5</v>
+      </c>
+      <c r="H17">
+        <v>4.87</v>
+      </c>
+      <c r="I17">
+        <v>4.62</v>
+      </c>
+      <c r="J17">
+        <v>3.87</v>
+      </c>
+      <c r="K17">
+        <v>3.37</v>
+      </c>
+      <c r="L17">
+        <v>2.87</v>
+      </c>
+      <c r="M17">
+        <v>2.87</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>-3.5</v>
+      </c>
+      <c r="R17">
+        <v>-3</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>2.5</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>2.5</v>
+      </c>
+      <c r="X17">
+        <v>2.5</v>
+      </c>
+      <c r="Y17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA17">
+        <v>4.7</v>
+      </c>
+      <c r="AB17">
+        <v>4.5</v>
+      </c>
+      <c r="AC17">
+        <v>4.2</v>
+      </c>
+      <c r="AD17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>3.7</v>
+      </c>
+      <c r="C18">
+        <v>3.25</v>
+      </c>
+      <c r="D18">
+        <v>2.8</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="F18">
+        <v>2.4</v>
+      </c>
+      <c r="G18">
+        <v>2.4</v>
+      </c>
+      <c r="H18">
+        <v>5.375</v>
+      </c>
+      <c r="I18">
+        <v>5.125</v>
+      </c>
+      <c r="J18">
+        <v>4.125</v>
+      </c>
+      <c r="K18">
+        <v>3.125</v>
+      </c>
+      <c r="L18">
+        <v>2.375</v>
+      </c>
+      <c r="M18">
+        <v>2.375</v>
+      </c>
+      <c r="N18">
+        <v>3.5</v>
+      </c>
+      <c r="O18">
+        <v>-1</v>
+      </c>
+      <c r="P18">
+        <v>-0.5</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+      <c r="R18">
+        <v>1.5</v>
+      </c>
+      <c r="S18">
+        <v>2.5</v>
+      </c>
+      <c r="T18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U18">
+        <v>2.4</v>
+      </c>
+      <c r="V18">
+        <v>2.4</v>
+      </c>
+      <c r="W18">
+        <v>2.4</v>
+      </c>
+      <c r="X18">
+        <v>2.4</v>
+      </c>
+      <c r="Y18">
+        <v>4.2</v>
+      </c>
+      <c r="Z18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB18">
+        <v>4.5</v>
+      </c>
+      <c r="AC18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD18">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H19">
+        <v>4.875</v>
+      </c>
+      <c r="I19">
+        <v>4.875</v>
+      </c>
+      <c r="J19">
+        <v>4.375</v>
+      </c>
+      <c r="K19">
+        <v>3.875</v>
+      </c>
+      <c r="N19">
+        <v>0.7</v>
+      </c>
+      <c r="O19">
+        <v>0.6</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>2.5</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2.8</v>
+      </c>
+      <c r="V19">
+        <v>2.5</v>
+      </c>
+      <c r="Y19">
+        <v>3.8</v>
+      </c>
+      <c r="Z19">
+        <v>3.9</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>3.7</v>
+      </c>
+      <c r="C20">
+        <v>3.35</v>
+      </c>
+      <c r="D20">
+        <v>2.95</v>
+      </c>
+      <c r="E20">
+        <v>2.85</v>
+      </c>
+      <c r="H20">
+        <v>5.125</v>
+      </c>
+      <c r="I20">
+        <v>5.125</v>
+      </c>
+      <c r="J20">
+        <v>2.875</v>
+      </c>
+      <c r="K20">
+        <v>2.125</v>
+      </c>
+      <c r="N20">
+        <v>3.5</v>
+      </c>
+      <c r="O20">
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <v>-2</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.2</v>
+      </c>
+      <c r="S20">
+        <v>3.6</v>
+      </c>
+      <c r="T20">
+        <v>2.6</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.4</v>
+      </c>
+      <c r="Y20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z20">
+        <v>4.7</v>
+      </c>
+      <c r="AA20">
+        <v>5.5</v>
+      </c>
+      <c r="AB20">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>3.6</v>
+      </c>
+      <c r="C21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2.1</v>
+      </c>
+      <c r="F21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G21">
+        <v>2.8</v>
+      </c>
+      <c r="H21">
+        <v>4.875</v>
+      </c>
+      <c r="I21">
+        <v>2.375</v>
+      </c>
+      <c r="J21">
+        <v>1.875</v>
+      </c>
+      <c r="K21">
+        <v>1.375</v>
+      </c>
+      <c r="L21">
+        <v>1.375</v>
+      </c>
+      <c r="M21">
+        <v>1.375</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>-2</v>
+      </c>
+      <c r="P21">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>1.9</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>4.5</v>
+      </c>
+      <c r="Z21">
+        <v>5.3</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC21">
+        <v>4.3</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>2.95</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3.1</v>
+      </c>
+      <c r="E22">
+        <v>3.15</v>
+      </c>
+      <c r="F22">
+        <v>3.2</v>
+      </c>
+      <c r="G22">
+        <v>3.2</v>
+      </c>
+      <c r="H22">
+        <v>4.88</v>
+      </c>
+      <c r="I22">
+        <v>4.63</v>
+      </c>
+      <c r="J22">
+        <v>3.88</v>
+      </c>
+      <c r="K22">
+        <v>3.13</v>
+      </c>
+      <c r="L22">
+        <v>2.88</v>
+      </c>
+      <c r="M22">
+        <v>2.88</v>
+      </c>
+      <c r="N22">
+        <v>2.8</v>
+      </c>
+      <c r="O22">
+        <v>-1.3</v>
+      </c>
+      <c r="P22">
+        <v>-1.2</v>
+      </c>
+      <c r="Q22">
+        <v>0.6</v>
+      </c>
+      <c r="R22">
+        <v>1.7</v>
+      </c>
+      <c r="S22">
+        <v>2.95</v>
+      </c>
+      <c r="T22">
+        <v>2.1</v>
+      </c>
+      <c r="U22">
+        <v>2.1</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X22">
+        <v>2.4</v>
+      </c>
+      <c r="Y22">
+        <v>4.7</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB22">
+        <v>4.5</v>
+      </c>
+      <c r="AC22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>4.09</v>
+      </c>
+      <c r="C23">
+        <v>3.87</v>
+      </c>
+      <c r="D23">
+        <v>3.48</v>
+      </c>
+      <c r="E23">
+        <v>3.39</v>
+      </c>
+      <c r="F23">
+        <v>3.44</v>
+      </c>
+      <c r="G23">
+        <v>3.57</v>
+      </c>
+      <c r="H23">
+        <v>5.125</v>
+      </c>
+      <c r="I23">
+        <v>4.625</v>
+      </c>
+      <c r="J23">
+        <v>3.625</v>
+      </c>
+      <c r="K23">
+        <v>3.125</v>
+      </c>
+      <c r="L23">
+        <v>3.125</v>
+      </c>
+      <c r="M23">
+        <v>3.625</v>
+      </c>
+      <c r="N23">
+        <v>1.8</v>
+      </c>
+      <c r="O23">
+        <v>-1.2</v>
+      </c>
+      <c r="P23">
+        <v>-0.8</v>
+      </c>
+      <c r="Q23">
+        <v>0.2</v>
+      </c>
+      <c r="R23">
+        <v>-0.5</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>2.6</v>
+      </c>
+      <c r="U23">
+        <v>2.5</v>
+      </c>
+      <c r="V23">
+        <v>2.4</v>
+      </c>
+      <c r="W23">
+        <v>2.8</v>
+      </c>
+      <c r="X23">
+        <v>2.7</v>
+      </c>
+      <c r="Y23">
+        <v>3.8</v>
+      </c>
+      <c r="Z23">
+        <v>4.5</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
+        <v>5.3</v>
+      </c>
+      <c r="AC23">
+        <v>5</v>
+      </c>
+      <c r="AD23">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>4.5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3.7</v>
+      </c>
+      <c r="E24">
+        <v>3.55</v>
+      </c>
+      <c r="H24">
+        <v>4.875</v>
+      </c>
+      <c r="I24">
+        <v>4.875</v>
+      </c>
+      <c r="N24">
+        <v>-0.4</v>
+      </c>
+      <c r="O24">
+        <v>-2</v>
+      </c>
+      <c r="P24">
+        <v>-2.5</v>
+      </c>
+      <c r="Q24">
+        <v>0.1</v>
+      </c>
+      <c r="R24">
+        <v>0.9</v>
+      </c>
+      <c r="Y24">
+        <v>4.8</v>
+      </c>
+      <c r="Z24">
+        <v>6.1</v>
+      </c>
+      <c r="AA24">
+        <v>6.2</v>
+      </c>
+      <c r="AB24">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>3.82</v>
+      </c>
+      <c r="C26">
+        <v>3.76</v>
+      </c>
+      <c r="D26">
+        <v>3.74</v>
+      </c>
+      <c r="E26">
+        <v>3.74</v>
+      </c>
+      <c r="H26">
+        <v>4.875</v>
+      </c>
+      <c r="I26">
+        <v>4.375</v>
+      </c>
+      <c r="J26">
+        <v>3.875</v>
+      </c>
+      <c r="K26">
+        <v>3.875</v>
+      </c>
+      <c r="N26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O26">
+        <v>-0.6</v>
+      </c>
+      <c r="P26">
+        <v>-1.4</v>
+      </c>
+      <c r="Q26">
+        <v>-0.8</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
+        <v>3.4</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>2.9</v>
+      </c>
+      <c r="V26">
+        <v>2.9</v>
+      </c>
+      <c r="Y26">
+        <v>4.3</v>
+      </c>
+      <c r="Z26">
+        <v>5.2</v>
+      </c>
+      <c r="AA26">
+        <v>5.5</v>
+      </c>
+      <c r="AB26">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>3.67</v>
+      </c>
+      <c r="C27">
+        <v>3.49</v>
+      </c>
+      <c r="D27">
+        <v>3.42</v>
+      </c>
+      <c r="E27">
+        <v>3.35</v>
+      </c>
+      <c r="F27">
+        <v>3.34</v>
+      </c>
+      <c r="G27">
+        <v>3.34</v>
+      </c>
+      <c r="H27">
+        <v>4.87</v>
+      </c>
+      <c r="I27">
+        <v>4.62</v>
+      </c>
+      <c r="J27">
+        <v>3.87</v>
+      </c>
+      <c r="K27">
+        <v>2.87</v>
+      </c>
+      <c r="L27">
+        <v>2.87</v>
+      </c>
+      <c r="M27">
+        <v>2.87</v>
+      </c>
+      <c r="N27">
+        <v>1.7</v>
+      </c>
+      <c r="O27">
+        <v>0.1</v>
+      </c>
+      <c r="P27">
+        <v>-0.6</v>
+      </c>
+      <c r="Q27">
+        <v>-1.3</v>
+      </c>
+      <c r="R27">
+        <v>-1.5</v>
+      </c>
+      <c r="S27">
+        <v>3.5</v>
+      </c>
+      <c r="T27">
+        <v>2.7</v>
+      </c>
+      <c r="U27">
+        <v>1.7</v>
+      </c>
+      <c r="V27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W27">
+        <v>1.2</v>
+      </c>
+      <c r="X27">
+        <v>1.6</v>
+      </c>
+      <c r="Y27">
+        <v>4.3</v>
+      </c>
+      <c r="Z27">
+        <v>5.3</v>
+      </c>
+      <c r="AA27">
+        <v>5.5</v>
+      </c>
+      <c r="AB27">
+        <v>5.2</v>
+      </c>
+      <c r="AC27">
+        <v>4.7</v>
+      </c>
+      <c r="AD27">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>3.7</v>
+      </c>
+      <c r="C28">
+        <v>3.6</v>
+      </c>
+      <c r="D28">
+        <v>3.4</v>
+      </c>
+      <c r="E28">
+        <v>3.2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>5.375</v>
+      </c>
+      <c r="I28">
+        <v>5.375</v>
+      </c>
+      <c r="J28">
+        <v>4.375</v>
+      </c>
+      <c r="K28">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="L28">
+        <v>3.125</v>
+      </c>
+      <c r="M28">
+        <v>3.125</v>
+      </c>
+      <c r="N28">
+        <v>3.7</v>
+      </c>
+      <c r="O28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P28">
+        <v>-0.7</v>
+      </c>
+      <c r="Q28">
+        <v>-1.3</v>
+      </c>
+      <c r="R28">
+        <v>1.2</v>
+      </c>
+      <c r="S28">
+        <v>3.5</v>
+      </c>
+      <c r="T28">
+        <v>2.9</v>
+      </c>
+      <c r="U28">
+        <v>2.5</v>
+      </c>
+      <c r="V28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W28">
+        <v>2.1</v>
+      </c>
+      <c r="X28">
+        <v>2.1</v>
+      </c>
+      <c r="Y28">
+        <v>3.9</v>
+      </c>
+      <c r="Z28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA28">
+        <v>4.2</v>
+      </c>
+      <c r="AB28">
+        <v>3.9</v>
+      </c>
+      <c r="AC28">
+        <v>3.9</v>
+      </c>
+      <c r="AD28">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>4.08</v>
+      </c>
+      <c r="C29">
+        <v>3.78</v>
+      </c>
+      <c r="D29">
+        <v>3.67</v>
+      </c>
+      <c r="H29">
+        <v>4.875</v>
+      </c>
+      <c r="I29">
+        <v>4.875</v>
+      </c>
+      <c r="J29">
+        <v>4.875</v>
+      </c>
+      <c r="N29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O29">
+        <v>1.8</v>
+      </c>
+      <c r="P29">
+        <v>1.7</v>
+      </c>
+      <c r="Q29">
+        <v>1.5</v>
+      </c>
+      <c r="R29">
+        <v>1.5</v>
+      </c>
+      <c r="S29">
+        <v>2.7</v>
+      </c>
+      <c r="T29">
+        <v>5.2</v>
+      </c>
+      <c r="U29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y29">
+        <v>3.4</v>
+      </c>
+      <c r="Z29">
+        <v>3.38</v>
+      </c>
+      <c r="AA29">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>3.5</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2.7</v>
+      </c>
+      <c r="E30">
+        <v>2.5</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+      <c r="G30">
+        <v>2.5</v>
+      </c>
+      <c r="H30">
+        <v>4.875</v>
+      </c>
+      <c r="I30">
+        <v>4.875</v>
+      </c>
+      <c r="J30">
+        <v>4.375</v>
+      </c>
+      <c r="K30">
+        <v>3.375</v>
+      </c>
+      <c r="L30">
+        <v>2.875</v>
+      </c>
+      <c r="M30">
+        <v>2.375</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>-1.5</v>
+      </c>
+      <c r="P30">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>1.3</v>
+      </c>
+      <c r="R30">
+        <v>1.5</v>
+      </c>
+      <c r="S30">
+        <v>3.6</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>2.5</v>
+      </c>
+      <c r="V30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X30">
+        <v>2.1</v>
+      </c>
+      <c r="Y30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z30">
+        <v>5.2</v>
+      </c>
+      <c r="AA30">
+        <v>4.8</v>
+      </c>
+      <c r="AB30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC30">
+        <v>4.2</v>
+      </c>
+      <c r="AD30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>3.6</v>
+      </c>
+      <c r="C31">
+        <v>2.8</v>
+      </c>
+      <c r="D31">
+        <v>2.8</v>
+      </c>
+      <c r="E31">
+        <v>3.5</v>
+      </c>
+      <c r="F31">
+        <v>3.5</v>
+      </c>
+      <c r="G31">
+        <v>3.5</v>
+      </c>
+      <c r="H31">
+        <v>5.125</v>
+      </c>
+      <c r="I31">
+        <v>3.125</v>
+      </c>
+      <c r="J31">
+        <v>2.125</v>
+      </c>
+      <c r="K31">
+        <v>2.375</v>
+      </c>
+      <c r="L31">
+        <v>2.375</v>
+      </c>
+      <c r="M31">
+        <v>2.375</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>-0.5</v>
+      </c>
+      <c r="P31">
+        <v>-2</v>
+      </c>
+      <c r="Q31">
+        <v>-2.5</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>2.7</v>
+      </c>
+      <c r="U31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y31">
+        <v>4.8</v>
+      </c>
+      <c r="Z31">
+        <v>5</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>3.7</v>
+      </c>
+      <c r="AC31">
+        <v>3.6</v>
+      </c>
+      <c r="AD31">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>3.45</v>
+      </c>
+      <c r="C32">
+        <v>3.15</v>
+      </c>
+      <c r="D32">
+        <v>2.75</v>
+      </c>
+      <c r="E32">
+        <v>2.7</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K32">
+        <v>3.1</v>
+      </c>
+      <c r="L32">
+        <v>2.4</v>
+      </c>
+      <c r="M32">
+        <v>2.4</v>
+      </c>
+      <c r="N32">
+        <v>2.6</v>
+      </c>
+      <c r="O32">
+        <v>1.4</v>
+      </c>
+      <c r="P32">
+        <v>1.5</v>
+      </c>
+      <c r="Q32">
+        <v>1.5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>2.6</v>
+      </c>
+      <c r="T32">
+        <v>3.2</v>
+      </c>
+      <c r="U32">
+        <v>2.8</v>
+      </c>
+      <c r="V32">
+        <v>2.6</v>
+      </c>
+      <c r="W32">
+        <v>2.4</v>
+      </c>
+      <c r="X32">
+        <v>2.4</v>
+      </c>
+      <c r="Y32">
+        <v>2.7</v>
+      </c>
+      <c r="Z32">
+        <v>3.2</v>
+      </c>
+      <c r="AA32">
+        <v>2.8</v>
+      </c>
+      <c r="AB32">
+        <v>2.6</v>
+      </c>
+      <c r="AC32">
+        <v>2.4</v>
+      </c>
+      <c r="AD32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>3.75</v>
+      </c>
+      <c r="C33">
+        <v>3.25</v>
+      </c>
+      <c r="H33">
+        <v>5.125</v>
+      </c>
+      <c r="I33">
+        <v>4.875</v>
+      </c>
+      <c r="J33">
+        <v>3.875</v>
+      </c>
+      <c r="K33">
+        <v>2.875</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <v>-2</v>
+      </c>
+      <c r="Q33">
+        <v>-1.5</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>3.6</v>
+      </c>
+      <c r="T33">
+        <v>2.7</v>
+      </c>
+      <c r="U33">
+        <v>2.5</v>
+      </c>
+      <c r="V33">
+        <v>2.5</v>
+      </c>
+      <c r="Y33">
+        <v>4.2</v>
+      </c>
+      <c r="Z33">
+        <v>5.3</v>
+      </c>
+      <c r="AA33">
+        <v>5.4</v>
+      </c>
+      <c r="AB33">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34">
+        <v>5.375</v>
+      </c>
+      <c r="I34">
+        <v>5.125</v>
+      </c>
+      <c r="J34">
+        <v>3.625</v>
+      </c>
+      <c r="K34">
+        <v>2.875</v>
+      </c>
+      <c r="L34">
+        <v>2.625</v>
+      </c>
+      <c r="M34">
+        <v>2.625</v>
+      </c>
+      <c r="N34">
+        <v>2.5</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0.2</v>
+      </c>
+      <c r="Q34">
+        <v>-0.3</v>
+      </c>
+      <c r="R34">
+        <v>-0.7</v>
+      </c>
+      <c r="S34">
+        <v>3.7</v>
+      </c>
+      <c r="T34">
+        <v>3.2</v>
+      </c>
+      <c r="V34">
+        <v>2.6</v>
+      </c>
+      <c r="Y34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z34">
+        <v>4.7</v>
+      </c>
+      <c r="AA34">
+        <v>5.4</v>
+      </c>
+      <c r="AB34">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C35">
+        <v>4.2</v>
+      </c>
+      <c r="D35">
+        <v>4.05</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>5.125</v>
+      </c>
+      <c r="I35">
+        <v>5.125</v>
+      </c>
+      <c r="J35">
+        <v>4.875</v>
+      </c>
+      <c r="K35">
+        <v>4.375</v>
+      </c>
+      <c r="L35">
+        <v>4.125</v>
+      </c>
+      <c r="M35">
+        <v>3.625</v>
+      </c>
+      <c r="N35">
+        <v>2.5</v>
+      </c>
+      <c r="O35">
+        <v>0.75</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1.25</v>
+      </c>
+      <c r="R35">
+        <v>1.25</v>
+      </c>
+      <c r="S35">
+        <v>2.7</v>
+      </c>
+      <c r="T35">
+        <v>3.1</v>
+      </c>
+      <c r="U35">
+        <v>2.6</v>
+      </c>
+      <c r="V35">
+        <v>2.5</v>
+      </c>
+      <c r="W35">
+        <v>2.8</v>
+      </c>
+      <c r="X35">
+        <v>2.5</v>
+      </c>
+      <c r="Y35">
+        <v>3.7</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB35">
+        <v>4.2</v>
+      </c>
+      <c r="AC35">
+        <v>4.2</v>
+      </c>
+      <c r="AD35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36">
+        <v>3.7</v>
+      </c>
+      <c r="C36">
+        <v>3.6</v>
+      </c>
+      <c r="D36">
+        <v>3.4</v>
+      </c>
+      <c r="E36">
+        <v>3.3</v>
+      </c>
+      <c r="F36">
+        <v>3.2</v>
+      </c>
+      <c r="G36">
+        <v>3.2</v>
+      </c>
+      <c r="H36">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I36">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J36">
+        <v>4.7</v>
+      </c>
+      <c r="K36">
+        <v>3.7</v>
+      </c>
+      <c r="L36">
+        <v>3.1</v>
+      </c>
+      <c r="M36">
+        <v>2.6</v>
+      </c>
+      <c r="N36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O36">
+        <v>-1.3</v>
+      </c>
+      <c r="P36">
+        <v>-0.8</v>
+      </c>
+      <c r="Q36">
+        <v>1.4</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>3.3</v>
+      </c>
+      <c r="T36">
+        <v>2.7</v>
+      </c>
+      <c r="U36">
+        <v>1.8</v>
+      </c>
+      <c r="V36">
+        <v>1.6</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB36">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC36">
+        <v>4.5</v>
+      </c>
+      <c r="AD36">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37">
+        <v>5.375</v>
+      </c>
+      <c r="I37">
+        <v>5.375</v>
+      </c>
+      <c r="N37">
+        <v>2.6</v>
+      </c>
+      <c r="O37">
+        <v>1.5</v>
+      </c>
+      <c r="P37">
+        <v>0.5</v>
+      </c>
+      <c r="Q37">
+        <v>-2</v>
+      </c>
+      <c r="R37">
+        <v>-1</v>
+      </c>
+      <c r="S37">
+        <v>2.6</v>
+      </c>
+      <c r="T37">
+        <v>3.2</v>
+      </c>
+      <c r="Y37">
+        <v>3.8</v>
+      </c>
+      <c r="Z37">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>3.3</v>
+      </c>
+      <c r="C38">
+        <v>3.45</v>
+      </c>
+      <c r="D38">
+        <v>3.55</v>
+      </c>
+      <c r="E38">
+        <v>3.6</v>
+      </c>
+      <c r="F38">
+        <v>3.5</v>
+      </c>
+      <c r="G38">
+        <v>3.5</v>
+      </c>
+      <c r="H38">
+        <v>5.125</v>
+      </c>
+      <c r="I38">
+        <v>5.125</v>
+      </c>
+      <c r="J38">
+        <v>3.875</v>
+      </c>
+      <c r="K38">
+        <v>2.875</v>
+      </c>
+      <c r="L38">
+        <v>2.125</v>
+      </c>
+      <c r="M38">
+        <v>2.125</v>
+      </c>
+      <c r="N38">
+        <v>1.2</v>
+      </c>
+      <c r="O38">
+        <v>-0.4</v>
+      </c>
+      <c r="P38">
+        <v>-0.3</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1.2</v>
+      </c>
+      <c r="S38">
+        <v>5.3</v>
+      </c>
+      <c r="T38">
+        <v>3.8</v>
+      </c>
+      <c r="U38">
+        <v>2.6</v>
+      </c>
+      <c r="V38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z38">
+        <v>4.5</v>
+      </c>
+      <c r="AA38">
+        <v>4.7</v>
+      </c>
+      <c r="AB38">
+        <v>4.8</v>
+      </c>
+      <c r="AC38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD38">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39">
+        <v>3.4</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3.2</v>
+      </c>
+      <c r="E39">
+        <v>3.5</v>
+      </c>
+      <c r="F39">
+        <v>3.8</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>4.875</v>
+      </c>
+      <c r="I39">
+        <v>4.375</v>
+      </c>
+      <c r="N39">
+        <v>2.9</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>-2</v>
+      </c>
+      <c r="S39">
+        <v>3.9</v>
+      </c>
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V39">
+        <v>2.5</v>
+      </c>
+      <c r="W39">
+        <v>2.8</v>
+      </c>
+      <c r="X39">
+        <v>2.8</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+      <c r="AA39">
+        <v>4.8</v>
+      </c>
+      <c r="AB39">
+        <v>4.2</v>
+      </c>
+      <c r="AC39">
+        <v>3.8</v>
+      </c>
+      <c r="AD39">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>3.6</v>
+      </c>
+      <c r="C40">
+        <v>3.5</v>
+      </c>
+      <c r="D40">
+        <v>3.4</v>
+      </c>
+      <c r="E40">
+        <v>3.2</v>
+      </c>
+      <c r="H40">
+        <v>4.875</v>
+      </c>
+      <c r="I40">
+        <v>4.375</v>
+      </c>
+      <c r="N40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O40">
+        <v>-0.5</v>
+      </c>
+      <c r="P40">
+        <v>-0.8</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1.3</v>
+      </c>
+      <c r="S40">
+        <v>5.5</v>
+      </c>
+      <c r="T40">
+        <v>3.7</v>
+      </c>
+      <c r="Y40">
+        <v>3.9</v>
+      </c>
+      <c r="Z40">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>3.75</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>3.25</v>
+      </c>
+      <c r="E41">
+        <v>3.5</v>
+      </c>
+      <c r="F41">
+        <v>3.75</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4.875</v>
+      </c>
+      <c r="I41">
+        <v>3.875</v>
+      </c>
+      <c r="J41">
+        <v>2.875</v>
+      </c>
+      <c r="K41">
+        <v>2.375</v>
+      </c>
+      <c r="L41">
+        <v>2.875</v>
+      </c>
+      <c r="M41">
+        <v>2.875</v>
+      </c>
+      <c r="N41">
+        <v>1.9</v>
+      </c>
+      <c r="O41">
+        <v>-1.2</v>
+      </c>
+      <c r="P41">
+        <v>-3.1</v>
+      </c>
+      <c r="Q41">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>2.4</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>1.8</v>
+      </c>
+      <c r="V41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>4.3</v>
+      </c>
+      <c r="Z41">
+        <v>5.2</v>
+      </c>
+      <c r="AA41">
+        <v>5.2</v>
+      </c>
+      <c r="AB41">
+        <v>4.7</v>
+      </c>
+      <c r="AC41">
+        <v>4.3</v>
+      </c>
+      <c r="AD41">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>3.6</v>
+      </c>
+      <c r="C42">
+        <v>3.2</v>
+      </c>
+      <c r="D42">
+        <v>2.8</v>
+      </c>
+      <c r="E42">
+        <v>2.6</v>
+      </c>
+      <c r="F42">
+        <v>2.7</v>
+      </c>
+      <c r="G42">
+        <v>2.8</v>
+      </c>
+      <c r="H42">
+        <v>4.875</v>
+      </c>
+      <c r="I42">
+        <v>4.125</v>
+      </c>
+      <c r="J42">
+        <v>3.375</v>
+      </c>
+      <c r="K42">
+        <v>2.625</v>
+      </c>
+      <c r="L42">
+        <v>2.375</v>
+      </c>
+      <c r="M42">
+        <v>2.375</v>
+      </c>
+      <c r="N42">
+        <v>2.4</v>
+      </c>
+      <c r="O42">
+        <v>-0.9</v>
+      </c>
+      <c r="P42">
+        <v>-0.7</v>
+      </c>
+      <c r="Q42">
+        <v>0.3</v>
+      </c>
+      <c r="R42">
+        <v>0.5</v>
+      </c>
+      <c r="S42">
+        <v>2.6</v>
+      </c>
+      <c r="T42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U42">
+        <v>1.7</v>
+      </c>
+      <c r="V42">
+        <v>1.6</v>
+      </c>
+      <c r="W42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA42">
+        <v>5</v>
+      </c>
+      <c r="AB42">
+        <v>5.5</v>
+      </c>
+      <c r="AC42">
+        <v>5.3</v>
+      </c>
+      <c r="AD42">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43">
+        <v>4.875</v>
+      </c>
+      <c r="I43">
+        <v>4.875</v>
+      </c>
+      <c r="J43">
+        <v>4.125</v>
+      </c>
+      <c r="K43">
+        <v>3.375</v>
+      </c>
+      <c r="N43">
+        <v>1.9</v>
+      </c>
+      <c r="O43">
+        <v>-0.6</v>
+      </c>
+      <c r="P43">
+        <v>-1.7</v>
+      </c>
+      <c r="Q43">
+        <v>-0.5</v>
+      </c>
+      <c r="R43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>3.7</v>
+      </c>
+      <c r="Z43">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>4.32</v>
+      </c>
+      <c r="C44">
+        <v>4.41</v>
+      </c>
+      <c r="D44">
+        <v>4.34</v>
+      </c>
+      <c r="E44">
+        <v>4.24</v>
+      </c>
+      <c r="F44">
+        <v>4.08</v>
+      </c>
+      <c r="G44">
+        <v>3.9</v>
+      </c>
+      <c r="H44">
+        <v>5.12</v>
+      </c>
+      <c r="I44">
+        <v>5.12</v>
+      </c>
+      <c r="J44">
+        <v>4.62</v>
+      </c>
+      <c r="K44">
+        <v>4.12</v>
+      </c>
+      <c r="L44">
+        <v>3.62</v>
+      </c>
+      <c r="M44">
+        <v>3.12</v>
+      </c>
+      <c r="N44">
+        <v>1.83</v>
+      </c>
+      <c r="O44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P44">
+        <v>0.01</v>
+      </c>
+      <c r="Q44">
+        <v>-0.54</v>
+      </c>
+      <c r="R44">
+        <v>-0.54</v>
+      </c>
+      <c r="S44">
+        <v>3.51</v>
+      </c>
+      <c r="T44">
+        <v>3.01</v>
+      </c>
+      <c r="U44">
+        <v>2.79</v>
+      </c>
+      <c r="V44">
+        <v>2.56</v>
+      </c>
+      <c r="W44">
+        <v>2.44</v>
+      </c>
+      <c r="X44">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Y44">
+        <v>3.7</v>
+      </c>
+      <c r="Z44">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AA44">
+        <v>4.43</v>
+      </c>
+      <c r="AB44">
+        <v>4.34</v>
+      </c>
+      <c r="AC44">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD44">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>3.9</v>
+      </c>
+      <c r="C45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H45">
+        <v>5.125</v>
+      </c>
+      <c r="I45">
+        <v>4.875</v>
+      </c>
+      <c r="J45">
+        <v>4.375</v>
+      </c>
+      <c r="K45">
+        <v>4.125</v>
+      </c>
+      <c r="S45">
+        <v>4.5</v>
+      </c>
+      <c r="T45">
+        <v>3.2</v>
+      </c>
+      <c r="U45">
+        <v>2.6</v>
+      </c>
+      <c r="V45">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y45">
+        <v>3.8</v>
+      </c>
+      <c r="Z45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA45">
+        <v>4.2</v>
+      </c>
+      <c r="AB45">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46">
+        <v>4.875</v>
+      </c>
+      <c r="I46">
+        <v>4.875</v>
+      </c>
+      <c r="J46">
+        <v>4.625</v>
+      </c>
+      <c r="K46">
+        <v>4.125</v>
+      </c>
+      <c r="L46">
+        <v>3.625</v>
+      </c>
+      <c r="M46">
+        <v>3.125</v>
+      </c>
+      <c r="N46">
+        <v>3.5</v>
+      </c>
+      <c r="O46">
+        <v>0.3</v>
+      </c>
+      <c r="P46">
+        <v>0.4</v>
+      </c>
+      <c r="Q46">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="R46">
+        <v>-1.5</v>
+      </c>
+      <c r="S46">
+        <v>4.8</v>
+      </c>
+      <c r="T46">
+        <v>3.5</v>
+      </c>
+      <c r="U46">
+        <v>2.8</v>
+      </c>
+      <c r="V46">
+        <v>2.5</v>
+      </c>
+      <c r="W46">
+        <v>2.5</v>
+      </c>
+      <c r="X46">
+        <v>2.5</v>
+      </c>
+      <c r="Y46">
+        <v>4.2</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
+      </c>
+      <c r="AA46">
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC46">
+        <v>4.5</v>
+      </c>
+      <c r="AD46">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>3.5</v>
+      </c>
+      <c r="C47">
+        <v>3.25</v>
+      </c>
+      <c r="D47">
+        <v>2.9</v>
+      </c>
+      <c r="E47">
+        <v>2.65</v>
+      </c>
+      <c r="F47">
+        <v>2.9</v>
+      </c>
+      <c r="G47">
+        <v>3.15</v>
+      </c>
+      <c r="H47">
+        <v>5.125</v>
+      </c>
+      <c r="I47">
+        <v>5.125</v>
+      </c>
+      <c r="J47">
+        <v>3.875</v>
+      </c>
+      <c r="K47">
+        <v>1.875</v>
+      </c>
+      <c r="L47">
+        <v>1.375</v>
+      </c>
+      <c r="M47">
+        <v>1.375</v>
+      </c>
+      <c r="N47">
+        <v>2.6</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0.5</v>
+      </c>
+      <c r="Q47">
+        <v>-0.8</v>
+      </c>
+      <c r="R47">
+        <v>-1.7</v>
+      </c>
+      <c r="S47">
+        <v>3.5</v>
+      </c>
+      <c r="T47">
+        <v>2.6</v>
+      </c>
+      <c r="U47">
+        <v>2.8</v>
+      </c>
+      <c r="V47">
+        <v>2.9</v>
+      </c>
+      <c r="W47">
+        <v>2.5</v>
+      </c>
+      <c r="X47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>3.6</v>
+      </c>
+      <c r="Z47">
+        <v>4.8</v>
+      </c>
+      <c r="AA47">
+        <v>6.5</v>
+      </c>
+      <c r="AB47">
+        <v>6.6</v>
+      </c>
+      <c r="AC47">
+        <v>6.3</v>
+      </c>
+      <c r="AD47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>4.375</v>
+      </c>
+      <c r="T48">
+        <v>2.8</v>
+      </c>
+      <c r="Z48">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D49">
+        <v>4.5</v>
+      </c>
+      <c r="E49">
+        <v>4.5</v>
+      </c>
+      <c r="F49">
+        <v>4.25</v>
+      </c>
+      <c r="G49">
+        <v>4.25</v>
+      </c>
+      <c r="H49">
+        <v>5.125</v>
+      </c>
+      <c r="I49">
+        <v>4.875</v>
+      </c>
+      <c r="J49">
+        <v>3.875</v>
+      </c>
+      <c r="K49">
+        <v>3.125</v>
+      </c>
+      <c r="L49">
+        <v>2.875</v>
+      </c>
+      <c r="M49">
+        <v>2.375</v>
+      </c>
+      <c r="N49">
+        <v>2.4</v>
+      </c>
+      <c r="O49">
+        <v>-2.4</v>
+      </c>
+      <c r="P49">
+        <v>-1.8</v>
+      </c>
+      <c r="Q49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T49">
+        <v>3.7</v>
+      </c>
+      <c r="U49">
+        <v>2.8</v>
+      </c>
+      <c r="V49">
+        <v>2.1</v>
+      </c>
+      <c r="W49">
+        <v>1.7</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
+      <c r="Z49">
+        <v>4.5</v>
+      </c>
+      <c r="AA49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC49">
+        <v>3.9</v>
+      </c>
+      <c r="AD49">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>4.22</v>
+      </c>
+      <c r="C50">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D50">
+        <v>4.05</v>
+      </c>
+      <c r="E50">
+        <v>3.78</v>
+      </c>
+      <c r="F50">
+        <v>3.74</v>
+      </c>
+      <c r="G50">
+        <v>3.86</v>
+      </c>
+      <c r="H50">
+        <v>5.125</v>
+      </c>
+      <c r="I50">
+        <v>5.125</v>
+      </c>
+      <c r="J50">
+        <v>4.875</v>
+      </c>
+      <c r="K50">
+        <v>4.375</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50">
+        <v>0.5</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1.2</v>
+      </c>
+      <c r="S50">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>2.5</v>
+      </c>
+      <c r="V50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X50">
+        <v>2.1</v>
+      </c>
+      <c r="Y50">
+        <v>4</v>
+      </c>
+      <c r="Z50">
+        <v>4.5</v>
+      </c>
+      <c r="AA50">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB50">
+        <v>3.8</v>
+      </c>
+      <c r="AC50">
+        <v>3.7</v>
+      </c>
+      <c r="AD50">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>3.48</v>
+      </c>
+      <c r="C51">
+        <v>3.4</v>
+      </c>
+      <c r="D51">
+        <v>3.3</v>
+      </c>
+      <c r="E51">
+        <v>3.05</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2.95</v>
+      </c>
+      <c r="H51">
+        <v>5.125</v>
+      </c>
+      <c r="I51">
+        <v>5.125</v>
+      </c>
+      <c r="J51">
+        <v>4.625</v>
+      </c>
+      <c r="K51">
+        <v>4.125</v>
+      </c>
+      <c r="L51">
+        <v>3.625</v>
+      </c>
+      <c r="M51">
+        <v>2.875</v>
+      </c>
+      <c r="N51">
+        <v>2.1</v>
+      </c>
+      <c r="O51">
+        <v>0.8</v>
+      </c>
+      <c r="P51">
+        <v>-2.9</v>
+      </c>
+      <c r="Q51">
+        <v>-1.6</v>
+      </c>
+      <c r="R51">
+        <v>2.5</v>
+      </c>
+      <c r="S51">
+        <v>4.7</v>
+      </c>
+      <c r="T51">
+        <v>3.8</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>3.2</v>
+      </c>
+      <c r="W51">
+        <v>2.8</v>
+      </c>
+      <c r="X51">
+        <v>2.6</v>
+      </c>
+      <c r="Y51">
+        <v>3.9</v>
+      </c>
+      <c r="Z51">
+        <v>4.3</v>
+      </c>
+      <c r="AA51">
+        <v>4.3</v>
+      </c>
+      <c r="AB51">
+        <v>4.2</v>
+      </c>
+      <c r="AC51">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD51">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53">
+        <v>3.65</v>
+      </c>
+      <c r="C53">
+        <v>2.65</v>
+      </c>
+      <c r="D53">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E53">
+        <v>2.75</v>
+      </c>
+      <c r="H53">
+        <v>4.83</v>
+      </c>
+      <c r="I53">
+        <v>3.08</v>
+      </c>
+      <c r="J53">
+        <v>1.08</v>
+      </c>
+      <c r="K53">
+        <v>1.08</v>
+      </c>
+      <c r="L53">
+        <v>1.08</v>
+      </c>
+      <c r="M53">
+        <v>1.58</v>
+      </c>
+      <c r="N53">
+        <v>1.6</v>
+      </c>
+      <c r="O53">
+        <v>0.9</v>
+      </c>
+      <c r="P53">
+        <v>-0.9</v>
+      </c>
+      <c r="Q53">
+        <v>-2</v>
+      </c>
+      <c r="R53">
+        <v>-1.6</v>
+      </c>
+      <c r="S53">
+        <v>1.92</v>
+      </c>
+      <c r="T53">
+        <v>2.19</v>
+      </c>
+      <c r="U53">
+        <v>1.99</v>
+      </c>
+      <c r="V53">
+        <v>1.66</v>
+      </c>
+      <c r="W53">
+        <v>1.81</v>
+      </c>
+      <c r="X53">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Y53">
+        <v>3.62</v>
+      </c>
+      <c r="Z53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA53">
+        <v>5.25</v>
+      </c>
+      <c r="AB53">
+        <v>5.53</v>
+      </c>
+      <c r="AC53">
+        <v>5.45</v>
+      </c>
+      <c r="AD53">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>3.85</v>
+      </c>
+      <c r="C54">
+        <v>3.5</v>
+      </c>
+      <c r="D54">
+        <v>3.35</v>
+      </c>
+      <c r="E54">
+        <v>3.22</v>
+      </c>
+      <c r="F54">
+        <v>3.1</v>
+      </c>
+      <c r="G54">
+        <v>2.95</v>
+      </c>
+      <c r="H54">
+        <v>5.125</v>
+      </c>
+      <c r="I54">
+        <v>5.125</v>
+      </c>
+      <c r="J54">
+        <v>4.375</v>
+      </c>
+      <c r="K54">
+        <v>3.875</v>
+      </c>
+      <c r="L54">
+        <v>3.375</v>
+      </c>
+      <c r="M54">
+        <v>2.875</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>-1.4</v>
+      </c>
+      <c r="P54">
+        <v>-2</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0.5</v>
+      </c>
+      <c r="S54">
+        <v>3.6</v>
+      </c>
+      <c r="T54">
+        <v>3.8</v>
+      </c>
+      <c r="U54">
+        <v>2.6</v>
+      </c>
+      <c r="V54">
+        <v>2.4</v>
+      </c>
+      <c r="W54">
+        <v>2.4</v>
+      </c>
+      <c r="X54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z54">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>4.8</v>
+      </c>
+      <c r="AC54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD54">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55">
+        <v>3.66</v>
+      </c>
+      <c r="C55">
+        <v>3.56</v>
+      </c>
+      <c r="D55">
+        <v>3.41</v>
+      </c>
+      <c r="E55">
+        <v>3.28</v>
+      </c>
+      <c r="F55">
+        <v>3.25</v>
+      </c>
+      <c r="G55">
+        <v>3.23</v>
+      </c>
+      <c r="H55">
+        <v>4.875</v>
+      </c>
+      <c r="I55">
+        <v>4.875</v>
+      </c>
+      <c r="J55">
+        <v>4.375</v>
+      </c>
+      <c r="K55">
+        <v>3.375</v>
+      </c>
+      <c r="L55">
+        <v>2.875</v>
+      </c>
+      <c r="M55">
+        <v>2.625</v>
+      </c>
+      <c r="N55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O55">
+        <v>-1.6</v>
+      </c>
+      <c r="P55">
+        <v>-0.8</v>
+      </c>
+      <c r="Q55">
+        <v>1.4</v>
+      </c>
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>3.2</v>
+      </c>
+      <c r="T55">
+        <v>3.4</v>
+      </c>
+      <c r="U55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V55">
+        <v>1.8</v>
+      </c>
+      <c r="W55">
+        <v>1.9</v>
+      </c>
+      <c r="X55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>4.7</v>
+      </c>
+      <c r="Z55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA55">
+        <v>4.8</v>
+      </c>
+      <c r="AB55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC55">
+        <v>4.5</v>
+      </c>
+      <c r="AD55">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>3.4</v>
+      </c>
+      <c r="C56">
+        <v>3.25</v>
+      </c>
+      <c r="D56">
+        <v>3.1</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>5.125</v>
+      </c>
+      <c r="I56">
+        <v>4.625</v>
+      </c>
+      <c r="J56">
+        <v>3.875</v>
+      </c>
+      <c r="K56">
+        <v>3.625</v>
+      </c>
+      <c r="L56">
+        <v>3.125</v>
+      </c>
+      <c r="M56">
+        <v>3.125</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>-0.5</v>
+      </c>
+      <c r="P56">
+        <v>-0.5</v>
+      </c>
+      <c r="Q56">
+        <v>0.8</v>
+      </c>
+      <c r="R56">
+        <v>1.5</v>
+      </c>
+      <c r="S56">
+        <v>2.8</v>
+      </c>
+      <c r="T56">
+        <v>3.2</v>
+      </c>
+      <c r="U56">
+        <v>2.5</v>
+      </c>
+      <c r="V56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W56">
+        <v>1.8</v>
+      </c>
+      <c r="X56">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>3.9</v>
+      </c>
+      <c r="Z56">
+        <v>4.5</v>
+      </c>
+      <c r="AA56">
+        <v>4.2</v>
+      </c>
+      <c r="AB56">
+        <v>3.8</v>
+      </c>
+      <c r="AC56">
+        <v>3.5</v>
+      </c>
+      <c r="AD56">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>3.32</v>
+      </c>
+      <c r="C58">
+        <v>3.23</v>
+      </c>
+      <c r="D58">
+        <v>3.17</v>
+      </c>
+      <c r="E58">
+        <v>3.11</v>
+      </c>
+      <c r="F58">
+        <v>3.1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>4.25</v>
+      </c>
+      <c r="I58">
+        <v>5.25</v>
+      </c>
+      <c r="J58">
+        <v>4.75</v>
+      </c>
+      <c r="K58">
+        <v>3.875</v>
+      </c>
+      <c r="L58">
+        <v>3.875</v>
+      </c>
+      <c r="M58">
+        <v>2.875</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>2.8</v>
+      </c>
+      <c r="Q58">
+        <v>2.7</v>
+      </c>
+      <c r="R58">
+        <v>2.7</v>
+      </c>
+      <c r="S58">
+        <v>3.4</v>
+      </c>
+      <c r="T58">
+        <v>3.23</v>
+      </c>
+      <c r="U58">
+        <v>3.24</v>
+      </c>
+      <c r="V58">
+        <v>3.26</v>
+      </c>
+      <c r="W58">
+        <v>3.27</v>
+      </c>
+      <c r="X58">
+        <v>3.28</v>
+      </c>
+      <c r="Y58">
+        <v>3.49</v>
+      </c>
+      <c r="Z58">
+        <v>3.4</v>
+      </c>
+      <c r="AA58">
+        <v>3.48</v>
+      </c>
+      <c r="AB58">
+        <v>3.47</v>
+      </c>
+      <c r="AC58">
+        <v>4</v>
+      </c>
+      <c r="AD58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>4.25</v>
+      </c>
+      <c r="C59">
+        <v>3.5</v>
+      </c>
+      <c r="D59">
+        <v>3.5</v>
+      </c>
+      <c r="E59">
+        <v>3.04</v>
+      </c>
+      <c r="F59">
+        <v>2.875</v>
+      </c>
+      <c r="G59">
+        <v>2.875</v>
+      </c>
+      <c r="H59">
+        <v>4.75</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>4.75</v>
+      </c>
+      <c r="K59">
+        <v>4.25</v>
+      </c>
+      <c r="L59">
+        <v>3.75</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>1.97</v>
+      </c>
+      <c r="O59">
+        <v>0.25</v>
+      </c>
+      <c r="P59">
+        <v>0.2</v>
+      </c>
+      <c r="Q59">
+        <v>0.95</v>
+      </c>
+      <c r="R59">
+        <v>2.16</v>
+      </c>
+      <c r="S59">
+        <v>6.25</v>
+      </c>
+      <c r="T59">
+        <v>5.12</v>
+      </c>
+      <c r="U59">
+        <v>4.05</v>
+      </c>
+      <c r="V59">
+        <v>3.05</v>
+      </c>
+      <c r="W59">
+        <v>2.16</v>
+      </c>
+      <c r="X59">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>3.7</v>
+      </c>
+      <c r="Z59">
+        <v>3.9</v>
+      </c>
+      <c r="AA59">
+        <v>4.3</v>
+      </c>
+      <c r="AB59">
+        <v>4.3</v>
+      </c>
+      <c r="AC59">
+        <v>3.9</v>
+      </c>
+      <c r="AD59">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>3.95</v>
+      </c>
+      <c r="C60">
+        <v>3.65</v>
+      </c>
+      <c r="H60">
+        <v>5.125</v>
+      </c>
+      <c r="I60">
+        <v>4.625</v>
+      </c>
+      <c r="J60">
+        <v>3.125</v>
+      </c>
+      <c r="K60">
+        <v>3.125</v>
+      </c>
+      <c r="N60">
+        <v>3.5</v>
+      </c>
+      <c r="O60">
+        <v>1.8</v>
+      </c>
+      <c r="P60">
+        <v>0.3</v>
+      </c>
+      <c r="Q60">
+        <v>-2</v>
+      </c>
+      <c r="R60">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="S60">
+        <v>3.2</v>
+      </c>
+      <c r="T60">
+        <v>2.7</v>
+      </c>
+      <c r="U60">
+        <v>2.9</v>
+      </c>
+      <c r="V60">
+        <v>2.4</v>
+      </c>
+      <c r="Y60">
+        <v>4.3</v>
+      </c>
+      <c r="Z60">
+        <v>5.4</v>
+      </c>
+      <c r="AA60">
+        <v>5.3</v>
+      </c>
+      <c r="AB60">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>3.3</v>
+      </c>
+      <c r="C61">
+        <v>3.1</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>4.625</v>
+      </c>
+      <c r="I61">
+        <v>4.125</v>
+      </c>
+      <c r="J61">
+        <v>3.625</v>
+      </c>
+      <c r="K61">
+        <v>3.125</v>
+      </c>
+      <c r="L61">
+        <v>2.875</v>
+      </c>
+      <c r="M61">
+        <v>2.875</v>
+      </c>
+      <c r="N61">
+        <v>3.5</v>
+      </c>
+      <c r="O61">
+        <v>-1</v>
+      </c>
+      <c r="P61">
+        <v>-1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>2</v>
+      </c>
+      <c r="X61">
+        <v>2</v>
+      </c>
+      <c r="Y61">
+        <v>4.3</v>
+      </c>
+      <c r="Z61">
+        <v>4.7</v>
+      </c>
+      <c r="AA61">
+        <v>4.5</v>
+      </c>
+      <c r="AB61">
+        <v>4.3</v>
+      </c>
+      <c r="AC61">
+        <v>4</v>
+      </c>
+      <c r="AD61">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>4.04</v>
+      </c>
+      <c r="C62">
+        <v>4.26</v>
+      </c>
+      <c r="D62">
+        <v>4.33</v>
+      </c>
+      <c r="E62">
+        <v>4.21</v>
+      </c>
+      <c r="F62">
+        <v>4.05</v>
+      </c>
+      <c r="G62">
+        <v>3.87</v>
+      </c>
+      <c r="H62">
+        <v>5.13</v>
+      </c>
+      <c r="I62">
+        <v>5.37</v>
+      </c>
+      <c r="J62">
+        <v>5.37</v>
+      </c>
+      <c r="K62">
+        <v>5.37</v>
+      </c>
+      <c r="L62">
+        <v>5.13</v>
+      </c>
+      <c r="M62">
+        <v>5.13</v>
+      </c>
+      <c r="N62">
+        <v>3.5</v>
+      </c>
+      <c r="O62">
+        <v>2.1</v>
+      </c>
+      <c r="P62">
+        <v>2.7</v>
+      </c>
+      <c r="Q62">
+        <v>2.8</v>
+      </c>
+      <c r="R62">
+        <v>2.5</v>
+      </c>
+      <c r="S62">
+        <v>3.5</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>2.6</v>
+      </c>
+      <c r="V62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X62">
+        <v>2.4</v>
+      </c>
+      <c r="Y62">
+        <v>3.6</v>
+      </c>
+      <c r="Z62">
+        <v>4</v>
+      </c>
+      <c r="AA62">
+        <v>4.3</v>
+      </c>
+      <c r="AB62">
+        <v>4.7</v>
+      </c>
+      <c r="AC62">
+        <v>5</v>
+      </c>
+      <c r="AD62">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>3.51</v>
+      </c>
+      <c r="C63">
+        <v>3.37</v>
+      </c>
+      <c r="D63">
+        <v>3.11</v>
+      </c>
+      <c r="E63">
+        <v>2.66</v>
+      </c>
+      <c r="F63">
+        <v>2.35</v>
+      </c>
+      <c r="G63">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H63">
+        <v>4.125</v>
+      </c>
+      <c r="I63">
+        <v>3.375</v>
+      </c>
+      <c r="J63">
+        <v>2.375</v>
+      </c>
+      <c r="K63">
+        <v>1.875</v>
+      </c>
+      <c r="L63">
+        <v>1.625</v>
+      </c>
+      <c r="M63">
+        <v>1.375</v>
+      </c>
+      <c r="N63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O63">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>3.2</v>
+      </c>
+      <c r="R63">
+        <v>3.3</v>
+      </c>
+      <c r="S63">
+        <v>2.7</v>
+      </c>
+      <c r="T63">
+        <v>2.4</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.8</v>
+      </c>
+      <c r="W63">
+        <v>1.7</v>
+      </c>
+      <c r="X63">
+        <v>1.6</v>
+      </c>
+      <c r="Y63">
+        <v>3.5</v>
+      </c>
+      <c r="Z63">
+        <v>3.4</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>3</v>
+      </c>
+      <c r="AC63">
+        <v>2.9</v>
+      </c>
+      <c r="AD63">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>3.3</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2.8</v>
+      </c>
+      <c r="E64">
+        <v>2.5</v>
+      </c>
+      <c r="F64">
+        <v>2.4</v>
+      </c>
+      <c r="G64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H64">
+        <v>5.125</v>
+      </c>
+      <c r="I64">
+        <v>5.125</v>
+      </c>
+      <c r="J64">
+        <v>4.375</v>
+      </c>
+      <c r="K64">
+        <v>3.875</v>
+      </c>
+      <c r="L64">
+        <v>3.125</v>
+      </c>
+      <c r="M64">
+        <v>2.375</v>
+      </c>
+      <c r="N64">
+        <v>2.8</v>
+      </c>
+      <c r="O64">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="P64">
+        <v>-1.6</v>
+      </c>
+      <c r="Q64">
+        <v>0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>4.2</v>
+      </c>
+      <c r="U64">
+        <v>2.7</v>
+      </c>
+      <c r="V64">
+        <v>1.9</v>
+      </c>
+      <c r="W64">
+        <v>1.9</v>
+      </c>
+      <c r="X64">
+        <v>1.6</v>
+      </c>
+      <c r="Y64">
+        <v>5.3</v>
+      </c>
+      <c r="Z64">
+        <v>6.6</v>
+      </c>
+      <c r="AA64">
+        <v>6.7</v>
+      </c>
+      <c r="AB64">
+        <v>6.5</v>
+      </c>
+      <c r="AC64">
+        <v>6.1</v>
+      </c>
+      <c r="AD64">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>3.7</v>
+      </c>
+      <c r="C65">
+        <v>3.75</v>
+      </c>
+      <c r="D65">
+        <v>3.6</v>
+      </c>
+      <c r="E65">
+        <v>3.55</v>
+      </c>
+      <c r="F65">
+        <v>3.5</v>
+      </c>
+      <c r="G65">
+        <v>3.45</v>
+      </c>
+      <c r="H65">
+        <v>4.875</v>
+      </c>
+      <c r="I65">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J65">
+        <v>4.8</v>
+      </c>
+      <c r="K65">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L65">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>1.6</v>
+      </c>
+      <c r="O65">
+        <v>0.5</v>
+      </c>
+      <c r="P65">
+        <v>0.5</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>0.5</v>
+      </c>
+      <c r="S65">
+        <v>7.5</v>
+      </c>
+      <c r="T65">
+        <v>7</v>
+      </c>
+      <c r="U65">
+        <v>6.8</v>
+      </c>
+      <c r="V65">
+        <v>6.5</v>
+      </c>
+      <c r="W65">
+        <v>5</v>
+      </c>
+      <c r="X65">
+        <v>4</v>
+      </c>
+      <c r="Y65">
+        <v>3.8</v>
+      </c>
+      <c r="Z65">
+        <v>4.8</v>
+      </c>
+      <c r="AA65">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB65">
+        <v>4.5</v>
+      </c>
+      <c r="AC65">
+        <v>4.3</v>
+      </c>
+      <c r="AD65">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D66">
+        <v>4.3</v>
+      </c>
+      <c r="E66">
+        <v>3.7</v>
+      </c>
+      <c r="F66">
+        <v>3.1</v>
+      </c>
+      <c r="G66">
+        <v>3.2</v>
+      </c>
+      <c r="H66">
+        <v>5.125</v>
+      </c>
+      <c r="I66">
+        <v>5.125</v>
+      </c>
+      <c r="J66">
+        <v>5.125</v>
+      </c>
+      <c r="K66">
+        <v>4.125</v>
+      </c>
+      <c r="L66">
+        <v>3.125</v>
+      </c>
+      <c r="M66">
+        <v>3.125</v>
+      </c>
+      <c r="N66">
+        <v>2.5</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>1.7</v>
+      </c>
+      <c r="R66">
+        <v>1.6</v>
+      </c>
+      <c r="S66">
+        <v>3.6</v>
+      </c>
+      <c r="T66">
+        <v>4.5</v>
+      </c>
+      <c r="U66">
+        <v>3.4</v>
+      </c>
+      <c r="V66">
+        <v>2.7</v>
+      </c>
+      <c r="W66">
+        <v>2.5</v>
+      </c>
+      <c r="X66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y66">
+        <v>3.5</v>
+      </c>
+      <c r="Z66">
+        <v>3.5</v>
+      </c>
+      <c r="AA66">
+        <v>3.8</v>
+      </c>
+      <c r="AB66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD66">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>3.6</v>
+      </c>
+      <c r="C67">
+        <v>3.4</v>
+      </c>
+      <c r="D67">
+        <v>3.2</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>2.9</v>
+      </c>
+      <c r="G67">
+        <v>2.8</v>
+      </c>
+      <c r="H67">
+        <v>4.5</v>
+      </c>
+      <c r="I67">
+        <v>4.5</v>
+      </c>
+      <c r="J67">
+        <v>4.25</v>
+      </c>
+      <c r="K67">
+        <v>4.25</v>
+      </c>
+      <c r="L67">
+        <v>3.75</v>
+      </c>
+      <c r="M67">
+        <v>3.5</v>
+      </c>
+      <c r="N67">
+        <v>0.1</v>
+      </c>
+      <c r="O67">
+        <v>0.6</v>
+      </c>
+      <c r="P67">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q67">
+        <v>1.8</v>
+      </c>
+      <c r="R67">
+        <v>2.9</v>
+      </c>
+      <c r="S67">
+        <v>3.5</v>
+      </c>
+      <c r="T67">
+        <v>2.6</v>
+      </c>
+      <c r="U67">
+        <v>2.5</v>
+      </c>
+      <c r="V67">
+        <v>2.7</v>
+      </c>
+      <c r="W67">
+        <v>2.5</v>
+      </c>
+      <c r="X67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y67">
+        <v>3.7</v>
+      </c>
+      <c r="Z67">
+        <v>4</v>
+      </c>
+      <c r="AA67">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB67">
+        <v>4.3</v>
+      </c>
+      <c r="AC67">
+        <v>4.2</v>
+      </c>
+      <c r="AD67">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>3.9</v>
+      </c>
+      <c r="C68">
+        <v>3.4</v>
+      </c>
+      <c r="H68">
+        <v>4.875</v>
+      </c>
+      <c r="I68">
+        <v>4.875</v>
+      </c>
+      <c r="J68">
+        <v>4.375</v>
+      </c>
+      <c r="K68">
+        <v>3.375</v>
+      </c>
+      <c r="N68">
+        <v>2.5</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0.75</v>
+      </c>
+      <c r="Q68">
+        <v>0.5</v>
+      </c>
+      <c r="R68">
+        <v>-0.5</v>
+      </c>
+      <c r="S68">
+        <v>2.62</v>
+      </c>
+      <c r="T68">
+        <v>3.06</v>
+      </c>
+      <c r="Y68">
+        <v>3.6</v>
+      </c>
+      <c r="Z68">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA68">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69">
+        <v>3.78</v>
+      </c>
+      <c r="C69">
+        <v>3.54</v>
+      </c>
+      <c r="D69">
+        <v>3.34</v>
+      </c>
+      <c r="E69">
+        <v>3.26</v>
+      </c>
+      <c r="F69">
+        <v>3.15</v>
+      </c>
+      <c r="G69">
+        <v>3.15</v>
+      </c>
+      <c r="H69">
+        <v>5.125</v>
+      </c>
+      <c r="I69">
+        <v>4.875</v>
+      </c>
+      <c r="J69">
+        <v>3.875</v>
+      </c>
+      <c r="K69">
+        <v>3.375</v>
+      </c>
+      <c r="L69">
+        <v>3.125</v>
+      </c>
+      <c r="M69">
+        <v>2.875</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>-0.5</v>
+      </c>
+      <c r="P69">
+        <v>-1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T69">
+        <v>3.1</v>
+      </c>
+      <c r="U69">
+        <v>2.5</v>
+      </c>
+      <c r="V69">
+        <v>2.4</v>
+      </c>
+      <c r="W69">
+        <v>2.5</v>
+      </c>
+      <c r="X69">
+        <v>2.7</v>
+      </c>
+      <c r="Y69">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA69">
+        <v>5.2</v>
+      </c>
+      <c r="AB69">
+        <v>5</v>
+      </c>
+      <c r="AC69">
+        <v>4.5</v>
+      </c>
+      <c r="AD69">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70">
+        <v>3.7</v>
+      </c>
+      <c r="C70">
+        <v>3.4</v>
+      </c>
+      <c r="D70">
+        <v>3.2</v>
+      </c>
+      <c r="E70">
+        <v>3.2</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>5.125</v>
+      </c>
+      <c r="I70">
+        <v>4.125</v>
+      </c>
+      <c r="J70">
+        <v>3.125</v>
+      </c>
+      <c r="K70">
+        <v>3.125</v>
+      </c>
+      <c r="L70">
+        <v>3.125</v>
+      </c>
+      <c r="M70">
+        <v>3.125</v>
+      </c>
+      <c r="N70">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O70">
+        <v>-2</v>
+      </c>
+      <c r="P70">
+        <v>-1.6</v>
+      </c>
+      <c r="Q70">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R70">
+        <v>1.7</v>
+      </c>
+      <c r="S70">
+        <v>3.1</v>
+      </c>
+      <c r="T70">
+        <v>2.8</v>
+      </c>
+      <c r="U70">
+        <v>2.1</v>
+      </c>
+      <c r="V70">
+        <v>1.9</v>
+      </c>
+      <c r="W70">
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y70">
+        <v>4.5</v>
+      </c>
+      <c r="Z70">
+        <v>5.3</v>
+      </c>
+      <c r="AA70">
+        <v>4.8</v>
+      </c>
+      <c r="AB70">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC70">
+        <v>4.5</v>
+      </c>
+      <c r="AD70">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C71">
+        <v>3.8</v>
+      </c>
+      <c r="D71">
+        <v>3.5</v>
+      </c>
+      <c r="E71">
+        <v>3.5</v>
+      </c>
+      <c r="F71">
+        <v>3.5</v>
+      </c>
+      <c r="G71">
+        <v>3.5</v>
+      </c>
+      <c r="H71">
+        <v>5.125</v>
+      </c>
+      <c r="I71">
+        <v>5.125</v>
+      </c>
+      <c r="J71">
+        <v>4.625</v>
+      </c>
+      <c r="K71">
+        <v>4.125</v>
+      </c>
+      <c r="L71">
+        <v>3.625</v>
+      </c>
+      <c r="M71">
+        <v>3.125</v>
+      </c>
+      <c r="N71">
+        <v>2.9</v>
+      </c>
+      <c r="O71">
+        <v>1.8</v>
+      </c>
+      <c r="P71">
+        <v>0.5</v>
+      </c>
+      <c r="Q71">
+        <v>0.2</v>
+      </c>
+      <c r="R71">
+        <v>0.1</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>2.8</v>
+      </c>
+      <c r="U71">
+        <v>2.4</v>
+      </c>
+      <c r="V71">
+        <v>2.1</v>
+      </c>
+      <c r="W71">
+        <v>2</v>
+      </c>
+      <c r="X71">
+        <v>2</v>
+      </c>
+      <c r="Y71">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z71">
+        <v>4.3</v>
+      </c>
+      <c r="AA71">
+        <v>4.3</v>
+      </c>
+      <c r="AB71">
+        <v>4.2</v>
+      </c>
+      <c r="AC71">
+        <v>4</v>
+      </c>
+      <c r="AD71">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>4.57</v>
+      </c>
+      <c r="C72">
+        <v>5.63</v>
+      </c>
+      <c r="D72">
+        <v>5.74</v>
+      </c>
+      <c r="E72">
+        <v>5.63</v>
+      </c>
+      <c r="F72">
+        <v>5.64</v>
+      </c>
+      <c r="G72">
+        <v>5.42</v>
+      </c>
+      <c r="H72">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="I72">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="J72">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="K72">
+        <v>4.58</v>
+      </c>
+      <c r="L72">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="M72">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="N72">
+        <v>3.65</v>
+      </c>
+      <c r="O72">
+        <v>0.22</v>
+      </c>
+      <c r="P72">
+        <v>1.89</v>
+      </c>
+      <c r="Q72">
+        <v>1.76</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>5.47</v>
+      </c>
+      <c r="T72">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U72">
+        <v>4</v>
+      </c>
+      <c r="V72">
+        <v>3.23</v>
+      </c>
+      <c r="W72">
+        <v>2.69</v>
+      </c>
+      <c r="X72">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Y72">
+        <v>3.55</v>
+      </c>
+      <c r="Z72">
+        <v>3.72</v>
+      </c>
+      <c r="AA72">
+        <v>3.91</v>
+      </c>
+      <c r="AB72">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AC72">
+        <v>4.29</v>
+      </c>
+      <c r="AD72">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C74">
+        <v>2.1</v>
+      </c>
+      <c r="D74">
+        <v>1.9</v>
+      </c>
+      <c r="E74">
+        <v>1.8</v>
+      </c>
+      <c r="H74">
+        <v>4.875</v>
+      </c>
+      <c r="I74">
+        <v>4.125</v>
+      </c>
+      <c r="J74">
+        <v>2.625</v>
+      </c>
+      <c r="K74">
+        <v>0.625</v>
+      </c>
+      <c r="L74">
+        <v>0.875</v>
+      </c>
+      <c r="M74">
+        <v>1.125</v>
+      </c>
+      <c r="N74">
+        <v>-0.4</v>
+      </c>
+      <c r="O74">
+        <v>-1.2</v>
+      </c>
+      <c r="P74">
+        <v>-1.6</v>
+      </c>
+      <c r="Q74">
+        <v>-1</v>
+      </c>
+      <c r="R74">
+        <v>-0.4</v>
+      </c>
+      <c r="S74">
+        <v>2.5</v>
+      </c>
+      <c r="T74">
+        <v>0.8</v>
+      </c>
+      <c r="U74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V74">
+        <v>1.3</v>
+      </c>
+      <c r="Y74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z74">
+        <v>5.9</v>
+      </c>
+      <c r="AA74">
+        <v>6</v>
+      </c>
+      <c r="AB74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C75">
+        <v>4.05</v>
+      </c>
+      <c r="D75">
+        <v>3.65</v>
+      </c>
+      <c r="E75">
+        <v>3.95</v>
+      </c>
+      <c r="H75">
+        <v>5.125</v>
+      </c>
+      <c r="I75">
+        <v>5.125</v>
+      </c>
+      <c r="J75">
+        <v>4.625</v>
+      </c>
+      <c r="K75">
+        <v>4.125</v>
+      </c>
+      <c r="N75">
+        <v>2.8</v>
+      </c>
+      <c r="O75">
+        <v>0.6</v>
+      </c>
+      <c r="P75">
+        <v>-1</v>
+      </c>
+      <c r="Q75">
+        <v>-0.6</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>2.7</v>
+      </c>
+      <c r="T75">
+        <v>3.1</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
+        <v>2.4</v>
+      </c>
+      <c r="Y75">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB75">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>3.5</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2.75</v>
+      </c>
+      <c r="E76">
+        <v>2.75</v>
+      </c>
+      <c r="F76">
+        <v>2.6</v>
+      </c>
+      <c r="G76">
+        <v>2.5</v>
+      </c>
+      <c r="H76">
+        <v>5.125</v>
+      </c>
+      <c r="I76">
+        <v>5.125</v>
+      </c>
+      <c r="J76">
+        <v>4.125</v>
+      </c>
+      <c r="K76">
+        <v>3.625</v>
+      </c>
+      <c r="L76">
+        <v>3.125</v>
+      </c>
+      <c r="M76">
+        <v>2.625</v>
+      </c>
+      <c r="N76">
+        <v>1.8</v>
+      </c>
+      <c r="O76">
+        <v>-0.9</v>
+      </c>
+      <c r="P76">
+        <v>-1.4</v>
+      </c>
+      <c r="Q76">
+        <v>-1.7</v>
+      </c>
+      <c r="R76">
+        <v>-0.9</v>
+      </c>
+      <c r="S76">
+        <v>3.8</v>
+      </c>
+      <c r="T76">
+        <v>3.2</v>
+      </c>
+      <c r="U76">
+        <v>2.9</v>
+      </c>
+      <c r="V76">
+        <v>2.4</v>
+      </c>
+      <c r="W76">
+        <v>2.1</v>
+      </c>
+      <c r="X76">
+        <v>2</v>
+      </c>
+      <c r="Y76">
+        <v>4.3</v>
+      </c>
+      <c r="Z76">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA76">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB76">
+        <v>5.3</v>
+      </c>
+      <c r="AC76">
+        <v>5.3</v>
+      </c>
+      <c r="AD76">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>3.9</v>
+      </c>
+      <c r="C77">
+        <v>3.8</v>
+      </c>
+      <c r="D77">
+        <v>3.7</v>
+      </c>
+      <c r="E77">
+        <v>3.5</v>
+      </c>
+      <c r="F77">
+        <v>3.5</v>
+      </c>
+      <c r="G77">
+        <v>3.4</v>
+      </c>
+      <c r="H77">
+        <v>5.375</v>
+      </c>
+      <c r="I77">
+        <v>5.625</v>
+      </c>
+      <c r="J77">
+        <v>5.125</v>
+      </c>
+      <c r="K77">
+        <v>4.125</v>
+      </c>
+      <c r="L77">
+        <v>3.625</v>
+      </c>
+      <c r="M77">
+        <v>3.125</v>
+      </c>
+      <c r="N77">
+        <v>2.4</v>
+      </c>
+      <c r="O77">
+        <v>-0.5</v>
+      </c>
+      <c r="P77">
+        <v>-1.2</v>
+      </c>
+      <c r="Q77">
+        <v>-1.3</v>
+      </c>
+      <c r="R77">
+        <v>-0.3</v>
+      </c>
+      <c r="S77">
+        <v>4.5</v>
+      </c>
+      <c r="T77">
+        <v>3.7</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+      <c r="V77">
+        <v>2.7</v>
+      </c>
+      <c r="W77">
+        <v>2.4</v>
+      </c>
+      <c r="X77">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y77">
+        <v>4.2</v>
+      </c>
+      <c r="Z77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA77">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC77">
+        <v>4.7</v>
+      </c>
+      <c r="AD77">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>3.85</v>
+      </c>
+      <c r="C78">
+        <v>3.8</v>
+      </c>
+      <c r="D78">
+        <v>3.7</v>
+      </c>
+      <c r="E78">
+        <v>3.6</v>
+      </c>
+      <c r="H78">
+        <v>5.125</v>
+      </c>
+      <c r="I78">
+        <v>4.875</v>
+      </c>
+      <c r="J78">
+        <v>3.875</v>
+      </c>
+      <c r="K78">
+        <v>2.875</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>0.5</v>
+      </c>
+      <c r="Q78">
+        <v>-1</v>
+      </c>
+      <c r="R78">
+        <v>-1.5</v>
+      </c>
+      <c r="S78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T78">
+        <v>4</v>
+      </c>
+      <c r="U78">
+        <v>3.1</v>
+      </c>
+      <c r="V78">
+        <v>2.1</v>
+      </c>
+      <c r="Y78">
+        <v>3.8</v>
+      </c>
+      <c r="Z78">
+        <v>4.5</v>
+      </c>
+      <c r="AA78">
+        <v>5.2</v>
+      </c>
+      <c r="AB78">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>3.5</v>
+      </c>
+      <c r="C79">
+        <v>3.5</v>
+      </c>
+      <c r="D79">
+        <v>3.6</v>
+      </c>
+      <c r="E79">
+        <v>3.7</v>
+      </c>
+      <c r="F79">
+        <v>3.7</v>
+      </c>
+      <c r="G79">
+        <v>3.8</v>
+      </c>
+      <c r="H79">
+        <v>4.875</v>
+      </c>
+      <c r="I79">
+        <v>4.875</v>
+      </c>
+      <c r="J79">
+        <v>4.5</v>
+      </c>
+      <c r="K79">
+        <v>4.2</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>3.7</v>
+      </c>
+      <c r="N79">
+        <v>1.5</v>
+      </c>
+      <c r="O79">
+        <v>1.6</v>
+      </c>
+      <c r="P79">
+        <v>0.7</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>2.4</v>
+      </c>
+      <c r="S79">
+        <v>4.5</v>
+      </c>
+      <c r="T79">
+        <v>3.8</v>
+      </c>
+      <c r="U79">
+        <v>3.3</v>
+      </c>
+      <c r="V79">
+        <v>3.1</v>
+      </c>
+      <c r="W79">
+        <v>3</v>
+      </c>
+      <c r="X79">
+        <v>2.8</v>
+      </c>
+      <c r="Y79">
+        <v>3.8</v>
+      </c>
+      <c r="Z79">
+        <v>4</v>
+      </c>
+      <c r="AA79">
+        <v>3.9</v>
+      </c>
+      <c r="AB79">
+        <v>3.8</v>
+      </c>
+      <c r="AC79">
+        <v>3.8</v>
+      </c>
+      <c r="AD79">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>3.8</v>
+      </c>
+      <c r="C80">
+        <v>3.6</v>
+      </c>
+      <c r="H80">
+        <v>4.875</v>
+      </c>
+      <c r="I80">
+        <v>4.625</v>
+      </c>
+      <c r="J80">
+        <v>3.375</v>
+      </c>
+      <c r="K80">
+        <v>2.375</v>
+      </c>
+      <c r="N80">
+        <v>0.7</v>
+      </c>
+      <c r="O80">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P80">
+        <v>1.3</v>
+      </c>
+      <c r="Q80">
+        <v>0.5</v>
+      </c>
+      <c r="R80">
+        <v>0.3</v>
+      </c>
+      <c r="S80">
+        <v>1.8</v>
+      </c>
+      <c r="T80">
+        <v>1.8</v>
+      </c>
+      <c r="U80">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V80">
+        <v>2.4</v>
+      </c>
+      <c r="Y80">
+        <v>4</v>
+      </c>
+      <c r="Z80">
+        <v>4.3</v>
+      </c>
+      <c r="AA80">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB80">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modules/external-import/external-import-wsj.xlsx
+++ b/modules/external-import/external-import-wsj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bongohead\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA9123-2D4E-4CEC-86EE-DC9CDD4C3713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39F4687-3E05-436F-9C68-33C2523CA1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
   </bookViews>
   <sheets>
     <sheet name="wsj_2021-04-11" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="wsj_2022-07-17" sheetId="8" r:id="rId6"/>
     <sheet name="wsj_2022-10-16" sheetId="9" r:id="rId7"/>
     <sheet name="wsj_2023-01-15" sheetId="10" r:id="rId8"/>
+    <sheet name="wsj_2023-04-23" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="128">
   <si>
     <t>2022Q1</t>
   </si>
@@ -413,6 +414,18 @@
   </si>
   <si>
     <t xml:space="preserve">KPMG </t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>Bank of the West</t>
+  </si>
+  <si>
+    <t>Santander US Capital Markets</t>
+  </si>
+  <si>
+    <t>Beacon Economics</t>
   </si>
 </sst>
 </file>
@@ -794,7 +807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -41371,8 +41384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AC01A-1BAC-49D9-838F-F12276E309B0}">
   <dimension ref="A1:AD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47390,4 +47403,5389 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4084EB-DF25-44F4-9745-75219A36D787}">
+  <dimension ref="A1:AD81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="R74" sqref="R74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>3.6</v>
+      </c>
+      <c r="C3">
+        <v>3.42</v>
+      </c>
+      <c r="D3">
+        <v>3.31</v>
+      </c>
+      <c r="E3">
+        <v>3.29</v>
+      </c>
+      <c r="F3">
+        <v>3.26</v>
+      </c>
+      <c r="G3">
+        <v>3.28</v>
+      </c>
+      <c r="H3">
+        <v>5.1139999999999999</v>
+      </c>
+      <c r="I3">
+        <v>4.9580000000000002</v>
+      </c>
+      <c r="J3">
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="K3">
+        <v>3.544</v>
+      </c>
+      <c r="L3">
+        <v>3.17</v>
+      </c>
+      <c r="M3">
+        <v>2.9860000000000002</v>
+      </c>
+      <c r="N3">
+        <v>1.73</v>
+      </c>
+      <c r="O3">
+        <v>0.15</v>
+      </c>
+      <c r="P3">
+        <v>-0.32</v>
+      </c>
+      <c r="Q3">
+        <v>0.12</v>
+      </c>
+      <c r="R3">
+        <v>0.89</v>
+      </c>
+      <c r="S3">
+        <v>4.2</v>
+      </c>
+      <c r="T3">
+        <v>3.53</v>
+      </c>
+      <c r="U3">
+        <v>2.78</v>
+      </c>
+      <c r="V3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="W3">
+        <v>2.34</v>
+      </c>
+      <c r="X3">
+        <v>2.27</v>
+      </c>
+      <c r="Y3">
+        <v>3.75</v>
+      </c>
+      <c r="Z3">
+        <v>4.3</v>
+      </c>
+      <c r="AA3">
+        <v>4.55</v>
+      </c>
+      <c r="AB3">
+        <v>4.51</v>
+      </c>
+      <c r="AC3">
+        <v>4.38</v>
+      </c>
+      <c r="AD3">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>3.34</v>
+      </c>
+      <c r="C4">
+        <v>3.43</v>
+      </c>
+      <c r="D4">
+        <v>3.16</v>
+      </c>
+      <c r="E4">
+        <v>2.94</v>
+      </c>
+      <c r="F4">
+        <v>3.03</v>
+      </c>
+      <c r="G4">
+        <v>3.06</v>
+      </c>
+      <c r="H4">
+        <v>4.875</v>
+      </c>
+      <c r="I4">
+        <v>4.375</v>
+      </c>
+      <c r="J4">
+        <v>3.625</v>
+      </c>
+      <c r="K4">
+        <v>2.625</v>
+      </c>
+      <c r="L4">
+        <v>2.375</v>
+      </c>
+      <c r="M4">
+        <v>2.375</v>
+      </c>
+      <c r="N4">
+        <v>1.3</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
+        <v>-0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>3.3</v>
+      </c>
+      <c r="T4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>3.9</v>
+      </c>
+      <c r="Z4">
+        <v>4.5</v>
+      </c>
+      <c r="AA4">
+        <v>4.7</v>
+      </c>
+      <c r="AB4">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>3.25</v>
+      </c>
+      <c r="H5">
+        <v>5.125</v>
+      </c>
+      <c r="I5">
+        <v>5.125</v>
+      </c>
+      <c r="J5">
+        <v>4.875</v>
+      </c>
+      <c r="K5">
+        <v>4.375</v>
+      </c>
+      <c r="N5">
+        <v>1.7</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>-1.3</v>
+      </c>
+      <c r="Q5">
+        <v>-0.8</v>
+      </c>
+      <c r="R5">
+        <v>1.7</v>
+      </c>
+      <c r="S5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>2.8</v>
+      </c>
+      <c r="V5">
+        <v>2.4</v>
+      </c>
+      <c r="Y5">
+        <v>4.3</v>
+      </c>
+      <c r="Z5">
+        <v>4.7</v>
+      </c>
+      <c r="AA5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>3.64</v>
+      </c>
+      <c r="C6">
+        <v>3.91</v>
+      </c>
+      <c r="D6">
+        <v>3.72</v>
+      </c>
+      <c r="E6">
+        <v>3.42</v>
+      </c>
+      <c r="F6">
+        <v>3.24</v>
+      </c>
+      <c r="G6">
+        <v>3.13</v>
+      </c>
+      <c r="H6">
+        <v>5.125</v>
+      </c>
+      <c r="I6">
+        <v>5.125</v>
+      </c>
+      <c r="J6">
+        <v>4.375</v>
+      </c>
+      <c r="K6">
+        <v>3.875</v>
+      </c>
+      <c r="L6">
+        <v>3.375</v>
+      </c>
+      <c r="M6">
+        <v>2.875</v>
+      </c>
+      <c r="N6">
+        <v>2.1</v>
+      </c>
+      <c r="O6">
+        <v>-1.3</v>
+      </c>
+      <c r="P6">
+        <v>-1.6</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>1.3</v>
+      </c>
+      <c r="S6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T6">
+        <v>3.4</v>
+      </c>
+      <c r="U6">
+        <v>2.6</v>
+      </c>
+      <c r="V6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>3.8</v>
+      </c>
+      <c r="Z6">
+        <v>4.7</v>
+      </c>
+      <c r="AA6">
+        <v>4.8</v>
+      </c>
+      <c r="AB6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC6">
+        <v>4.5</v>
+      </c>
+      <c r="AD6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>4.18</v>
+      </c>
+      <c r="C8">
+        <v>4.8</v>
+      </c>
+      <c r="D8">
+        <v>5.58</v>
+      </c>
+      <c r="E8">
+        <v>6.38</v>
+      </c>
+      <c r="F8">
+        <v>6.4</v>
+      </c>
+      <c r="G8">
+        <v>6.34</v>
+      </c>
+      <c r="H8">
+        <v>5.04</v>
+      </c>
+      <c r="I8">
+        <v>5.125</v>
+      </c>
+      <c r="J8">
+        <v>5.125</v>
+      </c>
+      <c r="K8">
+        <v>5.125</v>
+      </c>
+      <c r="L8">
+        <v>5.125</v>
+      </c>
+      <c r="M8">
+        <v>5.125</v>
+      </c>
+      <c r="N8">
+        <v>2.7</v>
+      </c>
+      <c r="O8">
+        <v>0.9</v>
+      </c>
+      <c r="P8">
+        <v>-0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>4.2</v>
+      </c>
+      <c r="T8">
+        <v>3.8</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W8">
+        <v>1.6</v>
+      </c>
+      <c r="X8">
+        <v>1.4</v>
+      </c>
+      <c r="Y8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>4.3</v>
+      </c>
+      <c r="AA8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>3.9</v>
+      </c>
+      <c r="AD8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3.3</v>
+      </c>
+      <c r="C9">
+        <v>3.35</v>
+      </c>
+      <c r="D9">
+        <v>3.6</v>
+      </c>
+      <c r="E9">
+        <v>3.7</v>
+      </c>
+      <c r="F9">
+        <v>3.48</v>
+      </c>
+      <c r="G9">
+        <v>3.35</v>
+      </c>
+      <c r="H9">
+        <v>5.13</v>
+      </c>
+      <c r="I9">
+        <v>5.13</v>
+      </c>
+      <c r="J9">
+        <v>4.88</v>
+      </c>
+      <c r="K9">
+        <v>4.13</v>
+      </c>
+      <c r="L9">
+        <v>3.63</v>
+      </c>
+      <c r="M9">
+        <v>3.13</v>
+      </c>
+      <c r="N9">
+        <v>2.1</v>
+      </c>
+      <c r="O9">
+        <v>-0.3</v>
+      </c>
+      <c r="P9">
+        <v>1.9</v>
+      </c>
+      <c r="Q9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R9">
+        <v>1.6</v>
+      </c>
+      <c r="S9">
+        <v>5.4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3.7</v>
+      </c>
+      <c r="V9">
+        <v>2.6</v>
+      </c>
+      <c r="W9">
+        <v>2.5</v>
+      </c>
+      <c r="X9">
+        <v>2.4</v>
+      </c>
+      <c r="Y9">
+        <v>3.8</v>
+      </c>
+      <c r="Z9">
+        <v>4.2</v>
+      </c>
+      <c r="AA9">
+        <v>4.2</v>
+      </c>
+      <c r="AB9">
+        <v>3.8</v>
+      </c>
+      <c r="AC9">
+        <v>3.8</v>
+      </c>
+      <c r="AD9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>3.25</v>
+      </c>
+      <c r="C10">
+        <v>2.75</v>
+      </c>
+      <c r="D10">
+        <v>2.6</v>
+      </c>
+      <c r="E10">
+        <v>2.95</v>
+      </c>
+      <c r="F10">
+        <v>3.1</v>
+      </c>
+      <c r="G10">
+        <v>3.25</v>
+      </c>
+      <c r="H10">
+        <v>5.125</v>
+      </c>
+      <c r="I10">
+        <v>4.875</v>
+      </c>
+      <c r="J10">
+        <v>3.875</v>
+      </c>
+      <c r="K10">
+        <v>2.875</v>
+      </c>
+      <c r="L10">
+        <v>2.625</v>
+      </c>
+      <c r="M10">
+        <v>2.625</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <v>-1.5</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>-0.5</v>
+      </c>
+      <c r="S10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T10">
+        <v>3.5</v>
+      </c>
+      <c r="U10">
+        <v>2.5</v>
+      </c>
+      <c r="V10">
+        <v>1.5</v>
+      </c>
+      <c r="W10">
+        <v>1.8</v>
+      </c>
+      <c r="X10">
+        <v>2.1</v>
+      </c>
+      <c r="Y10">
+        <v>3.8</v>
+      </c>
+      <c r="Z10">
+        <v>4.3</v>
+      </c>
+      <c r="AA10">
+        <v>4.7</v>
+      </c>
+      <c r="AB10">
+        <v>5.2</v>
+      </c>
+      <c r="AC10">
+        <v>5.5</v>
+      </c>
+      <c r="AD10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3.75</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3.25</v>
+      </c>
+      <c r="E13">
+        <v>3.5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4.5</v>
+      </c>
+      <c r="H13">
+        <v>5.125</v>
+      </c>
+      <c r="I13">
+        <v>3.125</v>
+      </c>
+      <c r="J13">
+        <v>2.875</v>
+      </c>
+      <c r="K13">
+        <v>2.5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1.5</v>
+      </c>
+      <c r="Q13">
+        <v>1.5</v>
+      </c>
+      <c r="R13">
+        <v>2.5</v>
+      </c>
+      <c r="S13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T13">
+        <v>3.7</v>
+      </c>
+      <c r="U13">
+        <v>3.5</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>5.5</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>4.5</v>
+      </c>
+      <c r="AD13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3.55</v>
+      </c>
+      <c r="C16">
+        <v>3.5</v>
+      </c>
+      <c r="D16">
+        <v>3.1</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <v>2.75</v>
+      </c>
+      <c r="G16">
+        <v>2.5</v>
+      </c>
+      <c r="H16">
+        <v>5.125</v>
+      </c>
+      <c r="I16">
+        <v>5.125</v>
+      </c>
+      <c r="J16">
+        <v>4.125</v>
+      </c>
+      <c r="K16">
+        <v>3.375</v>
+      </c>
+      <c r="L16">
+        <v>2.375</v>
+      </c>
+      <c r="M16">
+        <v>2.375</v>
+      </c>
+      <c r="N16">
+        <v>1.4</v>
+      </c>
+      <c r="O16">
+        <v>0.6</v>
+      </c>
+      <c r="P16">
+        <v>-0.8</v>
+      </c>
+      <c r="Q16">
+        <v>-1.5</v>
+      </c>
+      <c r="R16">
+        <v>-0.5</v>
+      </c>
+      <c r="S16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>3.5</v>
+      </c>
+      <c r="V16">
+        <v>3.5</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>3.1</v>
+      </c>
+      <c r="Y16">
+        <v>3.8</v>
+      </c>
+      <c r="Z16">
+        <v>4</v>
+      </c>
+      <c r="AA16">
+        <v>4.5</v>
+      </c>
+      <c r="AB16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC16">
+        <v>5.3</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17">
+        <v>2.9</v>
+      </c>
+      <c r="D17">
+        <v>2.8</v>
+      </c>
+      <c r="E17">
+        <v>2.85</v>
+      </c>
+      <c r="H17">
+        <v>5.125</v>
+      </c>
+      <c r="I17">
+        <v>4.625</v>
+      </c>
+      <c r="J17">
+        <v>2.625</v>
+      </c>
+      <c r="K17">
+        <v>2.375</v>
+      </c>
+      <c r="N17">
+        <v>1.8</v>
+      </c>
+      <c r="O17">
+        <v>1.3</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-2.8</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>4.2</v>
+      </c>
+      <c r="T17">
+        <v>2.8</v>
+      </c>
+      <c r="U17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V17">
+        <v>2.8</v>
+      </c>
+      <c r="Y17">
+        <v>3.6</v>
+      </c>
+      <c r="Z17">
+        <v>4.5</v>
+      </c>
+      <c r="AA17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>3.1</v>
+      </c>
+      <c r="C18">
+        <v>2.9</v>
+      </c>
+      <c r="D18">
+        <v>2.5</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="F18">
+        <v>2.7</v>
+      </c>
+      <c r="G18">
+        <v>2.8</v>
+      </c>
+      <c r="H18">
+        <v>4.87</v>
+      </c>
+      <c r="I18">
+        <v>4.37</v>
+      </c>
+      <c r="J18">
+        <v>3.62</v>
+      </c>
+      <c r="K18">
+        <v>3.37</v>
+      </c>
+      <c r="L18">
+        <v>3.1</v>
+      </c>
+      <c r="M18">
+        <v>3.1</v>
+      </c>
+      <c r="N18">
+        <v>1.5</v>
+      </c>
+      <c r="O18">
+        <v>0.5</v>
+      </c>
+      <c r="P18">
+        <v>-2</v>
+      </c>
+      <c r="Q18">
+        <v>-2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>4.2</v>
+      </c>
+      <c r="T18">
+        <v>2.9</v>
+      </c>
+      <c r="U18">
+        <v>2.6</v>
+      </c>
+      <c r="V18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y18">
+        <v>4.2</v>
+      </c>
+      <c r="Z18">
+        <v>2.9</v>
+      </c>
+      <c r="AA18">
+        <v>2.6</v>
+      </c>
+      <c r="AB18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD18">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>4.875</v>
+      </c>
+      <c r="I21">
+        <v>4.875</v>
+      </c>
+      <c r="J21">
+        <v>3.375</v>
+      </c>
+      <c r="K21">
+        <v>2.625</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>-0.5</v>
+      </c>
+      <c r="P21">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>-1.5</v>
+      </c>
+      <c r="R21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S21">
+        <v>4.5</v>
+      </c>
+      <c r="T21">
+        <v>3.3</v>
+      </c>
+      <c r="U21">
+        <v>1.7</v>
+      </c>
+      <c r="V21">
+        <v>1.3</v>
+      </c>
+      <c r="Y21">
+        <v>3.6</v>
+      </c>
+      <c r="Z21">
+        <v>4.2</v>
+      </c>
+      <c r="AA21">
+        <v>5.3</v>
+      </c>
+      <c r="AB21">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>3.4</v>
+      </c>
+      <c r="C22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2.1</v>
+      </c>
+      <c r="F22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G22">
+        <v>2.8</v>
+      </c>
+      <c r="H22">
+        <v>5.125</v>
+      </c>
+      <c r="I22">
+        <v>4.875</v>
+      </c>
+      <c r="J22">
+        <v>2.375</v>
+      </c>
+      <c r="K22">
+        <v>1.875</v>
+      </c>
+      <c r="L22">
+        <v>1.375</v>
+      </c>
+      <c r="M22">
+        <v>1.375</v>
+      </c>
+      <c r="N22">
+        <v>1.5</v>
+      </c>
+      <c r="O22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T22">
+        <v>3.6</v>
+      </c>
+      <c r="U22">
+        <v>2.5</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>1.9</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>3.7</v>
+      </c>
+      <c r="Z22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <v>3.8</v>
+      </c>
+      <c r="AC22">
+        <v>3.6</v>
+      </c>
+      <c r="AD22">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>3.08</v>
+      </c>
+      <c r="C23">
+        <v>2.9</v>
+      </c>
+      <c r="D23">
+        <v>3.05</v>
+      </c>
+      <c r="E23">
+        <v>3.15</v>
+      </c>
+      <c r="F23">
+        <v>3.2</v>
+      </c>
+      <c r="G23">
+        <v>3.2</v>
+      </c>
+      <c r="H23">
+        <v>5.125</v>
+      </c>
+      <c r="I23">
+        <v>5.125</v>
+      </c>
+      <c r="J23">
+        <v>4.125</v>
+      </c>
+      <c r="K23">
+        <v>3.375</v>
+      </c>
+      <c r="L23">
+        <v>2.875</v>
+      </c>
+      <c r="M23">
+        <v>2.875</v>
+      </c>
+      <c r="N23">
+        <v>1.5</v>
+      </c>
+      <c r="O23">
+        <v>-1.6</v>
+      </c>
+      <c r="P23">
+        <v>-0.4</v>
+      </c>
+      <c r="Q23">
+        <v>0.8</v>
+      </c>
+      <c r="R23">
+        <v>1.7</v>
+      </c>
+      <c r="S23">
+        <v>3.9</v>
+      </c>
+      <c r="T23">
+        <v>2.6</v>
+      </c>
+      <c r="U23">
+        <v>1.9</v>
+      </c>
+      <c r="V23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
+        <v>2.1</v>
+      </c>
+      <c r="X23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB23">
+        <v>4.5</v>
+      </c>
+      <c r="AC23">
+        <v>4.5</v>
+      </c>
+      <c r="AD23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>3.9</v>
+      </c>
+      <c r="C24">
+        <v>3.5</v>
+      </c>
+      <c r="D24">
+        <v>3.2</v>
+      </c>
+      <c r="E24">
+        <v>3.2</v>
+      </c>
+      <c r="F24">
+        <v>3.1</v>
+      </c>
+      <c r="G24">
+        <v>3.3</v>
+      </c>
+      <c r="H24">
+        <v>5.125</v>
+      </c>
+      <c r="I24">
+        <v>4.625</v>
+      </c>
+      <c r="J24">
+        <v>3.625</v>
+      </c>
+      <c r="K24">
+        <v>3.125</v>
+      </c>
+      <c r="L24">
+        <v>2.875</v>
+      </c>
+      <c r="M24">
+        <v>3.375</v>
+      </c>
+      <c r="N24">
+        <v>1.5</v>
+      </c>
+      <c r="O24">
+        <v>-1.2</v>
+      </c>
+      <c r="P24">
+        <v>-0.8</v>
+      </c>
+      <c r="Q24">
+        <v>0.6</v>
+      </c>
+      <c r="R24">
+        <v>-0.9</v>
+      </c>
+      <c r="S24">
+        <v>3.9</v>
+      </c>
+      <c r="T24">
+        <v>3.2</v>
+      </c>
+      <c r="U24">
+        <v>2.7</v>
+      </c>
+      <c r="V24">
+        <v>2.6</v>
+      </c>
+      <c r="W24">
+        <v>2.1</v>
+      </c>
+      <c r="X24">
+        <v>1.8</v>
+      </c>
+      <c r="Y24">
+        <v>3.7</v>
+      </c>
+      <c r="Z24">
+        <v>4.3</v>
+      </c>
+      <c r="AA24">
+        <v>4.5</v>
+      </c>
+      <c r="AB24">
+        <v>4.7</v>
+      </c>
+      <c r="AC24">
+        <v>5</v>
+      </c>
+      <c r="AD24">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>3.82</v>
+      </c>
+      <c r="D25">
+        <v>3.53</v>
+      </c>
+      <c r="E25">
+        <v>3.49</v>
+      </c>
+      <c r="F25">
+        <v>3.35</v>
+      </c>
+      <c r="G25">
+        <v>3.29</v>
+      </c>
+      <c r="H25">
+        <v>5.125</v>
+      </c>
+      <c r="I25">
+        <v>5.125</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>-1.2</v>
+      </c>
+      <c r="P25">
+        <v>-0.4</v>
+      </c>
+      <c r="Q25">
+        <v>0.3</v>
+      </c>
+      <c r="R25">
+        <v>0.8</v>
+      </c>
+      <c r="T25">
+        <v>4.5</v>
+      </c>
+      <c r="V25">
+        <v>2.5</v>
+      </c>
+      <c r="X25">
+        <v>1.9</v>
+      </c>
+      <c r="Y25">
+        <v>3.8</v>
+      </c>
+      <c r="Z25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB25">
+        <v>5.4</v>
+      </c>
+      <c r="AC25">
+        <v>5.6</v>
+      </c>
+      <c r="AD25">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>3.44</v>
+      </c>
+      <c r="C27">
+        <v>3.36</v>
+      </c>
+      <c r="D27">
+        <v>3.33</v>
+      </c>
+      <c r="E27">
+        <v>3.34</v>
+      </c>
+      <c r="H27">
+        <v>5.125</v>
+      </c>
+      <c r="I27">
+        <v>4.875</v>
+      </c>
+      <c r="J27">
+        <v>3.375</v>
+      </c>
+      <c r="K27">
+        <v>3.125</v>
+      </c>
+      <c r="N27">
+        <v>1.9</v>
+      </c>
+      <c r="O27">
+        <v>-0.7</v>
+      </c>
+      <c r="P27">
+        <v>-1.5</v>
+      </c>
+      <c r="Q27">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="R27">
+        <v>-0.5</v>
+      </c>
+      <c r="S27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T27">
+        <v>3.3</v>
+      </c>
+      <c r="U27">
+        <v>2.8</v>
+      </c>
+      <c r="V27">
+        <v>2.7</v>
+      </c>
+      <c r="Y27">
+        <v>3.6</v>
+      </c>
+      <c r="Z27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB27">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>3.28</v>
+      </c>
+      <c r="C28">
+        <v>3.24</v>
+      </c>
+      <c r="D28">
+        <v>3.27</v>
+      </c>
+      <c r="E28">
+        <v>3.34</v>
+      </c>
+      <c r="F28">
+        <v>3.34</v>
+      </c>
+      <c r="G28">
+        <v>3.34</v>
+      </c>
+      <c r="H28">
+        <v>5.13</v>
+      </c>
+      <c r="I28">
+        <v>5.13</v>
+      </c>
+      <c r="J28">
+        <v>3.61</v>
+      </c>
+      <c r="K28">
+        <v>2.88</v>
+      </c>
+      <c r="L28">
+        <v>2.88</v>
+      </c>
+      <c r="M28">
+        <v>2.88</v>
+      </c>
+      <c r="N28">
+        <v>1.2</v>
+      </c>
+      <c r="O28">
+        <v>0.6</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>-0.7</v>
+      </c>
+      <c r="R28">
+        <v>-1.2</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>2.9</v>
+      </c>
+      <c r="U28">
+        <v>1.5</v>
+      </c>
+      <c r="V28">
+        <v>0.9</v>
+      </c>
+      <c r="W28">
+        <v>1.2</v>
+      </c>
+      <c r="X28">
+        <v>1.6</v>
+      </c>
+      <c r="Y28">
+        <v>3.8</v>
+      </c>
+      <c r="Z28">
+        <v>4.3</v>
+      </c>
+      <c r="AA28">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB28">
+        <v>5.2</v>
+      </c>
+      <c r="AC28">
+        <v>4.8</v>
+      </c>
+      <c r="AD28">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>3.5</v>
+      </c>
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+      <c r="D29">
+        <v>3.3</v>
+      </c>
+      <c r="E29">
+        <v>3.3</v>
+      </c>
+      <c r="F29">
+        <v>3.3</v>
+      </c>
+      <c r="G29">
+        <v>3.3</v>
+      </c>
+      <c r="H29">
+        <v>5.375</v>
+      </c>
+      <c r="I29">
+        <v>5.125</v>
+      </c>
+      <c r="J29">
+        <v>4.125</v>
+      </c>
+      <c r="K29">
+        <v>3.875</v>
+      </c>
+      <c r="L29">
+        <v>3.125</v>
+      </c>
+      <c r="M29">
+        <v>2.375</v>
+      </c>
+      <c r="N29">
+        <v>2.1</v>
+      </c>
+      <c r="O29">
+        <v>1.6</v>
+      </c>
+      <c r="P29">
+        <v>-0.2</v>
+      </c>
+      <c r="Q29">
+        <v>-0.6</v>
+      </c>
+      <c r="R29">
+        <v>1.3</v>
+      </c>
+      <c r="S29">
+        <v>4.8</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3.3</v>
+      </c>
+      <c r="V29">
+        <v>2.5</v>
+      </c>
+      <c r="W29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y29">
+        <v>3.8</v>
+      </c>
+      <c r="Z29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA29">
+        <v>4.3</v>
+      </c>
+      <c r="AB29">
+        <v>3.9</v>
+      </c>
+      <c r="AC29">
+        <v>3.8</v>
+      </c>
+      <c r="AD29">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>3.63</v>
+      </c>
+      <c r="C30">
+        <v>3.6</v>
+      </c>
+      <c r="D30">
+        <v>3.58</v>
+      </c>
+      <c r="E30">
+        <v>3.56</v>
+      </c>
+      <c r="H30">
+        <v>4.875</v>
+      </c>
+      <c r="I30">
+        <v>4.875</v>
+      </c>
+      <c r="J30">
+        <v>4.875</v>
+      </c>
+      <c r="K30">
+        <v>4.875</v>
+      </c>
+      <c r="N30">
+        <v>1.8</v>
+      </c>
+      <c r="O30">
+        <v>1.6</v>
+      </c>
+      <c r="P30">
+        <v>1.5</v>
+      </c>
+      <c r="Q30">
+        <v>1.5</v>
+      </c>
+      <c r="R30">
+        <v>1.4</v>
+      </c>
+      <c r="S30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T30">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U30">
+        <v>3.9</v>
+      </c>
+      <c r="V30">
+        <v>3.8</v>
+      </c>
+      <c r="Y30">
+        <v>3.54</v>
+      </c>
+      <c r="Z30">
+        <v>3.64</v>
+      </c>
+      <c r="AA30">
+        <v>3.68</v>
+      </c>
+      <c r="AB30">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>3.4</v>
+      </c>
+      <c r="C31">
+        <v>3.1</v>
+      </c>
+      <c r="D31">
+        <v>3.1</v>
+      </c>
+      <c r="E31">
+        <v>2.8</v>
+      </c>
+      <c r="F31">
+        <v>2.6</v>
+      </c>
+      <c r="G31">
+        <v>2.5</v>
+      </c>
+      <c r="H31">
+        <v>4.875</v>
+      </c>
+      <c r="I31">
+        <v>4.875</v>
+      </c>
+      <c r="J31">
+        <v>4.125</v>
+      </c>
+      <c r="K31">
+        <v>3.625</v>
+      </c>
+      <c r="L31">
+        <v>2.875</v>
+      </c>
+      <c r="M31">
+        <v>2.375</v>
+      </c>
+      <c r="N31">
+        <v>0.9</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <v>-0.5</v>
+      </c>
+      <c r="Q31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R31">
+        <v>1.6</v>
+      </c>
+      <c r="S31">
+        <v>4.5</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>3.2</v>
+      </c>
+      <c r="V31">
+        <v>2.4</v>
+      </c>
+      <c r="W31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X31">
+        <v>2.1</v>
+      </c>
+      <c r="Y31">
+        <v>3.9</v>
+      </c>
+      <c r="Z31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <v>4.5</v>
+      </c>
+      <c r="AC31">
+        <v>4.3</v>
+      </c>
+      <c r="AD31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>3.2</v>
+      </c>
+      <c r="C32">
+        <v>2.8</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3.4</v>
+      </c>
+      <c r="F32">
+        <v>3.5</v>
+      </c>
+      <c r="G32">
+        <v>3.5</v>
+      </c>
+      <c r="H32">
+        <v>5.125</v>
+      </c>
+      <c r="I32">
+        <v>3.875</v>
+      </c>
+      <c r="J32">
+        <v>2.625</v>
+      </c>
+      <c r="K32">
+        <v>2.625</v>
+      </c>
+      <c r="L32">
+        <v>2.625</v>
+      </c>
+      <c r="M32">
+        <v>2.625</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>-2</v>
+      </c>
+      <c r="Q32">
+        <v>-2</v>
+      </c>
+      <c r="R32">
+        <v>-0.5</v>
+      </c>
+      <c r="S32">
+        <v>3.6</v>
+      </c>
+      <c r="T32">
+        <v>3.5</v>
+      </c>
+      <c r="U32">
+        <v>2.6</v>
+      </c>
+      <c r="V32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y32">
+        <v>3.8</v>
+      </c>
+      <c r="Z32">
+        <v>5.2</v>
+      </c>
+      <c r="AA32">
+        <v>4.8</v>
+      </c>
+      <c r="AB32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>3.7</v>
+      </c>
+      <c r="AD32">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>3.4</v>
+      </c>
+      <c r="C33">
+        <v>3.2</v>
+      </c>
+      <c r="D33">
+        <v>2.9</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3.25</v>
+      </c>
+      <c r="G33">
+        <v>3.25</v>
+      </c>
+      <c r="H33">
+        <v>5.125</v>
+      </c>
+      <c r="I33">
+        <v>5.125</v>
+      </c>
+      <c r="J33">
+        <v>4.125</v>
+      </c>
+      <c r="K33">
+        <v>3.125</v>
+      </c>
+      <c r="L33">
+        <v>2.625</v>
+      </c>
+      <c r="M33">
+        <v>2.625</v>
+      </c>
+      <c r="N33">
+        <v>1.8</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>-1</v>
+      </c>
+      <c r="S33">
+        <v>3.3</v>
+      </c>
+      <c r="T33">
+        <v>3.5</v>
+      </c>
+      <c r="U33">
+        <v>3.1</v>
+      </c>
+      <c r="V33">
+        <v>2.8</v>
+      </c>
+      <c r="W33">
+        <v>2.5</v>
+      </c>
+      <c r="X33">
+        <v>2.4</v>
+      </c>
+      <c r="Y33">
+        <v>3.6</v>
+      </c>
+      <c r="Z33">
+        <v>3.8</v>
+      </c>
+      <c r="AA33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB33">
+        <v>4.2</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34">
+        <v>3.5</v>
+      </c>
+      <c r="C34">
+        <v>3.25</v>
+      </c>
+      <c r="D34">
+        <v>3.25</v>
+      </c>
+      <c r="E34">
+        <v>3.25</v>
+      </c>
+      <c r="H34">
+        <v>5.125</v>
+      </c>
+      <c r="I34">
+        <v>5.125</v>
+      </c>
+      <c r="J34">
+        <v>4.375</v>
+      </c>
+      <c r="K34">
+        <v>3.375</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>-2</v>
+      </c>
+      <c r="R34">
+        <v>-0.5</v>
+      </c>
+      <c r="S34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T34">
+        <v>3.2</v>
+      </c>
+      <c r="U34">
+        <v>2.5</v>
+      </c>
+      <c r="V34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y34">
+        <v>3.5</v>
+      </c>
+      <c r="Z34">
+        <v>4.2</v>
+      </c>
+      <c r="AA34">
+        <v>4.8</v>
+      </c>
+      <c r="AB34">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C36">
+        <v>4.2</v>
+      </c>
+      <c r="D36">
+        <v>4.05</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>5.375</v>
+      </c>
+      <c r="I36">
+        <v>5.375</v>
+      </c>
+      <c r="J36">
+        <v>5.125</v>
+      </c>
+      <c r="K36">
+        <v>4.625</v>
+      </c>
+      <c r="L36">
+        <v>4.125</v>
+      </c>
+      <c r="M36">
+        <v>3.625</v>
+      </c>
+      <c r="N36">
+        <v>2.1</v>
+      </c>
+      <c r="O36">
+        <v>0.6</v>
+      </c>
+      <c r="P36">
+        <v>0.6</v>
+      </c>
+      <c r="Q36">
+        <v>0.9</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>3.7</v>
+      </c>
+      <c r="T36">
+        <v>3.86</v>
+      </c>
+      <c r="U36">
+        <v>2.76</v>
+      </c>
+      <c r="V36">
+        <v>2.6</v>
+      </c>
+      <c r="W36">
+        <v>2.71</v>
+      </c>
+      <c r="X36">
+        <v>2.46</v>
+      </c>
+      <c r="Y36">
+        <v>3.5</v>
+      </c>
+      <c r="Z36">
+        <v>3.6</v>
+      </c>
+      <c r="AA36">
+        <v>3.6</v>
+      </c>
+      <c r="AB36">
+        <v>3.6</v>
+      </c>
+      <c r="AC36">
+        <v>3.6</v>
+      </c>
+      <c r="AD36">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37">
+        <v>3.6</v>
+      </c>
+      <c r="C37">
+        <v>3.7</v>
+      </c>
+      <c r="D37">
+        <v>3.65</v>
+      </c>
+      <c r="E37">
+        <v>3.45</v>
+      </c>
+      <c r="F37">
+        <v>3.35</v>
+      </c>
+      <c r="G37">
+        <v>3.25</v>
+      </c>
+      <c r="H37">
+        <v>5.125</v>
+      </c>
+      <c r="I37">
+        <v>5.125</v>
+      </c>
+      <c r="J37">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K37">
+        <v>3.65</v>
+      </c>
+      <c r="L37">
+        <v>3.125</v>
+      </c>
+      <c r="M37">
+        <v>2.63</v>
+      </c>
+      <c r="N37">
+        <v>1.9</v>
+      </c>
+      <c r="O37">
+        <v>-0.5</v>
+      </c>
+      <c r="P37">
+        <v>0.5</v>
+      </c>
+      <c r="Q37">
+        <v>1.5</v>
+      </c>
+      <c r="R37">
+        <v>1.7</v>
+      </c>
+      <c r="S37">
+        <v>4.3</v>
+      </c>
+      <c r="T37">
+        <v>3.4</v>
+      </c>
+      <c r="U37">
+        <v>2.4</v>
+      </c>
+      <c r="V37">
+        <v>2.4</v>
+      </c>
+      <c r="W37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X37">
+        <v>2.1</v>
+      </c>
+      <c r="Y37">
+        <v>3.7</v>
+      </c>
+      <c r="Z37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA37">
+        <v>4.3</v>
+      </c>
+      <c r="AB37">
+        <v>4.5</v>
+      </c>
+      <c r="AC37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD37">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38">
+        <v>3.55</v>
+      </c>
+      <c r="C38">
+        <v>3.25</v>
+      </c>
+      <c r="H38">
+        <v>5.375</v>
+      </c>
+      <c r="I38">
+        <v>5.625</v>
+      </c>
+      <c r="J38">
+        <v>4.375</v>
+      </c>
+      <c r="K38">
+        <v>3.375</v>
+      </c>
+      <c r="N38">
+        <v>2.1</v>
+      </c>
+      <c r="O38">
+        <v>0.8</v>
+      </c>
+      <c r="P38">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Q38">
+        <v>-1.4</v>
+      </c>
+      <c r="R38">
+        <v>1.8</v>
+      </c>
+      <c r="S38">
+        <v>3.3</v>
+      </c>
+      <c r="T38">
+        <v>3.5</v>
+      </c>
+      <c r="U38">
+        <v>2.1</v>
+      </c>
+      <c r="Y38">
+        <v>3.8</v>
+      </c>
+      <c r="Z38">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA38">
+        <v>5.3</v>
+      </c>
+      <c r="AB38">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3.2</v>
+      </c>
+      <c r="C39">
+        <v>3.45</v>
+      </c>
+      <c r="D39">
+        <v>3.5</v>
+      </c>
+      <c r="E39">
+        <v>3.5</v>
+      </c>
+      <c r="H39">
+        <v>5.125</v>
+      </c>
+      <c r="I39">
+        <v>5.125</v>
+      </c>
+      <c r="J39">
+        <v>4.125</v>
+      </c>
+      <c r="K39">
+        <v>3.375</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>1.2</v>
+      </c>
+      <c r="R39">
+        <v>1.3</v>
+      </c>
+      <c r="S39">
+        <v>5.3</v>
+      </c>
+      <c r="T39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2.6</v>
+      </c>
+      <c r="Y39">
+        <v>3.6</v>
+      </c>
+      <c r="Z39">
+        <v>3.9</v>
+      </c>
+      <c r="AA39">
+        <v>4.3</v>
+      </c>
+      <c r="AB39">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>3.5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3.2</v>
+      </c>
+      <c r="F40">
+        <v>3.3</v>
+      </c>
+      <c r="G40">
+        <v>3.5</v>
+      </c>
+      <c r="H40">
+        <v>5.37</v>
+      </c>
+      <c r="I40">
+        <v>4.87</v>
+      </c>
+      <c r="J40">
+        <v>4.37</v>
+      </c>
+      <c r="K40">
+        <v>3.62</v>
+      </c>
+      <c r="N40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>-2</v>
+      </c>
+      <c r="R40">
+        <v>-2</v>
+      </c>
+      <c r="S40">
+        <v>3.5</v>
+      </c>
+      <c r="T40">
+        <v>2.9</v>
+      </c>
+      <c r="U40">
+        <v>2.5</v>
+      </c>
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>2.5</v>
+      </c>
+      <c r="Y40">
+        <v>3.6</v>
+      </c>
+      <c r="Z40">
+        <v>4.2</v>
+      </c>
+      <c r="AA40">
+        <v>4.75</v>
+      </c>
+      <c r="AB40">
+        <v>4.5</v>
+      </c>
+      <c r="AC40">
+        <v>4.25</v>
+      </c>
+      <c r="AD40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>3.5</v>
+      </c>
+      <c r="C41">
+        <v>3.25</v>
+      </c>
+      <c r="D41">
+        <v>3.25</v>
+      </c>
+      <c r="E41">
+        <v>3.25</v>
+      </c>
+      <c r="H41">
+        <v>5.125</v>
+      </c>
+      <c r="I41">
+        <v>5.125</v>
+      </c>
+      <c r="J41">
+        <v>4.63</v>
+      </c>
+      <c r="K41">
+        <v>4.13</v>
+      </c>
+      <c r="N41">
+        <v>1.9</v>
+      </c>
+      <c r="O41">
+        <v>0.8</v>
+      </c>
+      <c r="P41">
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <v>0.3</v>
+      </c>
+      <c r="R41">
+        <v>0.9</v>
+      </c>
+      <c r="S41">
+        <v>4.3</v>
+      </c>
+      <c r="T41">
+        <v>3.4</v>
+      </c>
+      <c r="U41">
+        <v>2.7</v>
+      </c>
+      <c r="V41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y41">
+        <v>3.7</v>
+      </c>
+      <c r="Z41">
+        <v>4.2</v>
+      </c>
+      <c r="AA41">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB41">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>3.4</v>
+      </c>
+      <c r="C43">
+        <v>3.1</v>
+      </c>
+      <c r="D43">
+        <v>2.75</v>
+      </c>
+      <c r="E43">
+        <v>2.5</v>
+      </c>
+      <c r="F43">
+        <v>2.7</v>
+      </c>
+      <c r="G43">
+        <v>2.8</v>
+      </c>
+      <c r="H43">
+        <v>5.125</v>
+      </c>
+      <c r="I43">
+        <v>4.375</v>
+      </c>
+      <c r="J43">
+        <v>3.375</v>
+      </c>
+      <c r="K43">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="L43">
+        <v>2.625</v>
+      </c>
+      <c r="M43">
+        <v>2.625</v>
+      </c>
+      <c r="N43">
+        <v>1.4</v>
+      </c>
+      <c r="O43">
+        <v>-0.4</v>
+      </c>
+      <c r="P43">
+        <v>0.3</v>
+      </c>
+      <c r="Q43">
+        <v>0.2</v>
+      </c>
+      <c r="R43">
+        <v>0.7</v>
+      </c>
+      <c r="S43">
+        <v>3.5</v>
+      </c>
+      <c r="T43">
+        <v>3.2</v>
+      </c>
+      <c r="U43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>1.8</v>
+      </c>
+      <c r="X43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>3.7</v>
+      </c>
+      <c r="Z43">
+        <v>4.5</v>
+      </c>
+      <c r="AA43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB43">
+        <v>4.7</v>
+      </c>
+      <c r="AC43">
+        <v>4.2</v>
+      </c>
+      <c r="AD43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44">
+        <v>5.375</v>
+      </c>
+      <c r="I44">
+        <v>5.375</v>
+      </c>
+      <c r="J44">
+        <v>4.625</v>
+      </c>
+      <c r="K44">
+        <v>3.875</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>-1.8</v>
+      </c>
+      <c r="P44">
+        <v>-1.8</v>
+      </c>
+      <c r="Q44">
+        <v>-0.6</v>
+      </c>
+      <c r="R44">
+        <v>1.4</v>
+      </c>
+      <c r="Y44">
+        <v>3.6</v>
+      </c>
+      <c r="Z44">
+        <v>4.2</v>
+      </c>
+      <c r="AA44">
+        <v>4.5</v>
+      </c>
+      <c r="AB44">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>3.5</v>
+      </c>
+      <c r="C45">
+        <v>3.45</v>
+      </c>
+      <c r="D45">
+        <v>3.4</v>
+      </c>
+      <c r="E45">
+        <v>3.3</v>
+      </c>
+      <c r="H45">
+        <v>5.12</v>
+      </c>
+      <c r="I45">
+        <v>5.12</v>
+      </c>
+      <c r="J45">
+        <v>4.62</v>
+      </c>
+      <c r="K45">
+        <v>4.12</v>
+      </c>
+      <c r="N45">
+        <v>1.7</v>
+      </c>
+      <c r="O45">
+        <v>0.7</v>
+      </c>
+      <c r="P45">
+        <v>-0.15</v>
+      </c>
+      <c r="Q45">
+        <v>-0.34</v>
+      </c>
+      <c r="R45">
+        <v>0.3</v>
+      </c>
+      <c r="S45">
+        <v>4.5</v>
+      </c>
+      <c r="T45">
+        <v>3.7</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45">
+        <v>2.7</v>
+      </c>
+      <c r="Y45">
+        <v>3.6</v>
+      </c>
+      <c r="Z45">
+        <v>3.9</v>
+      </c>
+      <c r="AA45">
+        <v>4.2</v>
+      </c>
+      <c r="AB45">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <v>5.125</v>
+      </c>
+      <c r="I47">
+        <v>5.125</v>
+      </c>
+      <c r="J47">
+        <v>4.875</v>
+      </c>
+      <c r="K47">
+        <v>4.375</v>
+      </c>
+      <c r="L47">
+        <v>3.875</v>
+      </c>
+      <c r="M47">
+        <v>3.375</v>
+      </c>
+      <c r="N47">
+        <v>1.5</v>
+      </c>
+      <c r="O47">
+        <v>0.4</v>
+      </c>
+      <c r="P47">
+        <v>-2.1</v>
+      </c>
+      <c r="Q47">
+        <v>-1.5</v>
+      </c>
+      <c r="R47">
+        <v>2.1</v>
+      </c>
+      <c r="S47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T47">
+        <v>3.3</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.5</v>
+      </c>
+      <c r="W47">
+        <v>2.5</v>
+      </c>
+      <c r="X47">
+        <v>2.5</v>
+      </c>
+      <c r="Y47">
+        <v>4.2</v>
+      </c>
+      <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AA47">
+        <v>5</v>
+      </c>
+      <c r="AB47">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC47">
+        <v>4.5</v>
+      </c>
+      <c r="AD47">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>3.5</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>4.875</v>
+      </c>
+      <c r="K48">
+        <v>1.875</v>
+      </c>
+      <c r="T48">
+        <v>2.8</v>
+      </c>
+      <c r="V48">
+        <v>2.8</v>
+      </c>
+      <c r="Z48">
+        <v>5.5</v>
+      </c>
+      <c r="AB48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>3.8</v>
+      </c>
+      <c r="D49">
+        <v>3.5</v>
+      </c>
+      <c r="E49">
+        <v>3.4</v>
+      </c>
+      <c r="F49">
+        <v>3.3</v>
+      </c>
+      <c r="G49">
+        <v>3.3</v>
+      </c>
+      <c r="H49">
+        <v>5.12</v>
+      </c>
+      <c r="I49">
+        <v>4.87</v>
+      </c>
+      <c r="J49">
+        <v>4.12</v>
+      </c>
+      <c r="K49">
+        <v>3.62</v>
+      </c>
+      <c r="L49">
+        <v>3.12</v>
+      </c>
+      <c r="M49">
+        <v>2.87</v>
+      </c>
+      <c r="N49">
+        <v>1.9</v>
+      </c>
+      <c r="O49">
+        <v>-1.5</v>
+      </c>
+      <c r="P49">
+        <v>-0.6</v>
+      </c>
+      <c r="Q49">
+        <v>0.8</v>
+      </c>
+      <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
+        <v>4.3</v>
+      </c>
+      <c r="T49">
+        <v>3.2</v>
+      </c>
+      <c r="U49">
+        <v>2.5</v>
+      </c>
+      <c r="V49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X49">
+        <v>2.1</v>
+      </c>
+      <c r="Y49">
+        <v>3.6</v>
+      </c>
+      <c r="Z49">
+        <v>4</v>
+      </c>
+      <c r="AA49">
+        <v>4.5</v>
+      </c>
+      <c r="AB49">
+        <v>4.8</v>
+      </c>
+      <c r="AC49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50">
+        <v>5.125</v>
+      </c>
+      <c r="I50">
+        <v>5.125</v>
+      </c>
+      <c r="J50">
+        <v>4.875</v>
+      </c>
+      <c r="K50">
+        <v>4.375</v>
+      </c>
+      <c r="L50">
+        <v>3.875</v>
+      </c>
+      <c r="M50">
+        <v>3.625</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50">
+        <v>0.5</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T50">
+        <v>3.1</v>
+      </c>
+      <c r="U50">
+        <v>2.5</v>
+      </c>
+      <c r="V50">
+        <v>2.1</v>
+      </c>
+      <c r="W50">
+        <v>2.1</v>
+      </c>
+      <c r="X50">
+        <v>2.1</v>
+      </c>
+      <c r="Y50">
+        <v>3.7</v>
+      </c>
+      <c r="Z50">
+        <v>4.2</v>
+      </c>
+      <c r="AA50">
+        <v>3.9</v>
+      </c>
+      <c r="AB50">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>3.45</v>
+      </c>
+      <c r="C51">
+        <v>3.3</v>
+      </c>
+      <c r="D51">
+        <v>3.15</v>
+      </c>
+      <c r="E51">
+        <v>3.05</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2.95</v>
+      </c>
+      <c r="H51">
+        <v>5.125</v>
+      </c>
+      <c r="I51">
+        <v>5.125</v>
+      </c>
+      <c r="J51">
+        <v>4.875</v>
+      </c>
+      <c r="K51">
+        <v>3.875</v>
+      </c>
+      <c r="L51">
+        <v>2.875</v>
+      </c>
+      <c r="M51">
+        <v>2.125</v>
+      </c>
+      <c r="N51">
+        <v>1.5</v>
+      </c>
+      <c r="O51">
+        <v>0.6</v>
+      </c>
+      <c r="P51">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Q51">
+        <v>1.9</v>
+      </c>
+      <c r="R51">
+        <v>2.7</v>
+      </c>
+      <c r="S51">
+        <v>5.5</v>
+      </c>
+      <c r="T51">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U51">
+        <v>4.2</v>
+      </c>
+      <c r="V51">
+        <v>3.5</v>
+      </c>
+      <c r="W51">
+        <v>3</v>
+      </c>
+      <c r="X51">
+        <v>2.5</v>
+      </c>
+      <c r="Y51">
+        <v>3.7</v>
+      </c>
+      <c r="Z51">
+        <v>4</v>
+      </c>
+      <c r="AA51">
+        <v>4.2</v>
+      </c>
+      <c r="AB51">
+        <v>4.3</v>
+      </c>
+      <c r="AC51">
+        <v>4.2</v>
+      </c>
+      <c r="AD51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>3.75</v>
+      </c>
+      <c r="D52">
+        <v>3.5</v>
+      </c>
+      <c r="H52">
+        <v>5.375</v>
+      </c>
+      <c r="I52">
+        <v>5.875</v>
+      </c>
+      <c r="J52">
+        <v>5.375</v>
+      </c>
+      <c r="N52">
+        <v>-0.6</v>
+      </c>
+      <c r="O52">
+        <v>-1.8</v>
+      </c>
+      <c r="P52">
+        <v>0.3</v>
+      </c>
+      <c r="Q52">
+        <v>-0.9</v>
+      </c>
+      <c r="R52">
+        <v>1.4</v>
+      </c>
+      <c r="Y52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z52">
+        <v>5.2</v>
+      </c>
+      <c r="AA52">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53">
+        <v>3.85</v>
+      </c>
+      <c r="C53">
+        <v>3.35</v>
+      </c>
+      <c r="D53">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E53">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H53">
+        <v>5.13</v>
+      </c>
+      <c r="I53">
+        <v>4.13</v>
+      </c>
+      <c r="J53">
+        <v>1.88</v>
+      </c>
+      <c r="K53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M53">
+        <v>1.63</v>
+      </c>
+      <c r="N53">
+        <v>1.9</v>
+      </c>
+      <c r="O53">
+        <v>-0.9</v>
+      </c>
+      <c r="P53">
+        <v>-1.8</v>
+      </c>
+      <c r="Q53">
+        <v>-1.4</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>4.2</v>
+      </c>
+      <c r="T53">
+        <v>2.6</v>
+      </c>
+      <c r="U53">
+        <v>1.8</v>
+      </c>
+      <c r="V53">
+        <v>1.6</v>
+      </c>
+      <c r="W53">
+        <v>1.7</v>
+      </c>
+      <c r="X53">
+        <v>2.1</v>
+      </c>
+      <c r="Y53">
+        <v>3.5</v>
+      </c>
+      <c r="Z53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA53">
+        <v>5.2</v>
+      </c>
+      <c r="AB53">
+        <v>5.4</v>
+      </c>
+      <c r="AC53">
+        <v>5.2</v>
+      </c>
+      <c r="AD53">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>3.93</v>
+      </c>
+      <c r="C54">
+        <v>3.5</v>
+      </c>
+      <c r="D54">
+        <v>3.39</v>
+      </c>
+      <c r="E54">
+        <v>3.28</v>
+      </c>
+      <c r="H54">
+        <v>5.125</v>
+      </c>
+      <c r="I54">
+        <v>5.125</v>
+      </c>
+      <c r="J54">
+        <v>4.375</v>
+      </c>
+      <c r="K54">
+        <v>3.875</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>-1</v>
+      </c>
+      <c r="P54">
+        <v>-1</v>
+      </c>
+      <c r="Q54">
+        <v>0.8</v>
+      </c>
+      <c r="R54">
+        <v>1.7</v>
+      </c>
+      <c r="S54">
+        <v>3.7</v>
+      </c>
+      <c r="T54">
+        <v>3.7</v>
+      </c>
+      <c r="U54">
+        <v>2.6</v>
+      </c>
+      <c r="V54">
+        <v>2.1</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>4.8</v>
+      </c>
+      <c r="AA54">
+        <v>4.7</v>
+      </c>
+      <c r="AB54">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55">
+        <v>3.8</v>
+      </c>
+      <c r="C55">
+        <v>3.69</v>
+      </c>
+      <c r="D55">
+        <v>3.59</v>
+      </c>
+      <c r="E55">
+        <v>3.45</v>
+      </c>
+      <c r="F55">
+        <v>3.33</v>
+      </c>
+      <c r="G55">
+        <v>3.28</v>
+      </c>
+      <c r="H55">
+        <v>5.125</v>
+      </c>
+      <c r="I55">
+        <v>5.125</v>
+      </c>
+      <c r="J55">
+        <v>4.125</v>
+      </c>
+      <c r="K55">
+        <v>3.375</v>
+      </c>
+      <c r="L55">
+        <v>2.875</v>
+      </c>
+      <c r="M55">
+        <v>2.625</v>
+      </c>
+      <c r="N55">
+        <v>1.9</v>
+      </c>
+      <c r="O55">
+        <v>-0.4</v>
+      </c>
+      <c r="P55">
+        <v>0.8</v>
+      </c>
+      <c r="Q55">
+        <v>1.5</v>
+      </c>
+      <c r="R55">
+        <v>1.7</v>
+      </c>
+      <c r="S55">
+        <v>3.6</v>
+      </c>
+      <c r="T55">
+        <v>3.9</v>
+      </c>
+      <c r="U55">
+        <v>2.8</v>
+      </c>
+      <c r="V55">
+        <v>2.4</v>
+      </c>
+      <c r="W55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>3.7</v>
+      </c>
+      <c r="Z55">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA55">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB55">
+        <v>4.5</v>
+      </c>
+      <c r="AC55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD55">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>3.6</v>
+      </c>
+      <c r="C56">
+        <v>3.2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>4.875</v>
+      </c>
+      <c r="I56">
+        <v>4.375</v>
+      </c>
+      <c r="J56">
+        <v>3.875</v>
+      </c>
+      <c r="K56">
+        <v>3.375</v>
+      </c>
+      <c r="L56">
+        <v>3.125</v>
+      </c>
+      <c r="M56">
+        <v>3.125</v>
+      </c>
+      <c r="N56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O56">
+        <v>-0.3</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0.5</v>
+      </c>
+      <c r="R56">
+        <v>0.8</v>
+      </c>
+      <c r="S56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>3.7</v>
+      </c>
+      <c r="U56">
+        <v>2.5</v>
+      </c>
+      <c r="V56">
+        <v>2.5</v>
+      </c>
+      <c r="W56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y56">
+        <v>3.8</v>
+      </c>
+      <c r="Z56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA56">
+        <v>4.2</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+      <c r="AC56">
+        <v>3.8</v>
+      </c>
+      <c r="AD56">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>3.79</v>
+      </c>
+      <c r="C59">
+        <v>3.56</v>
+      </c>
+      <c r="D59">
+        <v>3.44</v>
+      </c>
+      <c r="E59">
+        <v>3.21</v>
+      </c>
+      <c r="F59">
+        <v>3.03</v>
+      </c>
+      <c r="G59">
+        <v>2.99</v>
+      </c>
+      <c r="H59">
+        <v>5.25</v>
+      </c>
+      <c r="I59">
+        <v>4.75</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>3.375</v>
+      </c>
+      <c r="L59">
+        <v>3.125</v>
+      </c>
+      <c r="M59">
+        <v>3.125</v>
+      </c>
+      <c r="N59">
+        <v>1.5</v>
+      </c>
+      <c r="O59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P59">
+        <v>1.05</v>
+      </c>
+      <c r="Q59">
+        <v>1.25</v>
+      </c>
+      <c r="R59">
+        <v>1.3</v>
+      </c>
+      <c r="S59">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T59">
+        <v>3.54</v>
+      </c>
+      <c r="U59">
+        <v>3.04</v>
+      </c>
+      <c r="V59">
+        <v>2.69</v>
+      </c>
+      <c r="W59">
+        <v>2.46</v>
+      </c>
+      <c r="X59">
+        <v>2.31</v>
+      </c>
+      <c r="Y59">
+        <v>3.7</v>
+      </c>
+      <c r="Z59">
+        <v>4.5</v>
+      </c>
+      <c r="AA59">
+        <v>4.67</v>
+      </c>
+      <c r="AB59">
+        <v>4.58</v>
+      </c>
+      <c r="AC59">
+        <v>4.68</v>
+      </c>
+      <c r="AD59">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>4.05</v>
+      </c>
+      <c r="C60">
+        <v>3.6</v>
+      </c>
+      <c r="H60">
+        <v>5.125</v>
+      </c>
+      <c r="I60">
+        <v>5.125</v>
+      </c>
+      <c r="J60">
+        <v>3.125</v>
+      </c>
+      <c r="K60">
+        <v>2.875</v>
+      </c>
+      <c r="L60">
+        <v>3.125</v>
+      </c>
+      <c r="M60">
+        <v>3.125</v>
+      </c>
+      <c r="N60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O60">
+        <v>1.3</v>
+      </c>
+      <c r="P60">
+        <v>0.3</v>
+      </c>
+      <c r="Q60">
+        <v>-1.4</v>
+      </c>
+      <c r="R60">
+        <v>-2.9</v>
+      </c>
+      <c r="S60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T60">
+        <v>3.2</v>
+      </c>
+      <c r="U60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V60">
+        <v>2.8</v>
+      </c>
+      <c r="W60">
+        <v>3.1</v>
+      </c>
+      <c r="X60">
+        <v>2.7</v>
+      </c>
+      <c r="Y60">
+        <v>3.7</v>
+      </c>
+      <c r="Z60">
+        <v>4.5</v>
+      </c>
+      <c r="AA60">
+        <v>5.4</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AC60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD60">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>3.62</v>
+      </c>
+      <c r="C62">
+        <v>3.77</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>3.75</v>
+      </c>
+      <c r="F62">
+        <v>3.55</v>
+      </c>
+      <c r="G62">
+        <v>3.47</v>
+      </c>
+      <c r="H62">
+        <v>5.13</v>
+      </c>
+      <c r="I62">
+        <v>5.13</v>
+      </c>
+      <c r="J62">
+        <v>5.13</v>
+      </c>
+      <c r="K62">
+        <v>5.13</v>
+      </c>
+      <c r="L62">
+        <v>4.63</v>
+      </c>
+      <c r="M62">
+        <v>4.13</v>
+      </c>
+      <c r="N62">
+        <v>2.7</v>
+      </c>
+      <c r="O62">
+        <v>1.7</v>
+      </c>
+      <c r="P62">
+        <v>1.5</v>
+      </c>
+      <c r="Q62">
+        <v>3.3</v>
+      </c>
+      <c r="R62">
+        <v>3.5</v>
+      </c>
+      <c r="S62">
+        <v>3.5</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>2.6</v>
+      </c>
+      <c r="V62">
+        <v>2.4</v>
+      </c>
+      <c r="W62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>3.7</v>
+      </c>
+      <c r="Z62">
+        <v>4</v>
+      </c>
+      <c r="AA62">
+        <v>4.2</v>
+      </c>
+      <c r="AB62">
+        <v>4.5</v>
+      </c>
+      <c r="AC62">
+        <v>4.7</v>
+      </c>
+      <c r="AD62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>3.55</v>
+      </c>
+      <c r="C63">
+        <v>3.26</v>
+      </c>
+      <c r="D63">
+        <v>3.04</v>
+      </c>
+      <c r="E63">
+        <v>2.68</v>
+      </c>
+      <c r="F63">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G63">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H63">
+        <v>4.625</v>
+      </c>
+      <c r="I63">
+        <v>3.875</v>
+      </c>
+      <c r="J63">
+        <v>3.625</v>
+      </c>
+      <c r="K63">
+        <v>3.125</v>
+      </c>
+      <c r="L63">
+        <v>2.875</v>
+      </c>
+      <c r="M63">
+        <v>2.375</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>3.2</v>
+      </c>
+      <c r="Q63">
+        <v>3.3</v>
+      </c>
+      <c r="R63">
+        <v>3.2</v>
+      </c>
+      <c r="S63">
+        <v>3.3</v>
+      </c>
+      <c r="T63">
+        <v>2.1</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.8</v>
+      </c>
+      <c r="W63">
+        <v>1.8</v>
+      </c>
+      <c r="X63">
+        <v>1.7</v>
+      </c>
+      <c r="Y63">
+        <v>3.4</v>
+      </c>
+      <c r="Z63">
+        <v>3.4</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>3</v>
+      </c>
+      <c r="AC63">
+        <v>2.9</v>
+      </c>
+      <c r="AD63">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>3.6</v>
+      </c>
+      <c r="C64">
+        <v>3.3</v>
+      </c>
+      <c r="D64">
+        <v>2.9</v>
+      </c>
+      <c r="E64">
+        <v>2.6</v>
+      </c>
+      <c r="F64">
+        <v>2.4</v>
+      </c>
+      <c r="G64">
+        <v>2.4</v>
+      </c>
+      <c r="H64">
+        <v>5.125</v>
+      </c>
+      <c r="I64">
+        <v>5.125</v>
+      </c>
+      <c r="J64">
+        <v>5.125</v>
+      </c>
+      <c r="K64">
+        <v>4.875</v>
+      </c>
+      <c r="L64">
+        <v>4.625</v>
+      </c>
+      <c r="M64">
+        <v>4.125</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
+        <v>-1.6</v>
+      </c>
+      <c r="P64">
+        <v>-0.4</v>
+      </c>
+      <c r="Q64">
+        <v>0.9</v>
+      </c>
+      <c r="R64">
+        <v>1.2</v>
+      </c>
+      <c r="S64">
+        <v>4.7</v>
+      </c>
+      <c r="T64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U64">
+        <v>3.1</v>
+      </c>
+      <c r="V64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W64">
+        <v>1.8</v>
+      </c>
+      <c r="X64">
+        <v>1.6</v>
+      </c>
+      <c r="Y64">
+        <v>4.3</v>
+      </c>
+      <c r="Z64">
+        <v>5.6</v>
+      </c>
+      <c r="AA64">
+        <v>6</v>
+      </c>
+      <c r="AB64">
+        <v>6.1</v>
+      </c>
+      <c r="AC64">
+        <v>6.2</v>
+      </c>
+      <c r="AD64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>3.45</v>
+      </c>
+      <c r="C65">
+        <v>3.5</v>
+      </c>
+      <c r="D65">
+        <v>3.5</v>
+      </c>
+      <c r="E65">
+        <v>3.4</v>
+      </c>
+      <c r="F65">
+        <v>3.35</v>
+      </c>
+      <c r="G65">
+        <v>3.3</v>
+      </c>
+      <c r="H65">
+        <v>5.125</v>
+      </c>
+      <c r="I65">
+        <v>5.375</v>
+      </c>
+      <c r="J65">
+        <v>5.125</v>
+      </c>
+      <c r="K65">
+        <v>4.875</v>
+      </c>
+      <c r="L65">
+        <v>4.625</v>
+      </c>
+      <c r="M65">
+        <v>4.375</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>2.5</v>
+      </c>
+      <c r="P65">
+        <v>1.5</v>
+      </c>
+      <c r="Q65">
+        <v>1.3</v>
+      </c>
+      <c r="R65">
+        <v>1.5</v>
+      </c>
+      <c r="S65">
+        <v>6.2</v>
+      </c>
+      <c r="T65">
+        <v>5.8</v>
+      </c>
+      <c r="U65">
+        <v>5.5</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>4.5</v>
+      </c>
+      <c r="X65">
+        <v>4.5</v>
+      </c>
+      <c r="Y65">
+        <v>3.7</v>
+      </c>
+      <c r="Z65">
+        <v>3.8</v>
+      </c>
+      <c r="AA65">
+        <v>3.9</v>
+      </c>
+      <c r="AB65">
+        <v>4</v>
+      </c>
+      <c r="AC65">
+        <v>4.2</v>
+      </c>
+      <c r="AD65">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66">
+        <v>3.9</v>
+      </c>
+      <c r="C66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D66">
+        <v>3.9</v>
+      </c>
+      <c r="E66">
+        <v>3.7</v>
+      </c>
+      <c r="F66">
+        <v>3.1</v>
+      </c>
+      <c r="G66">
+        <v>3.2</v>
+      </c>
+      <c r="H66">
+        <v>5.375</v>
+      </c>
+      <c r="I66">
+        <v>5.375</v>
+      </c>
+      <c r="J66">
+        <v>5.375</v>
+      </c>
+      <c r="K66">
+        <v>4.375</v>
+      </c>
+      <c r="L66">
+        <v>3.375</v>
+      </c>
+      <c r="M66">
+        <v>3.125</v>
+      </c>
+      <c r="N66">
+        <v>1.4</v>
+      </c>
+      <c r="O66">
+        <v>1.8</v>
+      </c>
+      <c r="P66">
+        <v>1.3</v>
+      </c>
+      <c r="Q66">
+        <v>1.2</v>
+      </c>
+      <c r="R66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S66">
+        <v>3.9</v>
+      </c>
+      <c r="T66">
+        <v>4.3</v>
+      </c>
+      <c r="U66">
+        <v>3.4</v>
+      </c>
+      <c r="V66">
+        <v>2.7</v>
+      </c>
+      <c r="W66">
+        <v>2.5</v>
+      </c>
+      <c r="X66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y66">
+        <v>3.4</v>
+      </c>
+      <c r="Z66">
+        <v>3.5</v>
+      </c>
+      <c r="AA66">
+        <v>3.8</v>
+      </c>
+      <c r="AB66">
+        <v>4.2</v>
+      </c>
+      <c r="AC66">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD66">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>3.6</v>
+      </c>
+      <c r="C67">
+        <v>3.4</v>
+      </c>
+      <c r="D67">
+        <v>3.2</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>2.9</v>
+      </c>
+      <c r="G67">
+        <v>2.8</v>
+      </c>
+      <c r="H67">
+        <v>4.875</v>
+      </c>
+      <c r="I67">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="J67">
+        <v>4.875</v>
+      </c>
+      <c r="K67">
+        <v>4.58</v>
+      </c>
+      <c r="L67">
+        <v>4.25</v>
+      </c>
+      <c r="M67">
+        <v>3.75</v>
+      </c>
+      <c r="N67">
+        <v>0.5</v>
+      </c>
+      <c r="O67">
+        <v>1.7</v>
+      </c>
+      <c r="P67">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q67">
+        <v>1.8</v>
+      </c>
+      <c r="R67">
+        <v>2.7</v>
+      </c>
+      <c r="S67">
+        <v>3.7</v>
+      </c>
+      <c r="T67">
+        <v>2.6</v>
+      </c>
+      <c r="U67">
+        <v>2.1</v>
+      </c>
+      <c r="V67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W67">
+        <v>1.9</v>
+      </c>
+      <c r="X67">
+        <v>1.8</v>
+      </c>
+      <c r="Y67">
+        <v>3.6</v>
+      </c>
+      <c r="Z67">
+        <v>3.9</v>
+      </c>
+      <c r="AA67">
+        <v>4</v>
+      </c>
+      <c r="AB67">
+        <v>4</v>
+      </c>
+      <c r="AC67">
+        <v>3.8</v>
+      </c>
+      <c r="AD67">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>3.7</v>
+      </c>
+      <c r="C68">
+        <v>3.4</v>
+      </c>
+      <c r="H68">
+        <v>5.125</v>
+      </c>
+      <c r="I68">
+        <v>5.125</v>
+      </c>
+      <c r="J68">
+        <v>4.625</v>
+      </c>
+      <c r="K68">
+        <v>3.625</v>
+      </c>
+      <c r="N68">
+        <v>3.25</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0.5</v>
+      </c>
+      <c r="Q68">
+        <v>-0.5</v>
+      </c>
+      <c r="R68">
+        <v>-0.5</v>
+      </c>
+      <c r="S68">
+        <v>3.56</v>
+      </c>
+      <c r="T68">
+        <v>3.63</v>
+      </c>
+      <c r="U68">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="V68">
+        <v>2.44</v>
+      </c>
+      <c r="Y68">
+        <v>3.6</v>
+      </c>
+      <c r="Z68">
+        <v>4.2</v>
+      </c>
+      <c r="AA68">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>3.75</v>
+      </c>
+      <c r="C69">
+        <v>3.35</v>
+      </c>
+      <c r="D69">
+        <v>2.98</v>
+      </c>
+      <c r="E69">
+        <v>2.75</v>
+      </c>
+      <c r="F69">
+        <v>2.75</v>
+      </c>
+      <c r="G69">
+        <v>2.75</v>
+      </c>
+      <c r="H69">
+        <v>5.375</v>
+      </c>
+      <c r="I69">
+        <v>5.375</v>
+      </c>
+      <c r="J69">
+        <v>3.625</v>
+      </c>
+      <c r="K69">
+        <v>2.625</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2.9</v>
+      </c>
+      <c r="O69">
+        <v>0.4</v>
+      </c>
+      <c r="P69">
+        <v>-5.2</v>
+      </c>
+      <c r="Q69">
+        <v>-0.9</v>
+      </c>
+      <c r="R69">
+        <v>1.5</v>
+      </c>
+      <c r="S69">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U69">
+        <v>3.1</v>
+      </c>
+      <c r="V69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W69">
+        <v>2.1</v>
+      </c>
+      <c r="X69">
+        <v>2</v>
+      </c>
+      <c r="Y69">
+        <v>3.8</v>
+      </c>
+      <c r="Z69">
+        <v>5</v>
+      </c>
+      <c r="AA69">
+        <v>5.3</v>
+      </c>
+      <c r="AB69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC69">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AD69">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70">
+        <v>3.87</v>
+      </c>
+      <c r="C70">
+        <v>3.66</v>
+      </c>
+      <c r="D70">
+        <v>3.5</v>
+      </c>
+      <c r="E70">
+        <v>3.43</v>
+      </c>
+      <c r="F70">
+        <v>3.25</v>
+      </c>
+      <c r="G70">
+        <v>3.35</v>
+      </c>
+      <c r="H70">
+        <v>5.125</v>
+      </c>
+      <c r="I70">
+        <v>5.125</v>
+      </c>
+      <c r="J70">
+        <v>4.625</v>
+      </c>
+      <c r="K70">
+        <v>4.125</v>
+      </c>
+      <c r="L70">
+        <v>3.625</v>
+      </c>
+      <c r="M70">
+        <v>3.125</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>-0.8</v>
+      </c>
+      <c r="Q70">
+        <v>-0.5</v>
+      </c>
+      <c r="R70">
+        <v>0.1</v>
+      </c>
+      <c r="S70">
+        <v>4.5</v>
+      </c>
+      <c r="T70">
+        <v>3.3</v>
+      </c>
+      <c r="U70">
+        <v>2.8</v>
+      </c>
+      <c r="V70">
+        <v>2.5</v>
+      </c>
+      <c r="W70">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X70">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>3.8</v>
+      </c>
+      <c r="Z70">
+        <v>4.5</v>
+      </c>
+      <c r="AA70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB70">
+        <v>4.8</v>
+      </c>
+      <c r="AC70">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD70">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71">
+        <v>3.7</v>
+      </c>
+      <c r="C71">
+        <v>3.7</v>
+      </c>
+      <c r="D71">
+        <v>3.5</v>
+      </c>
+      <c r="E71">
+        <v>3.1</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>5.125</v>
+      </c>
+      <c r="I71">
+        <v>5.125</v>
+      </c>
+      <c r="J71">
+        <v>3.875</v>
+      </c>
+      <c r="K71">
+        <v>2.875</v>
+      </c>
+      <c r="L71">
+        <v>2.625</v>
+      </c>
+      <c r="M71">
+        <v>2.625</v>
+      </c>
+      <c r="N71">
+        <v>1.9</v>
+      </c>
+      <c r="O71">
+        <v>-0.2</v>
+      </c>
+      <c r="P71">
+        <v>0.1</v>
+      </c>
+      <c r="Q71">
+        <v>-0.3</v>
+      </c>
+      <c r="R71">
+        <v>0.7</v>
+      </c>
+      <c r="S71">
+        <v>4.3</v>
+      </c>
+      <c r="T71">
+        <v>3.5</v>
+      </c>
+      <c r="U71">
+        <v>2.5</v>
+      </c>
+      <c r="V71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X71">
+        <v>2</v>
+      </c>
+      <c r="Y71">
+        <v>3.7</v>
+      </c>
+      <c r="Z71">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA71">
+        <v>5</v>
+      </c>
+      <c r="AB71">
+        <v>5.2</v>
+      </c>
+      <c r="AC71">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD71">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>3.45</v>
+      </c>
+      <c r="C72">
+        <v>3.25</v>
+      </c>
+      <c r="D72">
+        <v>3.25</v>
+      </c>
+      <c r="E72">
+        <v>3.25</v>
+      </c>
+      <c r="F72">
+        <v>3.25</v>
+      </c>
+      <c r="G72">
+        <v>3.25</v>
+      </c>
+      <c r="H72">
+        <v>5.125</v>
+      </c>
+      <c r="I72">
+        <v>5.125</v>
+      </c>
+      <c r="J72">
+        <v>4.125</v>
+      </c>
+      <c r="K72">
+        <v>3.125</v>
+      </c>
+      <c r="L72">
+        <v>2.375</v>
+      </c>
+      <c r="M72">
+        <v>2.375</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>0.9</v>
+      </c>
+      <c r="P72">
+        <v>0.8</v>
+      </c>
+      <c r="Q72">
+        <v>0.9</v>
+      </c>
+      <c r="R72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>2.8</v>
+      </c>
+      <c r="U72">
+        <v>2.4</v>
+      </c>
+      <c r="V72">
+        <v>2.1</v>
+      </c>
+      <c r="W72">
+        <v>2</v>
+      </c>
+      <c r="X72">
+        <v>2</v>
+      </c>
+      <c r="Y72">
+        <v>3.8</v>
+      </c>
+      <c r="Z72">
+        <v>4</v>
+      </c>
+      <c r="AA72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC72">
+        <v>4</v>
+      </c>
+      <c r="AD72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73">
+        <v>4.53</v>
+      </c>
+      <c r="C73">
+        <v>5.72</v>
+      </c>
+      <c r="D73">
+        <v>5.28</v>
+      </c>
+      <c r="E73">
+        <v>5.38</v>
+      </c>
+      <c r="F73">
+        <v>4.99</v>
+      </c>
+      <c r="G73">
+        <v>5.23</v>
+      </c>
+      <c r="H73">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="I73">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="J73">
+        <v>4.84</v>
+      </c>
+      <c r="K73">
+        <v>4.38</v>
+      </c>
+      <c r="L73">
+        <v>4.085</v>
+      </c>
+      <c r="M73">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="N73">
+        <v>2.1</v>
+      </c>
+      <c r="O73">
+        <v>1.6</v>
+      </c>
+      <c r="P73">
+        <v>3.6</v>
+      </c>
+      <c r="Q73">
+        <v>3.8</v>
+      </c>
+      <c r="R73">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S73">
+        <v>5.3</v>
+      </c>
+      <c r="T73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U73">
+        <v>4.2</v>
+      </c>
+      <c r="V73">
+        <v>3.7</v>
+      </c>
+      <c r="W73">
+        <v>3.3</v>
+      </c>
+      <c r="X73">
+        <v>3</v>
+      </c>
+      <c r="Y73">
+        <v>3.7</v>
+      </c>
+      <c r="Z73">
+        <v>3.8</v>
+      </c>
+      <c r="AA73">
+        <v>4</v>
+      </c>
+      <c r="AB73">
+        <v>4.2</v>
+      </c>
+      <c r="AC73">
+        <v>4.3</v>
+      </c>
+      <c r="AD73">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>3.05</v>
+      </c>
+      <c r="C75">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D75">
+        <v>2.4</v>
+      </c>
+      <c r="E75">
+        <v>2.35</v>
+      </c>
+      <c r="H75">
+        <v>4.875</v>
+      </c>
+      <c r="I75">
+        <v>4.875</v>
+      </c>
+      <c r="J75">
+        <v>4.125</v>
+      </c>
+      <c r="K75">
+        <v>3.125</v>
+      </c>
+      <c r="N75">
+        <v>0.9</v>
+      </c>
+      <c r="O75">
+        <v>0.6</v>
+      </c>
+      <c r="P75">
+        <v>-1.2</v>
+      </c>
+      <c r="Q75">
+        <v>-1.4</v>
+      </c>
+      <c r="R75">
+        <v>-0.5</v>
+      </c>
+      <c r="S75">
+        <v>3.31</v>
+      </c>
+      <c r="T75">
+        <v>3.31</v>
+      </c>
+      <c r="U75">
+        <v>2.11</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="Y75">
+        <v>3.27</v>
+      </c>
+      <c r="Z75">
+        <v>4.17</v>
+      </c>
+      <c r="AA75">
+        <v>5.2</v>
+      </c>
+      <c r="AB75">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>3.95</v>
+      </c>
+      <c r="C76">
+        <v>3.8</v>
+      </c>
+      <c r="D76">
+        <v>3.7</v>
+      </c>
+      <c r="E76">
+        <v>3.6</v>
+      </c>
+      <c r="H76">
+        <v>5.125</v>
+      </c>
+      <c r="I76">
+        <v>5.125</v>
+      </c>
+      <c r="J76">
+        <v>4.625</v>
+      </c>
+      <c r="K76">
+        <v>4.125</v>
+      </c>
+      <c r="N76">
+        <v>2.1</v>
+      </c>
+      <c r="O76">
+        <v>0.7</v>
+      </c>
+      <c r="P76">
+        <v>-1.3</v>
+      </c>
+      <c r="Q76">
+        <v>-0.8</v>
+      </c>
+      <c r="R76">
+        <v>1.2</v>
+      </c>
+      <c r="S76">
+        <v>3.2</v>
+      </c>
+      <c r="T76">
+        <v>3.5</v>
+      </c>
+      <c r="U76">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V76">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y76">
+        <v>3.9</v>
+      </c>
+      <c r="Z76">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB76">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>3.5</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2.8</v>
+      </c>
+      <c r="E77">
+        <v>2.6</v>
+      </c>
+      <c r="F77">
+        <v>2.5</v>
+      </c>
+      <c r="G77">
+        <v>2.5</v>
+      </c>
+      <c r="H77">
+        <v>5.125</v>
+      </c>
+      <c r="I77">
+        <v>5.125</v>
+      </c>
+      <c r="J77">
+        <v>4.625</v>
+      </c>
+      <c r="K77">
+        <v>3.875</v>
+      </c>
+      <c r="L77">
+        <v>3.125</v>
+      </c>
+      <c r="M77">
+        <v>2.625</v>
+      </c>
+      <c r="N77">
+        <v>0.9</v>
+      </c>
+      <c r="O77">
+        <v>-0.7</v>
+      </c>
+      <c r="P77">
+        <v>-1.5</v>
+      </c>
+      <c r="Q77">
+        <v>-1.7</v>
+      </c>
+      <c r="R77">
+        <v>-1</v>
+      </c>
+      <c r="S77">
+        <v>4.7</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+      <c r="U77">
+        <v>3.3</v>
+      </c>
+      <c r="V77">
+        <v>2.8</v>
+      </c>
+      <c r="W77">
+        <v>2.7</v>
+      </c>
+      <c r="X77">
+        <v>2.5</v>
+      </c>
+      <c r="Y77">
+        <v>3.5</v>
+      </c>
+      <c r="Z77">
+        <v>3.9</v>
+      </c>
+      <c r="AA77">
+        <v>4.5</v>
+      </c>
+      <c r="AB77">
+        <v>4.7</v>
+      </c>
+      <c r="AC77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD77">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>3.6</v>
+      </c>
+      <c r="C79">
+        <v>3.55</v>
+      </c>
+      <c r="D79">
+        <v>3.45</v>
+      </c>
+      <c r="E79">
+        <v>3.35</v>
+      </c>
+      <c r="H79">
+        <v>5.125</v>
+      </c>
+      <c r="I79">
+        <v>4.875</v>
+      </c>
+      <c r="J79">
+        <v>3.875</v>
+      </c>
+      <c r="K79">
+        <v>2.875</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <v>0.5</v>
+      </c>
+      <c r="P79">
+        <v>-1</v>
+      </c>
+      <c r="Q79">
+        <v>-1.5</v>
+      </c>
+      <c r="R79">
+        <v>-1</v>
+      </c>
+      <c r="S79">
+        <v>4.5</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
+      <c r="Y79">
+        <v>3.7</v>
+      </c>
+      <c r="Z79">
+        <v>4.3</v>
+      </c>
+      <c r="AA79">
+        <v>5</v>
+      </c>
+      <c r="AB79">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>3.3</v>
+      </c>
+      <c r="C80">
+        <v>3.2</v>
+      </c>
+      <c r="D80">
+        <v>3.5</v>
+      </c>
+      <c r="E80">
+        <v>3.6</v>
+      </c>
+      <c r="F80">
+        <v>3.8</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>5.125</v>
+      </c>
+      <c r="I80">
+        <v>5.125</v>
+      </c>
+      <c r="J80">
+        <v>4.625</v>
+      </c>
+      <c r="K80">
+        <v>4.125</v>
+      </c>
+      <c r="L80">
+        <v>3.875</v>
+      </c>
+      <c r="M80">
+        <v>3.875</v>
+      </c>
+      <c r="N80">
+        <v>1.5</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1.8</v>
+      </c>
+      <c r="Q80">
+        <v>1.5</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>4.8</v>
+      </c>
+      <c r="T80">
+        <v>3.8</v>
+      </c>
+      <c r="U80">
+        <v>3.5</v>
+      </c>
+      <c r="V80">
+        <v>3.3</v>
+      </c>
+      <c r="W80">
+        <v>3</v>
+      </c>
+      <c r="X80">
+        <v>3</v>
+      </c>
+      <c r="Y80">
+        <v>3.6</v>
+      </c>
+      <c r="Z80">
+        <v>3.7</v>
+      </c>
+      <c r="AA80">
+        <v>3.8</v>
+      </c>
+      <c r="AB80">
+        <v>4</v>
+      </c>
+      <c r="AC80">
+        <v>4.2</v>
+      </c>
+      <c r="AD80">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>3.3</v>
+      </c>
+      <c r="C81">
+        <v>3.15</v>
+      </c>
+      <c r="H81">
+        <v>5.125</v>
+      </c>
+      <c r="I81">
+        <v>5.125</v>
+      </c>
+      <c r="J81">
+        <v>4.625</v>
+      </c>
+      <c r="K81">
+        <v>4.125</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>-1.2</v>
+      </c>
+      <c r="P81">
+        <v>0.1</v>
+      </c>
+      <c r="Q81">
+        <v>0.6</v>
+      </c>
+      <c r="R81">
+        <v>0.6</v>
+      </c>
+      <c r="S81">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T81">
+        <v>2.9</v>
+      </c>
+      <c r="U81">
+        <v>2.5</v>
+      </c>
+      <c r="V81">
+        <v>2.4</v>
+      </c>
+      <c r="Y81">
+        <v>3.6</v>
+      </c>
+      <c r="Z81">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA81">
+        <v>4.2</v>
+      </c>
+      <c r="AB81">
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modules/external-import/external-import-wsj.xlsx
+++ b/modules/external-import/external-import-wsj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bongohead\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0CE2E0-1F3C-4027-9ECE-5B0525288E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFC517-259D-4482-89F5-FE9FE1A7F1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="827" xr2:uid="{7EA91EED-77CB-43E4-BA35-3D98E29C29D5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="106">
   <si>
     <t>2022Q1</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>S&amp;P Global Market Intelligence</t>
+  </si>
+  <si>
+    <t>recess</t>
   </si>
 </sst>
 </file>
@@ -742,15 +745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5721CF55-ED0C-43FA-89EE-4708DA134218}">
-  <dimension ref="A1:AE80"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>99</v>
       </c>
@@ -841,8 +844,11 @@
       <c r="AE1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AE2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1022,11 @@
       <c r="AC3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1655,7 +1667,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -7106,15 +7118,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480EB957-1F40-4E40-9AF9-D0B8CD78A023}">
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>99</v>
       </c>
@@ -7193,8 +7205,11 @@
       <c r="AA1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -7276,569 +7291,575 @@
       <c r="AA2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>1.79</v>
+      </c>
+      <c r="C3">
+        <v>1.97</v>
+      </c>
+      <c r="D3">
+        <v>2.11</v>
+      </c>
+      <c r="E3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F3">
+        <v>2.41</v>
+      </c>
+      <c r="G3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>9.11</v>
+      </c>
+      <c r="M3">
+        <v>7.01</v>
+      </c>
+      <c r="N3">
+        <v>5.44</v>
+      </c>
+      <c r="O3">
+        <v>3.83</v>
+      </c>
+      <c r="P3">
+        <v>3.25</v>
+      </c>
+      <c r="Q3">
+        <v>4.7</v>
+      </c>
+      <c r="R3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S3">
+        <v>2.69</v>
+      </c>
+      <c r="T3">
+        <v>2.5</v>
+      </c>
+      <c r="U3">
+        <v>2.5</v>
+      </c>
+      <c r="V3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="W3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="X3">
+        <v>4.43</v>
+      </c>
+      <c r="Y3">
+        <v>4.12</v>
+      </c>
+      <c r="Z3">
+        <v>3.96</v>
+      </c>
+      <c r="AA3">
+        <v>3.8</v>
+      </c>
+      <c r="AB3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1.8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1.8</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1.75</v>
       </c>
-      <c r="G3">
-        <v>0.125</v>
-      </c>
-      <c r="H3">
-        <v>0.125</v>
-      </c>
-      <c r="I3">
-        <v>0.125</v>
-      </c>
-      <c r="J3">
+      <c r="G4">
+        <v>0.125</v>
+      </c>
+      <c r="H4">
+        <v>0.125</v>
+      </c>
+      <c r="I4">
+        <v>0.125</v>
+      </c>
+      <c r="J4">
         <v>0.375</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0.625</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>9.5</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>6.5</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>3.9</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P4" s="3">
         <v>3.9</v>
-      </c>
-      <c r="Q3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="S3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T3">
-        <v>1.7</v>
-      </c>
-      <c r="W3">
-        <v>4.3</v>
-      </c>
-      <c r="X3">
-        <v>3.6</v>
-      </c>
-      <c r="Y3">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1.68</v>
-      </c>
-      <c r="C4">
-        <v>1.82</v>
-      </c>
-      <c r="D4">
-        <v>1.9</v>
-      </c>
-      <c r="E4">
-        <v>1.98</v>
-      </c>
-      <c r="F4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="G4">
-        <v>0.125</v>
-      </c>
-      <c r="H4">
-        <v>0.125</v>
-      </c>
-      <c r="I4">
-        <v>0.125</v>
-      </c>
-      <c r="J4">
-        <v>0.125</v>
-      </c>
-      <c r="K4">
-        <v>0.375</v>
-      </c>
-      <c r="L4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M4">
-        <v>7.4</v>
-      </c>
-      <c r="N4">
-        <v>5.3</v>
-      </c>
-      <c r="O4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2.9</v>
       </c>
       <c r="Q4">
         <v>4.5999999999999996</v>
       </c>
       <c r="R4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T4">
+        <v>1.7</v>
+      </c>
+      <c r="W4">
         <v>4.3</v>
       </c>
-      <c r="S4">
+      <c r="X4">
+        <v>3.6</v>
+      </c>
+      <c r="Y4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1.68</v>
+      </c>
+      <c r="C5">
+        <v>1.82</v>
+      </c>
+      <c r="D5">
+        <v>1.9</v>
+      </c>
+      <c r="E5">
+        <v>1.98</v>
+      </c>
+      <c r="F5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.125</v>
+      </c>
+      <c r="H5">
+        <v>0.125</v>
+      </c>
+      <c r="I5">
+        <v>0.125</v>
+      </c>
+      <c r="J5">
+        <v>0.125</v>
+      </c>
+      <c r="K5">
+        <v>0.375</v>
+      </c>
+      <c r="L5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M5">
+        <v>7.4</v>
+      </c>
+      <c r="N5">
+        <v>5.3</v>
+      </c>
+      <c r="O5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="Q5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R5">
+        <v>4.3</v>
+      </c>
+      <c r="S5">
         <v>2.6</v>
       </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <v>4.3</v>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <v>4</v>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <v>3.8</v>
       </c>
-      <c r="AA4">
+      <c r="AA5">
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1.84</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1.95</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2.06</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>2.17</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G6">
-        <v>0.125</v>
-      </c>
-      <c r="H6">
-        <v>0.125</v>
-      </c>
-      <c r="I6">
-        <v>0.125</v>
-      </c>
-      <c r="J6">
-        <v>0.125</v>
-      </c>
-      <c r="K6">
-        <v>0.125</v>
-      </c>
-      <c r="L6">
+      <c r="G7">
+        <v>0.125</v>
+      </c>
+      <c r="H7">
+        <v>0.125</v>
+      </c>
+      <c r="I7">
+        <v>0.125</v>
+      </c>
+      <c r="J7">
+        <v>0.125</v>
+      </c>
+      <c r="K7">
+        <v>0.125</v>
+      </c>
+      <c r="L7">
         <v>7.5</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>5.5</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>5.9</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P7" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>4.3</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>3.4</v>
       </c>
-      <c r="S6">
+      <c r="S7">
         <v>1.9</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>2.1</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>2.1</v>
       </c>
-      <c r="V6">
+      <c r="V7">
         <v>2.1</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>5.2</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <v>4.8</v>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AA6">
+      <c r="AA7">
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1.7</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2.0499999999999998</v>
-      </c>
-      <c r="D7">
-        <v>2.1</v>
-      </c>
-      <c r="E7">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F7">
-        <v>2.35</v>
-      </c>
-      <c r="G7">
-        <v>0.13</v>
-      </c>
-      <c r="H7">
-        <v>0.13</v>
-      </c>
-      <c r="I7">
-        <v>0.13</v>
-      </c>
-      <c r="J7">
-        <v>0.38</v>
-      </c>
-      <c r="K7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L7">
-        <v>8.6</v>
-      </c>
-      <c r="M7">
-        <v>6.4</v>
-      </c>
-      <c r="N7">
-        <v>5.7</v>
-      </c>
-      <c r="O7">
-        <v>3.4</v>
-      </c>
-      <c r="P7" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q7">
-        <v>5.4</v>
-      </c>
-      <c r="R7">
-        <v>3.3</v>
-      </c>
-      <c r="S7">
-        <v>2.8</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>2.5</v>
-      </c>
-      <c r="V7">
-        <v>2.8</v>
-      </c>
-      <c r="W7">
-        <v>5.6</v>
-      </c>
-      <c r="X7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Y7">
-        <v>4</v>
-      </c>
-      <c r="Z7">
-        <v>3.8</v>
-      </c>
-      <c r="AA7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1.85</v>
-      </c>
-      <c r="C8">
-        <v>1.95</v>
       </c>
       <c r="D8">
         <v>2.1</v>
       </c>
       <c r="E8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F8">
+        <v>2.35</v>
+      </c>
+      <c r="G8">
+        <v>0.13</v>
+      </c>
+      <c r="H8">
+        <v>0.13</v>
+      </c>
+      <c r="I8">
+        <v>0.13</v>
+      </c>
+      <c r="J8">
+        <v>0.38</v>
+      </c>
+      <c r="K8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L8">
+        <v>8.6</v>
+      </c>
+      <c r="M8">
+        <v>6.4</v>
+      </c>
+      <c r="N8">
+        <v>5.7</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q8">
+        <v>5.4</v>
+      </c>
+      <c r="R8">
+        <v>3.3</v>
+      </c>
+      <c r="S8">
+        <v>2.8</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>2.8</v>
+      </c>
+      <c r="W8">
+        <v>5.6</v>
+      </c>
+      <c r="X8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>3.8</v>
+      </c>
+      <c r="AA8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1.85</v>
+      </c>
+      <c r="C9">
+        <v>1.95</v>
+      </c>
+      <c r="D9">
+        <v>2.1</v>
+      </c>
+      <c r="E9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2.25</v>
       </c>
-      <c r="G8">
-        <v>0.125</v>
-      </c>
-      <c r="H8">
-        <v>0.125</v>
-      </c>
-      <c r="I8">
-        <v>0.125</v>
-      </c>
-      <c r="J8">
-        <v>0.125</v>
-      </c>
-      <c r="K8">
+      <c r="G9">
+        <v>0.125</v>
+      </c>
+      <c r="H9">
+        <v>0.125</v>
+      </c>
+      <c r="I9">
+        <v>0.125</v>
+      </c>
+      <c r="J9">
+        <v>0.125</v>
+      </c>
+      <c r="K9">
         <v>0.375</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>7</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>5.5</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>4.5</v>
       </c>
-      <c r="P8" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q8">
-        <v>4.8</v>
-      </c>
-      <c r="R8">
-        <v>3.8</v>
-      </c>
-      <c r="S8">
-        <v>2.5</v>
-      </c>
-      <c r="T8">
-        <v>2.4</v>
-      </c>
-      <c r="U8">
-        <v>2.5</v>
-      </c>
-      <c r="V8">
-        <v>2.6</v>
-      </c>
-      <c r="W8">
-        <v>4.8</v>
-      </c>
-      <c r="X8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y8">
-        <v>3.9</v>
-      </c>
-      <c r="Z8">
-        <v>3.7</v>
-      </c>
-      <c r="AA8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1.57</v>
-      </c>
-      <c r="C9">
-        <v>1.73</v>
-      </c>
-      <c r="D9">
-        <v>1.78</v>
-      </c>
-      <c r="G9">
-        <v>0.125</v>
-      </c>
-      <c r="H9">
-        <v>0.125</v>
-      </c>
-      <c r="I9">
-        <v>0.125</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O9">
-        <v>2.4</v>
-      </c>
       <c r="P9" s="3">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>4.8</v>
       </c>
       <c r="R9">
+        <v>3.8</v>
+      </c>
+      <c r="S9">
+        <v>2.5</v>
+      </c>
+      <c r="T9">
+        <v>2.4</v>
+      </c>
+      <c r="U9">
+        <v>2.5</v>
+      </c>
+      <c r="V9">
+        <v>2.6</v>
+      </c>
+      <c r="W9">
+        <v>4.8</v>
+      </c>
+      <c r="X9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y9">
+        <v>3.9</v>
+      </c>
+      <c r="Z9">
+        <v>3.7</v>
+      </c>
+      <c r="AA9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1.57</v>
+      </c>
+      <c r="C10">
+        <v>1.73</v>
+      </c>
+      <c r="D10">
+        <v>1.78</v>
+      </c>
+      <c r="G10">
+        <v>0.125</v>
+      </c>
+      <c r="H10">
+        <v>0.125</v>
+      </c>
+      <c r="I10">
+        <v>0.125</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S9">
+      <c r="N10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O10">
+        <v>2.4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="Q10">
+        <v>4.8</v>
+      </c>
+      <c r="R10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S10">
         <v>2.1</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>2.1</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <v>5.2</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <v>4.8</v>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1.65</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1.7</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>1.8</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>1.9</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>2.1</v>
-      </c>
-      <c r="G10">
-        <v>0.125</v>
-      </c>
-      <c r="H10">
-        <v>0.125</v>
-      </c>
-      <c r="I10">
-        <v>0.375</v>
-      </c>
-      <c r="J10">
-        <v>0.625</v>
-      </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>7.5</v>
-      </c>
-      <c r="N10">
-        <v>6.5</v>
-      </c>
-      <c r="O10">
-        <v>5.5</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>3.5</v>
-      </c>
-      <c r="S10">
-        <v>2.5</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>2.4</v>
-      </c>
-      <c r="V10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W10">
-        <v>5.4</v>
-      </c>
-      <c r="X10">
-        <v>5</v>
-      </c>
-      <c r="Y10">
-        <v>4.7</v>
-      </c>
-      <c r="Z10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AA10">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2.25</v>
-      </c>
-      <c r="D11">
-        <v>2.5</v>
-      </c>
-      <c r="E11">
-        <v>2.75</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
       </c>
       <c r="G11">
         <v>0.125</v>
@@ -7850,238 +7871,244 @@
         <v>0.375</v>
       </c>
       <c r="J11">
+        <v>0.625</v>
+      </c>
+      <c r="K11">
+        <v>0.875</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>7.5</v>
+      </c>
+      <c r="N11">
+        <v>6.5</v>
+      </c>
+      <c r="O11">
+        <v>5.5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>3.5</v>
+      </c>
+      <c r="S11">
+        <v>2.5</v>
+      </c>
+      <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2.4</v>
+      </c>
+      <c r="V11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W11">
+        <v>5.4</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>4.7</v>
+      </c>
+      <c r="Z11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2.25</v>
+      </c>
+      <c r="D12">
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <v>2.75</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0.125</v>
+      </c>
+      <c r="H12">
+        <v>0.125</v>
+      </c>
+      <c r="I12">
         <v>0.375</v>
       </c>
-      <c r="K11">
+      <c r="J12">
+        <v>0.375</v>
+      </c>
+      <c r="K12">
         <v>0.625</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>9.5</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>5.5</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>4.5</v>
       </c>
-      <c r="O11">
-        <v>3.5</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="O12">
+        <v>3.5</v>
+      </c>
+      <c r="P12" s="3">
         <v>3.3</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>4.8</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S11">
+      <c r="S12">
         <v>2.4</v>
       </c>
-      <c r="T11">
+      <c r="T12">
         <v>2.6</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>2.8</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>3</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <v>4.5</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <v>4</v>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <v>3.8</v>
       </c>
-      <c r="Z11">
-        <v>3.5</v>
-      </c>
-      <c r="AA11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="Z12">
+        <v>3.5</v>
+      </c>
+      <c r="AA12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>2.46</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>2.64</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>0.12</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>0.12</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>0.12</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>0.37</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.85</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>11.6</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>5.6</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>3.7</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>1.6</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P13" s="3">
         <v>4</v>
-      </c>
-      <c r="Q12">
-        <v>4.7</v>
-      </c>
-      <c r="R12">
-        <v>3.7</v>
-      </c>
-      <c r="S12">
-        <v>1.9</v>
-      </c>
-      <c r="T12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U12">
-        <v>2.4</v>
-      </c>
-      <c r="V12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="X12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Y12">
-        <v>4.2</v>
-      </c>
-      <c r="Z12">
-        <v>3.9</v>
-      </c>
-      <c r="AA12">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>1.88</v>
-      </c>
-      <c r="C13">
-        <v>1.97</v>
-      </c>
-      <c r="D13">
-        <v>2.1</v>
-      </c>
-      <c r="E13">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F13">
-        <v>2.23</v>
-      </c>
-      <c r="G13">
-        <v>0.125</v>
-      </c>
-      <c r="H13">
-        <v>0.125</v>
-      </c>
-      <c r="I13">
-        <v>0.35</v>
-      </c>
-      <c r="J13">
-        <v>0.65</v>
-      </c>
-      <c r="K13">
-        <v>0.65</v>
-      </c>
-      <c r="L13">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M13">
-        <v>8.5</v>
-      </c>
-      <c r="N13">
-        <v>5.6</v>
-      </c>
-      <c r="O13">
-        <v>6.1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>5.3</v>
       </c>
       <c r="Q13">
         <v>4.7</v>
       </c>
       <c r="R13">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="S13">
-        <v>4.0999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>2.2999999999999998</v>
       </c>
       <c r="U13">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="V13">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W13">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X13">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y13">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Z13">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA13">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="C14">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="D14">
-        <v>2.25</v>
+        <v>2.1</v>
+      </c>
+      <c r="E14">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F14">
+        <v>2.23</v>
       </c>
       <c r="G14">
         <v>0.125</v>
@@ -8090,34 +8117,46 @@
         <v>0.125</v>
       </c>
       <c r="I14">
-        <v>0.125</v>
+        <v>0.35</v>
+      </c>
+      <c r="J14">
+        <v>0.65</v>
+      </c>
+      <c r="K14">
+        <v>0.65</v>
       </c>
       <c r="L14">
         <v>9.1999999999999993</v>
       </c>
       <c r="M14">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="N14">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="O14">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="P14" s="3">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="R14">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S14">
-        <v>2.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T14">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V14">
+        <v>2.2000000000000002</v>
       </c>
       <c r="W14">
         <v>4.7</v>
@@ -8126,346 +8165,328 @@
         <v>4.3</v>
       </c>
       <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>3.8</v>
+      </c>
+      <c r="AA14">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2.15</v>
+      </c>
+      <c r="D15">
+        <v>2.25</v>
+      </c>
+      <c r="G15">
+        <v>0.125</v>
+      </c>
+      <c r="H15">
+        <v>0.125</v>
+      </c>
+      <c r="I15">
+        <v>0.125</v>
+      </c>
+      <c r="L15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N15">
+        <v>8.1</v>
+      </c>
+      <c r="O15">
+        <v>5.8</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S15">
+        <v>2.9</v>
+      </c>
+      <c r="T15">
+        <v>2.6</v>
+      </c>
+      <c r="W15">
+        <v>4.7</v>
+      </c>
+      <c r="X15">
+        <v>4.3</v>
+      </c>
+      <c r="Y15">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1.5</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1.6</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1.5</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>1.5</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>1.5</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>0.1</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>0.1</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>0.38</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>0.63</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.63</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>7</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="Q15">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q16">
         <v>4</v>
       </c>
-      <c r="R15">
-        <v>3.5</v>
-      </c>
-      <c r="S15">
+      <c r="R16">
+        <v>3.5</v>
+      </c>
+      <c r="S16">
         <v>3</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="U15">
-        <v>2.5</v>
-      </c>
-      <c r="V15">
-        <v>2.5</v>
-      </c>
-      <c r="W15">
+      <c r="U16">
+        <v>2.5</v>
+      </c>
+      <c r="V16">
+        <v>2.5</v>
+      </c>
+      <c r="W16">
         <v>5.5</v>
       </c>
-      <c r="X15">
+      <c r="X16">
         <v>5.3</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA15">
+      <c r="AA16">
         <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>1.65</v>
-      </c>
-      <c r="C16">
-        <v>1.75</v>
-      </c>
-      <c r="D16">
-        <v>1.85</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2.1</v>
-      </c>
-      <c r="G16">
-        <v>0.125</v>
-      </c>
-      <c r="H16">
-        <v>0.125</v>
-      </c>
-      <c r="I16">
-        <v>0.125</v>
-      </c>
-      <c r="J16">
-        <v>0.625</v>
-      </c>
-      <c r="K16">
-        <v>0.875</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q16">
-        <v>4.8</v>
-      </c>
-      <c r="R16">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="S16">
-        <v>2.7</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>2.5</v>
-      </c>
-      <c r="V16">
-        <v>2.4</v>
-      </c>
-      <c r="W16">
-        <v>5</v>
-      </c>
-      <c r="X16">
-        <v>4.5</v>
-      </c>
-      <c r="Y16">
-        <v>4.2</v>
-      </c>
-      <c r="Z16">
-        <v>4</v>
-      </c>
-      <c r="AA16">
-        <v>3.8</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1.65</v>
+      </c>
+      <c r="C17">
+        <v>1.75</v>
+      </c>
+      <c r="D17">
+        <v>1.85</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2.1</v>
+      </c>
+      <c r="G17">
+        <v>0.125</v>
+      </c>
+      <c r="H17">
+        <v>0.125</v>
+      </c>
+      <c r="I17">
+        <v>0.125</v>
+      </c>
+      <c r="J17">
+        <v>0.625</v>
+      </c>
+      <c r="K17">
+        <v>0.875</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>4.8</v>
+      </c>
+      <c r="R17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S17">
+        <v>2.7</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>2.5</v>
+      </c>
+      <c r="V17">
+        <v>2.4</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>4.5</v>
+      </c>
+      <c r="Y17">
+        <v>4.2</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>3.8</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C18">
-        <v>2.5</v>
-      </c>
-      <c r="D18">
-        <v>2.8</v>
-      </c>
-      <c r="G18">
-        <v>0.13</v>
-      </c>
-      <c r="H18">
-        <v>0.13</v>
-      </c>
-      <c r="I18">
-        <v>0.13</v>
-      </c>
-      <c r="J18">
-        <v>0.13</v>
-      </c>
-      <c r="K18">
-        <v>0.63</v>
-      </c>
-      <c r="L18">
-        <v>10.5</v>
-      </c>
-      <c r="M18">
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <v>9.5</v>
-      </c>
-      <c r="O18">
-        <v>6.5</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>3.8</v>
-      </c>
-      <c r="R18">
-        <v>3.7</v>
-      </c>
-      <c r="S18">
-        <v>2.6</v>
-      </c>
-      <c r="T18">
-        <v>2.4</v>
-      </c>
-      <c r="W18">
-        <v>4.7</v>
-      </c>
-      <c r="X18">
-        <v>3.9</v>
-      </c>
-      <c r="Y18">
-        <v>3.6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C19">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="D19">
-        <v>2.4</v>
-      </c>
-      <c r="E19">
-        <v>2.5</v>
-      </c>
-      <c r="F19">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G19">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="H19">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="I19">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="J19">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="K19">
         <v>0.63</v>
       </c>
       <c r="L19">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="M19">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="O19">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>3.8</v>
+      </c>
+      <c r="R19">
+        <v>3.7</v>
+      </c>
+      <c r="S19">
+        <v>2.6</v>
+      </c>
+      <c r="T19">
+        <v>2.4</v>
+      </c>
+      <c r="W19">
         <v>4.7</v>
       </c>
-      <c r="Q19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="R19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="S19">
-        <v>1.8</v>
-      </c>
-      <c r="T19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U19">
-        <v>2.5</v>
-      </c>
-      <c r="V19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W19">
-        <v>4.3</v>
-      </c>
       <c r="X19">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y19">
-        <v>3.9</v>
-      </c>
-      <c r="Z19">
-        <v>3.7</v>
-      </c>
-      <c r="AA19">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="C20">
-        <v>2.11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D20">
-        <v>2.3199999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E20">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="F20">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G20">
         <v>0.125</v>
@@ -8477,34 +8498,34 @@
         <v>0.125</v>
       </c>
       <c r="J20">
-        <v>0.125</v>
+        <v>0.38</v>
       </c>
       <c r="K20">
-        <v>0.375</v>
+        <v>0.63</v>
       </c>
       <c r="L20">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="M20">
-        <v>4.3</v>
+        <v>8.9</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P20" s="3">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q20">
-        <v>6.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R20">
         <v>4.0999999999999996</v>
       </c>
       <c r="S20">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2.2999999999999998</v>
@@ -8513,42 +8534,42 @@
         <v>2.5</v>
       </c>
       <c r="V20">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W20">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="X20">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="Y20">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="Z20">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AA20">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="C21">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="D21">
-        <v>2.33</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E21">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="F21">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="G21">
         <v>0.125</v>
@@ -8560,72 +8581,78 @@
         <v>0.125</v>
       </c>
       <c r="J21">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="K21">
         <v>0.375</v>
       </c>
       <c r="L21">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
       <c r="M21">
-        <v>7.1</v>
+        <v>4.3</v>
       </c>
       <c r="N21">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
+        <v>2.9</v>
+      </c>
+      <c r="P21" s="3">
         <v>2.6</v>
       </c>
-      <c r="P21">
-        <v>1.7</v>
-      </c>
       <c r="Q21">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="R21">
-        <v>1.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="W21">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="X21">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="Y21">
         <v>4.5</v>
       </c>
       <c r="Z21">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AA21">
-        <v>5.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>2.33</v>
+      </c>
+      <c r="E22">
+        <v>2.44</v>
+      </c>
+      <c r="F22">
+        <v>2.54</v>
       </c>
       <c r="G22">
         <v>0.125</v>
@@ -8637,60 +8664,72 @@
         <v>0.125</v>
       </c>
       <c r="J22">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K22">
         <v>0.375</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="M22">
+        <v>7.1</v>
+      </c>
+      <c r="N22">
+        <v>6.8</v>
+      </c>
+      <c r="O22">
         <v>2.6</v>
       </c>
-      <c r="N22">
-        <v>5.6</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4.3</v>
+      <c r="P22">
+        <v>1.7</v>
       </c>
       <c r="Q22">
-        <v>4.5999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="R22">
-        <v>4.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="S22">
+        <v>2.1</v>
+      </c>
+      <c r="T22">
+        <v>1.7</v>
+      </c>
+      <c r="U22">
+        <v>1.9</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="T22">
-        <v>1.9</v>
-      </c>
       <c r="W22">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y22">
+        <v>4.5</v>
+      </c>
+      <c r="Z22">
         <v>4.8</v>
       </c>
-      <c r="Y22">
-        <v>4.4000000000000004</v>
+      <c r="AA22">
+        <v>5.2</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="C23">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="D23">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="G23">
         <v>0.125</v>
@@ -8701,225 +8740,216 @@
       <c r="I23">
         <v>0.125</v>
       </c>
+      <c r="J23">
+        <v>0.125</v>
+      </c>
+      <c r="K23">
+        <v>0.375</v>
+      </c>
       <c r="L23">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P23" s="3">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="Q23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X23">
         <v>4.8</v>
       </c>
-      <c r="R23">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S23">
-        <v>3.8</v>
-      </c>
-      <c r="T23">
-        <v>3.1</v>
-      </c>
-      <c r="W23">
+      <c r="Y23">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="X23">
-        <v>3.9</v>
-      </c>
-      <c r="Y23">
-        <v>3.8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>1.55</v>
+      </c>
+      <c r="C24">
+        <v>1.66</v>
+      </c>
+      <c r="D24">
+        <v>1.77</v>
+      </c>
+      <c r="G24">
+        <v>0.125</v>
+      </c>
+      <c r="H24">
+        <v>0.125</v>
+      </c>
+      <c r="I24">
+        <v>0.125</v>
+      </c>
+      <c r="L24">
+        <v>8.1</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>6.8</v>
+      </c>
+      <c r="O24">
+        <v>3.5</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="Q24">
+        <v>4.8</v>
+      </c>
+      <c r="R24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S24">
+        <v>3.8</v>
+      </c>
+      <c r="T24">
+        <v>3.1</v>
+      </c>
+      <c r="W24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X24">
+        <v>3.9</v>
+      </c>
+      <c r="Y24">
+        <v>3.8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>1.83</v>
-      </c>
-      <c r="C25">
-        <v>1.86</v>
-      </c>
-      <c r="D25">
-        <v>1.91</v>
-      </c>
-      <c r="E25">
-        <v>1.93</v>
-      </c>
-      <c r="F25">
-        <v>1.99</v>
-      </c>
-      <c r="G25">
-        <v>0.125</v>
-      </c>
-      <c r="H25">
-        <v>0.125</v>
-      </c>
-      <c r="I25">
-        <v>0.125</v>
-      </c>
-      <c r="J25">
-        <v>0.375</v>
-      </c>
-      <c r="K25">
-        <v>0.875</v>
-      </c>
-      <c r="L25">
-        <v>8.6</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q25">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R25">
-        <v>3.9</v>
-      </c>
-      <c r="S25">
-        <v>2.4</v>
-      </c>
-      <c r="T25">
-        <v>2.6</v>
-      </c>
-      <c r="U25">
-        <v>2.4</v>
-      </c>
-      <c r="V25">
-        <v>2.6</v>
-      </c>
-      <c r="W25">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y25">
-        <v>4.2</v>
-      </c>
-      <c r="Z25">
-        <v>4</v>
-      </c>
-      <c r="AA25">
-        <v>3.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1.83</v>
+      </c>
+      <c r="C26">
+        <v>1.86</v>
+      </c>
+      <c r="D26">
+        <v>1.91</v>
+      </c>
+      <c r="E26">
+        <v>1.93</v>
+      </c>
+      <c r="F26">
+        <v>1.99</v>
+      </c>
+      <c r="G26">
+        <v>0.125</v>
+      </c>
+      <c r="H26">
+        <v>0.125</v>
+      </c>
+      <c r="I26">
+        <v>0.125</v>
+      </c>
+      <c r="J26">
+        <v>0.375</v>
+      </c>
+      <c r="K26">
+        <v>0.875</v>
+      </c>
+      <c r="L26">
+        <v>8.6</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R26">
+        <v>3.9</v>
+      </c>
+      <c r="S26">
+        <v>2.4</v>
+      </c>
+      <c r="T26">
+        <v>2.6</v>
+      </c>
+      <c r="U26">
+        <v>2.4</v>
+      </c>
+      <c r="V26">
+        <v>2.6</v>
+      </c>
+      <c r="W26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y26">
+        <v>4.2</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+      <c r="AA26">
+        <v>3.8</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>1.98</v>
-      </c>
-      <c r="C27">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D27">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="E27">
-        <v>2.37</v>
-      </c>
-      <c r="G27">
-        <v>0.125</v>
-      </c>
-      <c r="H27">
-        <v>0.125</v>
-      </c>
-      <c r="I27">
-        <v>0.25</v>
-      </c>
-      <c r="J27">
-        <v>0.375</v>
-      </c>
-      <c r="K27">
-        <v>0.375</v>
-      </c>
-      <c r="L27">
-        <v>6.4</v>
-      </c>
-      <c r="M27">
-        <v>4.8</v>
-      </c>
-      <c r="N27">
-        <v>3.1</v>
-      </c>
-      <c r="O27">
-        <v>2.6</v>
-      </c>
-      <c r="P27" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
-      </c>
-      <c r="R27">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="S27">
-        <v>3.5</v>
-      </c>
-      <c r="T27">
-        <v>3.1</v>
-      </c>
-      <c r="W27">
-        <v>5.3</v>
-      </c>
-      <c r="X27">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Y27">
-        <v>5</v>
-      </c>
-      <c r="Z27">
-        <v>4.9000000000000004</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="C28">
-        <v>2.2999999999999998</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D28">
-        <v>2.5</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E28">
-        <v>2.8</v>
-      </c>
-      <c r="F28">
-        <v>3.1</v>
+        <v>2.37</v>
       </c>
       <c r="G28">
         <v>0.125</v>
@@ -8928,81 +8958,72 @@
         <v>0.125</v>
       </c>
       <c r="I28">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J28">
         <v>0.375</v>
       </c>
       <c r="K28">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="P28" s="3">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q28">
         <v>5</v>
       </c>
       <c r="R28">
-        <v>3.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S28">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="T28">
-        <v>2.1</v>
-      </c>
-      <c r="U28">
-        <v>2.1</v>
-      </c>
-      <c r="V28">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="W28">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="X28">
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Y28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z28">
-        <v>4</v>
-      </c>
-      <c r="AA28">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D29">
         <v>2.5</v>
       </c>
       <c r="E29">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="F29">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G29">
         <v>0.125</v>
@@ -9011,81 +9032,81 @@
         <v>0.125</v>
       </c>
       <c r="I29">
+        <v>0.125</v>
+      </c>
+      <c r="J29">
         <v>0.375</v>
       </c>
-      <c r="J29">
-        <v>1.125</v>
-      </c>
       <c r="K29">
-        <v>2.125</v>
+        <v>0.625</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>8</v>
       </c>
       <c r="N29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29">
         <v>4</v>
       </c>
       <c r="P29" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q29">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T29">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="V29">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="W29">
+        <v>4.5</v>
+      </c>
+      <c r="X29">
         <v>4.3</v>
       </c>
-      <c r="X29">
-        <v>3.8</v>
-      </c>
       <c r="Y29">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="Z29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AA29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C30">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E30">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="F30">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G30">
         <v>0.125</v>
@@ -9094,81 +9115,81 @@
         <v>0.125</v>
       </c>
       <c r="I30">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="J30">
-        <v>0.125</v>
+        <v>1.125</v>
       </c>
       <c r="K30">
-        <v>0.625</v>
+        <v>2.125</v>
       </c>
       <c r="L30">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N30">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
-      </c>
-      <c r="P30">
-        <v>2.5</v>
+        <v>4</v>
+      </c>
+      <c r="P30" s="3">
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R30">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="U30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="W30">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="X30">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Y30">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="Z30">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="AA30">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
+        <v>1.6</v>
+      </c>
+      <c r="C31">
         <v>1.9</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
       <c r="D31">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="F31">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="G31">
         <v>0.125</v>
@@ -9183,317 +9204,323 @@
         <v>0.125</v>
       </c>
       <c r="K31">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M31">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="N31">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31" s="3">
-        <v>3</v>
+        <v>3.1</v>
+      </c>
+      <c r="P31">
+        <v>2.5</v>
       </c>
       <c r="Q31">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R31">
         <v>4.5</v>
       </c>
       <c r="S31">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="V31">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="W31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X31">
+        <v>4.5</v>
+      </c>
+      <c r="Y31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z31">
+        <v>4.3</v>
+      </c>
+      <c r="AA31">
         <v>4.2</v>
-      </c>
-      <c r="X31">
-        <v>3.5</v>
-      </c>
-      <c r="Y31">
-        <v>3.5</v>
-      </c>
-      <c r="Z31">
-        <v>3.3</v>
-      </c>
-      <c r="AA31">
-        <v>3.2</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
+        <v>1.9</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>2.1</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E32">
+      <c r="G32">
+        <v>0.125</v>
+      </c>
+      <c r="H32">
+        <v>0.125</v>
+      </c>
+      <c r="I32">
+        <v>0.125</v>
+      </c>
+      <c r="J32">
+        <v>0.125</v>
+      </c>
+      <c r="K32">
+        <v>0.375</v>
+      </c>
+      <c r="L32">
+        <v>8.5</v>
+      </c>
+      <c r="M32">
+        <v>9.5</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>4.8</v>
+      </c>
+      <c r="R32">
+        <v>4.5</v>
+      </c>
+      <c r="S32">
         <v>2.4</v>
       </c>
-      <c r="F32">
-        <v>2.4</v>
-      </c>
-      <c r="G32">
-        <v>0.125</v>
-      </c>
-      <c r="H32">
-        <v>0.125</v>
-      </c>
-      <c r="I32">
-        <v>0.125</v>
-      </c>
-      <c r="J32">
-        <v>0.375</v>
-      </c>
-      <c r="K32">
-        <v>0.875</v>
-      </c>
-      <c r="L32">
-        <v>7.8</v>
-      </c>
-      <c r="M32">
-        <v>9.9</v>
-      </c>
-      <c r="N32">
-        <v>6.6</v>
-      </c>
-      <c r="O32">
-        <v>2.9</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="Q32">
-        <v>4.7</v>
-      </c>
-      <c r="R32">
-        <v>3.9</v>
-      </c>
-      <c r="S32">
-        <v>3</v>
-      </c>
       <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U32">
-        <v>2.1</v>
-      </c>
       <c r="V32">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W32">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X32">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="Y32">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Z32">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA32">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>2.1</v>
+      </c>
+      <c r="C33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E33">
+        <v>2.4</v>
+      </c>
+      <c r="F33">
+        <v>2.4</v>
+      </c>
+      <c r="G33">
+        <v>0.125</v>
+      </c>
+      <c r="H33">
+        <v>0.125</v>
+      </c>
+      <c r="I33">
+        <v>0.125</v>
+      </c>
+      <c r="J33">
+        <v>0.375</v>
+      </c>
+      <c r="K33">
+        <v>0.875</v>
+      </c>
+      <c r="L33">
+        <v>7.8</v>
+      </c>
+      <c r="M33">
+        <v>9.9</v>
+      </c>
+      <c r="N33">
+        <v>6.6</v>
+      </c>
+      <c r="O33">
+        <v>2.9</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="Q33">
+        <v>4.7</v>
+      </c>
+      <c r="R33">
+        <v>3.9</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U33">
+        <v>2.1</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y33">
+        <v>3.7</v>
+      </c>
+      <c r="Z33">
+        <v>3.5</v>
+      </c>
+      <c r="AA33">
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>1.75</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>0.13</v>
-      </c>
-      <c r="H34">
-        <v>0.13</v>
-      </c>
-      <c r="I34">
-        <v>0.13</v>
-      </c>
-      <c r="L34">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M34">
-        <v>8.4</v>
-      </c>
-      <c r="N34">
-        <v>6.7</v>
-      </c>
-      <c r="O34">
-        <v>5.5</v>
-      </c>
-      <c r="P34" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q34">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="R34">
-        <v>4.8</v>
-      </c>
-      <c r="S34">
-        <v>2.4</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
-      <c r="U34">
-        <v>1.7</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X34">
-        <v>4.3</v>
-      </c>
-      <c r="Y34">
-        <v>3.9</v>
-      </c>
-      <c r="Z34">
-        <v>3.8</v>
-      </c>
-      <c r="AA34">
-        <v>3.7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="C35">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>2.04</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E35">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>2.3199999999999998</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="H35">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="I35">
-        <v>0.125</v>
-      </c>
-      <c r="J35">
-        <v>0.375</v>
-      </c>
-      <c r="K35">
-        <v>0.625</v>
+        <v>0.13</v>
       </c>
       <c r="L35">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M35">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="O35">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="P35" s="3">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R35">
+        <v>4.8</v>
+      </c>
+      <c r="S35">
+        <v>2.4</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1.7</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R35">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="S35">
-        <v>2.6</v>
-      </c>
-      <c r="T35">
-        <v>2.4</v>
-      </c>
-      <c r="U35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W35">
-        <v>4.9000000000000004</v>
-      </c>
       <c r="X35">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="Y35">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z35">
         <v>3.8</v>
       </c>
       <c r="AA35">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B36">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="C36">
-        <v>2.0499999999999998</v>
+        <v>1.93</v>
       </c>
       <c r="D36">
-        <v>2.1</v>
+        <v>2.04</v>
+      </c>
+      <c r="E36">
+        <v>2.13</v>
+      </c>
+      <c r="F36">
+        <v>2.3199999999999998</v>
       </c>
       <c r="G36">
         <v>0.125</v>
@@ -9504,61 +9531,73 @@
       <c r="I36">
         <v>0.125</v>
       </c>
+      <c r="J36">
+        <v>0.375</v>
+      </c>
+      <c r="K36">
+        <v>0.625</v>
+      </c>
       <c r="L36">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M36">
-        <v>8.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="N36">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P36" s="3">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="Q36">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R36">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S36">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="T36">
-        <v>1.8</v>
+        <v>2.4</v>
+      </c>
+      <c r="U36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V36">
+        <v>2.2000000000000002</v>
       </c>
       <c r="W36">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X36">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y36">
         <v>4</v>
       </c>
+      <c r="Z36">
+        <v>3.8</v>
+      </c>
+      <c r="AA36">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="C37">
-        <v>2.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D37">
-        <v>2.5</v>
-      </c>
-      <c r="E37">
-        <v>2.5</v>
-      </c>
-      <c r="F37">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G37">
         <v>0.125</v>
@@ -9567,81 +9606,63 @@
         <v>0.125</v>
       </c>
       <c r="I37">
-        <v>0.625</v>
-      </c>
-      <c r="J37">
-        <v>0.875</v>
-      </c>
-      <c r="K37">
-        <v>1.375</v>
+        <v>0.125</v>
       </c>
       <c r="L37">
-        <v>10.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M37">
-        <v>5.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N37">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P37" s="3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q37">
+        <v>4.5</v>
+      </c>
+      <c r="R37">
+        <v>2.5</v>
+      </c>
+      <c r="S37">
+        <v>2.1</v>
+      </c>
+      <c r="T37">
+        <v>1.8</v>
+      </c>
+      <c r="W37">
         <v>4.8</v>
       </c>
-      <c r="R37">
-        <v>4.8</v>
-      </c>
-      <c r="S37">
-        <v>3.1</v>
-      </c>
-      <c r="T37">
-        <v>2.6</v>
-      </c>
-      <c r="U37">
-        <v>2.5</v>
-      </c>
-      <c r="V37">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W37">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="X37">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="Y37">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Z37">
-        <v>3.9</v>
-      </c>
-      <c r="AA37">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E38">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G38">
         <v>0.125</v>
@@ -9650,237 +9671,255 @@
         <v>0.125</v>
       </c>
       <c r="I38">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="J38">
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="K38">
-        <v>0.125</v>
+        <v>1.375</v>
       </c>
       <c r="L38">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="M38">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="N38">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P38" s="3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>4.8</v>
       </c>
       <c r="R38">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="S38">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T38">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="U38">
         <v>2.5</v>
       </c>
       <c r="V38">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W38">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X38">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y38">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z38">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="AA38">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>1.7</v>
+      </c>
+      <c r="C39">
+        <v>1.9</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2.1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
       </c>
       <c r="G39">
         <v>0.125</v>
       </c>
+      <c r="H39">
+        <v>0.125</v>
+      </c>
+      <c r="I39">
+        <v>0.125</v>
+      </c>
+      <c r="J39">
+        <v>0.125</v>
+      </c>
+      <c r="K39">
+        <v>0.125</v>
+      </c>
       <c r="L39">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="M39">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="N39">
-        <v>4.2</v>
+        <v>4.5</v>
+      </c>
+      <c r="O39">
+        <v>3.2</v>
+      </c>
+      <c r="P39" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q39">
+        <v>4.8</v>
+      </c>
+      <c r="R39">
+        <v>4.5</v>
+      </c>
+      <c r="S39">
+        <v>2.8</v>
+      </c>
+      <c r="T39">
+        <v>2.7</v>
+      </c>
+      <c r="U39">
+        <v>2.5</v>
+      </c>
+      <c r="V39">
+        <v>2.2000000000000002</v>
       </c>
       <c r="W39">
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
+      </c>
+      <c r="X39">
+        <v>4.7</v>
+      </c>
+      <c r="Y39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA39">
+        <v>3.8</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G40">
+        <v>0.125</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>7.8</v>
+      </c>
+      <c r="N40">
+        <v>4.2</v>
+      </c>
+      <c r="W40">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41">
-        <v>0.125</v>
-      </c>
-      <c r="H41">
-        <v>0.125</v>
-      </c>
-      <c r="I41">
-        <v>0.375</v>
-      </c>
-      <c r="J41">
-        <v>0.625</v>
-      </c>
-      <c r="K41">
-        <v>0.875</v>
-      </c>
-      <c r="L41">
-        <v>9.5</v>
-      </c>
-      <c r="M41">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N41">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O41">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P41">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q41">
-        <v>5.3</v>
-      </c>
-      <c r="R41">
-        <v>5.3</v>
-      </c>
-      <c r="S41">
-        <v>3.3</v>
-      </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>2</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>4.5</v>
-      </c>
-      <c r="X41">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Y41">
-        <v>3.8</v>
-      </c>
-      <c r="Z41">
-        <v>3.6</v>
-      </c>
-      <c r="AA41">
-        <v>3.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="G42">
+        <v>0.125</v>
+      </c>
+      <c r="H42">
+        <v>0.125</v>
+      </c>
+      <c r="I42">
+        <v>0.375</v>
+      </c>
+      <c r="J42">
+        <v>0.625</v>
+      </c>
+      <c r="K42">
+        <v>0.875</v>
+      </c>
+      <c r="L42">
+        <v>9.5</v>
+      </c>
+      <c r="M42">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q42">
+        <v>5.3</v>
+      </c>
+      <c r="R42">
+        <v>5.3</v>
+      </c>
+      <c r="S42">
+        <v>3.3</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>4.5</v>
+      </c>
+      <c r="X42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y42">
+        <v>3.8</v>
+      </c>
+      <c r="Z42">
+        <v>3.6</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>1.9</v>
-      </c>
-      <c r="G44">
-        <v>0.125</v>
-      </c>
-      <c r="H44">
-        <v>0.125</v>
-      </c>
-      <c r="I44">
-        <v>0.125</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-      <c r="M44">
-        <v>9</v>
-      </c>
-      <c r="N44">
-        <v>5</v>
-      </c>
-      <c r="O44">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q44">
-        <v>4.7</v>
-      </c>
-      <c r="R44">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="S44">
-        <v>2.6</v>
-      </c>
-      <c r="T44">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W44">
-        <v>4.2</v>
-      </c>
-      <c r="X44">
-        <v>3.9</v>
-      </c>
-      <c r="Y44">
-        <v>3.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>1.6</v>
-      </c>
-      <c r="C45">
-        <v>1.8</v>
-      </c>
-      <c r="D45">
-        <v>2.15</v>
-      </c>
-      <c r="E45">
-        <v>2.8</v>
-      </c>
-      <c r="F45">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="G45">
         <v>0.125</v>
@@ -9889,141 +9928,123 @@
         <v>0.125</v>
       </c>
       <c r="I45">
-        <v>0.375</v>
-      </c>
-      <c r="J45">
-        <v>0.875</v>
-      </c>
-      <c r="K45">
-        <v>1.375</v>
+        <v>0.125</v>
       </c>
       <c r="L45">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="M45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N45">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P45" s="3">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="Q45">
+        <v>4.7</v>
+      </c>
+      <c r="R45">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R45">
-        <v>5</v>
-      </c>
       <c r="S45">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="T45">
-        <v>3.1</v>
-      </c>
-      <c r="U45">
-        <v>2.9</v>
-      </c>
-      <c r="V45">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W45">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="X45">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="Y45">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Z45">
-        <v>3.9</v>
-      </c>
-      <c r="AA45">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>2.0099999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="C46">
-        <v>2.29</v>
+        <v>1.8</v>
       </c>
       <c r="D46">
-        <v>2.39</v>
+        <v>2.15</v>
       </c>
       <c r="E46">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="F46">
-        <v>2.91</v>
+        <v>3.4</v>
       </c>
       <c r="G46">
         <v>0.125</v>
       </c>
       <c r="H46">
+        <v>0.125</v>
+      </c>
+      <c r="I46">
         <v>0.375</v>
       </c>
-      <c r="I46">
-        <v>0.625</v>
-      </c>
       <c r="J46">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="K46">
         <v>1.375</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>6.8</v>
+      </c>
+      <c r="O46">
+        <v>4.5</v>
+      </c>
+      <c r="P46" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Q46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R46">
         <v>5</v>
       </c>
-      <c r="N46">
-        <v>4.5</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q46">
-        <v>4.3</v>
-      </c>
-      <c r="R46">
-        <v>3.8</v>
-      </c>
       <c r="S46">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="T46">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="U46">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="V46">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="W46">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X46">
         <v>4.4000000000000004</v>
       </c>
       <c r="Y46">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z46">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AA46">
         <v>3.8</v>
@@ -10031,186 +10052,192 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>1.78</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C47">
-        <v>2.0499999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="D47">
+        <v>2.39</v>
+      </c>
+      <c r="E47">
+        <v>2.68</v>
+      </c>
+      <c r="F47">
+        <v>2.91</v>
+      </c>
+      <c r="G47">
+        <v>0.125</v>
+      </c>
+      <c r="H47">
+        <v>0.375</v>
+      </c>
+      <c r="I47">
+        <v>0.625</v>
+      </c>
+      <c r="J47">
+        <v>1.125</v>
+      </c>
+      <c r="K47">
+        <v>1.375</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>4.5</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>4.3</v>
+      </c>
+      <c r="R47">
+        <v>3.8</v>
+      </c>
+      <c r="S47">
+        <v>2.5</v>
+      </c>
+      <c r="T47">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E47">
-        <v>2.4</v>
-      </c>
-      <c r="F47">
-        <v>2.5</v>
-      </c>
-      <c r="G47">
-        <v>0.125</v>
-      </c>
-      <c r="H47">
-        <v>0.125</v>
-      </c>
-      <c r="I47">
-        <v>0.375</v>
-      </c>
-      <c r="J47">
-        <v>0.625</v>
-      </c>
-      <c r="K47">
-        <v>0.875</v>
-      </c>
-      <c r="L47">
-        <v>6.8</v>
-      </c>
-      <c r="M47">
-        <v>5.3</v>
-      </c>
-      <c r="N47">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O47">
-        <v>3.3</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="Q47">
-        <v>4.2</v>
-      </c>
-      <c r="R47">
-        <v>4.3</v>
-      </c>
-      <c r="S47">
-        <v>3.2</v>
-      </c>
-      <c r="T47">
-        <v>2.5</v>
-      </c>
       <c r="U47">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V47">
         <v>2.2999999999999998</v>
       </c>
       <c r="W47">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X47">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y47">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="Z47">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="AA47">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>1.78</v>
+      </c>
+      <c r="C48">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E48">
+        <v>2.4</v>
+      </c>
+      <c r="F48">
+        <v>2.5</v>
+      </c>
+      <c r="G48">
+        <v>0.125</v>
+      </c>
+      <c r="H48">
+        <v>0.125</v>
+      </c>
+      <c r="I48">
+        <v>0.375</v>
+      </c>
+      <c r="J48">
+        <v>0.625</v>
+      </c>
+      <c r="K48">
+        <v>0.875</v>
+      </c>
+      <c r="L48">
+        <v>6.8</v>
+      </c>
+      <c r="M48">
+        <v>5.3</v>
+      </c>
+      <c r="N48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O48">
+        <v>3.3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q48">
+        <v>4.2</v>
+      </c>
+      <c r="R48">
+        <v>4.3</v>
+      </c>
+      <c r="S48">
+        <v>3.2</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>2.4</v>
+      </c>
+      <c r="V48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W48">
+        <v>5.5</v>
+      </c>
+      <c r="X48">
+        <v>5</v>
+      </c>
+      <c r="Y48">
+        <v>4.7</v>
+      </c>
+      <c r="Z48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA48">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>1.6</v>
-      </c>
-      <c r="C49">
-        <v>1.8</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F49">
-        <v>2.4</v>
-      </c>
-      <c r="G49">
-        <v>0.125</v>
-      </c>
-      <c r="H49">
-        <v>0.125</v>
-      </c>
-      <c r="I49">
-        <v>0.375</v>
-      </c>
-      <c r="J49">
-        <v>0.375</v>
-      </c>
-      <c r="K49">
-        <v>0.625</v>
-      </c>
-      <c r="L49">
-        <v>8</v>
-      </c>
-      <c r="M49">
-        <v>7.6</v>
-      </c>
-      <c r="N49">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O49">
-        <v>3.8</v>
-      </c>
-      <c r="P49" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="Q49">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R49">
-        <v>4</v>
-      </c>
-      <c r="S49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T49">
-        <v>2.1</v>
-      </c>
-      <c r="U49">
-        <v>2.1</v>
-      </c>
-      <c r="V49">
-        <v>2.1</v>
-      </c>
-      <c r="W49">
-        <v>4.8</v>
-      </c>
-      <c r="X49">
-        <v>4.2</v>
-      </c>
-      <c r="Y49">
-        <v>3.7</v>
-      </c>
-      <c r="Z49">
-        <v>3.6</v>
-      </c>
-      <c r="AA49">
-        <v>3.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="C50">
+        <v>1.8</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>2.4</v>
       </c>
       <c r="G50">
@@ -10220,63 +10247,75 @@
         <v>0.125</v>
       </c>
       <c r="I50">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="J50">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K50">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="L50">
         <v>8</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="N50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O50">
+        <v>3.8</v>
+      </c>
+      <c r="P50" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R50">
         <v>4</v>
       </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q50">
-        <v>5</v>
-      </c>
-      <c r="R50">
-        <v>3.9</v>
-      </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T50">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
+      </c>
+      <c r="U50">
+        <v>2.1</v>
+      </c>
+      <c r="V50">
+        <v>2.1</v>
       </c>
       <c r="W50">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="X50">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="Y50">
-        <v>4.2</v>
+        <v>3.7</v>
+      </c>
+      <c r="Z50">
+        <v>3.6</v>
+      </c>
+      <c r="AA50">
+        <v>3.5</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>1.45</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D51">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="G51">
         <v>0.125</v>
@@ -10287,49 +10326,61 @@
       <c r="I51">
         <v>0.125</v>
       </c>
+      <c r="J51">
+        <v>0.125</v>
+      </c>
+      <c r="K51">
+        <v>0.375</v>
+      </c>
       <c r="L51">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q51">
         <v>5</v>
       </c>
-      <c r="N51">
-        <v>4.5</v>
-      </c>
-      <c r="O51">
-        <v>3.7</v>
-      </c>
-      <c r="P51" s="3">
-        <v>3.1</v>
+      <c r="R51">
+        <v>3.9</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
+        <v>2.2999999999999998</v>
       </c>
       <c r="W51">
-        <v>5.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X51">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y51">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="C52">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F52">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="G52">
         <v>0.125</v>
@@ -10340,79 +10391,49 @@
       <c r="I52">
         <v>0.125</v>
       </c>
-      <c r="J52">
-        <v>0.375</v>
-      </c>
-      <c r="K52">
-        <v>0.625</v>
-      </c>
       <c r="L52">
-        <v>9.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M52">
-        <v>8.3000000000000007</v>
+        <v>5</v>
       </c>
       <c r="N52">
+        <v>4.5</v>
+      </c>
+      <c r="O52">
+        <v>3.7</v>
+      </c>
+      <c r="P52" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="W52">
+        <v>5.4</v>
+      </c>
+      <c r="X52">
+        <v>5.2</v>
+      </c>
+      <c r="Y52">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="O52">
-        <v>3.3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="Q52">
-        <v>4.8</v>
-      </c>
-      <c r="R52">
-        <v>4.8</v>
-      </c>
-      <c r="S52">
-        <v>3.1</v>
-      </c>
-      <c r="T52">
-        <v>2.7</v>
-      </c>
-      <c r="U52">
-        <v>2.5</v>
-      </c>
-      <c r="V52">
-        <v>2.5</v>
-      </c>
-      <c r="W52">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X52">
-        <v>4.3</v>
-      </c>
-      <c r="Y52">
-        <v>3.9</v>
-      </c>
-      <c r="Z52">
-        <v>3.5</v>
-      </c>
-      <c r="AA52">
-        <v>3.5</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="C53">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="D53">
-        <v>2.0699999999999998</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>2.16</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F53">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G53">
         <v>0.125</v>
@@ -10424,52 +10445,52 @@
         <v>0.125</v>
       </c>
       <c r="J53">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K53">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="L53">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="M53">
-        <v>7.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N53">
-        <v>8.1999999999999993</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P53" s="3">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q53">
         <v>4.8</v>
       </c>
       <c r="R53">
+        <v>4.8</v>
+      </c>
+      <c r="S53">
+        <v>3.1</v>
+      </c>
+      <c r="T53">
+        <v>2.7</v>
+      </c>
+      <c r="U53">
+        <v>2.5</v>
+      </c>
+      <c r="V53">
+        <v>2.5</v>
+      </c>
+      <c r="W53">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X53">
+        <v>4.3</v>
+      </c>
+      <c r="Y53">
         <v>3.9</v>
-      </c>
-      <c r="S53">
-        <v>1.8</v>
-      </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>2.1</v>
-      </c>
-      <c r="V53">
-        <v>2.1</v>
-      </c>
-      <c r="W53">
-        <v>4.8</v>
-      </c>
-      <c r="X53">
-        <v>4.2</v>
-      </c>
-      <c r="Y53">
-        <v>3.7</v>
       </c>
       <c r="Z53">
         <v>3.5</v>
@@ -10480,82 +10501,82 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="C54">
+        <v>1.89</v>
+      </c>
+      <c r="D54">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E54">
+        <v>2.16</v>
+      </c>
+      <c r="F54">
+        <v>2.25</v>
+      </c>
+      <c r="G54">
+        <v>0.125</v>
+      </c>
+      <c r="H54">
+        <v>0.125</v>
+      </c>
+      <c r="I54">
+        <v>0.125</v>
+      </c>
+      <c r="J54">
+        <v>0.125</v>
+      </c>
+      <c r="K54">
+        <v>0.375</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+      <c r="M54">
+        <v>7.5</v>
+      </c>
+      <c r="N54">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O54">
+        <v>3.8</v>
+      </c>
+      <c r="P54" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="Q54">
+        <v>4.8</v>
+      </c>
+      <c r="R54">
+        <v>3.9</v>
+      </c>
+      <c r="S54">
+        <v>1.8</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
         <v>2.1</v>
       </c>
-      <c r="D54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E54">
-        <v>2.4</v>
-      </c>
-      <c r="F54">
-        <v>2.6</v>
-      </c>
-      <c r="G54">
-        <v>0.125</v>
-      </c>
-      <c r="H54">
-        <v>0.125</v>
-      </c>
-      <c r="I54">
-        <v>0.375</v>
-      </c>
-      <c r="J54">
-        <v>0.625</v>
-      </c>
-      <c r="K54">
-        <v>0.625</v>
-      </c>
-      <c r="L54">
-        <v>8.5</v>
-      </c>
-      <c r="M54">
+      <c r="V54">
+        <v>2.1</v>
+      </c>
+      <c r="W54">
+        <v>4.8</v>
+      </c>
+      <c r="X54">
         <v>4.2</v>
       </c>
-      <c r="N54">
-        <v>5.5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Q54">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="R54">
-        <v>4.8</v>
-      </c>
-      <c r="S54">
-        <v>2.7</v>
-      </c>
-      <c r="T54">
-        <v>2.4</v>
-      </c>
-      <c r="U54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V54">
-        <v>2</v>
-      </c>
-      <c r="W54">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="X54">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="Y54">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="Z54">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA54">
         <v>3.5</v>
@@ -10563,22 +10584,22 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="C55">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E55">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="F55">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="G55">
         <v>0.125</v>
@@ -10593,49 +10614,49 @@
         <v>0.625</v>
       </c>
       <c r="K55">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="L55">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M55">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="N55">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55" s="3">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R55">
         <v>4.8</v>
       </c>
-      <c r="R55">
-        <v>4.5</v>
-      </c>
       <c r="S55">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="T55">
         <v>2.4</v>
       </c>
       <c r="U55">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V55">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X55">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y55">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z55">
         <v>3.8</v>
@@ -10646,22 +10667,22 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="C56">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="D56">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="F56">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="G56">
         <v>0.125</v>
@@ -10670,235 +10691,235 @@
         <v>0.125</v>
       </c>
       <c r="I56">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="J56">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="K56">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="L56">
-        <v>10.4</v>
+        <v>8.4</v>
       </c>
       <c r="M56">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="N56">
+        <v>7.8</v>
+      </c>
+      <c r="O56">
+        <v>4.2</v>
+      </c>
+      <c r="P56" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="Q56">
+        <v>4.8</v>
+      </c>
+      <c r="R56">
         <v>4.5</v>
       </c>
-      <c r="O56">
+      <c r="S56">
+        <v>2.4</v>
+      </c>
+      <c r="T56">
+        <v>2.4</v>
+      </c>
+      <c r="U56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W56">
+        <v>5.2</v>
+      </c>
+      <c r="X56">
         <v>4.8</v>
       </c>
-      <c r="P56" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="Q56">
-        <v>3</v>
-      </c>
-      <c r="R56">
-        <v>4.2</v>
-      </c>
-      <c r="S56">
-        <v>4.5</v>
-      </c>
-      <c r="T56">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U56">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="V56">
-        <v>4.2</v>
-      </c>
-      <c r="W56">
-        <v>5.8</v>
-      </c>
-      <c r="X56">
-        <v>5.7</v>
-      </c>
       <c r="Y56">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="Z56">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="AA56">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="C57">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D57">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="E57">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="G57">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="H57">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="I57">
-        <v>0.82499999999999996</v>
+        <v>0.125</v>
       </c>
       <c r="J57">
-        <v>0.82499999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="K57">
-        <v>0.82499999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="L57">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="M57">
-        <v>4.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N57">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="P57" s="3">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q57">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R57">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="T57">
-        <v>1.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V57">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="W57">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="X57">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y57">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z57">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AA57">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>2.25</v>
+        <v>1.26</v>
+      </c>
+      <c r="C58">
+        <v>1.5</v>
+      </c>
+      <c r="D58">
+        <v>1.64</v>
+      </c>
+      <c r="E58">
+        <v>1.73</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="H58">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="I58">
-        <v>0.125</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="J58">
-        <v>0.125</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="K58">
-        <v>0.375</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="L58">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="N58">
-        <v>5.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O58">
+        <v>3.1</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="Q58">
+        <v>2.8</v>
+      </c>
+      <c r="R58">
+        <v>2.4</v>
+      </c>
+      <c r="S58">
+        <v>1.8</v>
+      </c>
+      <c r="T58">
+        <v>1.6</v>
+      </c>
+      <c r="U58">
+        <v>1.8</v>
+      </c>
+      <c r="V58">
+        <v>1.6</v>
+      </c>
+      <c r="W58">
         <v>3.9</v>
       </c>
-      <c r="P58" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q58">
-        <v>4.7</v>
-      </c>
-      <c r="R58">
-        <v>4.5</v>
-      </c>
-      <c r="S58">
-        <v>2.5</v>
-      </c>
-      <c r="T58">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U58">
-        <v>2.5</v>
-      </c>
-      <c r="V58">
-        <v>2.4</v>
-      </c>
-      <c r="W58">
-        <v>4.3</v>
-      </c>
       <c r="X58">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Y58">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Z58">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AA58">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>2.5</v>
-      </c>
-      <c r="D59">
-        <v>2.5</v>
-      </c>
-      <c r="E59">
-        <v>2.75</v>
-      </c>
-      <c r="F59">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="G59">
         <v>0.125</v>
@@ -10907,545 +10928,575 @@
         <v>0.125</v>
       </c>
       <c r="I59">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="J59">
-        <v>0.875</v>
+        <v>0.125</v>
       </c>
       <c r="K59">
-        <v>1.125</v>
+        <v>0.375</v>
       </c>
       <c r="L59">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="M59">
         <v>8</v>
       </c>
       <c r="N59">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="P59" s="3">
         <v>3</v>
       </c>
       <c r="Q59">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="R59">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U59">
         <v>2.5</v>
       </c>
       <c r="V59">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="W59">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="X59">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y59">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Z59">
         <v>3.5</v>
       </c>
       <c r="AA59">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>2.0699999999999998</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="D60">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="E60">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="F60">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="G60">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="H60">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="I60">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="J60">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="K60">
-        <v>1.1299999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="L60">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="M60">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="N60">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R60">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U60">
+        <v>2.5</v>
+      </c>
+      <c r="V60">
+        <v>2.5</v>
+      </c>
+      <c r="W60">
         <v>4.5</v>
       </c>
-      <c r="Q60">
-        <v>3.7</v>
-      </c>
-      <c r="R60">
-        <v>3.2</v>
-      </c>
-      <c r="S60">
-        <v>3</v>
-      </c>
-      <c r="T60">
-        <v>2.8</v>
-      </c>
-      <c r="U60">
-        <v>3.2</v>
-      </c>
-      <c r="V60">
-        <v>3.5</v>
-      </c>
-      <c r="W60">
-        <v>5.5</v>
-      </c>
       <c r="X60">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="Y60">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Z60">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA60">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>1.83</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C61">
-        <v>1.78</v>
+        <v>2.35</v>
       </c>
       <c r="D61">
-        <v>1.82</v>
+        <v>2.7</v>
       </c>
       <c r="E61">
-        <v>1.9</v>
+        <v>3.03</v>
       </c>
       <c r="F61">
-        <v>2.0499999999999998</v>
+        <v>3.25</v>
       </c>
       <c r="G61">
-        <v>0.625</v>
+        <v>0.13</v>
       </c>
       <c r="H61">
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
       <c r="I61">
-        <v>1.125</v>
+        <v>0.63</v>
       </c>
       <c r="J61">
-        <v>1.375</v>
+        <v>0.87</v>
       </c>
       <c r="K61">
-        <v>1.625</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L61">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M61">
+        <v>6.8</v>
+      </c>
+      <c r="N61">
+        <v>6.1</v>
+      </c>
+      <c r="O61">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P61" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="Q61">
+        <v>3.7</v>
+      </c>
+      <c r="R61">
+        <v>3.2</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>2.8</v>
+      </c>
+      <c r="U61">
+        <v>3.2</v>
+      </c>
+      <c r="V61">
+        <v>3.5</v>
+      </c>
+      <c r="W61">
+        <v>5.5</v>
+      </c>
+      <c r="X61">
         <v>5.2</v>
       </c>
-      <c r="N61">
-        <v>4.2</v>
-      </c>
-      <c r="O61">
-        <v>3.8</v>
-      </c>
-      <c r="P61" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="Q61">
+      <c r="Y61">
+        <v>5</v>
+      </c>
+      <c r="Z61">
         <v>4.8</v>
       </c>
-      <c r="R61">
-        <v>3.6</v>
-      </c>
-      <c r="S61">
-        <v>2.5</v>
-      </c>
-      <c r="T61">
-        <v>1.9</v>
-      </c>
-      <c r="U61">
-        <v>1.8</v>
-      </c>
-      <c r="V61">
-        <v>1.7</v>
-      </c>
-      <c r="W61">
-        <v>5.2</v>
-      </c>
-      <c r="X61">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Y61">
-        <v>4.2</v>
-      </c>
-      <c r="Z61">
-        <v>3.7</v>
-      </c>
       <c r="AA61">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>1.83</v>
+      </c>
+      <c r="C62">
+        <v>1.78</v>
+      </c>
+      <c r="D62">
+        <v>1.82</v>
+      </c>
+      <c r="E62">
+        <v>1.9</v>
+      </c>
+      <c r="F62">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G62">
+        <v>0.625</v>
+      </c>
+      <c r="H62">
+        <v>0.875</v>
+      </c>
+      <c r="I62">
+        <v>1.125</v>
+      </c>
+      <c r="J62">
+        <v>1.375</v>
+      </c>
+      <c r="K62">
+        <v>1.625</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>5.2</v>
+      </c>
+      <c r="N62">
+        <v>4.2</v>
+      </c>
+      <c r="O62">
+        <v>3.8</v>
+      </c>
+      <c r="P62" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="Q62">
+        <v>4.8</v>
+      </c>
+      <c r="R62">
+        <v>3.6</v>
+      </c>
+      <c r="S62">
+        <v>2.5</v>
+      </c>
+      <c r="T62">
+        <v>1.9</v>
+      </c>
+      <c r="U62">
+        <v>1.8</v>
+      </c>
+      <c r="V62">
+        <v>1.7</v>
+      </c>
+      <c r="W62">
+        <v>5.2</v>
+      </c>
+      <c r="X62">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y62">
+        <v>4.2</v>
+      </c>
+      <c r="Z62">
+        <v>3.7</v>
+      </c>
+      <c r="AA62">
+        <v>3.2</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>1.55</v>
-      </c>
-      <c r="C63">
-        <v>1.6</v>
-      </c>
-      <c r="D63">
-        <v>1.65</v>
-      </c>
-      <c r="E63">
-        <v>1.7</v>
-      </c>
-      <c r="F63">
-        <v>1.75</v>
-      </c>
-      <c r="G63">
-        <v>0.125</v>
-      </c>
-      <c r="H63">
-        <v>0.125</v>
-      </c>
-      <c r="I63">
-        <v>0.375</v>
-      </c>
-      <c r="J63">
-        <v>0.875</v>
-      </c>
-      <c r="K63">
-        <v>1.125</v>
-      </c>
-      <c r="L63">
-        <v>11</v>
-      </c>
-      <c r="M63">
-        <v>8.5</v>
-      </c>
-      <c r="N63">
-        <v>8</v>
-      </c>
-      <c r="O63">
-        <v>7</v>
-      </c>
-      <c r="P63" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q63">
-        <v>4.5</v>
-      </c>
-      <c r="R63">
-        <v>4.5</v>
-      </c>
-      <c r="S63">
-        <v>4</v>
-      </c>
-      <c r="T63">
-        <v>4</v>
-      </c>
-      <c r="U63">
-        <v>3.5</v>
-      </c>
-      <c r="V63">
-        <v>3.5</v>
-      </c>
-      <c r="W63">
-        <v>4.7</v>
-      </c>
-      <c r="X63">
-        <v>4.3</v>
-      </c>
-      <c r="Y63">
-        <v>4.2</v>
-      </c>
-      <c r="Z63">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AA63">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="C64">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="D64">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="E64">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="F64">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="G64">
         <v>0.125</v>
       </c>
       <c r="H64">
+        <v>0.125</v>
+      </c>
+      <c r="I64">
         <v>0.375</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.875</v>
       </c>
-      <c r="J64">
-        <v>1.375</v>
-      </c>
       <c r="K64">
-        <v>1.875</v>
+        <v>1.125</v>
       </c>
       <c r="L64">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="M64">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="N64">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="O64">
+        <v>7</v>
+      </c>
+      <c r="P64" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>4.5</v>
+      </c>
+      <c r="R64">
+        <v>4.5</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>4</v>
+      </c>
+      <c r="U64">
+        <v>3.5</v>
+      </c>
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>4.7</v>
+      </c>
+      <c r="X64">
+        <v>4.3</v>
+      </c>
+      <c r="Y64">
         <v>4.2</v>
       </c>
-      <c r="P64" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="Q64">
-        <v>5</v>
-      </c>
-      <c r="R64">
-        <v>4.7</v>
-      </c>
-      <c r="S64">
-        <v>2.9</v>
-      </c>
-      <c r="T64">
-        <v>2.8</v>
-      </c>
-      <c r="U64">
-        <v>2.8</v>
-      </c>
-      <c r="V64">
-        <v>2.9</v>
-      </c>
-      <c r="W64">
-        <v>4.2</v>
-      </c>
-      <c r="X64">
-        <v>3.7</v>
-      </c>
-      <c r="Y64">
-        <v>3.4</v>
-      </c>
       <c r="Z64">
-        <v>3.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA64">
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D65">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="E65">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="F65">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="G65">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="H65">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="I65">
-        <v>0.65</v>
+        <v>0.875</v>
       </c>
       <c r="J65">
-        <v>1.35</v>
+        <v>1.375</v>
       </c>
       <c r="K65">
-        <v>1.35</v>
+        <v>1.875</v>
       </c>
       <c r="L65">
-        <v>6.3</v>
+        <v>10.9</v>
       </c>
       <c r="M65">
-        <v>4.9000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="N65">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="O65">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="P65" s="3">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q65">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="R65">
+        <v>4.7</v>
+      </c>
+      <c r="S65">
+        <v>2.9</v>
+      </c>
+      <c r="T65">
+        <v>2.8</v>
+      </c>
+      <c r="U65">
+        <v>2.8</v>
+      </c>
+      <c r="V65">
+        <v>2.9</v>
+      </c>
+      <c r="W65">
+        <v>4.2</v>
+      </c>
+      <c r="X65">
         <v>3.7</v>
       </c>
-      <c r="S65">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T65">
-        <v>3</v>
-      </c>
-      <c r="U65">
-        <v>3.5</v>
-      </c>
-      <c r="V65">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W65">
-        <v>5.5</v>
-      </c>
-      <c r="X65">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="Y65">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="Z65">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="AA65">
-        <v>4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
         <v>2.1</v>
       </c>
+      <c r="E66">
+        <v>2.4</v>
+      </c>
+      <c r="F66">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="G66">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="H66">
-        <v>0.125</v>
+        <v>0.35</v>
       </c>
       <c r="I66">
-        <v>0.125</v>
+        <v>0.65</v>
+      </c>
+      <c r="J66">
+        <v>1.35</v>
+      </c>
+      <c r="K66">
+        <v>1.35</v>
       </c>
       <c r="L66">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="M66">
-        <v>8.3000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N66">
+        <v>3.5</v>
+      </c>
+      <c r="O66">
+        <v>2.6</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q66">
+        <v>4.3</v>
+      </c>
+      <c r="R66">
+        <v>3.7</v>
+      </c>
+      <c r="S66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T66">
         <v>3</v>
       </c>
-      <c r="O66">
-        <v>3.5</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q66">
-        <v>4.7</v>
-      </c>
-      <c r="R66">
-        <v>4.7</v>
-      </c>
-      <c r="S66">
-        <v>2.9</v>
-      </c>
-      <c r="T66">
-        <v>2.2999999999999998</v>
+      <c r="U66">
+        <v>3.5</v>
+      </c>
+      <c r="V66">
+        <v>2.2000000000000002</v>
       </c>
       <c r="W66">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="X66">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y66">
+        <v>4.8</v>
+      </c>
+      <c r="Z66">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y66">
-        <v>4.0999999999999996</v>
+      <c r="AA66">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>1.95</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G67">
         <v>0.125</v>
@@ -11456,150 +11507,120 @@
       <c r="I67">
         <v>0.125</v>
       </c>
-      <c r="J67">
-        <v>0.125</v>
-      </c>
-      <c r="K67">
-        <v>0.67500000000000004</v>
-      </c>
       <c r="L67">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="M67">
-        <v>9.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N67">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
-      </c>
-      <c r="P67">
+        <v>3.5</v>
+      </c>
+      <c r="P67" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>4.7</v>
+      </c>
+      <c r="R67">
+        <v>4.7</v>
+      </c>
+      <c r="S67">
         <v>2.9</v>
       </c>
-      <c r="Q67">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R67">
-        <v>3.9</v>
-      </c>
-      <c r="S67">
-        <v>2.1</v>
-      </c>
       <c r="T67">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W67">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X67">
         <v>4.4000000000000004</v>
       </c>
       <c r="Y67">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68">
-        <v>1.85</v>
+        <v>72</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
-      <c r="D68">
+      <c r="G68">
+        <v>0.125</v>
+      </c>
+      <c r="H68">
+        <v>0.125</v>
+      </c>
+      <c r="I68">
+        <v>0.125</v>
+      </c>
+      <c r="J68">
+        <v>0.125</v>
+      </c>
+      <c r="K68">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L68">
+        <v>8.1</v>
+      </c>
+      <c r="M68">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N68">
+        <v>5.8</v>
+      </c>
+      <c r="O68">
+        <v>3.8</v>
+      </c>
+      <c r="P68">
+        <v>2.9</v>
+      </c>
+      <c r="Q68">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R68">
+        <v>3.9</v>
+      </c>
+      <c r="S68">
         <v>2.1</v>
       </c>
-      <c r="E68">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F68">
-        <v>2.25</v>
-      </c>
-      <c r="G68">
-        <v>0.125</v>
-      </c>
-      <c r="H68">
-        <v>0.125</v>
-      </c>
-      <c r="I68">
-        <v>0.125</v>
-      </c>
-      <c r="J68">
-        <v>0.125</v>
-      </c>
-      <c r="K68">
-        <v>0.375</v>
-      </c>
-      <c r="L68">
-        <v>9.5</v>
-      </c>
-      <c r="M68">
-        <v>8</v>
-      </c>
-      <c r="N68">
-        <v>6.3</v>
-      </c>
-      <c r="O68">
-        <v>4.5</v>
-      </c>
-      <c r="P68" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-      <c r="R68">
-        <v>5</v>
-      </c>
-      <c r="S68">
-        <v>4</v>
-      </c>
       <c r="T68">
-        <v>3.5</v>
-      </c>
-      <c r="U68">
-        <v>3</v>
-      </c>
-      <c r="V68">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W68">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X68">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y68">
         <v>4</v>
       </c>
-      <c r="Z68">
-        <v>3.8</v>
-      </c>
-      <c r="AA68">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B69">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E69">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="G69">
         <v>0.125</v>
@@ -11611,78 +11632,78 @@
         <v>0.125</v>
       </c>
       <c r="J69">
+        <v>0.125</v>
+      </c>
+      <c r="K69">
         <v>0.375</v>
       </c>
-      <c r="K69">
-        <v>0.625</v>
-      </c>
       <c r="L69">
-        <v>8.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="M69">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="N69">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P69" s="3">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>5</v>
       </c>
       <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69">
         <v>4</v>
       </c>
-      <c r="S69">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="T69">
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="V69">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="W69">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X69">
+        <v>4.5</v>
+      </c>
+      <c r="Y69">
         <v>4</v>
       </c>
-      <c r="Y69">
-        <v>3.5</v>
-      </c>
       <c r="Z69">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AA69">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B70">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="C70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>2.15</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E70">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="F70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="G70">
         <v>0.125</v>
@@ -11700,219 +11721,237 @@
         <v>0.625</v>
       </c>
       <c r="L70">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M70">
         <v>7.9</v>
       </c>
       <c r="N70">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="O70">
+        <v>4.2</v>
+      </c>
+      <c r="P70" s="3">
         <v>3.7</v>
       </c>
-      <c r="P70" s="3">
-        <v>3.2</v>
-      </c>
       <c r="Q70">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="R70">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="S70">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T70">
         <v>2.2000000000000002</v>
       </c>
       <c r="U70">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W70">
         <v>4.7</v>
       </c>
       <c r="X70">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Y70">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z70">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AA70">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="C71">
-        <v>2.5099999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="D71">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="E71">
-        <v>3.43</v>
+        <v>2.25</v>
       </c>
       <c r="F71">
-        <v>3.47</v>
+        <v>2.25</v>
       </c>
       <c r="G71">
         <v>0.125</v>
       </c>
       <c r="H71">
-        <v>0.8</v>
+        <v>0.125</v>
       </c>
       <c r="I71">
-        <v>1.5</v>
+        <v>0.125</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0.375</v>
       </c>
       <c r="K71">
-        <v>2.2999999999999998</v>
+        <v>0.625</v>
       </c>
       <c r="L71">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M71">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="N71">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="P71" s="3">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q71">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R71">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S71">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="T71">
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U71">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="V71">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>4.7</v>
       </c>
       <c r="X71">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="Y71">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="Z71">
         <v>3.8</v>
       </c>
       <c r="AA71">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>1.98</v>
+      </c>
+      <c r="C72">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D72">
+        <v>3.25</v>
+      </c>
+      <c r="E72">
+        <v>3.43</v>
+      </c>
+      <c r="F72">
+        <v>3.47</v>
+      </c>
+      <c r="G72">
+        <v>0.125</v>
+      </c>
+      <c r="H72">
+        <v>0.8</v>
+      </c>
+      <c r="I72">
+        <v>1.5</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L72">
+        <v>7.5</v>
+      </c>
+      <c r="M72">
+        <v>7.1</v>
+      </c>
+      <c r="N72">
+        <v>5.8</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="Q72">
+        <v>4.2</v>
+      </c>
+      <c r="R72">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>3.9</v>
+      </c>
+      <c r="T72">
+        <v>3.7</v>
+      </c>
+      <c r="U72">
+        <v>3.6</v>
+      </c>
+      <c r="V72">
+        <v>3.6</v>
+      </c>
+      <c r="W72">
+        <v>4.7</v>
+      </c>
+      <c r="X72">
+        <v>3.9</v>
+      </c>
+      <c r="Y72">
+        <v>3.7</v>
+      </c>
+      <c r="Z72">
+        <v>3.8</v>
+      </c>
+      <c r="AA72">
+        <v>3.8</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>1.65</v>
-      </c>
-      <c r="C73">
-        <v>1.45</v>
-      </c>
-      <c r="D73">
-        <v>1.35</v>
-      </c>
-      <c r="G73">
-        <v>0.125</v>
-      </c>
-      <c r="H73">
-        <v>0.125</v>
-      </c>
-      <c r="I73">
-        <v>0.125</v>
-      </c>
-      <c r="L73">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M73">
-        <v>6</v>
-      </c>
-      <c r="N73">
-        <v>4</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>2</v>
-      </c>
-      <c r="Q73">
-        <v>5</v>
-      </c>
-      <c r="R73">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="S73">
-        <v>2.4</v>
-      </c>
-      <c r="T73">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W73">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X73">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y73">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>1.65</v>
       </c>
       <c r="C74">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="D74">
-        <v>1.9</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="G74">
         <v>0.125</v>
@@ -11923,225 +11962,213 @@
       <c r="I74">
         <v>0.125</v>
       </c>
-      <c r="J74">
-        <v>0.625</v>
-      </c>
-      <c r="K74">
-        <v>1.125</v>
-      </c>
       <c r="L74">
-        <v>8.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2.9</v>
-      </c>
-      <c r="P74" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
       </c>
       <c r="Q74">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="R74">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="T74">
-        <v>3</v>
-      </c>
-      <c r="U74">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X74">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y74">
-        <v>4.5</v>
-      </c>
-      <c r="Z74">
-        <v>4.3</v>
-      </c>
-      <c r="AA74">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>1.65</v>
+      </c>
+      <c r="C75">
+        <v>1.75</v>
+      </c>
+      <c r="D75">
+        <v>1.9</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>0.125</v>
+      </c>
+      <c r="H75">
+        <v>0.125</v>
+      </c>
+      <c r="I75">
+        <v>0.125</v>
+      </c>
+      <c r="J75">
+        <v>0.625</v>
+      </c>
+      <c r="K75">
+        <v>1.125</v>
+      </c>
+      <c r="L75">
+        <v>8.5</v>
+      </c>
+      <c r="M75">
+        <v>7</v>
+      </c>
+      <c r="N75">
+        <v>6</v>
+      </c>
+      <c r="O75">
+        <v>2.9</v>
+      </c>
+      <c r="P75" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q75">
+        <v>4.7</v>
+      </c>
+      <c r="R75">
+        <v>4.3</v>
+      </c>
+      <c r="S75">
+        <v>3</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>5.2</v>
+      </c>
+      <c r="X75">
+        <v>4.8</v>
+      </c>
+      <c r="Y75">
+        <v>4.5</v>
+      </c>
+      <c r="Z75">
+        <v>4.3</v>
+      </c>
+      <c r="AA75">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>1.5</v>
-      </c>
-      <c r="C76">
-        <v>1.7</v>
-      </c>
-      <c r="D76">
-        <v>1.9</v>
-      </c>
-      <c r="G76">
-        <v>0.125</v>
-      </c>
-      <c r="H76">
-        <v>0.125</v>
-      </c>
-      <c r="I76">
-        <v>0.125</v>
-      </c>
-      <c r="L76">
-        <v>9</v>
-      </c>
-      <c r="M76">
-        <v>5.5</v>
-      </c>
-      <c r="N76">
-        <v>2.5</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q76">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R76">
-        <v>4.2</v>
-      </c>
-      <c r="S76">
-        <v>3.2</v>
-      </c>
-      <c r="T76">
-        <v>3.6</v>
-      </c>
-      <c r="W76">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="X76">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Y76">
-        <v>3.6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>1.5</v>
+      </c>
+      <c r="C77">
+        <v>1.7</v>
+      </c>
+      <c r="D77">
+        <v>1.9</v>
+      </c>
+      <c r="G77">
+        <v>0.125</v>
+      </c>
+      <c r="H77">
+        <v>0.125</v>
+      </c>
+      <c r="I77">
+        <v>0.125</v>
+      </c>
+      <c r="L77">
+        <v>9</v>
+      </c>
+      <c r="M77">
+        <v>5.5</v>
+      </c>
+      <c r="N77">
+        <v>2.5</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R77">
+        <v>4.2</v>
+      </c>
+      <c r="S77">
+        <v>3.2</v>
+      </c>
+      <c r="T77">
+        <v>3.6</v>
+      </c>
+      <c r="W77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X77">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y77">
+        <v>3.6</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <v>1.7</v>
-      </c>
-      <c r="C78">
-        <v>1.9</v>
-      </c>
-      <c r="D78">
-        <v>2.1</v>
-      </c>
-      <c r="E78">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F78">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G78">
-        <v>0.125</v>
-      </c>
-      <c r="H78">
-        <v>0.125</v>
-      </c>
-      <c r="I78">
-        <v>0.125</v>
-      </c>
-      <c r="J78">
-        <v>0.375</v>
-      </c>
-      <c r="K78">
-        <v>0.625</v>
-      </c>
-      <c r="L78">
-        <v>6.8</v>
-      </c>
-      <c r="M78">
-        <v>4.2</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q78">
-        <v>5.3</v>
-      </c>
-      <c r="R78">
-        <v>4.7</v>
-      </c>
-      <c r="S78">
-        <v>3.8</v>
-      </c>
-      <c r="T78">
-        <v>3.5</v>
-      </c>
-      <c r="U78">
-        <v>3.5</v>
-      </c>
-      <c r="V78">
-        <v>3.5</v>
-      </c>
-      <c r="W78">
-        <v>5.7</v>
-      </c>
-      <c r="X78">
-        <v>5.5</v>
-      </c>
-      <c r="Y78">
-        <v>5.5</v>
-      </c>
-      <c r="Z78">
-        <v>5.4</v>
-      </c>
-      <c r="AA78">
-        <v>5.3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C79">
         <v>1.9</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>2.1</v>
+      </c>
+      <c r="E79">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F79">
+        <v>2.2000000000000002</v>
       </c>
       <c r="G79">
         <v>0.125</v>
@@ -12153,128 +12180,122 @@
         <v>0.125</v>
       </c>
       <c r="J79">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K79">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="L79">
-        <v>10.8</v>
+        <v>6.8</v>
       </c>
       <c r="M79">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P79" s="3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="R79">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="T79">
-        <v>2.4</v>
+        <v>3.5</v>
+      </c>
+      <c r="U79">
+        <v>3.5</v>
+      </c>
+      <c r="V79">
+        <v>3.5</v>
       </c>
       <c r="W79">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="X79">
-        <v>4.4000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="Y79">
-        <v>3.8</v>
+        <v>5.5</v>
+      </c>
+      <c r="Z79">
+        <v>5.4</v>
+      </c>
+      <c r="AA79">
+        <v>5.3</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="C80">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="D80">
-        <v>2.11</v>
-      </c>
-      <c r="E80">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F80">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>0.13900000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="H80">
-        <v>0.16700000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="I80">
-        <v>0.27500000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="J80">
-        <v>0.51600000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="K80">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="L80">
-        <v>9.11</v>
+        <v>10.8</v>
       </c>
       <c r="M80">
-        <v>7.01</v>
+        <v>8.4</v>
       </c>
       <c r="N80">
-        <v>5.44</v>
+        <v>6.7</v>
       </c>
       <c r="O80">
-        <v>3.83</v>
-      </c>
-      <c r="P80">
-        <v>3.25</v>
+        <v>3.2</v>
+      </c>
+      <c r="P80" s="3">
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R80">
-        <v>4.1100000000000003</v>
+        <v>4</v>
       </c>
       <c r="S80">
-        <v>2.69</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
-      </c>
-      <c r="U80">
-        <v>2.5</v>
-      </c>
-      <c r="V80">
-        <v>2.4500000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="W80">
-        <v>4.8899999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="X80">
-        <v>4.43</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y80">
-        <v>4.12</v>
-      </c>
-      <c r="Z80">
-        <v>3.96</v>
-      </c>
-      <c r="AA80">
         <v>3.8</v>
       </c>
     </row>
@@ -12285,10 +12306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FFD366-8B81-4911-935D-DDF877FCC355}">
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AI77"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12296,7 +12317,7 @@
     <col min="1" max="1" width="79.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>99</v>
       </c>
@@ -12396,8 +12417,11 @@
       <c r="AH1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -12500,8 +12524,11 @@
       <c r="AH2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -12604,8 +12631,11 @@
       <c r="AH3">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -12685,7 +12715,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -12789,12 +12819,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -12898,7 +12928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -13002,7 +13032,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -13106,7 +13136,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -13186,12 +13216,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -13295,7 +13325,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -13399,7 +13429,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -13494,7 +13524,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -13580,7 +13610,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -18799,10 +18829,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EC6099-6558-47E9-8D3F-494B0DCD210D}">
-  <dimension ref="A1:AD76"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18812,7 +18842,7 @@
     <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -18900,8 +18930,11 @@
       <c r="AD1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -18992,8 +19025,11 @@
       <c r="AD2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -19084,8 +19120,11 @@
       <c r="AD3" s="1">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -19129,7 +19168,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -19221,7 +19260,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -19295,7 +19334,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -19387,7 +19426,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -19479,7 +19518,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -19571,7 +19610,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -19639,7 +19678,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -19731,7 +19770,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -19823,7 +19862,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -19915,7 +19954,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -20004,7 +20043,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -20096,7 +20135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -24701,10 +24740,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E37947-8B93-4E68-9592-51DB3BAA2576}">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24714,7 +24753,7 @@
     <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -24802,8 +24841,11 @@
       <c r="AD1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -24894,8 +24936,11 @@
       <c r="AD2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -24986,8 +25031,11 @@
       <c r="AD3" s="1">
         <v>3.7417777777777781</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -25055,7 +25103,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -25147,12 +25195,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -25244,12 +25292,12 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -25341,7 +25389,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -25409,7 +25457,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -25501,7 +25549,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -25593,7 +25641,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -25685,7 +25733,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -25777,7 +25825,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -25842,7 +25890,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
